--- a/Bench_Work_Tracking_11_18.xlsx
+++ b/Bench_Work_Tracking_11_18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" tabRatio="673" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Mail" sheetId="10" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Initial Assessment'!$A$2:$Q$136</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Training Attendance'!$AE$1:$AE$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Training Attendance'!$A$4:$AI$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Work tracking'!$A$1:$BG$41</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -788,7 +788,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="1117">
   <si>
     <t>#</t>
   </si>
@@ -4351,6 +4351,9 @@
   </si>
   <si>
     <t>Shashikala Thangawelu</t>
+  </si>
+  <si>
+    <t>take support from 3 resources and only one success and he has alocated to the project</t>
   </si>
 </sst>
 </file>
@@ -5902,7 +5905,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="672">
+  <cellXfs count="674">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -6908,6 +6911,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="21" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6942,9 +6948,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6982,6 +6985,18 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7069,12 +7084,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7623,8 +7632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:O23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7651,40 +7660,40 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="594" t="s">
+      <c r="B2" s="596" t="s">
         <v>1020</v>
       </c>
-      <c r="C2" s="595"/>
-      <c r="D2" s="595"/>
-      <c r="E2" s="595"/>
-      <c r="F2" s="595"/>
-      <c r="G2" s="595"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="595"/>
-      <c r="J2" s="595"/>
-      <c r="K2" s="595"/>
-      <c r="L2" s="595"/>
-      <c r="M2" s="595"/>
-      <c r="N2" s="595"/>
-      <c r="O2" s="596"/>
+      <c r="C2" s="597"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="597"/>
+      <c r="F2" s="597"/>
+      <c r="G2" s="597"/>
+      <c r="H2" s="597"/>
+      <c r="I2" s="597"/>
+      <c r="J2" s="597"/>
+      <c r="K2" s="597"/>
+      <c r="L2" s="597"/>
+      <c r="M2" s="597"/>
+      <c r="N2" s="597"/>
+      <c r="O2" s="598"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="605" t="s">
+      <c r="B4" s="607" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="605"/>
-      <c r="D4" s="605"/>
-      <c r="E4" s="605"/>
-      <c r="F4" s="605"/>
-      <c r="G4" s="605"/>
-      <c r="H4" s="605"/>
-      <c r="I4" s="605"/>
-      <c r="J4" s="605"/>
-      <c r="K4" s="605"/>
-      <c r="L4" s="605"/>
-      <c r="M4" s="605"/>
-      <c r="N4" s="605"/>
-      <c r="O4" s="605"/>
+      <c r="C4" s="607"/>
+      <c r="D4" s="607"/>
+      <c r="E4" s="607"/>
+      <c r="F4" s="607"/>
+      <c r="G4" s="607"/>
+      <c r="H4" s="607"/>
+      <c r="I4" s="607"/>
+      <c r="J4" s="607"/>
+      <c r="K4" s="607"/>
+      <c r="L4" s="607"/>
+      <c r="M4" s="607"/>
+      <c r="N4" s="607"/>
+      <c r="O4" s="607"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="60"/>
@@ -7725,22 +7734,22 @@
       <c r="P9" s="61"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="605" t="s">
+      <c r="B11" s="607" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="605"/>
-      <c r="D11" s="605"/>
-      <c r="E11" s="605"/>
-      <c r="F11" s="605"/>
-      <c r="G11" s="605"/>
-      <c r="H11" s="605"/>
-      <c r="I11" s="605"/>
-      <c r="J11" s="605"/>
-      <c r="K11" s="605"/>
-      <c r="L11" s="605"/>
-      <c r="M11" s="605"/>
-      <c r="N11" s="605"/>
-      <c r="O11" s="605"/>
+      <c r="C11" s="607"/>
+      <c r="D11" s="607"/>
+      <c r="E11" s="607"/>
+      <c r="F11" s="607"/>
+      <c r="G11" s="607"/>
+      <c r="H11" s="607"/>
+      <c r="I11" s="607"/>
+      <c r="J11" s="607"/>
+      <c r="K11" s="607"/>
+      <c r="L11" s="607"/>
+      <c r="M11" s="607"/>
+      <c r="N11" s="607"/>
+      <c r="O11" s="607"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="60"/>
@@ -7759,22 +7768,22 @@
       <c r="O12" s="60"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="583" t="s">
+      <c r="B13" s="587" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="584"/>
-      <c r="D13" s="584"/>
-      <c r="E13" s="584"/>
-      <c r="F13" s="584"/>
-      <c r="G13" s="584"/>
-      <c r="H13" s="584"/>
-      <c r="I13" s="584"/>
-      <c r="J13" s="584"/>
-      <c r="K13" s="584"/>
-      <c r="L13" s="584"/>
-      <c r="M13" s="584"/>
-      <c r="N13" s="584"/>
-      <c r="O13" s="585"/>
+      <c r="C13" s="588"/>
+      <c r="D13" s="588"/>
+      <c r="E13" s="588"/>
+      <c r="F13" s="588"/>
+      <c r="G13" s="588"/>
+      <c r="H13" s="588"/>
+      <c r="I13" s="588"/>
+      <c r="J13" s="588"/>
+      <c r="K13" s="588"/>
+      <c r="L13" s="588"/>
+      <c r="M13" s="588"/>
+      <c r="N13" s="588"/>
+      <c r="O13" s="589"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="62"/>
@@ -7794,22 +7803,22 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="62"/>
-      <c r="C15" s="574" t="s">
+      <c r="C15" s="578" t="s">
         <v>219</v>
       </c>
-      <c r="D15" s="575"/>
-      <c r="E15" s="576"/>
+      <c r="D15" s="579"/>
+      <c r="E15" s="580"/>
       <c r="F15" s="68"/>
-      <c r="G15" s="574" t="s">
+      <c r="G15" s="578" t="s">
         <v>222</v>
       </c>
-      <c r="H15" s="575"/>
-      <c r="I15" s="575"/>
-      <c r="J15" s="575"/>
-      <c r="K15" s="575"/>
-      <c r="L15" s="575"/>
-      <c r="M15" s="575"/>
-      <c r="N15" s="576"/>
+      <c r="H15" s="579"/>
+      <c r="I15" s="579"/>
+      <c r="J15" s="579"/>
+      <c r="K15" s="579"/>
+      <c r="L15" s="579"/>
+      <c r="M15" s="579"/>
+      <c r="N15" s="580"/>
       <c r="O15" s="63"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -7845,12 +7854,12 @@
       <c r="I17" s="65">
         <v>52</v>
       </c>
-      <c r="J17" s="578" t="s">
+      <c r="J17" s="582" t="s">
         <v>372</v>
       </c>
-      <c r="K17" s="579"/>
-      <c r="L17" s="579"/>
-      <c r="M17" s="580"/>
+      <c r="K17" s="583"/>
+      <c r="L17" s="583"/>
+      <c r="M17" s="584"/>
       <c r="N17" s="86"/>
       <c r="O17" s="63"/>
     </row>
@@ -7871,10 +7880,10 @@
       <c r="I18" s="66">
         <v>0</v>
       </c>
-      <c r="J18" s="578"/>
-      <c r="K18" s="579"/>
-      <c r="L18" s="579"/>
-      <c r="M18" s="580"/>
+      <c r="J18" s="582"/>
+      <c r="K18" s="583"/>
+      <c r="L18" s="583"/>
+      <c r="M18" s="584"/>
       <c r="N18" s="86"/>
       <c r="O18" s="63"/>
     </row>
@@ -7887,19 +7896,19 @@
         <v>4</v>
       </c>
       <c r="E19" s="85"/>
-      <c r="G19" s="598" t="s">
+      <c r="G19" s="600" t="s">
         <v>225</v>
       </c>
-      <c r="H19" s="599"/>
-      <c r="I19" s="588">
+      <c r="H19" s="601"/>
+      <c r="I19" s="592">
         <v>4</v>
       </c>
-      <c r="J19" s="589" t="s">
+      <c r="J19" s="593" t="s">
         <v>1099</v>
       </c>
-      <c r="K19" s="590"/>
-      <c r="L19" s="590"/>
-      <c r="M19" s="590"/>
+      <c r="K19" s="594"/>
+      <c r="L19" s="594"/>
+      <c r="M19" s="594"/>
       <c r="N19" s="86"/>
       <c r="O19" s="63"/>
     </row>
@@ -7914,13 +7923,13 @@
       </c>
       <c r="E20" s="85"/>
       <c r="F20" s="68"/>
-      <c r="G20" s="598"/>
-      <c r="H20" s="599"/>
-      <c r="I20" s="588"/>
-      <c r="J20" s="590"/>
-      <c r="K20" s="590"/>
-      <c r="L20" s="590"/>
-      <c r="M20" s="590"/>
+      <c r="G20" s="600"/>
+      <c r="H20" s="601"/>
+      <c r="I20" s="592"/>
+      <c r="J20" s="594"/>
+      <c r="K20" s="594"/>
+      <c r="L20" s="594"/>
+      <c r="M20" s="594"/>
       <c r="N20" s="329"/>
       <c r="O20" s="63"/>
     </row>
@@ -7957,22 +7966,22 @@
       <c r="O22" s="63"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="583" t="s">
+      <c r="B23" s="587" t="s">
         <v>226</v>
       </c>
-      <c r="C23" s="584"/>
-      <c r="D23" s="584"/>
-      <c r="E23" s="584"/>
-      <c r="F23" s="584"/>
-      <c r="G23" s="584"/>
-      <c r="H23" s="584"/>
-      <c r="I23" s="584"/>
-      <c r="J23" s="584"/>
-      <c r="K23" s="584"/>
-      <c r="L23" s="584"/>
-      <c r="M23" s="584"/>
-      <c r="N23" s="584"/>
-      <c r="O23" s="585"/>
+      <c r="C23" s="588"/>
+      <c r="D23" s="588"/>
+      <c r="E23" s="588"/>
+      <c r="F23" s="588"/>
+      <c r="G23" s="588"/>
+      <c r="H23" s="588"/>
+      <c r="I23" s="588"/>
+      <c r="J23" s="588"/>
+      <c r="K23" s="588"/>
+      <c r="L23" s="588"/>
+      <c r="M23" s="588"/>
+      <c r="N23" s="588"/>
+      <c r="O23" s="589"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="62"/>
@@ -7992,15 +8001,15 @@
     </row>
     <row r="25" spans="2:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B25" s="62"/>
-      <c r="C25" s="586" t="s">
+      <c r="C25" s="590" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="586"/>
-      <c r="E25" s="587" t="s">
+      <c r="D25" s="590"/>
+      <c r="E25" s="591" t="s">
         <v>632</v>
       </c>
-      <c r="F25" s="587"/>
-      <c r="G25" s="587"/>
+      <c r="F25" s="591"/>
+      <c r="G25" s="591"/>
       <c r="H25" s="69" t="s">
         <v>227</v>
       </c>
@@ -8016,10 +8025,10 @@
       <c r="L25" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="M25" s="600" t="s">
+      <c r="M25" s="602" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="601"/>
+      <c r="N25" s="603"/>
       <c r="O25" s="63"/>
     </row>
     <row r="26" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
@@ -8042,15 +8051,15 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="218"/>
-      <c r="C27" s="577" t="s">
+      <c r="C27" s="581" t="s">
         <v>238</v>
       </c>
-      <c r="D27" s="577"/>
-      <c r="E27" s="597" t="s">
+      <c r="D27" s="581"/>
+      <c r="E27" s="599" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="597"/>
-      <c r="G27" s="597"/>
+      <c r="F27" s="599"/>
+      <c r="G27" s="599"/>
       <c r="H27" s="70">
         <v>15</v>
       </c>
@@ -8066,23 +8075,23 @@
       <c r="L27" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="M27" s="547" t="s">
+      <c r="M27" s="548" t="s">
         <v>608</v>
       </c>
-      <c r="N27" s="548"/>
+      <c r="N27" s="549"/>
       <c r="O27" s="63"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="218"/>
-      <c r="C28" s="577" t="s">
+      <c r="C28" s="581" t="s">
         <v>231</v>
       </c>
-      <c r="D28" s="577"/>
-      <c r="E28" s="597" t="s">
+      <c r="D28" s="581"/>
+      <c r="E28" s="599" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="597"/>
-      <c r="G28" s="597"/>
+      <c r="F28" s="599"/>
+      <c r="G28" s="599"/>
       <c r="H28" s="70">
         <v>3</v>
       </c>
@@ -8098,23 +8107,23 @@
       <c r="L28" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="M28" s="547" t="s">
+      <c r="M28" s="548" t="s">
         <v>608</v>
       </c>
-      <c r="N28" s="548"/>
+      <c r="N28" s="549"/>
       <c r="O28" s="63"/>
     </row>
     <row r="29" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="218"/>
-      <c r="C29" s="577" t="s">
+      <c r="C29" s="581" t="s">
         <v>606</v>
       </c>
-      <c r="D29" s="577"/>
-      <c r="E29" s="597" t="s">
+      <c r="D29" s="581"/>
+      <c r="E29" s="599" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="597"/>
-      <c r="G29" s="597"/>
+      <c r="F29" s="599"/>
+      <c r="G29" s="599"/>
       <c r="H29" s="70">
         <v>8</v>
       </c>
@@ -8130,23 +8139,23 @@
       <c r="L29" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="M29" s="547" t="s">
+      <c r="M29" s="548" t="s">
         <v>608</v>
       </c>
-      <c r="N29" s="548"/>
+      <c r="N29" s="549"/>
       <c r="O29" s="63"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="218"/>
-      <c r="C30" s="602" t="s">
+      <c r="C30" s="604" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="602"/>
-      <c r="E30" s="544" t="s">
+      <c r="D30" s="604"/>
+      <c r="E30" s="545" t="s">
         <v>736</v>
       </c>
-      <c r="F30" s="545"/>
-      <c r="G30" s="545"/>
+      <c r="F30" s="546"/>
+      <c r="G30" s="546"/>
       <c r="H30" s="234">
         <v>26</v>
       </c>
@@ -8162,23 +8171,23 @@
       <c r="L30" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="M30" s="547" t="s">
+      <c r="M30" s="548" t="s">
         <v>814</v>
       </c>
-      <c r="N30" s="548"/>
+      <c r="N30" s="549"/>
       <c r="O30" s="63"/>
     </row>
     <row r="31" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="218"/>
-      <c r="C31" s="603" t="s">
+      <c r="C31" s="605" t="s">
         <v>531</v>
       </c>
-      <c r="D31" s="604"/>
-      <c r="E31" s="544" t="s">
+      <c r="D31" s="606"/>
+      <c r="E31" s="545" t="s">
         <v>532</v>
       </c>
-      <c r="F31" s="545"/>
-      <c r="G31" s="546"/>
+      <c r="F31" s="546"/>
+      <c r="G31" s="547"/>
       <c r="H31" s="331">
         <v>29</v>
       </c>
@@ -8194,23 +8203,23 @@
       <c r="L31" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="M31" s="547" t="s">
+      <c r="M31" s="548" t="s">
         <v>814</v>
       </c>
-      <c r="N31" s="548"/>
+      <c r="N31" s="549"/>
       <c r="O31" s="63"/>
     </row>
     <row r="32" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="218"/>
-      <c r="C32" s="577" t="s">
+      <c r="C32" s="581" t="s">
         <v>452</v>
       </c>
-      <c r="D32" s="577"/>
-      <c r="E32" s="597" t="s">
+      <c r="D32" s="581"/>
+      <c r="E32" s="599" t="s">
         <v>371</v>
       </c>
-      <c r="F32" s="597"/>
-      <c r="G32" s="597"/>
+      <c r="F32" s="599"/>
+      <c r="G32" s="599"/>
       <c r="H32" s="70">
         <v>5</v>
       </c>
@@ -8226,18 +8235,18 @@
       <c r="L32" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="M32" s="547" t="s">
+      <c r="M32" s="548" t="s">
         <v>561</v>
       </c>
-      <c r="N32" s="548"/>
+      <c r="N32" s="549"/>
       <c r="O32" s="63"/>
     </row>
     <row r="33" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="218"/>
-      <c r="C33" s="593" t="s">
+      <c r="C33" s="595" t="s">
         <v>662</v>
       </c>
-      <c r="D33" s="593"/>
+      <c r="D33" s="595"/>
       <c r="E33" s="550" t="s">
         <v>713</v>
       </c>
@@ -8258,10 +8267,10 @@
       <c r="L33" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="M33" s="547" t="s">
+      <c r="M33" s="548" t="s">
         <v>1107</v>
       </c>
-      <c r="N33" s="548"/>
+      <c r="N33" s="549"/>
       <c r="O33" s="63"/>
     </row>
     <row r="34" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
@@ -8270,11 +8279,11 @@
         <v>775</v>
       </c>
       <c r="D34" s="385"/>
-      <c r="E34" s="544" t="s">
+      <c r="E34" s="545" t="s">
         <v>774</v>
       </c>
-      <c r="F34" s="545"/>
-      <c r="G34" s="546"/>
+      <c r="F34" s="546"/>
+      <c r="G34" s="547"/>
       <c r="H34" s="383">
         <v>1</v>
       </c>
@@ -8290,10 +8299,10 @@
       <c r="L34" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="M34" s="547" t="s">
+      <c r="M34" s="548" t="s">
         <v>728</v>
       </c>
-      <c r="N34" s="548"/>
+      <c r="N34" s="549"/>
       <c r="O34" s="63"/>
     </row>
     <row r="35" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
@@ -8302,11 +8311,11 @@
         <v>909</v>
       </c>
       <c r="D35" s="385"/>
-      <c r="E35" s="544" t="s">
+      <c r="E35" s="545" t="s">
         <v>774</v>
       </c>
-      <c r="F35" s="545"/>
-      <c r="G35" s="546"/>
+      <c r="F35" s="546"/>
+      <c r="G35" s="547"/>
       <c r="H35" s="425">
         <v>2</v>
       </c>
@@ -8317,7 +8326,7 @@
         <v>42706</v>
       </c>
       <c r="K35" s="122" t="s">
-        <v>235</v>
+        <v>37</v>
       </c>
       <c r="L35" s="123" t="s">
         <v>104</v>
@@ -8522,11 +8531,11 @@
         <v>772</v>
       </c>
       <c r="D42" s="385"/>
-      <c r="E42" s="544" t="s">
+      <c r="E42" s="545" t="s">
         <v>773</v>
       </c>
-      <c r="F42" s="545"/>
-      <c r="G42" s="546"/>
+      <c r="F42" s="546"/>
+      <c r="G42" s="547"/>
       <c r="H42" s="383">
         <v>1</v>
       </c>
@@ -8542,71 +8551,73 @@
       <c r="L42" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="M42" s="547" t="s">
+      <c r="M42" s="548" t="s">
         <v>660</v>
       </c>
-      <c r="N42" s="548"/>
+      <c r="N42" s="549"/>
       <c r="O42" s="63"/>
     </row>
     <row r="43" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="218"/>
-      <c r="C43" s="549" t="s">
+      <c r="C43" s="558" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="559"/>
+      <c r="E43" s="559"/>
+      <c r="F43" s="559"/>
+      <c r="G43" s="559"/>
+      <c r="H43" s="559"/>
+      <c r="I43" s="559"/>
+      <c r="J43" s="559"/>
+      <c r="K43" s="559"/>
+      <c r="L43" s="559"/>
+      <c r="M43" s="559"/>
+      <c r="N43" s="560"/>
+      <c r="O43" s="63"/>
+    </row>
+    <row r="44" spans="2:15" s="533" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="534"/>
+      <c r="C44" s="562" t="s">
         <v>971</v>
       </c>
-      <c r="D43" s="549"/>
-      <c r="E43" s="592" t="s">
+      <c r="D44" s="562"/>
+      <c r="E44" s="563" t="s">
         <v>230</v>
       </c>
-      <c r="F43" s="592"/>
-      <c r="G43" s="592"/>
-      <c r="H43" s="468">
+      <c r="F44" s="563"/>
+      <c r="G44" s="563"/>
+      <c r="H44" s="537">
         <v>8</v>
       </c>
-      <c r="I43" s="469">
+      <c r="I44" s="413">
         <v>42662</v>
       </c>
-      <c r="J43" s="469" t="s">
-        <v>233</v>
-      </c>
-      <c r="K43" s="122" t="s">
-        <v>37</v>
-      </c>
-      <c r="L43" s="470" t="s">
+      <c r="J44" s="413">
+        <v>42691</v>
+      </c>
+      <c r="K44" s="414" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44" s="415" t="s">
         <v>104</v>
       </c>
-      <c r="M43" s="547"/>
-      <c r="N43" s="548"/>
-      <c r="O43" s="63"/>
-    </row>
-    <row r="44" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="218"/>
-      <c r="C44" s="558" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="559"/>
-      <c r="E44" s="559"/>
-      <c r="F44" s="559"/>
-      <c r="G44" s="559"/>
-      <c r="H44" s="559"/>
-      <c r="I44" s="559"/>
-      <c r="J44" s="559"/>
-      <c r="K44" s="559"/>
-      <c r="L44" s="559"/>
-      <c r="M44" s="559"/>
-      <c r="N44" s="560"/>
-      <c r="O44" s="63"/>
+      <c r="M44" s="564" t="s">
+        <v>1116</v>
+      </c>
+      <c r="N44" s="565"/>
+      <c r="O44" s="536"/>
     </row>
     <row r="45" spans="2:15" s="533" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="534"/>
-      <c r="C45" s="591" t="s">
+      <c r="C45" s="562" t="s">
         <v>1022</v>
       </c>
-      <c r="D45" s="591"/>
-      <c r="E45" s="541" t="s">
+      <c r="D45" s="562"/>
+      <c r="E45" s="542" t="s">
         <v>735</v>
       </c>
-      <c r="F45" s="542"/>
-      <c r="G45" s="542"/>
+      <c r="F45" s="543"/>
+      <c r="G45" s="543"/>
       <c r="H45" s="412" t="s">
         <v>233</v>
       </c>
@@ -8622,10 +8633,10 @@
       <c r="L45" s="415" t="s">
         <v>104</v>
       </c>
-      <c r="M45" s="581" t="s">
+      <c r="M45" s="585" t="s">
         <v>1067</v>
       </c>
-      <c r="N45" s="582"/>
+      <c r="N45" s="586"/>
       <c r="O45" s="536"/>
     </row>
     <row r="46" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
@@ -8654,23 +8665,23 @@
       <c r="L46" s="214" t="s">
         <v>104</v>
       </c>
-      <c r="M46" s="537" t="s">
+      <c r="M46" s="538" t="s">
         <v>460</v>
       </c>
-      <c r="N46" s="538"/>
+      <c r="N46" s="539"/>
       <c r="O46" s="63"/>
     </row>
     <row r="47" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="218"/>
-      <c r="C47" s="539" t="s">
+      <c r="C47" s="540" t="s">
         <v>659</v>
       </c>
-      <c r="D47" s="540"/>
-      <c r="E47" s="541" t="s">
+      <c r="D47" s="541"/>
+      <c r="E47" s="542" t="s">
         <v>771</v>
       </c>
-      <c r="F47" s="542"/>
-      <c r="G47" s="543"/>
+      <c r="F47" s="543"/>
+      <c r="G47" s="544"/>
       <c r="H47" s="412">
         <v>29</v>
       </c>
@@ -8686,23 +8697,23 @@
       <c r="L47" s="415" t="s">
         <v>104</v>
       </c>
-      <c r="M47" s="537" t="s">
+      <c r="M47" s="538" t="s">
         <v>460</v>
       </c>
-      <c r="N47" s="538"/>
+      <c r="N47" s="539"/>
       <c r="O47" s="63"/>
     </row>
     <row r="48" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="218"/>
-      <c r="C48" s="573" t="s">
+      <c r="C48" s="577" t="s">
         <v>631</v>
       </c>
       <c r="D48" s="561"/>
-      <c r="E48" s="564" t="s">
+      <c r="E48" s="568" t="s">
         <v>292</v>
       </c>
-      <c r="F48" s="565"/>
-      <c r="G48" s="565"/>
+      <c r="F48" s="569"/>
+      <c r="G48" s="569"/>
       <c r="H48" s="217">
         <v>2</v>
       </c>
@@ -8718,10 +8729,10 @@
       <c r="L48" s="214" t="s">
         <v>104</v>
       </c>
-      <c r="M48" s="537" t="s">
+      <c r="M48" s="538" t="s">
         <v>460</v>
       </c>
-      <c r="N48" s="538"/>
+      <c r="N48" s="539"/>
       <c r="O48" s="63"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
@@ -8750,23 +8761,23 @@
       <c r="L49" s="214" t="s">
         <v>104</v>
       </c>
-      <c r="M49" s="537" t="s">
+      <c r="M49" s="538" t="s">
         <v>460</v>
       </c>
-      <c r="N49" s="538"/>
+      <c r="N49" s="539"/>
       <c r="O49" s="63"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="218"/>
-      <c r="C50" s="566" t="s">
+      <c r="C50" s="570" t="s">
         <v>265</v>
       </c>
-      <c r="D50" s="567"/>
-      <c r="E50" s="564" t="s">
+      <c r="D50" s="571"/>
+      <c r="E50" s="568" t="s">
         <v>266</v>
       </c>
-      <c r="F50" s="565"/>
-      <c r="G50" s="568"/>
+      <c r="F50" s="569"/>
+      <c r="G50" s="572"/>
       <c r="H50" s="211">
         <v>11</v>
       </c>
@@ -8782,23 +8793,23 @@
       <c r="L50" s="214">
         <v>1</v>
       </c>
-      <c r="M50" s="537" t="s">
+      <c r="M50" s="538" t="s">
         <v>460</v>
       </c>
-      <c r="N50" s="538"/>
+      <c r="N50" s="539"/>
       <c r="O50" s="63"/>
     </row>
     <row r="51" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="218"/>
-      <c r="C51" s="566" t="s">
+      <c r="C51" s="570" t="s">
         <v>403</v>
       </c>
-      <c r="D51" s="567"/>
-      <c r="E51" s="564" t="s">
+      <c r="D51" s="571"/>
+      <c r="E51" s="568" t="s">
         <v>370</v>
       </c>
-      <c r="F51" s="565"/>
-      <c r="G51" s="565"/>
+      <c r="F51" s="569"/>
+      <c r="G51" s="569"/>
       <c r="H51" s="217">
         <v>3</v>
       </c>
@@ -8814,10 +8825,10 @@
       <c r="L51" s="214" t="s">
         <v>104</v>
       </c>
-      <c r="M51" s="537" t="s">
+      <c r="M51" s="538" t="s">
         <v>460</v>
       </c>
-      <c r="N51" s="538"/>
+      <c r="N51" s="539"/>
       <c r="O51" s="63"/>
     </row>
     <row r="52" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
@@ -8846,10 +8857,10 @@
       <c r="L52" s="214">
         <v>1</v>
       </c>
-      <c r="M52" s="571" t="s">
+      <c r="M52" s="575" t="s">
         <v>512</v>
       </c>
-      <c r="N52" s="572"/>
+      <c r="N52" s="576"/>
       <c r="O52" s="63"/>
     </row>
     <row r="53" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
@@ -8878,23 +8889,23 @@
       <c r="L53" s="214" t="s">
         <v>104</v>
       </c>
-      <c r="M53" s="537" t="s">
+      <c r="M53" s="538" t="s">
         <v>460</v>
       </c>
-      <c r="N53" s="538"/>
+      <c r="N53" s="539"/>
       <c r="O53" s="63"/>
     </row>
     <row r="54" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="218"/>
-      <c r="C54" s="566" t="s">
+      <c r="C54" s="570" t="s">
         <v>556</v>
       </c>
-      <c r="D54" s="567"/>
-      <c r="E54" s="564" t="s">
+      <c r="D54" s="571"/>
+      <c r="E54" s="568" t="s">
         <v>370</v>
       </c>
-      <c r="F54" s="565"/>
-      <c r="G54" s="568"/>
+      <c r="F54" s="569"/>
+      <c r="G54" s="572"/>
       <c r="H54" s="266">
         <v>3</v>
       </c>
@@ -8910,23 +8921,23 @@
       <c r="L54" s="214">
         <v>1</v>
       </c>
-      <c r="M54" s="537" t="s">
+      <c r="M54" s="538" t="s">
         <v>460</v>
       </c>
-      <c r="N54" s="538"/>
+      <c r="N54" s="539"/>
       <c r="O54" s="63"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="218"/>
-      <c r="C55" s="563" t="s">
+      <c r="C55" s="567" t="s">
         <v>234</v>
       </c>
-      <c r="D55" s="563"/>
-      <c r="E55" s="569" t="s">
+      <c r="D55" s="567"/>
+      <c r="E55" s="573" t="s">
         <v>84</v>
       </c>
-      <c r="F55" s="570"/>
-      <c r="G55" s="570"/>
+      <c r="F55" s="574"/>
+      <c r="G55" s="574"/>
       <c r="H55" s="351">
         <v>12</v>
       </c>
@@ -8942,10 +8953,10 @@
       <c r="L55" s="354">
         <v>1</v>
       </c>
-      <c r="M55" s="537" t="s">
+      <c r="M55" s="538" t="s">
         <v>460</v>
       </c>
-      <c r="N55" s="538"/>
+      <c r="N55" s="539"/>
       <c r="O55" s="63"/>
     </row>
     <row r="56" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
@@ -8954,11 +8965,11 @@
         <v>710</v>
       </c>
       <c r="D56" s="359"/>
-      <c r="E56" s="564" t="s">
+      <c r="E56" s="568" t="s">
         <v>230</v>
       </c>
-      <c r="F56" s="565"/>
-      <c r="G56" s="568"/>
+      <c r="F56" s="569"/>
+      <c r="G56" s="572"/>
       <c r="H56" s="355">
         <v>1</v>
       </c>
@@ -8982,15 +8993,15 @@
     </row>
     <row r="57" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="218"/>
-      <c r="C57" s="566" t="s">
+      <c r="C57" s="570" t="s">
         <v>554</v>
       </c>
-      <c r="D57" s="567"/>
-      <c r="E57" s="564" t="s">
+      <c r="D57" s="571"/>
+      <c r="E57" s="568" t="s">
         <v>370</v>
       </c>
-      <c r="F57" s="565"/>
-      <c r="G57" s="568"/>
+      <c r="F57" s="569"/>
+      <c r="G57" s="572"/>
       <c r="H57" s="326">
         <v>2</v>
       </c>
@@ -9006,10 +9017,10 @@
       <c r="L57" s="214" t="s">
         <v>104</v>
       </c>
-      <c r="M57" s="537" t="s">
+      <c r="M57" s="538" t="s">
         <v>460</v>
       </c>
-      <c r="N57" s="538"/>
+      <c r="N57" s="539"/>
       <c r="O57" s="63"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
@@ -9038,10 +9049,10 @@
       <c r="L58" s="214" t="s">
         <v>104</v>
       </c>
-      <c r="M58" s="571" t="s">
+      <c r="M58" s="575" t="s">
         <v>778</v>
       </c>
-      <c r="N58" s="572"/>
+      <c r="N58" s="576"/>
       <c r="O58" s="63"/>
     </row>
     <row r="59" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
@@ -9050,11 +9061,11 @@
         <v>730</v>
       </c>
       <c r="D59" s="411"/>
-      <c r="E59" s="541" t="s">
+      <c r="E59" s="542" t="s">
         <v>230</v>
       </c>
-      <c r="F59" s="542"/>
-      <c r="G59" s="543"/>
+      <c r="F59" s="543"/>
+      <c r="G59" s="544"/>
       <c r="H59" s="412">
         <v>2</v>
       </c>
@@ -9082,11 +9093,11 @@
         <v>768</v>
       </c>
       <c r="D60" s="411"/>
-      <c r="E60" s="541" t="s">
+      <c r="E60" s="542" t="s">
         <v>230</v>
       </c>
-      <c r="F60" s="542"/>
-      <c r="G60" s="543"/>
+      <c r="F60" s="543"/>
+      <c r="G60" s="544"/>
       <c r="H60" s="412">
         <v>1</v>
       </c>
@@ -9114,11 +9125,11 @@
         <v>701</v>
       </c>
       <c r="D61" s="430"/>
-      <c r="E61" s="569" t="s">
+      <c r="E61" s="573" t="s">
         <v>532</v>
       </c>
-      <c r="F61" s="570"/>
-      <c r="G61" s="609"/>
+      <c r="F61" s="574"/>
+      <c r="G61" s="611"/>
       <c r="H61" s="351">
         <v>1</v>
       </c>
@@ -9140,15 +9151,15 @@
     </row>
     <row r="62" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="218"/>
-      <c r="C62" s="539" t="s">
+      <c r="C62" s="540" t="s">
         <v>709</v>
       </c>
-      <c r="D62" s="540"/>
-      <c r="E62" s="541" t="s">
+      <c r="D62" s="541"/>
+      <c r="E62" s="542" t="s">
         <v>230</v>
       </c>
-      <c r="F62" s="542"/>
-      <c r="G62" s="543"/>
+      <c r="F62" s="543"/>
+      <c r="G62" s="544"/>
       <c r="H62" s="412">
         <v>3</v>
       </c>
@@ -9164,10 +9175,10 @@
       <c r="L62" s="415" t="s">
         <v>104</v>
       </c>
-      <c r="M62" s="581" t="s">
+      <c r="M62" s="585" t="s">
         <v>781</v>
       </c>
-      <c r="N62" s="582"/>
+      <c r="N62" s="586"/>
       <c r="O62" s="63"/>
     </row>
     <row r="63" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
@@ -9176,11 +9187,11 @@
         <v>948</v>
       </c>
       <c r="D63" s="491"/>
-      <c r="E63" s="569" t="s">
+      <c r="E63" s="573" t="s">
         <v>949</v>
       </c>
-      <c r="F63" s="570"/>
-      <c r="G63" s="609"/>
+      <c r="F63" s="574"/>
+      <c r="G63" s="611"/>
       <c r="H63" s="351">
         <v>1</v>
       </c>
@@ -9202,15 +9213,15 @@
     </row>
     <row r="64" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="218"/>
-      <c r="C64" s="539" t="s">
+      <c r="C64" s="540" t="s">
         <v>914</v>
       </c>
-      <c r="D64" s="540"/>
-      <c r="E64" s="569" t="s">
+      <c r="D64" s="541"/>
+      <c r="E64" s="573" t="s">
         <v>950</v>
       </c>
-      <c r="F64" s="570"/>
-      <c r="G64" s="609"/>
+      <c r="F64" s="574"/>
+      <c r="G64" s="611"/>
       <c r="H64" s="351">
         <v>1</v>
       </c>
@@ -9232,15 +9243,15 @@
     </row>
     <row r="65" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="218"/>
-      <c r="C65" s="610" t="s">
+      <c r="C65" s="612" t="s">
         <v>1004</v>
       </c>
-      <c r="D65" s="611"/>
-      <c r="E65" s="606" t="s">
+      <c r="D65" s="613"/>
+      <c r="E65" s="608" t="s">
         <v>292</v>
       </c>
-      <c r="F65" s="607"/>
-      <c r="G65" s="608"/>
+      <c r="F65" s="609"/>
+      <c r="G65" s="610"/>
       <c r="H65" s="505">
         <v>1</v>
       </c>
@@ -9266,11 +9277,11 @@
         <v>797</v>
       </c>
       <c r="D66" s="433"/>
-      <c r="E66" s="606" t="s">
+      <c r="E66" s="608" t="s">
         <v>230</v>
       </c>
-      <c r="F66" s="607"/>
-      <c r="G66" s="608"/>
+      <c r="F66" s="609"/>
+      <c r="G66" s="610"/>
       <c r="H66" s="434">
         <v>1</v>
       </c>
@@ -9294,15 +9305,15 @@
     </row>
     <row r="67" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="218"/>
-      <c r="C67" s="563" t="s">
+      <c r="C67" s="567" t="s">
         <v>972</v>
       </c>
-      <c r="D67" s="563"/>
-      <c r="E67" s="562" t="s">
+      <c r="D67" s="567"/>
+      <c r="E67" s="566" t="s">
         <v>973</v>
       </c>
-      <c r="F67" s="562"/>
-      <c r="G67" s="562"/>
+      <c r="F67" s="566"/>
+      <c r="G67" s="566"/>
       <c r="H67" s="496">
         <v>1</v>
       </c>
@@ -9348,10 +9359,10 @@
       <c r="L68" s="214" t="s">
         <v>104</v>
       </c>
-      <c r="M68" s="537" t="s">
+      <c r="M68" s="538" t="s">
         <v>460</v>
       </c>
-      <c r="N68" s="538"/>
+      <c r="N68" s="539"/>
       <c r="O68" s="63"/>
     </row>
     <row r="69" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9433,7 +9444,6 @@
     <mergeCell ref="J19:M20"/>
     <mergeCell ref="E45:G45"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E43:G43"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="M33:N33"/>
@@ -9467,7 +9477,6 @@
     <mergeCell ref="E42:G42"/>
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="M34:N34"/>
-    <mergeCell ref="C43:D43"/>
     <mergeCell ref="E41:G41"/>
     <mergeCell ref="M42:N42"/>
     <mergeCell ref="C36:D36"/>
@@ -9476,10 +9485,12 @@
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="E46:G46"/>
-    <mergeCell ref="C44:N44"/>
+    <mergeCell ref="C43:N43"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="M44:N44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9491,7 +9502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FT57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -9641,268 +9652,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:176" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="633" t="s">
+      <c r="A1" s="635" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="634"/>
-      <c r="C1" s="612" t="s">
+      <c r="B1" s="636"/>
+      <c r="C1" s="614" t="s">
         <v>913</v>
       </c>
-      <c r="D1" s="613"/>
-      <c r="E1" s="613"/>
-      <c r="F1" s="613"/>
-      <c r="G1" s="614"/>
-      <c r="H1" s="612" t="s">
+      <c r="D1" s="615"/>
+      <c r="E1" s="615"/>
+      <c r="F1" s="615"/>
+      <c r="G1" s="616"/>
+      <c r="H1" s="614" t="s">
         <v>731</v>
       </c>
-      <c r="I1" s="613"/>
-      <c r="J1" s="613"/>
-      <c r="K1" s="613"/>
-      <c r="L1" s="614"/>
-      <c r="M1" s="612" t="s">
+      <c r="I1" s="615"/>
+      <c r="J1" s="615"/>
+      <c r="K1" s="615"/>
+      <c r="L1" s="616"/>
+      <c r="M1" s="614" t="s">
         <v>914</v>
       </c>
-      <c r="N1" s="613"/>
-      <c r="O1" s="614"/>
-      <c r="P1" s="612" t="s">
+      <c r="N1" s="615"/>
+      <c r="O1" s="616"/>
+      <c r="P1" s="614" t="s">
         <v>777</v>
       </c>
-      <c r="Q1" s="613"/>
-      <c r="R1" s="614"/>
-      <c r="S1" s="612" t="s">
+      <c r="Q1" s="615"/>
+      <c r="R1" s="616"/>
+      <c r="S1" s="614" t="s">
         <v>926</v>
       </c>
-      <c r="T1" s="613"/>
-      <c r="U1" s="614"/>
-      <c r="V1" s="612" t="s">
+      <c r="T1" s="615"/>
+      <c r="U1" s="616"/>
+      <c r="V1" s="614" t="s">
         <v>926</v>
       </c>
-      <c r="W1" s="613"/>
-      <c r="X1" s="614"/>
-      <c r="Y1" s="612" t="s">
+      <c r="W1" s="615"/>
+      <c r="X1" s="616"/>
+      <c r="Y1" s="614" t="s">
         <v>548</v>
       </c>
-      <c r="Z1" s="613"/>
-      <c r="AA1" s="613"/>
-      <c r="AB1" s="613"/>
-      <c r="AC1" s="614"/>
-      <c r="AD1" s="612" t="s">
+      <c r="Z1" s="615"/>
+      <c r="AA1" s="615"/>
+      <c r="AB1" s="615"/>
+      <c r="AC1" s="616"/>
+      <c r="AD1" s="614" t="s">
         <v>692</v>
       </c>
-      <c r="AE1" s="613"/>
-      <c r="AF1" s="613"/>
-      <c r="AG1" s="613"/>
-      <c r="AH1" s="614"/>
-      <c r="AI1" s="612" t="s">
+      <c r="AE1" s="615"/>
+      <c r="AF1" s="615"/>
+      <c r="AG1" s="615"/>
+      <c r="AH1" s="616"/>
+      <c r="AI1" s="614" t="s">
         <v>1063</v>
       </c>
-      <c r="AJ1" s="613"/>
-      <c r="AK1" s="613"/>
-      <c r="AL1" s="613"/>
-      <c r="AM1" s="614"/>
-      <c r="AN1" s="612" t="s">
+      <c r="AJ1" s="615"/>
+      <c r="AK1" s="615"/>
+      <c r="AL1" s="615"/>
+      <c r="AM1" s="616"/>
+      <c r="AN1" s="614" t="s">
         <v>693</v>
       </c>
-      <c r="AO1" s="613"/>
-      <c r="AP1" s="613"/>
-      <c r="AQ1" s="613"/>
-      <c r="AR1" s="614"/>
-      <c r="AS1" s="612" t="s">
+      <c r="AO1" s="615"/>
+      <c r="AP1" s="615"/>
+      <c r="AQ1" s="615"/>
+      <c r="AR1" s="616"/>
+      <c r="AS1" s="614" t="s">
         <v>701</v>
       </c>
-      <c r="AT1" s="613"/>
-      <c r="AU1" s="613"/>
-      <c r="AV1" s="613"/>
-      <c r="AW1" s="614"/>
-      <c r="AX1" s="612" t="s">
+      <c r="AT1" s="615"/>
+      <c r="AU1" s="615"/>
+      <c r="AV1" s="615"/>
+      <c r="AW1" s="616"/>
+      <c r="AX1" s="614" t="s">
         <v>714</v>
       </c>
-      <c r="AY1" s="613"/>
-      <c r="AZ1" s="613"/>
-      <c r="BA1" s="613"/>
-      <c r="BB1" s="614"/>
-      <c r="BC1" s="612" t="s">
+      <c r="AY1" s="615"/>
+      <c r="AZ1" s="615"/>
+      <c r="BA1" s="615"/>
+      <c r="BB1" s="616"/>
+      <c r="BC1" s="614" t="s">
         <v>555</v>
       </c>
-      <c r="BD1" s="613"/>
-      <c r="BE1" s="613"/>
-      <c r="BF1" s="613"/>
-      <c r="BG1" s="614"/>
+      <c r="BD1" s="615"/>
+      <c r="BE1" s="615"/>
+      <c r="BF1" s="615"/>
+      <c r="BG1" s="616"/>
       <c r="BH1" s="95"/>
-      <c r="BI1" s="622" t="s">
+      <c r="BI1" s="624" t="s">
         <v>125</v>
       </c>
-      <c r="BJ1" s="623"/>
-      <c r="BK1" s="623"/>
+      <c r="BJ1" s="625"/>
+      <c r="BK1" s="625"/>
       <c r="BL1" s="95"/>
-      <c r="BM1" s="621" t="s">
+      <c r="BM1" s="623" t="s">
         <v>823</v>
       </c>
-      <c r="BN1" s="621"/>
-      <c r="BO1" s="621"/>
-      <c r="BP1" s="621" t="s">
+      <c r="BN1" s="623"/>
+      <c r="BO1" s="623"/>
+      <c r="BP1" s="623" t="s">
         <v>960</v>
       </c>
-      <c r="BQ1" s="621"/>
-      <c r="BR1" s="621"/>
+      <c r="BQ1" s="623"/>
+      <c r="BR1" s="623"/>
       <c r="BS1" s="95"/>
-      <c r="BT1" s="621" t="s">
+      <c r="BT1" s="623" t="s">
         <v>12</v>
       </c>
-      <c r="BU1" s="621"/>
-      <c r="BV1" s="621"/>
-      <c r="BW1" s="621"/>
-      <c r="BX1" s="622" t="s">
+      <c r="BU1" s="623"/>
+      <c r="BV1" s="623"/>
+      <c r="BW1" s="623"/>
+      <c r="BX1" s="624" t="s">
         <v>422</v>
       </c>
-      <c r="BY1" s="623"/>
-      <c r="BZ1" s="623"/>
-      <c r="CA1" s="623"/>
-      <c r="CB1" s="624"/>
-      <c r="CC1" s="622" t="s">
+      <c r="BY1" s="625"/>
+      <c r="BZ1" s="625"/>
+      <c r="CA1" s="625"/>
+      <c r="CB1" s="626"/>
+      <c r="CC1" s="624" t="s">
         <v>287</v>
       </c>
-      <c r="CD1" s="623"/>
-      <c r="CE1" s="623"/>
-      <c r="CF1" s="623"/>
-      <c r="CG1" s="624"/>
-      <c r="CH1" s="622" t="s">
+      <c r="CD1" s="625"/>
+      <c r="CE1" s="625"/>
+      <c r="CF1" s="625"/>
+      <c r="CG1" s="626"/>
+      <c r="CH1" s="624" t="s">
         <v>756</v>
       </c>
-      <c r="CI1" s="623"/>
-      <c r="CJ1" s="623"/>
-      <c r="CK1" s="623"/>
-      <c r="CL1" s="624"/>
-      <c r="CM1" s="622" t="s">
+      <c r="CI1" s="625"/>
+      <c r="CJ1" s="625"/>
+      <c r="CK1" s="625"/>
+      <c r="CL1" s="626"/>
+      <c r="CM1" s="624" t="s">
         <v>758</v>
       </c>
-      <c r="CN1" s="623"/>
-      <c r="CO1" s="623"/>
-      <c r="CP1" s="623"/>
-      <c r="CQ1" s="624"/>
-      <c r="CR1" s="622" t="s">
+      <c r="CN1" s="625"/>
+      <c r="CO1" s="625"/>
+      <c r="CP1" s="625"/>
+      <c r="CQ1" s="626"/>
+      <c r="CR1" s="624" t="s">
         <v>834</v>
       </c>
-      <c r="CS1" s="623"/>
-      <c r="CT1" s="623"/>
-      <c r="CU1" s="623"/>
-      <c r="CV1" s="624"/>
-      <c r="CW1" s="622" t="s">
+      <c r="CS1" s="625"/>
+      <c r="CT1" s="625"/>
+      <c r="CU1" s="625"/>
+      <c r="CV1" s="626"/>
+      <c r="CW1" s="624" t="s">
         <v>628</v>
       </c>
-      <c r="CX1" s="623"/>
-      <c r="CY1" s="623"/>
-      <c r="CZ1" s="623"/>
-      <c r="DA1" s="624"/>
-      <c r="DB1" s="622" t="s">
+      <c r="CX1" s="625"/>
+      <c r="CY1" s="625"/>
+      <c r="CZ1" s="625"/>
+      <c r="DA1" s="626"/>
+      <c r="DB1" s="624" t="s">
         <v>819</v>
       </c>
-      <c r="DC1" s="623"/>
-      <c r="DD1" s="623"/>
-      <c r="DE1" s="623"/>
-      <c r="DF1" s="624"/>
-      <c r="DG1" s="622" t="s">
+      <c r="DC1" s="625"/>
+      <c r="DD1" s="625"/>
+      <c r="DE1" s="625"/>
+      <c r="DF1" s="626"/>
+      <c r="DG1" s="624" t="s">
         <v>13</v>
       </c>
-      <c r="DH1" s="623"/>
-      <c r="DI1" s="623"/>
-      <c r="DJ1" s="623"/>
-      <c r="DK1" s="624"/>
+      <c r="DH1" s="625"/>
+      <c r="DI1" s="625"/>
+      <c r="DJ1" s="625"/>
+      <c r="DK1" s="626"/>
       <c r="DL1" s="389"/>
-      <c r="DM1" s="622" t="s">
+      <c r="DM1" s="624" t="s">
         <v>287</v>
       </c>
-      <c r="DN1" s="623"/>
-      <c r="DO1" s="623"/>
-      <c r="DP1" s="623"/>
-      <c r="DQ1" s="624"/>
-      <c r="DR1" s="622" t="s">
+      <c r="DN1" s="625"/>
+      <c r="DO1" s="625"/>
+      <c r="DP1" s="625"/>
+      <c r="DQ1" s="626"/>
+      <c r="DR1" s="624" t="s">
         <v>968</v>
       </c>
-      <c r="DS1" s="623"/>
-      <c r="DT1" s="623"/>
-      <c r="DU1" s="623"/>
-      <c r="DV1" s="624"/>
+      <c r="DS1" s="625"/>
+      <c r="DT1" s="625"/>
+      <c r="DU1" s="625"/>
+      <c r="DV1" s="626"/>
       <c r="DW1" s="95"/>
-      <c r="DX1" s="622" t="s">
+      <c r="DX1" s="624" t="s">
         <v>15</v>
       </c>
-      <c r="DY1" s="623"/>
-      <c r="DZ1" s="623"/>
-      <c r="EA1" s="623"/>
-      <c r="EB1" s="624"/>
-      <c r="EC1" s="621" t="s">
+      <c r="DY1" s="625"/>
+      <c r="DZ1" s="625"/>
+      <c r="EA1" s="625"/>
+      <c r="EB1" s="626"/>
+      <c r="EC1" s="623" t="s">
         <v>16</v>
       </c>
-      <c r="ED1" s="621"/>
-      <c r="EE1" s="621"/>
-      <c r="EF1" s="622" t="s">
+      <c r="ED1" s="623"/>
+      <c r="EE1" s="623"/>
+      <c r="EF1" s="624" t="s">
         <v>17</v>
       </c>
-      <c r="EG1" s="623"/>
-      <c r="EH1" s="623"/>
-      <c r="EI1" s="623"/>
-      <c r="EJ1" s="624"/>
+      <c r="EG1" s="625"/>
+      <c r="EH1" s="625"/>
+      <c r="EI1" s="625"/>
+      <c r="EJ1" s="626"/>
       <c r="EK1" s="95"/>
       <c r="EL1" s="445" t="s">
         <v>792</v>
       </c>
       <c r="EM1" s="445"/>
       <c r="EN1" s="445"/>
-      <c r="EO1" s="621" t="s">
+      <c r="EO1" s="623" t="s">
         <v>720</v>
       </c>
-      <c r="EP1" s="621"/>
-      <c r="EQ1" s="621"/>
-      <c r="ER1" s="622" t="s">
+      <c r="EP1" s="623"/>
+      <c r="EQ1" s="623"/>
+      <c r="ER1" s="624" t="s">
         <v>511</v>
       </c>
-      <c r="ES1" s="623"/>
-      <c r="ET1" s="623"/>
-      <c r="EU1" s="623"/>
-      <c r="EV1" s="624"/>
-      <c r="EW1" s="622" t="s">
+      <c r="ES1" s="625"/>
+      <c r="ET1" s="625"/>
+      <c r="EU1" s="625"/>
+      <c r="EV1" s="626"/>
+      <c r="EW1" s="624" t="s">
         <v>694</v>
       </c>
-      <c r="EX1" s="623"/>
-      <c r="EY1" s="623"/>
-      <c r="EZ1" s="623"/>
-      <c r="FA1" s="624"/>
-      <c r="FB1" s="622" t="s">
+      <c r="EX1" s="625"/>
+      <c r="EY1" s="625"/>
+      <c r="EZ1" s="625"/>
+      <c r="FA1" s="626"/>
+      <c r="FB1" s="624" t="s">
         <v>1010</v>
       </c>
-      <c r="FC1" s="623"/>
-      <c r="FD1" s="623"/>
-      <c r="FE1" s="623"/>
-      <c r="FF1" s="624"/>
-      <c r="FG1" s="622" t="s">
+      <c r="FC1" s="625"/>
+      <c r="FD1" s="625"/>
+      <c r="FE1" s="625"/>
+      <c r="FF1" s="626"/>
+      <c r="FG1" s="624" t="s">
         <v>558</v>
       </c>
-      <c r="FH1" s="623"/>
-      <c r="FI1" s="624"/>
-      <c r="FJ1" s="622" t="s">
+      <c r="FH1" s="625"/>
+      <c r="FI1" s="626"/>
+      <c r="FJ1" s="624" t="s">
         <v>559</v>
       </c>
-      <c r="FK1" s="623"/>
-      <c r="FL1" s="624"/>
+      <c r="FK1" s="625"/>
+      <c r="FL1" s="626"/>
       <c r="FM1" s="95"/>
-      <c r="FN1" s="621" t="s">
+      <c r="FN1" s="623" t="s">
         <v>911</v>
       </c>
-      <c r="FO1" s="621"/>
-      <c r="FP1" s="621"/>
-      <c r="FQ1" s="621" t="s">
+      <c r="FO1" s="623"/>
+      <c r="FP1" s="623"/>
+      <c r="FQ1" s="623" t="s">
         <v>1061</v>
       </c>
-      <c r="FR1" s="621"/>
-      <c r="FS1" s="621"/>
-      <c r="FT1" s="631" t="s">
+      <c r="FR1" s="623"/>
+      <c r="FS1" s="623"/>
+      <c r="FT1" s="633" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:176" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="635"/>
-      <c r="B2" s="636"/>
+      <c r="A2" s="637"/>
+      <c r="B2" s="638"/>
       <c r="C2" s="11" t="s">
         <v>22</v>
       </c>
@@ -10408,7 +10419,7 @@
       <c r="FS2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="FT2" s="631"/>
+      <c r="FT2" s="633"/>
     </row>
     <row r="3" spans="1:176" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -10417,21 +10428,21 @@
       <c r="B3" s="13" t="s">
         <v>1025</v>
       </c>
-      <c r="C3" s="625" t="s">
+      <c r="C3" s="627" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="626"/>
-      <c r="E3" s="626"/>
-      <c r="F3" s="626"/>
-      <c r="G3" s="626"/>
-      <c r="H3" s="626"/>
-      <c r="I3" s="626"/>
-      <c r="J3" s="626"/>
-      <c r="K3" s="626"/>
-      <c r="L3" s="626"/>
-      <c r="M3" s="626"/>
-      <c r="N3" s="626"/>
-      <c r="O3" s="627"/>
+      <c r="D3" s="628"/>
+      <c r="E3" s="628"/>
+      <c r="F3" s="628"/>
+      <c r="G3" s="628"/>
+      <c r="H3" s="628"/>
+      <c r="I3" s="628"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="628"/>
+      <c r="M3" s="628"/>
+      <c r="N3" s="628"/>
+      <c r="O3" s="629"/>
       <c r="P3" s="386"/>
       <c r="Q3" s="386"/>
       <c r="R3" s="386"/>
@@ -10477,134 +10488,134 @@
       <c r="BF3" s="278"/>
       <c r="BG3" s="278"/>
       <c r="BH3" s="20"/>
-      <c r="BI3" s="631"/>
-      <c r="BJ3" s="631"/>
-      <c r="BK3" s="631"/>
+      <c r="BI3" s="633"/>
+      <c r="BJ3" s="633"/>
+      <c r="BK3" s="633"/>
       <c r="BL3" s="20"/>
-      <c r="BM3" s="628" t="s">
+      <c r="BM3" s="630" t="s">
         <v>463</v>
       </c>
-      <c r="BN3" s="629"/>
-      <c r="BO3" s="629"/>
-      <c r="BP3" s="629"/>
-      <c r="BQ3" s="629"/>
-      <c r="BR3" s="630"/>
+      <c r="BN3" s="631"/>
+      <c r="BO3" s="631"/>
+      <c r="BP3" s="631"/>
+      <c r="BQ3" s="631"/>
+      <c r="BR3" s="632"/>
       <c r="BS3" s="20"/>
-      <c r="BT3" s="625" t="s">
+      <c r="BT3" s="627" t="s">
         <v>11</v>
       </c>
-      <c r="BU3" s="626"/>
-      <c r="BV3" s="626"/>
-      <c r="BW3" s="626"/>
-      <c r="BX3" s="626"/>
-      <c r="BY3" s="626"/>
-      <c r="BZ3" s="626"/>
-      <c r="CA3" s="626"/>
-      <c r="CB3" s="626"/>
-      <c r="CC3" s="626"/>
-      <c r="CD3" s="626"/>
-      <c r="CE3" s="626"/>
-      <c r="CF3" s="626"/>
-      <c r="CG3" s="626"/>
-      <c r="CH3" s="626"/>
-      <c r="CI3" s="626"/>
-      <c r="CJ3" s="626"/>
-      <c r="CK3" s="626"/>
-      <c r="CL3" s="626"/>
-      <c r="CM3" s="626"/>
-      <c r="CN3" s="626"/>
-      <c r="CO3" s="626"/>
-      <c r="CP3" s="626"/>
-      <c r="CQ3" s="626"/>
-      <c r="CR3" s="626"/>
-      <c r="CS3" s="626"/>
-      <c r="CT3" s="626"/>
-      <c r="CU3" s="626"/>
-      <c r="CV3" s="626"/>
-      <c r="CW3" s="626"/>
-      <c r="CX3" s="626"/>
-      <c r="CY3" s="626"/>
-      <c r="CZ3" s="626"/>
-      <c r="DA3" s="626"/>
-      <c r="DB3" s="626"/>
-      <c r="DC3" s="626"/>
-      <c r="DD3" s="626"/>
-      <c r="DE3" s="626"/>
-      <c r="DF3" s="626"/>
-      <c r="DG3" s="626"/>
-      <c r="DH3" s="626"/>
-      <c r="DI3" s="626"/>
-      <c r="DJ3" s="626"/>
-      <c r="DK3" s="627"/>
+      <c r="BU3" s="628"/>
+      <c r="BV3" s="628"/>
+      <c r="BW3" s="628"/>
+      <c r="BX3" s="628"/>
+      <c r="BY3" s="628"/>
+      <c r="BZ3" s="628"/>
+      <c r="CA3" s="628"/>
+      <c r="CB3" s="628"/>
+      <c r="CC3" s="628"/>
+      <c r="CD3" s="628"/>
+      <c r="CE3" s="628"/>
+      <c r="CF3" s="628"/>
+      <c r="CG3" s="628"/>
+      <c r="CH3" s="628"/>
+      <c r="CI3" s="628"/>
+      <c r="CJ3" s="628"/>
+      <c r="CK3" s="628"/>
+      <c r="CL3" s="628"/>
+      <c r="CM3" s="628"/>
+      <c r="CN3" s="628"/>
+      <c r="CO3" s="628"/>
+      <c r="CP3" s="628"/>
+      <c r="CQ3" s="628"/>
+      <c r="CR3" s="628"/>
+      <c r="CS3" s="628"/>
+      <c r="CT3" s="628"/>
+      <c r="CU3" s="628"/>
+      <c r="CV3" s="628"/>
+      <c r="CW3" s="628"/>
+      <c r="CX3" s="628"/>
+      <c r="CY3" s="628"/>
+      <c r="CZ3" s="628"/>
+      <c r="DA3" s="628"/>
+      <c r="DB3" s="628"/>
+      <c r="DC3" s="628"/>
+      <c r="DD3" s="628"/>
+      <c r="DE3" s="628"/>
+      <c r="DF3" s="628"/>
+      <c r="DG3" s="628"/>
+      <c r="DH3" s="628"/>
+      <c r="DI3" s="628"/>
+      <c r="DJ3" s="628"/>
+      <c r="DK3" s="629"/>
       <c r="DL3" s="466"/>
-      <c r="DM3" s="625" t="s">
+      <c r="DM3" s="627" t="s">
         <v>56</v>
       </c>
-      <c r="DN3" s="626"/>
-      <c r="DO3" s="626"/>
-      <c r="DP3" s="626"/>
-      <c r="DQ3" s="626"/>
-      <c r="DR3" s="626"/>
-      <c r="DS3" s="626"/>
-      <c r="DT3" s="626"/>
-      <c r="DU3" s="626"/>
-      <c r="DV3" s="627"/>
+      <c r="DN3" s="628"/>
+      <c r="DO3" s="628"/>
+      <c r="DP3" s="628"/>
+      <c r="DQ3" s="628"/>
+      <c r="DR3" s="628"/>
+      <c r="DS3" s="628"/>
+      <c r="DT3" s="628"/>
+      <c r="DU3" s="628"/>
+      <c r="DV3" s="629"/>
       <c r="DW3" s="20"/>
-      <c r="DX3" s="628" t="s">
+      <c r="DX3" s="630" t="s">
         <v>14</v>
       </c>
-      <c r="DY3" s="629"/>
-      <c r="DZ3" s="629"/>
-      <c r="EA3" s="629"/>
-      <c r="EB3" s="629"/>
-      <c r="EC3" s="629"/>
-      <c r="ED3" s="629"/>
-      <c r="EE3" s="629"/>
-      <c r="EF3" s="629"/>
-      <c r="EG3" s="629"/>
-      <c r="EH3" s="629"/>
-      <c r="EI3" s="629"/>
-      <c r="EJ3" s="630"/>
+      <c r="DY3" s="631"/>
+      <c r="DZ3" s="631"/>
+      <c r="EA3" s="631"/>
+      <c r="EB3" s="631"/>
+      <c r="EC3" s="631"/>
+      <c r="ED3" s="631"/>
+      <c r="EE3" s="631"/>
+      <c r="EF3" s="631"/>
+      <c r="EG3" s="631"/>
+      <c r="EH3" s="631"/>
+      <c r="EI3" s="631"/>
+      <c r="EJ3" s="632"/>
       <c r="EK3" s="20"/>
-      <c r="EL3" s="625" t="s">
+      <c r="EL3" s="627" t="s">
         <v>20</v>
       </c>
-      <c r="EM3" s="626"/>
-      <c r="EN3" s="626"/>
-      <c r="EO3" s="626"/>
-      <c r="EP3" s="626"/>
-      <c r="EQ3" s="626"/>
-      <c r="ER3" s="626"/>
-      <c r="ES3" s="626"/>
-      <c r="ET3" s="626"/>
-      <c r="EU3" s="626"/>
-      <c r="EV3" s="626"/>
-      <c r="EW3" s="626"/>
-      <c r="EX3" s="626"/>
-      <c r="EY3" s="626"/>
-      <c r="EZ3" s="626"/>
-      <c r="FA3" s="626"/>
-      <c r="FB3" s="626"/>
-      <c r="FC3" s="626"/>
-      <c r="FD3" s="626"/>
-      <c r="FE3" s="626"/>
-      <c r="FF3" s="626"/>
-      <c r="FG3" s="626"/>
-      <c r="FH3" s="626"/>
-      <c r="FI3" s="626"/>
-      <c r="FJ3" s="626"/>
-      <c r="FK3" s="626"/>
-      <c r="FL3" s="627"/>
+      <c r="EM3" s="628"/>
+      <c r="EN3" s="628"/>
+      <c r="EO3" s="628"/>
+      <c r="EP3" s="628"/>
+      <c r="EQ3" s="628"/>
+      <c r="ER3" s="628"/>
+      <c r="ES3" s="628"/>
+      <c r="ET3" s="628"/>
+      <c r="EU3" s="628"/>
+      <c r="EV3" s="628"/>
+      <c r="EW3" s="628"/>
+      <c r="EX3" s="628"/>
+      <c r="EY3" s="628"/>
+      <c r="EZ3" s="628"/>
+      <c r="FA3" s="628"/>
+      <c r="FB3" s="628"/>
+      <c r="FC3" s="628"/>
+      <c r="FD3" s="628"/>
+      <c r="FE3" s="628"/>
+      <c r="FF3" s="628"/>
+      <c r="FG3" s="628"/>
+      <c r="FH3" s="628"/>
+      <c r="FI3" s="628"/>
+      <c r="FJ3" s="628"/>
+      <c r="FK3" s="628"/>
+      <c r="FL3" s="629"/>
       <c r="FM3" s="20"/>
-      <c r="FN3" s="632" t="s">
+      <c r="FN3" s="634" t="s">
         <v>21</v>
       </c>
-      <c r="FO3" s="632"/>
-      <c r="FP3" s="632"/>
-      <c r="FQ3" s="632"/>
-      <c r="FR3" s="632"/>
-      <c r="FS3" s="632"/>
-      <c r="FT3" s="631"/>
+      <c r="FO3" s="634"/>
+      <c r="FP3" s="634"/>
+      <c r="FQ3" s="634"/>
+      <c r="FR3" s="634"/>
+      <c r="FS3" s="634"/>
+      <c r="FT3" s="633"/>
     </row>
     <row r="4" spans="1:176" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="115">
@@ -10926,13 +10937,13 @@
       <c r="BU5" s="114"/>
       <c r="BV5" s="114"/>
       <c r="BW5" s="113"/>
-      <c r="BX5" s="615" t="s">
+      <c r="BX5" s="617" t="s">
         <v>104</v>
       </c>
-      <c r="BY5" s="616"/>
-      <c r="BZ5" s="616"/>
-      <c r="CA5" s="616"/>
-      <c r="CB5" s="617"/>
+      <c r="BY5" s="618"/>
+      <c r="BZ5" s="618"/>
+      <c r="CA5" s="618"/>
+      <c r="CB5" s="619"/>
       <c r="CC5" s="116" t="s">
         <v>38</v>
       </c>
@@ -11158,13 +11169,13 @@
       <c r="BU6" s="114"/>
       <c r="BV6" s="114"/>
       <c r="BW6" s="113"/>
-      <c r="BX6" s="615" t="s">
+      <c r="BX6" s="617" t="s">
         <v>104</v>
       </c>
-      <c r="BY6" s="616"/>
-      <c r="BZ6" s="616"/>
-      <c r="CA6" s="616"/>
-      <c r="CB6" s="617"/>
+      <c r="BY6" s="618"/>
+      <c r="BZ6" s="618"/>
+      <c r="CA6" s="618"/>
+      <c r="CB6" s="619"/>
       <c r="CC6" s="116" t="s">
         <v>38</v>
       </c>
@@ -11400,18 +11411,18 @@
       <c r="BU7" s="114"/>
       <c r="BV7" s="114"/>
       <c r="BW7" s="113"/>
-      <c r="BX7" s="615" t="s">
+      <c r="BX7" s="617" t="s">
         <v>104</v>
       </c>
-      <c r="BY7" s="616"/>
-      <c r="BZ7" s="616"/>
-      <c r="CA7" s="616"/>
-      <c r="CB7" s="617"/>
-      <c r="CC7" s="618" t="s">
+      <c r="BY7" s="618"/>
+      <c r="BZ7" s="618"/>
+      <c r="CA7" s="618"/>
+      <c r="CB7" s="619"/>
+      <c r="CC7" s="620" t="s">
         <v>104</v>
       </c>
-      <c r="CD7" s="619"/>
-      <c r="CE7" s="620"/>
+      <c r="CD7" s="621"/>
+      <c r="CE7" s="622"/>
       <c r="CF7" s="113"/>
       <c r="CG7" s="528"/>
       <c r="CH7" s="116" t="s">
@@ -11622,18 +11633,18 @@
       <c r="BU8" s="114"/>
       <c r="BV8" s="114"/>
       <c r="BW8" s="113"/>
-      <c r="BX8" s="615" t="s">
+      <c r="BX8" s="617" t="s">
         <v>104</v>
       </c>
-      <c r="BY8" s="616"/>
-      <c r="BZ8" s="616"/>
-      <c r="CA8" s="616"/>
-      <c r="CB8" s="617"/>
-      <c r="CC8" s="618" t="s">
+      <c r="BY8" s="618"/>
+      <c r="BZ8" s="618"/>
+      <c r="CA8" s="618"/>
+      <c r="CB8" s="619"/>
+      <c r="CC8" s="620" t="s">
         <v>104</v>
       </c>
-      <c r="CD8" s="619"/>
-      <c r="CE8" s="620"/>
+      <c r="CD8" s="621"/>
+      <c r="CE8" s="622"/>
       <c r="CF8" s="113"/>
       <c r="CG8" s="528"/>
       <c r="CH8" s="116" t="s">
@@ -11826,14 +11837,14 @@
       <c r="BU9" s="114"/>
       <c r="BV9" s="114"/>
       <c r="BW9" s="113"/>
-      <c r="BX9" s="615"/>
-      <c r="BY9" s="616"/>
-      <c r="BZ9" s="616"/>
-      <c r="CA9" s="616"/>
-      <c r="CB9" s="617"/>
-      <c r="CC9" s="618"/>
-      <c r="CD9" s="619"/>
-      <c r="CE9" s="620"/>
+      <c r="BX9" s="617"/>
+      <c r="BY9" s="618"/>
+      <c r="BZ9" s="618"/>
+      <c r="CA9" s="618"/>
+      <c r="CB9" s="619"/>
+      <c r="CC9" s="620"/>
+      <c r="CD9" s="621"/>
+      <c r="CE9" s="622"/>
       <c r="CF9" s="113"/>
       <c r="CG9" s="528"/>
       <c r="CH9" s="116" t="s">
@@ -12038,14 +12049,14 @@
       <c r="BU10" s="114"/>
       <c r="BV10" s="114"/>
       <c r="BW10" s="113"/>
-      <c r="BX10" s="615"/>
-      <c r="BY10" s="616"/>
-      <c r="BZ10" s="616"/>
-      <c r="CA10" s="616"/>
-      <c r="CB10" s="617"/>
-      <c r="CC10" s="618"/>
-      <c r="CD10" s="619"/>
-      <c r="CE10" s="620"/>
+      <c r="BX10" s="617"/>
+      <c r="BY10" s="618"/>
+      <c r="BZ10" s="618"/>
+      <c r="CA10" s="618"/>
+      <c r="CB10" s="619"/>
+      <c r="CC10" s="620"/>
+      <c r="CD10" s="621"/>
+      <c r="CE10" s="622"/>
       <c r="CF10" s="113"/>
       <c r="CG10" s="528"/>
       <c r="CH10" s="116" t="s">
@@ -21089,182 +21100,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="633" t="s">
+      <c r="A1" s="635" t="s">
         <v>1002</v>
       </c>
-      <c r="B1" s="634"/>
-      <c r="C1" s="612" t="s">
+      <c r="B1" s="636"/>
+      <c r="C1" s="614" t="s">
         <v>293</v>
       </c>
-      <c r="D1" s="613"/>
-      <c r="E1" s="613"/>
-      <c r="F1" s="613"/>
-      <c r="G1" s="614"/>
-      <c r="H1" s="612" t="s">
+      <c r="D1" s="615"/>
+      <c r="E1" s="615"/>
+      <c r="F1" s="615"/>
+      <c r="G1" s="616"/>
+      <c r="H1" s="614" t="s">
         <v>731</v>
       </c>
-      <c r="I1" s="613"/>
-      <c r="J1" s="613"/>
-      <c r="K1" s="613"/>
-      <c r="L1" s="614"/>
-      <c r="M1" s="612" t="s">
+      <c r="I1" s="615"/>
+      <c r="J1" s="615"/>
+      <c r="K1" s="615"/>
+      <c r="L1" s="616"/>
+      <c r="M1" s="614" t="s">
         <v>403</v>
       </c>
-      <c r="N1" s="613"/>
-      <c r="O1" s="613"/>
-      <c r="P1" s="613"/>
-      <c r="Q1" s="614"/>
-      <c r="R1" s="612" t="s">
+      <c r="N1" s="615"/>
+      <c r="O1" s="615"/>
+      <c r="P1" s="615"/>
+      <c r="Q1" s="616"/>
+      <c r="R1" s="614" t="s">
         <v>449</v>
       </c>
-      <c r="S1" s="613"/>
-      <c r="T1" s="613"/>
-      <c r="U1" s="613"/>
-      <c r="V1" s="614"/>
-      <c r="W1" s="612" t="s">
+      <c r="S1" s="615"/>
+      <c r="T1" s="615"/>
+      <c r="U1" s="615"/>
+      <c r="V1" s="616"/>
+      <c r="W1" s="614" t="s">
         <v>548</v>
       </c>
-      <c r="X1" s="613"/>
-      <c r="Y1" s="613"/>
-      <c r="Z1" s="614"/>
+      <c r="X1" s="615"/>
+      <c r="Y1" s="615"/>
+      <c r="Z1" s="616"/>
       <c r="AA1" s="19"/>
-      <c r="AB1" s="612" t="s">
+      <c r="AB1" s="614" t="s">
         <v>125</v>
       </c>
-      <c r="AC1" s="613"/>
-      <c r="AD1" s="613"/>
-      <c r="AE1" s="613"/>
-      <c r="AF1" s="614"/>
+      <c r="AC1" s="615"/>
+      <c r="AD1" s="615"/>
+      <c r="AE1" s="615"/>
+      <c r="AF1" s="616"/>
       <c r="AG1" s="19"/>
-      <c r="AH1" s="639" t="s">
+      <c r="AH1" s="641" t="s">
         <v>123</v>
       </c>
-      <c r="AI1" s="640"/>
-      <c r="AJ1" s="640"/>
-      <c r="AK1" s="640"/>
-      <c r="AL1" s="641"/>
-      <c r="AM1" s="639" t="s">
+      <c r="AI1" s="642"/>
+      <c r="AJ1" s="642"/>
+      <c r="AK1" s="642"/>
+      <c r="AL1" s="643"/>
+      <c r="AM1" s="641" t="s">
         <v>342</v>
       </c>
-      <c r="AN1" s="640"/>
-      <c r="AO1" s="640"/>
-      <c r="AP1" s="640"/>
-      <c r="AQ1" s="641"/>
+      <c r="AN1" s="642"/>
+      <c r="AO1" s="642"/>
+      <c r="AP1" s="642"/>
+      <c r="AQ1" s="643"/>
       <c r="AR1" s="19"/>
-      <c r="AS1" s="639" t="s">
+      <c r="AS1" s="641" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="640"/>
-      <c r="AU1" s="641"/>
-      <c r="AV1" s="639" t="s">
+      <c r="AT1" s="642"/>
+      <c r="AU1" s="643"/>
+      <c r="AV1" s="641" t="s">
         <v>422</v>
       </c>
-      <c r="AW1" s="640"/>
-      <c r="AX1" s="640"/>
-      <c r="AY1" s="640"/>
-      <c r="AZ1" s="641"/>
-      <c r="BA1" s="639" t="s">
+      <c r="AW1" s="642"/>
+      <c r="AX1" s="642"/>
+      <c r="AY1" s="642"/>
+      <c r="AZ1" s="643"/>
+      <c r="BA1" s="641" t="s">
         <v>287</v>
       </c>
-      <c r="BB1" s="640"/>
-      <c r="BC1" s="640"/>
-      <c r="BD1" s="640"/>
-      <c r="BE1" s="641"/>
+      <c r="BB1" s="642"/>
+      <c r="BC1" s="642"/>
+      <c r="BD1" s="642"/>
+      <c r="BE1" s="643"/>
       <c r="BF1" s="19"/>
-      <c r="BG1" s="639" t="s">
+      <c r="BG1" s="641" t="s">
         <v>832</v>
       </c>
-      <c r="BH1" s="640"/>
-      <c r="BI1" s="640"/>
-      <c r="BJ1" s="640"/>
-      <c r="BK1" s="641"/>
+      <c r="BH1" s="642"/>
+      <c r="BI1" s="642"/>
+      <c r="BJ1" s="642"/>
+      <c r="BK1" s="643"/>
       <c r="BL1" s="419"/>
-      <c r="BM1" s="639" t="s">
+      <c r="BM1" s="641" t="s">
         <v>13</v>
       </c>
-      <c r="BN1" s="640"/>
-      <c r="BO1" s="640"/>
-      <c r="BP1" s="640"/>
-      <c r="BQ1" s="641"/>
+      <c r="BN1" s="642"/>
+      <c r="BO1" s="642"/>
+      <c r="BP1" s="642"/>
+      <c r="BQ1" s="643"/>
       <c r="BR1" s="19"/>
-      <c r="BS1" s="639" t="s">
+      <c r="BS1" s="641" t="s">
         <v>726</v>
       </c>
-      <c r="BT1" s="640"/>
-      <c r="BU1" s="640"/>
-      <c r="BV1" s="640"/>
-      <c r="BW1" s="641"/>
-      <c r="BX1" s="639" t="s">
+      <c r="BT1" s="642"/>
+      <c r="BU1" s="642"/>
+      <c r="BV1" s="642"/>
+      <c r="BW1" s="643"/>
+      <c r="BX1" s="641" t="s">
         <v>15</v>
       </c>
-      <c r="BY1" s="640"/>
-      <c r="BZ1" s="640"/>
-      <c r="CA1" s="640"/>
-      <c r="CB1" s="641"/>
-      <c r="CC1" s="639" t="s">
+      <c r="BY1" s="642"/>
+      <c r="BZ1" s="642"/>
+      <c r="CA1" s="642"/>
+      <c r="CB1" s="643"/>
+      <c r="CC1" s="641" t="s">
         <v>16</v>
       </c>
-      <c r="CD1" s="640"/>
-      <c r="CE1" s="640"/>
-      <c r="CF1" s="640"/>
-      <c r="CG1" s="641"/>
-      <c r="CH1" s="639" t="s">
+      <c r="CD1" s="642"/>
+      <c r="CE1" s="642"/>
+      <c r="CF1" s="642"/>
+      <c r="CG1" s="643"/>
+      <c r="CH1" s="641" t="s">
         <v>17</v>
       </c>
-      <c r="CI1" s="640"/>
-      <c r="CJ1" s="640"/>
-      <c r="CK1" s="640"/>
-      <c r="CL1" s="641"/>
+      <c r="CI1" s="642"/>
+      <c r="CJ1" s="642"/>
+      <c r="CK1" s="642"/>
+      <c r="CL1" s="643"/>
       <c r="CM1" s="19"/>
-      <c r="CN1" s="639" t="s">
+      <c r="CN1" s="641" t="s">
         <v>834</v>
       </c>
-      <c r="CO1" s="640"/>
-      <c r="CP1" s="640"/>
-      <c r="CQ1" s="640"/>
-      <c r="CR1" s="641"/>
-      <c r="CS1" s="639" t="s">
+      <c r="CO1" s="642"/>
+      <c r="CP1" s="642"/>
+      <c r="CQ1" s="642"/>
+      <c r="CR1" s="643"/>
+      <c r="CS1" s="641" t="s">
         <v>18</v>
       </c>
-      <c r="CT1" s="640"/>
-      <c r="CU1" s="640"/>
-      <c r="CV1" s="640"/>
-      <c r="CW1" s="641"/>
-      <c r="CX1" s="639" t="s">
+      <c r="CT1" s="642"/>
+      <c r="CU1" s="642"/>
+      <c r="CV1" s="642"/>
+      <c r="CW1" s="643"/>
+      <c r="CX1" s="641" t="s">
         <v>19</v>
       </c>
-      <c r="CY1" s="640"/>
-      <c r="CZ1" s="641"/>
-      <c r="DA1" s="622" t="s">
+      <c r="CY1" s="642"/>
+      <c r="CZ1" s="643"/>
+      <c r="DA1" s="624" t="s">
         <v>557</v>
       </c>
-      <c r="DB1" s="623"/>
-      <c r="DC1" s="624"/>
-      <c r="DD1" s="622" t="s">
+      <c r="DB1" s="625"/>
+      <c r="DC1" s="626"/>
+      <c r="DD1" s="624" t="s">
         <v>556</v>
       </c>
-      <c r="DE1" s="623"/>
-      <c r="DF1" s="623"/>
-      <c r="DG1" s="623"/>
-      <c r="DH1" s="624"/>
+      <c r="DE1" s="625"/>
+      <c r="DF1" s="625"/>
+      <c r="DG1" s="625"/>
+      <c r="DH1" s="626"/>
       <c r="DI1" s="19"/>
-      <c r="DJ1" s="639" t="s">
+      <c r="DJ1" s="641" t="s">
         <v>25</v>
       </c>
-      <c r="DK1" s="640"/>
-      <c r="DL1" s="641"/>
-      <c r="DM1" s="639" t="s">
+      <c r="DK1" s="642"/>
+      <c r="DL1" s="643"/>
+      <c r="DM1" s="641" t="s">
         <v>26</v>
       </c>
-      <c r="DN1" s="640"/>
-      <c r="DO1" s="641"/>
-      <c r="DP1" s="642" t="s">
+      <c r="DN1" s="642"/>
+      <c r="DO1" s="643"/>
+      <c r="DP1" s="644" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:120" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="635"/>
-      <c r="B2" s="636"/>
+      <c r="A2" s="637"/>
+      <c r="B2" s="638"/>
       <c r="C2" s="207" t="s">
         <v>22</v>
       </c>
@@ -21600,7 +21611,7 @@
       <c r="DO2" s="514" t="s">
         <v>24</v>
       </c>
-      <c r="DP2" s="643"/>
+      <c r="DP2" s="645"/>
     </row>
     <row r="3" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A3" s="512" t="s">
@@ -21609,21 +21620,21 @@
       <c r="B3" s="510" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="625" t="s">
+      <c r="C3" s="627" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="626"/>
-      <c r="E3" s="626"/>
-      <c r="F3" s="626"/>
-      <c r="G3" s="626"/>
-      <c r="H3" s="626"/>
-      <c r="I3" s="626"/>
-      <c r="J3" s="626"/>
-      <c r="K3" s="626"/>
-      <c r="L3" s="626"/>
-      <c r="M3" s="626"/>
-      <c r="N3" s="626"/>
-      <c r="O3" s="627"/>
+      <c r="D3" s="628"/>
+      <c r="E3" s="628"/>
+      <c r="F3" s="628"/>
+      <c r="G3" s="628"/>
+      <c r="H3" s="628"/>
+      <c r="I3" s="628"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="628"/>
+      <c r="M3" s="628"/>
+      <c r="N3" s="628"/>
+      <c r="O3" s="629"/>
       <c r="P3" s="513"/>
       <c r="Q3" s="513"/>
       <c r="R3" s="513"/>
@@ -21653,33 +21664,33 @@
       <c r="AP3" s="512"/>
       <c r="AQ3" s="512"/>
       <c r="AR3" s="20"/>
-      <c r="AS3" s="625" t="s">
+      <c r="AS3" s="627" t="s">
         <v>11</v>
       </c>
-      <c r="AT3" s="626"/>
-      <c r="AU3" s="626"/>
-      <c r="AV3" s="626"/>
-      <c r="AW3" s="626"/>
-      <c r="AX3" s="626"/>
-      <c r="AY3" s="626"/>
-      <c r="AZ3" s="626"/>
-      <c r="BA3" s="626"/>
-      <c r="BB3" s="626"/>
-      <c r="BC3" s="627"/>
+      <c r="AT3" s="628"/>
+      <c r="AU3" s="628"/>
+      <c r="AV3" s="628"/>
+      <c r="AW3" s="628"/>
+      <c r="AX3" s="628"/>
+      <c r="AY3" s="628"/>
+      <c r="AZ3" s="628"/>
+      <c r="BA3" s="628"/>
+      <c r="BB3" s="628"/>
+      <c r="BC3" s="629"/>
       <c r="BD3" s="513"/>
       <c r="BE3" s="513"/>
       <c r="BF3" s="20"/>
-      <c r="BG3" s="625" t="s">
+      <c r="BG3" s="627" t="s">
         <v>56</v>
       </c>
-      <c r="BH3" s="626"/>
-      <c r="BI3" s="626"/>
-      <c r="BJ3" s="626"/>
-      <c r="BK3" s="626"/>
-      <c r="BL3" s="626"/>
-      <c r="BM3" s="626"/>
-      <c r="BN3" s="626"/>
-      <c r="BO3" s="627"/>
+      <c r="BH3" s="628"/>
+      <c r="BI3" s="628"/>
+      <c r="BJ3" s="628"/>
+      <c r="BK3" s="628"/>
+      <c r="BL3" s="628"/>
+      <c r="BM3" s="628"/>
+      <c r="BN3" s="628"/>
+      <c r="BO3" s="629"/>
       <c r="BP3" s="511"/>
       <c r="BQ3" s="511"/>
       <c r="BR3" s="20"/>
@@ -21688,57 +21699,57 @@
       <c r="BU3" s="20"/>
       <c r="BV3" s="511"/>
       <c r="BW3" s="511"/>
-      <c r="BX3" s="628" t="s">
+      <c r="BX3" s="630" t="s">
         <v>14</v>
       </c>
-      <c r="BY3" s="629"/>
-      <c r="BZ3" s="629"/>
-      <c r="CA3" s="629"/>
-      <c r="CB3" s="629"/>
-      <c r="CC3" s="629"/>
-      <c r="CD3" s="629"/>
-      <c r="CE3" s="629"/>
-      <c r="CF3" s="629"/>
-      <c r="CG3" s="629"/>
-      <c r="CH3" s="629"/>
-      <c r="CI3" s="629"/>
-      <c r="CJ3" s="630"/>
+      <c r="BY3" s="631"/>
+      <c r="BZ3" s="631"/>
+      <c r="CA3" s="631"/>
+      <c r="CB3" s="631"/>
+      <c r="CC3" s="631"/>
+      <c r="CD3" s="631"/>
+      <c r="CE3" s="631"/>
+      <c r="CF3" s="631"/>
+      <c r="CG3" s="631"/>
+      <c r="CH3" s="631"/>
+      <c r="CI3" s="631"/>
+      <c r="CJ3" s="632"/>
       <c r="CK3" s="512"/>
       <c r="CL3" s="512"/>
       <c r="CM3" s="20"/>
-      <c r="CN3" s="625" t="s">
+      <c r="CN3" s="627" t="s">
         <v>20</v>
       </c>
-      <c r="CO3" s="626"/>
-      <c r="CP3" s="626"/>
-      <c r="CQ3" s="626"/>
-      <c r="CR3" s="626"/>
-      <c r="CS3" s="626"/>
-      <c r="CT3" s="626"/>
-      <c r="CU3" s="626"/>
-      <c r="CV3" s="626"/>
-      <c r="CW3" s="626"/>
-      <c r="CX3" s="626"/>
-      <c r="CY3" s="626"/>
-      <c r="CZ3" s="626"/>
-      <c r="DA3" s="626"/>
-      <c r="DB3" s="626"/>
-      <c r="DC3" s="626"/>
-      <c r="DD3" s="626"/>
-      <c r="DE3" s="626"/>
-      <c r="DF3" s="627"/>
+      <c r="CO3" s="628"/>
+      <c r="CP3" s="628"/>
+      <c r="CQ3" s="628"/>
+      <c r="CR3" s="628"/>
+      <c r="CS3" s="628"/>
+      <c r="CT3" s="628"/>
+      <c r="CU3" s="628"/>
+      <c r="CV3" s="628"/>
+      <c r="CW3" s="628"/>
+      <c r="CX3" s="628"/>
+      <c r="CY3" s="628"/>
+      <c r="CZ3" s="628"/>
+      <c r="DA3" s="628"/>
+      <c r="DB3" s="628"/>
+      <c r="DC3" s="628"/>
+      <c r="DD3" s="628"/>
+      <c r="DE3" s="628"/>
+      <c r="DF3" s="629"/>
       <c r="DG3" s="513"/>
       <c r="DH3" s="513"/>
       <c r="DI3" s="20"/>
-      <c r="DJ3" s="625" t="s">
+      <c r="DJ3" s="627" t="s">
         <v>21</v>
       </c>
-      <c r="DK3" s="626"/>
-      <c r="DL3" s="626"/>
-      <c r="DM3" s="626"/>
-      <c r="DN3" s="626"/>
-      <c r="DO3" s="627"/>
-      <c r="DP3" s="644"/>
+      <c r="DK3" s="628"/>
+      <c r="DL3" s="628"/>
+      <c r="DM3" s="628"/>
+      <c r="DN3" s="628"/>
+      <c r="DO3" s="629"/>
+      <c r="DP3" s="646"/>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" s="111">
@@ -24771,128 +24782,128 @@
       </c>
     </row>
     <row r="24" spans="1:120" s="175" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="645" t="s">
+      <c r="A24" s="647" t="s">
         <v>658</v>
       </c>
-      <c r="B24" s="646"/>
-      <c r="C24" s="646"/>
-      <c r="D24" s="646"/>
-      <c r="E24" s="646"/>
-      <c r="F24" s="646"/>
-      <c r="G24" s="646"/>
-      <c r="H24" s="646"/>
-      <c r="I24" s="646"/>
-      <c r="J24" s="646"/>
-      <c r="K24" s="646"/>
-      <c r="L24" s="646"/>
-      <c r="M24" s="646"/>
-      <c r="N24" s="646"/>
-      <c r="O24" s="646"/>
-      <c r="P24" s="646"/>
-      <c r="Q24" s="646"/>
-      <c r="R24" s="646"/>
-      <c r="S24" s="646"/>
-      <c r="T24" s="646"/>
-      <c r="U24" s="646"/>
-      <c r="V24" s="646"/>
-      <c r="W24" s="646"/>
-      <c r="X24" s="646"/>
-      <c r="Y24" s="646"/>
-      <c r="Z24" s="646"/>
-      <c r="AA24" s="646"/>
-      <c r="AB24" s="646"/>
-      <c r="AC24" s="646"/>
-      <c r="AD24" s="646"/>
-      <c r="AE24" s="646"/>
-      <c r="AF24" s="646"/>
-      <c r="AG24" s="646"/>
-      <c r="AH24" s="646"/>
-      <c r="AI24" s="646"/>
-      <c r="AJ24" s="646"/>
-      <c r="AK24" s="646"/>
-      <c r="AL24" s="646"/>
-      <c r="AM24" s="646"/>
-      <c r="AN24" s="646"/>
-      <c r="AO24" s="646"/>
-      <c r="AP24" s="646"/>
-      <c r="AQ24" s="646"/>
-      <c r="AR24" s="646"/>
-      <c r="AS24" s="646"/>
-      <c r="AT24" s="646"/>
-      <c r="AU24" s="646"/>
-      <c r="AV24" s="646"/>
-      <c r="AW24" s="646"/>
-      <c r="AX24" s="646"/>
-      <c r="AY24" s="646"/>
-      <c r="AZ24" s="646"/>
-      <c r="BA24" s="646"/>
-      <c r="BB24" s="646"/>
-      <c r="BC24" s="646"/>
-      <c r="BD24" s="646"/>
-      <c r="BE24" s="646"/>
-      <c r="BF24" s="646"/>
-      <c r="BG24" s="646"/>
-      <c r="BH24" s="646"/>
-      <c r="BI24" s="646"/>
-      <c r="BJ24" s="646"/>
-      <c r="BK24" s="646"/>
-      <c r="BL24" s="646"/>
-      <c r="BM24" s="646"/>
-      <c r="BN24" s="646"/>
-      <c r="BO24" s="646"/>
-      <c r="BP24" s="646"/>
-      <c r="BQ24" s="646"/>
-      <c r="BR24" s="646"/>
-      <c r="BS24" s="646"/>
-      <c r="BT24" s="646"/>
-      <c r="BU24" s="646"/>
-      <c r="BV24" s="646"/>
-      <c r="BW24" s="646"/>
-      <c r="BX24" s="646"/>
-      <c r="BY24" s="646"/>
-      <c r="BZ24" s="646"/>
-      <c r="CA24" s="646"/>
-      <c r="CB24" s="646"/>
-      <c r="CC24" s="646"/>
-      <c r="CD24" s="646"/>
-      <c r="CE24" s="646"/>
-      <c r="CF24" s="646"/>
-      <c r="CG24" s="646"/>
-      <c r="CH24" s="646"/>
-      <c r="CI24" s="646"/>
-      <c r="CJ24" s="646"/>
-      <c r="CK24" s="646"/>
-      <c r="CL24" s="646"/>
-      <c r="CM24" s="646"/>
-      <c r="CN24" s="646"/>
-      <c r="CO24" s="646"/>
-      <c r="CP24" s="646"/>
-      <c r="CQ24" s="646"/>
-      <c r="CR24" s="646"/>
-      <c r="CS24" s="646"/>
-      <c r="CT24" s="646"/>
-      <c r="CU24" s="646"/>
-      <c r="CV24" s="646"/>
-      <c r="CW24" s="646"/>
-      <c r="CX24" s="646"/>
-      <c r="CY24" s="646"/>
-      <c r="CZ24" s="646"/>
-      <c r="DA24" s="646"/>
-      <c r="DB24" s="646"/>
-      <c r="DC24" s="646"/>
-      <c r="DD24" s="646"/>
-      <c r="DE24" s="646"/>
-      <c r="DF24" s="646"/>
-      <c r="DG24" s="646"/>
-      <c r="DH24" s="646"/>
-      <c r="DI24" s="646"/>
-      <c r="DJ24" s="646"/>
-      <c r="DK24" s="646"/>
-      <c r="DL24" s="646"/>
-      <c r="DM24" s="646"/>
-      <c r="DN24" s="646"/>
-      <c r="DO24" s="646"/>
-      <c r="DP24" s="646"/>
+      <c r="B24" s="648"/>
+      <c r="C24" s="648"/>
+      <c r="D24" s="648"/>
+      <c r="E24" s="648"/>
+      <c r="F24" s="648"/>
+      <c r="G24" s="648"/>
+      <c r="H24" s="648"/>
+      <c r="I24" s="648"/>
+      <c r="J24" s="648"/>
+      <c r="K24" s="648"/>
+      <c r="L24" s="648"/>
+      <c r="M24" s="648"/>
+      <c r="N24" s="648"/>
+      <c r="O24" s="648"/>
+      <c r="P24" s="648"/>
+      <c r="Q24" s="648"/>
+      <c r="R24" s="648"/>
+      <c r="S24" s="648"/>
+      <c r="T24" s="648"/>
+      <c r="U24" s="648"/>
+      <c r="V24" s="648"/>
+      <c r="W24" s="648"/>
+      <c r="X24" s="648"/>
+      <c r="Y24" s="648"/>
+      <c r="Z24" s="648"/>
+      <c r="AA24" s="648"/>
+      <c r="AB24" s="648"/>
+      <c r="AC24" s="648"/>
+      <c r="AD24" s="648"/>
+      <c r="AE24" s="648"/>
+      <c r="AF24" s="648"/>
+      <c r="AG24" s="648"/>
+      <c r="AH24" s="648"/>
+      <c r="AI24" s="648"/>
+      <c r="AJ24" s="648"/>
+      <c r="AK24" s="648"/>
+      <c r="AL24" s="648"/>
+      <c r="AM24" s="648"/>
+      <c r="AN24" s="648"/>
+      <c r="AO24" s="648"/>
+      <c r="AP24" s="648"/>
+      <c r="AQ24" s="648"/>
+      <c r="AR24" s="648"/>
+      <c r="AS24" s="648"/>
+      <c r="AT24" s="648"/>
+      <c r="AU24" s="648"/>
+      <c r="AV24" s="648"/>
+      <c r="AW24" s="648"/>
+      <c r="AX24" s="648"/>
+      <c r="AY24" s="648"/>
+      <c r="AZ24" s="648"/>
+      <c r="BA24" s="648"/>
+      <c r="BB24" s="648"/>
+      <c r="BC24" s="648"/>
+      <c r="BD24" s="648"/>
+      <c r="BE24" s="648"/>
+      <c r="BF24" s="648"/>
+      <c r="BG24" s="648"/>
+      <c r="BH24" s="648"/>
+      <c r="BI24" s="648"/>
+      <c r="BJ24" s="648"/>
+      <c r="BK24" s="648"/>
+      <c r="BL24" s="648"/>
+      <c r="BM24" s="648"/>
+      <c r="BN24" s="648"/>
+      <c r="BO24" s="648"/>
+      <c r="BP24" s="648"/>
+      <c r="BQ24" s="648"/>
+      <c r="BR24" s="648"/>
+      <c r="BS24" s="648"/>
+      <c r="BT24" s="648"/>
+      <c r="BU24" s="648"/>
+      <c r="BV24" s="648"/>
+      <c r="BW24" s="648"/>
+      <c r="BX24" s="648"/>
+      <c r="BY24" s="648"/>
+      <c r="BZ24" s="648"/>
+      <c r="CA24" s="648"/>
+      <c r="CB24" s="648"/>
+      <c r="CC24" s="648"/>
+      <c r="CD24" s="648"/>
+      <c r="CE24" s="648"/>
+      <c r="CF24" s="648"/>
+      <c r="CG24" s="648"/>
+      <c r="CH24" s="648"/>
+      <c r="CI24" s="648"/>
+      <c r="CJ24" s="648"/>
+      <c r="CK24" s="648"/>
+      <c r="CL24" s="648"/>
+      <c r="CM24" s="648"/>
+      <c r="CN24" s="648"/>
+      <c r="CO24" s="648"/>
+      <c r="CP24" s="648"/>
+      <c r="CQ24" s="648"/>
+      <c r="CR24" s="648"/>
+      <c r="CS24" s="648"/>
+      <c r="CT24" s="648"/>
+      <c r="CU24" s="648"/>
+      <c r="CV24" s="648"/>
+      <c r="CW24" s="648"/>
+      <c r="CX24" s="648"/>
+      <c r="CY24" s="648"/>
+      <c r="CZ24" s="648"/>
+      <c r="DA24" s="648"/>
+      <c r="DB24" s="648"/>
+      <c r="DC24" s="648"/>
+      <c r="DD24" s="648"/>
+      <c r="DE24" s="648"/>
+      <c r="DF24" s="648"/>
+      <c r="DG24" s="648"/>
+      <c r="DH24" s="648"/>
+      <c r="DI24" s="648"/>
+      <c r="DJ24" s="648"/>
+      <c r="DK24" s="648"/>
+      <c r="DL24" s="648"/>
+      <c r="DM24" s="648"/>
+      <c r="DN24" s="648"/>
+      <c r="DO24" s="648"/>
+      <c r="DP24" s="648"/>
     </row>
     <row r="25" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A25" s="281">
@@ -25871,128 +25882,128 @@
       </c>
     </row>
     <row r="32" spans="1:120" s="175" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="637" t="s">
+      <c r="A32" s="639" t="s">
         <v>657</v>
       </c>
-      <c r="B32" s="638"/>
-      <c r="C32" s="638"/>
-      <c r="D32" s="638"/>
-      <c r="E32" s="638"/>
-      <c r="F32" s="638"/>
-      <c r="G32" s="638"/>
-      <c r="H32" s="638"/>
-      <c r="I32" s="638"/>
-      <c r="J32" s="638"/>
-      <c r="K32" s="638"/>
-      <c r="L32" s="638"/>
-      <c r="M32" s="638"/>
-      <c r="N32" s="638"/>
-      <c r="O32" s="638"/>
-      <c r="P32" s="638"/>
-      <c r="Q32" s="638"/>
-      <c r="R32" s="638"/>
-      <c r="S32" s="638"/>
-      <c r="T32" s="638"/>
-      <c r="U32" s="638"/>
-      <c r="V32" s="638"/>
-      <c r="W32" s="638"/>
-      <c r="X32" s="638"/>
-      <c r="Y32" s="638"/>
-      <c r="Z32" s="638"/>
-      <c r="AA32" s="638"/>
-      <c r="AB32" s="638"/>
-      <c r="AC32" s="638"/>
-      <c r="AD32" s="638"/>
-      <c r="AE32" s="638"/>
-      <c r="AF32" s="638"/>
-      <c r="AG32" s="638"/>
-      <c r="AH32" s="638"/>
-      <c r="AI32" s="638"/>
-      <c r="AJ32" s="638"/>
-      <c r="AK32" s="638"/>
-      <c r="AL32" s="638"/>
-      <c r="AM32" s="638"/>
-      <c r="AN32" s="638"/>
-      <c r="AO32" s="638"/>
-      <c r="AP32" s="638"/>
-      <c r="AQ32" s="638"/>
-      <c r="AR32" s="638"/>
-      <c r="AS32" s="638"/>
-      <c r="AT32" s="638"/>
-      <c r="AU32" s="638"/>
-      <c r="AV32" s="638"/>
-      <c r="AW32" s="638"/>
-      <c r="AX32" s="638"/>
-      <c r="AY32" s="638"/>
-      <c r="AZ32" s="638"/>
-      <c r="BA32" s="638"/>
-      <c r="BB32" s="638"/>
-      <c r="BC32" s="638"/>
-      <c r="BD32" s="638"/>
-      <c r="BE32" s="638"/>
-      <c r="BF32" s="638"/>
-      <c r="BG32" s="638"/>
-      <c r="BH32" s="638"/>
-      <c r="BI32" s="638"/>
-      <c r="BJ32" s="638"/>
-      <c r="BK32" s="638"/>
-      <c r="BL32" s="638"/>
-      <c r="BM32" s="638"/>
-      <c r="BN32" s="638"/>
-      <c r="BO32" s="638"/>
-      <c r="BP32" s="638"/>
-      <c r="BQ32" s="638"/>
-      <c r="BR32" s="638"/>
-      <c r="BS32" s="638"/>
-      <c r="BT32" s="638"/>
-      <c r="BU32" s="638"/>
-      <c r="BV32" s="638"/>
-      <c r="BW32" s="638"/>
-      <c r="BX32" s="638"/>
-      <c r="BY32" s="638"/>
-      <c r="BZ32" s="638"/>
-      <c r="CA32" s="638"/>
-      <c r="CB32" s="638"/>
-      <c r="CC32" s="638"/>
-      <c r="CD32" s="638"/>
-      <c r="CE32" s="638"/>
-      <c r="CF32" s="638"/>
-      <c r="CG32" s="638"/>
-      <c r="CH32" s="638"/>
-      <c r="CI32" s="638"/>
-      <c r="CJ32" s="638"/>
-      <c r="CK32" s="638"/>
-      <c r="CL32" s="638"/>
-      <c r="CM32" s="638"/>
-      <c r="CN32" s="638"/>
-      <c r="CO32" s="638"/>
-      <c r="CP32" s="638"/>
-      <c r="CQ32" s="638"/>
-      <c r="CR32" s="638"/>
-      <c r="CS32" s="638"/>
-      <c r="CT32" s="638"/>
-      <c r="CU32" s="638"/>
-      <c r="CV32" s="638"/>
-      <c r="CW32" s="638"/>
-      <c r="CX32" s="638"/>
-      <c r="CY32" s="638"/>
-      <c r="CZ32" s="638"/>
-      <c r="DA32" s="638"/>
-      <c r="DB32" s="638"/>
-      <c r="DC32" s="638"/>
-      <c r="DD32" s="638"/>
-      <c r="DE32" s="638"/>
-      <c r="DF32" s="638"/>
-      <c r="DG32" s="638"/>
-      <c r="DH32" s="638"/>
-      <c r="DI32" s="638"/>
-      <c r="DJ32" s="638"/>
-      <c r="DK32" s="638"/>
-      <c r="DL32" s="638"/>
-      <c r="DM32" s="638"/>
-      <c r="DN32" s="638"/>
-      <c r="DO32" s="638"/>
-      <c r="DP32" s="638"/>
+      <c r="B32" s="640"/>
+      <c r="C32" s="640"/>
+      <c r="D32" s="640"/>
+      <c r="E32" s="640"/>
+      <c r="F32" s="640"/>
+      <c r="G32" s="640"/>
+      <c r="H32" s="640"/>
+      <c r="I32" s="640"/>
+      <c r="J32" s="640"/>
+      <c r="K32" s="640"/>
+      <c r="L32" s="640"/>
+      <c r="M32" s="640"/>
+      <c r="N32" s="640"/>
+      <c r="O32" s="640"/>
+      <c r="P32" s="640"/>
+      <c r="Q32" s="640"/>
+      <c r="R32" s="640"/>
+      <c r="S32" s="640"/>
+      <c r="T32" s="640"/>
+      <c r="U32" s="640"/>
+      <c r="V32" s="640"/>
+      <c r="W32" s="640"/>
+      <c r="X32" s="640"/>
+      <c r="Y32" s="640"/>
+      <c r="Z32" s="640"/>
+      <c r="AA32" s="640"/>
+      <c r="AB32" s="640"/>
+      <c r="AC32" s="640"/>
+      <c r="AD32" s="640"/>
+      <c r="AE32" s="640"/>
+      <c r="AF32" s="640"/>
+      <c r="AG32" s="640"/>
+      <c r="AH32" s="640"/>
+      <c r="AI32" s="640"/>
+      <c r="AJ32" s="640"/>
+      <c r="AK32" s="640"/>
+      <c r="AL32" s="640"/>
+      <c r="AM32" s="640"/>
+      <c r="AN32" s="640"/>
+      <c r="AO32" s="640"/>
+      <c r="AP32" s="640"/>
+      <c r="AQ32" s="640"/>
+      <c r="AR32" s="640"/>
+      <c r="AS32" s="640"/>
+      <c r="AT32" s="640"/>
+      <c r="AU32" s="640"/>
+      <c r="AV32" s="640"/>
+      <c r="AW32" s="640"/>
+      <c r="AX32" s="640"/>
+      <c r="AY32" s="640"/>
+      <c r="AZ32" s="640"/>
+      <c r="BA32" s="640"/>
+      <c r="BB32" s="640"/>
+      <c r="BC32" s="640"/>
+      <c r="BD32" s="640"/>
+      <c r="BE32" s="640"/>
+      <c r="BF32" s="640"/>
+      <c r="BG32" s="640"/>
+      <c r="BH32" s="640"/>
+      <c r="BI32" s="640"/>
+      <c r="BJ32" s="640"/>
+      <c r="BK32" s="640"/>
+      <c r="BL32" s="640"/>
+      <c r="BM32" s="640"/>
+      <c r="BN32" s="640"/>
+      <c r="BO32" s="640"/>
+      <c r="BP32" s="640"/>
+      <c r="BQ32" s="640"/>
+      <c r="BR32" s="640"/>
+      <c r="BS32" s="640"/>
+      <c r="BT32" s="640"/>
+      <c r="BU32" s="640"/>
+      <c r="BV32" s="640"/>
+      <c r="BW32" s="640"/>
+      <c r="BX32" s="640"/>
+      <c r="BY32" s="640"/>
+      <c r="BZ32" s="640"/>
+      <c r="CA32" s="640"/>
+      <c r="CB32" s="640"/>
+      <c r="CC32" s="640"/>
+      <c r="CD32" s="640"/>
+      <c r="CE32" s="640"/>
+      <c r="CF32" s="640"/>
+      <c r="CG32" s="640"/>
+      <c r="CH32" s="640"/>
+      <c r="CI32" s="640"/>
+      <c r="CJ32" s="640"/>
+      <c r="CK32" s="640"/>
+      <c r="CL32" s="640"/>
+      <c r="CM32" s="640"/>
+      <c r="CN32" s="640"/>
+      <c r="CO32" s="640"/>
+      <c r="CP32" s="640"/>
+      <c r="CQ32" s="640"/>
+      <c r="CR32" s="640"/>
+      <c r="CS32" s="640"/>
+      <c r="CT32" s="640"/>
+      <c r="CU32" s="640"/>
+      <c r="CV32" s="640"/>
+      <c r="CW32" s="640"/>
+      <c r="CX32" s="640"/>
+      <c r="CY32" s="640"/>
+      <c r="CZ32" s="640"/>
+      <c r="DA32" s="640"/>
+      <c r="DB32" s="640"/>
+      <c r="DC32" s="640"/>
+      <c r="DD32" s="640"/>
+      <c r="DE32" s="640"/>
+      <c r="DF32" s="640"/>
+      <c r="DG32" s="640"/>
+      <c r="DH32" s="640"/>
+      <c r="DI32" s="640"/>
+      <c r="DJ32" s="640"/>
+      <c r="DK32" s="640"/>
+      <c r="DL32" s="640"/>
+      <c r="DM32" s="640"/>
+      <c r="DN32" s="640"/>
+      <c r="DO32" s="640"/>
+      <c r="DP32" s="640"/>
     </row>
     <row r="33" spans="1:138" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="111">
@@ -26538,20 +26549,20 @@
       <c r="AS36" s="116"/>
       <c r="AT36" s="114"/>
       <c r="AU36" s="113"/>
-      <c r="AV36" s="615" t="s">
+      <c r="AV36" s="617" t="s">
         <v>104</v>
       </c>
-      <c r="AW36" s="616"/>
-      <c r="AX36" s="616"/>
-      <c r="AY36" s="616"/>
-      <c r="AZ36" s="617"/>
-      <c r="BA36" s="618" t="s">
+      <c r="AW36" s="618"/>
+      <c r="AX36" s="618"/>
+      <c r="AY36" s="618"/>
+      <c r="AZ36" s="619"/>
+      <c r="BA36" s="620" t="s">
         <v>104</v>
       </c>
-      <c r="BB36" s="619"/>
-      <c r="BC36" s="619"/>
-      <c r="BD36" s="619"/>
-      <c r="BE36" s="620"/>
+      <c r="BB36" s="621"/>
+      <c r="BC36" s="621"/>
+      <c r="BD36" s="621"/>
+      <c r="BE36" s="622"/>
       <c r="BF36" s="115"/>
       <c r="BG36" s="116"/>
       <c r="BH36" s="114"/>
@@ -26680,20 +26691,20 @@
       <c r="AS37" s="116"/>
       <c r="AT37" s="114"/>
       <c r="AU37" s="113"/>
-      <c r="AV37" s="615" t="s">
+      <c r="AV37" s="617" t="s">
         <v>104</v>
       </c>
-      <c r="AW37" s="616"/>
-      <c r="AX37" s="616"/>
-      <c r="AY37" s="616"/>
-      <c r="AZ37" s="617"/>
-      <c r="BA37" s="618" t="s">
+      <c r="AW37" s="618"/>
+      <c r="AX37" s="618"/>
+      <c r="AY37" s="618"/>
+      <c r="AZ37" s="619"/>
+      <c r="BA37" s="620" t="s">
         <v>104</v>
       </c>
-      <c r="BB37" s="619"/>
-      <c r="BC37" s="619"/>
-      <c r="BD37" s="619"/>
-      <c r="BE37" s="620"/>
+      <c r="BB37" s="621"/>
+      <c r="BC37" s="621"/>
+      <c r="BD37" s="621"/>
+      <c r="BE37" s="622"/>
       <c r="BF37" s="115"/>
       <c r="BG37" s="116"/>
       <c r="BH37" s="114"/>
@@ -26822,20 +26833,20 @@
       <c r="AS38" s="116"/>
       <c r="AT38" s="114"/>
       <c r="AU38" s="113"/>
-      <c r="AV38" s="615" t="s">
+      <c r="AV38" s="617" t="s">
         <v>104</v>
       </c>
-      <c r="AW38" s="616"/>
-      <c r="AX38" s="616"/>
-      <c r="AY38" s="616"/>
-      <c r="AZ38" s="617"/>
-      <c r="BA38" s="618" t="s">
+      <c r="AW38" s="618"/>
+      <c r="AX38" s="618"/>
+      <c r="AY38" s="618"/>
+      <c r="AZ38" s="619"/>
+      <c r="BA38" s="620" t="s">
         <v>104</v>
       </c>
-      <c r="BB38" s="619"/>
-      <c r="BC38" s="619"/>
-      <c r="BD38" s="619"/>
-      <c r="BE38" s="620"/>
+      <c r="BB38" s="621"/>
+      <c r="BC38" s="621"/>
+      <c r="BD38" s="621"/>
+      <c r="BE38" s="622"/>
       <c r="BF38" s="115"/>
       <c r="BG38" s="116"/>
       <c r="BH38" s="114"/>
@@ -26964,20 +26975,20 @@
       <c r="AS39" s="116"/>
       <c r="AT39" s="114"/>
       <c r="AU39" s="113"/>
-      <c r="AV39" s="615" t="s">
+      <c r="AV39" s="617" t="s">
         <v>104</v>
       </c>
-      <c r="AW39" s="616"/>
-      <c r="AX39" s="616"/>
-      <c r="AY39" s="616"/>
-      <c r="AZ39" s="617"/>
-      <c r="BA39" s="618" t="s">
+      <c r="AW39" s="618"/>
+      <c r="AX39" s="618"/>
+      <c r="AY39" s="618"/>
+      <c r="AZ39" s="619"/>
+      <c r="BA39" s="620" t="s">
         <v>104</v>
       </c>
-      <c r="BB39" s="619"/>
-      <c r="BC39" s="619"/>
-      <c r="BD39" s="619"/>
-      <c r="BE39" s="620"/>
+      <c r="BB39" s="621"/>
+      <c r="BC39" s="621"/>
+      <c r="BD39" s="621"/>
+      <c r="BE39" s="622"/>
       <c r="BF39" s="115"/>
       <c r="BG39" s="116"/>
       <c r="BH39" s="114"/>
@@ -27055,128 +27066,128 @@
       </c>
     </row>
     <row r="40" spans="1:138" s="175" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="637" t="s">
+      <c r="A40" s="639" t="s">
         <v>716</v>
       </c>
-      <c r="B40" s="638"/>
-      <c r="C40" s="638"/>
-      <c r="D40" s="638"/>
-      <c r="E40" s="638"/>
-      <c r="F40" s="638"/>
-      <c r="G40" s="638"/>
-      <c r="H40" s="638"/>
-      <c r="I40" s="638"/>
-      <c r="J40" s="638"/>
-      <c r="K40" s="638"/>
-      <c r="L40" s="638"/>
-      <c r="M40" s="638"/>
-      <c r="N40" s="638"/>
-      <c r="O40" s="638"/>
-      <c r="P40" s="638"/>
-      <c r="Q40" s="638"/>
-      <c r="R40" s="638"/>
-      <c r="S40" s="638"/>
-      <c r="T40" s="638"/>
-      <c r="U40" s="638"/>
-      <c r="V40" s="638"/>
-      <c r="W40" s="638"/>
-      <c r="X40" s="638"/>
-      <c r="Y40" s="638"/>
-      <c r="Z40" s="638"/>
-      <c r="AA40" s="638"/>
-      <c r="AB40" s="638"/>
-      <c r="AC40" s="638"/>
-      <c r="AD40" s="638"/>
-      <c r="AE40" s="638"/>
-      <c r="AF40" s="638"/>
-      <c r="AG40" s="638"/>
-      <c r="AH40" s="638"/>
-      <c r="AI40" s="638"/>
-      <c r="AJ40" s="638"/>
-      <c r="AK40" s="638"/>
-      <c r="AL40" s="638"/>
-      <c r="AM40" s="638"/>
-      <c r="AN40" s="638"/>
-      <c r="AO40" s="638"/>
-      <c r="AP40" s="638"/>
-      <c r="AQ40" s="638"/>
-      <c r="AR40" s="638"/>
-      <c r="AS40" s="638"/>
-      <c r="AT40" s="638"/>
-      <c r="AU40" s="638"/>
-      <c r="AV40" s="638"/>
-      <c r="AW40" s="638"/>
-      <c r="AX40" s="638"/>
-      <c r="AY40" s="638"/>
-      <c r="AZ40" s="638"/>
-      <c r="BA40" s="638"/>
-      <c r="BB40" s="638"/>
-      <c r="BC40" s="638"/>
-      <c r="BD40" s="638"/>
-      <c r="BE40" s="638"/>
-      <c r="BF40" s="638"/>
-      <c r="BG40" s="638"/>
-      <c r="BH40" s="638"/>
-      <c r="BI40" s="638"/>
-      <c r="BJ40" s="638"/>
-      <c r="BK40" s="638"/>
-      <c r="BL40" s="638"/>
-      <c r="BM40" s="638"/>
-      <c r="BN40" s="638"/>
-      <c r="BO40" s="638"/>
-      <c r="BP40" s="638"/>
-      <c r="BQ40" s="638"/>
-      <c r="BR40" s="638"/>
-      <c r="BS40" s="638"/>
-      <c r="BT40" s="638"/>
-      <c r="BU40" s="638"/>
-      <c r="BV40" s="638"/>
-      <c r="BW40" s="638"/>
-      <c r="BX40" s="638"/>
-      <c r="BY40" s="638"/>
-      <c r="BZ40" s="638"/>
-      <c r="CA40" s="638"/>
-      <c r="CB40" s="638"/>
-      <c r="CC40" s="638"/>
-      <c r="CD40" s="638"/>
-      <c r="CE40" s="638"/>
-      <c r="CF40" s="638"/>
-      <c r="CG40" s="638"/>
-      <c r="CH40" s="638"/>
-      <c r="CI40" s="638"/>
-      <c r="CJ40" s="638"/>
-      <c r="CK40" s="638"/>
-      <c r="CL40" s="638"/>
-      <c r="CM40" s="638"/>
-      <c r="CN40" s="638"/>
-      <c r="CO40" s="638"/>
-      <c r="CP40" s="638"/>
-      <c r="CQ40" s="638"/>
-      <c r="CR40" s="638"/>
-      <c r="CS40" s="638"/>
-      <c r="CT40" s="638"/>
-      <c r="CU40" s="638"/>
-      <c r="CV40" s="638"/>
-      <c r="CW40" s="638"/>
-      <c r="CX40" s="638"/>
-      <c r="CY40" s="638"/>
-      <c r="CZ40" s="638"/>
-      <c r="DA40" s="638"/>
-      <c r="DB40" s="638"/>
-      <c r="DC40" s="638"/>
-      <c r="DD40" s="638"/>
-      <c r="DE40" s="638"/>
-      <c r="DF40" s="638"/>
-      <c r="DG40" s="638"/>
-      <c r="DH40" s="638"/>
-      <c r="DI40" s="638"/>
-      <c r="DJ40" s="638"/>
-      <c r="DK40" s="638"/>
-      <c r="DL40" s="638"/>
-      <c r="DM40" s="638"/>
-      <c r="DN40" s="638"/>
-      <c r="DO40" s="638"/>
-      <c r="DP40" s="638"/>
+      <c r="B40" s="640"/>
+      <c r="C40" s="640"/>
+      <c r="D40" s="640"/>
+      <c r="E40" s="640"/>
+      <c r="F40" s="640"/>
+      <c r="G40" s="640"/>
+      <c r="H40" s="640"/>
+      <c r="I40" s="640"/>
+      <c r="J40" s="640"/>
+      <c r="K40" s="640"/>
+      <c r="L40" s="640"/>
+      <c r="M40" s="640"/>
+      <c r="N40" s="640"/>
+      <c r="O40" s="640"/>
+      <c r="P40" s="640"/>
+      <c r="Q40" s="640"/>
+      <c r="R40" s="640"/>
+      <c r="S40" s="640"/>
+      <c r="T40" s="640"/>
+      <c r="U40" s="640"/>
+      <c r="V40" s="640"/>
+      <c r="W40" s="640"/>
+      <c r="X40" s="640"/>
+      <c r="Y40" s="640"/>
+      <c r="Z40" s="640"/>
+      <c r="AA40" s="640"/>
+      <c r="AB40" s="640"/>
+      <c r="AC40" s="640"/>
+      <c r="AD40" s="640"/>
+      <c r="AE40" s="640"/>
+      <c r="AF40" s="640"/>
+      <c r="AG40" s="640"/>
+      <c r="AH40" s="640"/>
+      <c r="AI40" s="640"/>
+      <c r="AJ40" s="640"/>
+      <c r="AK40" s="640"/>
+      <c r="AL40" s="640"/>
+      <c r="AM40" s="640"/>
+      <c r="AN40" s="640"/>
+      <c r="AO40" s="640"/>
+      <c r="AP40" s="640"/>
+      <c r="AQ40" s="640"/>
+      <c r="AR40" s="640"/>
+      <c r="AS40" s="640"/>
+      <c r="AT40" s="640"/>
+      <c r="AU40" s="640"/>
+      <c r="AV40" s="640"/>
+      <c r="AW40" s="640"/>
+      <c r="AX40" s="640"/>
+      <c r="AY40" s="640"/>
+      <c r="AZ40" s="640"/>
+      <c r="BA40" s="640"/>
+      <c r="BB40" s="640"/>
+      <c r="BC40" s="640"/>
+      <c r="BD40" s="640"/>
+      <c r="BE40" s="640"/>
+      <c r="BF40" s="640"/>
+      <c r="BG40" s="640"/>
+      <c r="BH40" s="640"/>
+      <c r="BI40" s="640"/>
+      <c r="BJ40" s="640"/>
+      <c r="BK40" s="640"/>
+      <c r="BL40" s="640"/>
+      <c r="BM40" s="640"/>
+      <c r="BN40" s="640"/>
+      <c r="BO40" s="640"/>
+      <c r="BP40" s="640"/>
+      <c r="BQ40" s="640"/>
+      <c r="BR40" s="640"/>
+      <c r="BS40" s="640"/>
+      <c r="BT40" s="640"/>
+      <c r="BU40" s="640"/>
+      <c r="BV40" s="640"/>
+      <c r="BW40" s="640"/>
+      <c r="BX40" s="640"/>
+      <c r="BY40" s="640"/>
+      <c r="BZ40" s="640"/>
+      <c r="CA40" s="640"/>
+      <c r="CB40" s="640"/>
+      <c r="CC40" s="640"/>
+      <c r="CD40" s="640"/>
+      <c r="CE40" s="640"/>
+      <c r="CF40" s="640"/>
+      <c r="CG40" s="640"/>
+      <c r="CH40" s="640"/>
+      <c r="CI40" s="640"/>
+      <c r="CJ40" s="640"/>
+      <c r="CK40" s="640"/>
+      <c r="CL40" s="640"/>
+      <c r="CM40" s="640"/>
+      <c r="CN40" s="640"/>
+      <c r="CO40" s="640"/>
+      <c r="CP40" s="640"/>
+      <c r="CQ40" s="640"/>
+      <c r="CR40" s="640"/>
+      <c r="CS40" s="640"/>
+      <c r="CT40" s="640"/>
+      <c r="CU40" s="640"/>
+      <c r="CV40" s="640"/>
+      <c r="CW40" s="640"/>
+      <c r="CX40" s="640"/>
+      <c r="CY40" s="640"/>
+      <c r="CZ40" s="640"/>
+      <c r="DA40" s="640"/>
+      <c r="DB40" s="640"/>
+      <c r="DC40" s="640"/>
+      <c r="DD40" s="640"/>
+      <c r="DE40" s="640"/>
+      <c r="DF40" s="640"/>
+      <c r="DG40" s="640"/>
+      <c r="DH40" s="640"/>
+      <c r="DI40" s="640"/>
+      <c r="DJ40" s="640"/>
+      <c r="DK40" s="640"/>
+      <c r="DL40" s="640"/>
+      <c r="DM40" s="640"/>
+      <c r="DN40" s="640"/>
+      <c r="DO40" s="640"/>
+      <c r="DP40" s="640"/>
     </row>
     <row r="41" spans="1:138" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="111">
@@ -27857,128 +27868,128 @@
       <c r="DP45" s="111"/>
     </row>
     <row r="46" spans="1:138" x14ac:dyDescent="0.25">
-      <c r="A46" s="637" t="s">
+      <c r="A46" s="639" t="s">
         <v>737</v>
       </c>
-      <c r="B46" s="638"/>
-      <c r="C46" s="638"/>
-      <c r="D46" s="638"/>
-      <c r="E46" s="638"/>
-      <c r="F46" s="638"/>
-      <c r="G46" s="638"/>
-      <c r="H46" s="638"/>
-      <c r="I46" s="638"/>
-      <c r="J46" s="638"/>
-      <c r="K46" s="638"/>
-      <c r="L46" s="638"/>
-      <c r="M46" s="638"/>
-      <c r="N46" s="638"/>
-      <c r="O46" s="638"/>
-      <c r="P46" s="638"/>
-      <c r="Q46" s="638"/>
-      <c r="R46" s="638"/>
-      <c r="S46" s="638"/>
-      <c r="T46" s="638"/>
-      <c r="U46" s="638"/>
-      <c r="V46" s="638"/>
-      <c r="W46" s="638"/>
-      <c r="X46" s="638"/>
-      <c r="Y46" s="638"/>
-      <c r="Z46" s="638"/>
-      <c r="AA46" s="638"/>
-      <c r="AB46" s="638"/>
-      <c r="AC46" s="638"/>
-      <c r="AD46" s="638"/>
-      <c r="AE46" s="638"/>
-      <c r="AF46" s="638"/>
-      <c r="AG46" s="638"/>
-      <c r="AH46" s="638"/>
-      <c r="AI46" s="638"/>
-      <c r="AJ46" s="638"/>
-      <c r="AK46" s="638"/>
-      <c r="AL46" s="638"/>
-      <c r="AM46" s="638"/>
-      <c r="AN46" s="638"/>
-      <c r="AO46" s="638"/>
-      <c r="AP46" s="638"/>
-      <c r="AQ46" s="638"/>
-      <c r="AR46" s="638"/>
-      <c r="AS46" s="638"/>
-      <c r="AT46" s="638"/>
-      <c r="AU46" s="638"/>
-      <c r="AV46" s="638"/>
-      <c r="AW46" s="638"/>
-      <c r="AX46" s="638"/>
-      <c r="AY46" s="638"/>
-      <c r="AZ46" s="638"/>
-      <c r="BA46" s="638"/>
-      <c r="BB46" s="638"/>
-      <c r="BC46" s="638"/>
-      <c r="BD46" s="638"/>
-      <c r="BE46" s="638"/>
-      <c r="BF46" s="638"/>
-      <c r="BG46" s="638"/>
-      <c r="BH46" s="638"/>
-      <c r="BI46" s="638"/>
-      <c r="BJ46" s="638"/>
-      <c r="BK46" s="638"/>
-      <c r="BL46" s="638"/>
-      <c r="BM46" s="638"/>
-      <c r="BN46" s="638"/>
-      <c r="BO46" s="638"/>
-      <c r="BP46" s="638"/>
-      <c r="BQ46" s="638"/>
-      <c r="BR46" s="638"/>
-      <c r="BS46" s="638"/>
-      <c r="BT46" s="638"/>
-      <c r="BU46" s="638"/>
-      <c r="BV46" s="638"/>
-      <c r="BW46" s="638"/>
-      <c r="BX46" s="638"/>
-      <c r="BY46" s="638"/>
-      <c r="BZ46" s="638"/>
-      <c r="CA46" s="638"/>
-      <c r="CB46" s="638"/>
-      <c r="CC46" s="638"/>
-      <c r="CD46" s="638"/>
-      <c r="CE46" s="638"/>
-      <c r="CF46" s="638"/>
-      <c r="CG46" s="638"/>
-      <c r="CH46" s="638"/>
-      <c r="CI46" s="638"/>
-      <c r="CJ46" s="638"/>
-      <c r="CK46" s="638"/>
-      <c r="CL46" s="638"/>
-      <c r="CM46" s="638"/>
-      <c r="CN46" s="638"/>
-      <c r="CO46" s="638"/>
-      <c r="CP46" s="638"/>
-      <c r="CQ46" s="638"/>
-      <c r="CR46" s="638"/>
-      <c r="CS46" s="638"/>
-      <c r="CT46" s="638"/>
-      <c r="CU46" s="638"/>
-      <c r="CV46" s="638"/>
-      <c r="CW46" s="638"/>
-      <c r="CX46" s="638"/>
-      <c r="CY46" s="638"/>
-      <c r="CZ46" s="638"/>
-      <c r="DA46" s="638"/>
-      <c r="DB46" s="638"/>
-      <c r="DC46" s="638"/>
-      <c r="DD46" s="638"/>
-      <c r="DE46" s="638"/>
-      <c r="DF46" s="638"/>
-      <c r="DG46" s="638"/>
-      <c r="DH46" s="638"/>
-      <c r="DI46" s="638"/>
-      <c r="DJ46" s="638"/>
-      <c r="DK46" s="638"/>
-      <c r="DL46" s="638"/>
-      <c r="DM46" s="638"/>
-      <c r="DN46" s="638"/>
-      <c r="DO46" s="638"/>
-      <c r="DP46" s="638"/>
+      <c r="B46" s="640"/>
+      <c r="C46" s="640"/>
+      <c r="D46" s="640"/>
+      <c r="E46" s="640"/>
+      <c r="F46" s="640"/>
+      <c r="G46" s="640"/>
+      <c r="H46" s="640"/>
+      <c r="I46" s="640"/>
+      <c r="J46" s="640"/>
+      <c r="K46" s="640"/>
+      <c r="L46" s="640"/>
+      <c r="M46" s="640"/>
+      <c r="N46" s="640"/>
+      <c r="O46" s="640"/>
+      <c r="P46" s="640"/>
+      <c r="Q46" s="640"/>
+      <c r="R46" s="640"/>
+      <c r="S46" s="640"/>
+      <c r="T46" s="640"/>
+      <c r="U46" s="640"/>
+      <c r="V46" s="640"/>
+      <c r="W46" s="640"/>
+      <c r="X46" s="640"/>
+      <c r="Y46" s="640"/>
+      <c r="Z46" s="640"/>
+      <c r="AA46" s="640"/>
+      <c r="AB46" s="640"/>
+      <c r="AC46" s="640"/>
+      <c r="AD46" s="640"/>
+      <c r="AE46" s="640"/>
+      <c r="AF46" s="640"/>
+      <c r="AG46" s="640"/>
+      <c r="AH46" s="640"/>
+      <c r="AI46" s="640"/>
+      <c r="AJ46" s="640"/>
+      <c r="AK46" s="640"/>
+      <c r="AL46" s="640"/>
+      <c r="AM46" s="640"/>
+      <c r="AN46" s="640"/>
+      <c r="AO46" s="640"/>
+      <c r="AP46" s="640"/>
+      <c r="AQ46" s="640"/>
+      <c r="AR46" s="640"/>
+      <c r="AS46" s="640"/>
+      <c r="AT46" s="640"/>
+      <c r="AU46" s="640"/>
+      <c r="AV46" s="640"/>
+      <c r="AW46" s="640"/>
+      <c r="AX46" s="640"/>
+      <c r="AY46" s="640"/>
+      <c r="AZ46" s="640"/>
+      <c r="BA46" s="640"/>
+      <c r="BB46" s="640"/>
+      <c r="BC46" s="640"/>
+      <c r="BD46" s="640"/>
+      <c r="BE46" s="640"/>
+      <c r="BF46" s="640"/>
+      <c r="BG46" s="640"/>
+      <c r="BH46" s="640"/>
+      <c r="BI46" s="640"/>
+      <c r="BJ46" s="640"/>
+      <c r="BK46" s="640"/>
+      <c r="BL46" s="640"/>
+      <c r="BM46" s="640"/>
+      <c r="BN46" s="640"/>
+      <c r="BO46" s="640"/>
+      <c r="BP46" s="640"/>
+      <c r="BQ46" s="640"/>
+      <c r="BR46" s="640"/>
+      <c r="BS46" s="640"/>
+      <c r="BT46" s="640"/>
+      <c r="BU46" s="640"/>
+      <c r="BV46" s="640"/>
+      <c r="BW46" s="640"/>
+      <c r="BX46" s="640"/>
+      <c r="BY46" s="640"/>
+      <c r="BZ46" s="640"/>
+      <c r="CA46" s="640"/>
+      <c r="CB46" s="640"/>
+      <c r="CC46" s="640"/>
+      <c r="CD46" s="640"/>
+      <c r="CE46" s="640"/>
+      <c r="CF46" s="640"/>
+      <c r="CG46" s="640"/>
+      <c r="CH46" s="640"/>
+      <c r="CI46" s="640"/>
+      <c r="CJ46" s="640"/>
+      <c r="CK46" s="640"/>
+      <c r="CL46" s="640"/>
+      <c r="CM46" s="640"/>
+      <c r="CN46" s="640"/>
+      <c r="CO46" s="640"/>
+      <c r="CP46" s="640"/>
+      <c r="CQ46" s="640"/>
+      <c r="CR46" s="640"/>
+      <c r="CS46" s="640"/>
+      <c r="CT46" s="640"/>
+      <c r="CU46" s="640"/>
+      <c r="CV46" s="640"/>
+      <c r="CW46" s="640"/>
+      <c r="CX46" s="640"/>
+      <c r="CY46" s="640"/>
+      <c r="CZ46" s="640"/>
+      <c r="DA46" s="640"/>
+      <c r="DB46" s="640"/>
+      <c r="DC46" s="640"/>
+      <c r="DD46" s="640"/>
+      <c r="DE46" s="640"/>
+      <c r="DF46" s="640"/>
+      <c r="DG46" s="640"/>
+      <c r="DH46" s="640"/>
+      <c r="DI46" s="640"/>
+      <c r="DJ46" s="640"/>
+      <c r="DK46" s="640"/>
+      <c r="DL46" s="640"/>
+      <c r="DM46" s="640"/>
+      <c r="DN46" s="640"/>
+      <c r="DO46" s="640"/>
+      <c r="DP46" s="640"/>
     </row>
     <row r="47" spans="1:138" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="111">
@@ -28404,128 +28415,128 @@
       </c>
     </row>
     <row r="50" spans="1:120" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="637" t="s">
+      <c r="A50" s="639" t="s">
         <v>812</v>
       </c>
-      <c r="B50" s="638"/>
-      <c r="C50" s="638"/>
-      <c r="D50" s="638"/>
-      <c r="E50" s="638"/>
-      <c r="F50" s="638"/>
-      <c r="G50" s="638"/>
-      <c r="H50" s="638"/>
-      <c r="I50" s="638"/>
-      <c r="J50" s="638"/>
-      <c r="K50" s="638"/>
-      <c r="L50" s="638"/>
-      <c r="M50" s="638"/>
-      <c r="N50" s="638"/>
-      <c r="O50" s="638"/>
-      <c r="P50" s="638"/>
-      <c r="Q50" s="638"/>
-      <c r="R50" s="638"/>
-      <c r="S50" s="638"/>
-      <c r="T50" s="638"/>
-      <c r="U50" s="638"/>
-      <c r="V50" s="638"/>
-      <c r="W50" s="638"/>
-      <c r="X50" s="638"/>
-      <c r="Y50" s="638"/>
-      <c r="Z50" s="638"/>
-      <c r="AA50" s="638"/>
-      <c r="AB50" s="638"/>
-      <c r="AC50" s="638"/>
-      <c r="AD50" s="638"/>
-      <c r="AE50" s="638"/>
-      <c r="AF50" s="638"/>
-      <c r="AG50" s="638"/>
-      <c r="AH50" s="638"/>
-      <c r="AI50" s="638"/>
-      <c r="AJ50" s="638"/>
-      <c r="AK50" s="638"/>
-      <c r="AL50" s="638"/>
-      <c r="AM50" s="638"/>
-      <c r="AN50" s="638"/>
-      <c r="AO50" s="638"/>
-      <c r="AP50" s="638"/>
-      <c r="AQ50" s="638"/>
-      <c r="AR50" s="638"/>
-      <c r="AS50" s="638"/>
-      <c r="AT50" s="638"/>
-      <c r="AU50" s="638"/>
-      <c r="AV50" s="638"/>
-      <c r="AW50" s="638"/>
-      <c r="AX50" s="638"/>
-      <c r="AY50" s="638"/>
-      <c r="AZ50" s="638"/>
-      <c r="BA50" s="638"/>
-      <c r="BB50" s="638"/>
-      <c r="BC50" s="638"/>
-      <c r="BD50" s="638"/>
-      <c r="BE50" s="638"/>
-      <c r="BF50" s="638"/>
-      <c r="BG50" s="638"/>
-      <c r="BH50" s="638"/>
-      <c r="BI50" s="638"/>
-      <c r="BJ50" s="638"/>
-      <c r="BK50" s="638"/>
-      <c r="BL50" s="638"/>
-      <c r="BM50" s="638"/>
-      <c r="BN50" s="638"/>
-      <c r="BO50" s="638"/>
-      <c r="BP50" s="638"/>
-      <c r="BQ50" s="638"/>
-      <c r="BR50" s="638"/>
-      <c r="BS50" s="638"/>
-      <c r="BT50" s="638"/>
-      <c r="BU50" s="638"/>
-      <c r="BV50" s="638"/>
-      <c r="BW50" s="638"/>
-      <c r="BX50" s="638"/>
-      <c r="BY50" s="638"/>
-      <c r="BZ50" s="638"/>
-      <c r="CA50" s="638"/>
-      <c r="CB50" s="638"/>
-      <c r="CC50" s="638"/>
-      <c r="CD50" s="638"/>
-      <c r="CE50" s="638"/>
-      <c r="CF50" s="638"/>
-      <c r="CG50" s="638"/>
-      <c r="CH50" s="638"/>
-      <c r="CI50" s="638"/>
-      <c r="CJ50" s="638"/>
-      <c r="CK50" s="638"/>
-      <c r="CL50" s="638"/>
-      <c r="CM50" s="638"/>
-      <c r="CN50" s="638"/>
-      <c r="CO50" s="638"/>
-      <c r="CP50" s="638"/>
-      <c r="CQ50" s="638"/>
-      <c r="CR50" s="638"/>
-      <c r="CS50" s="638"/>
-      <c r="CT50" s="638"/>
-      <c r="CU50" s="638"/>
-      <c r="CV50" s="638"/>
-      <c r="CW50" s="638"/>
-      <c r="CX50" s="638"/>
-      <c r="CY50" s="638"/>
-      <c r="CZ50" s="638"/>
-      <c r="DA50" s="638"/>
-      <c r="DB50" s="638"/>
-      <c r="DC50" s="638"/>
-      <c r="DD50" s="638"/>
-      <c r="DE50" s="638"/>
-      <c r="DF50" s="638"/>
-      <c r="DG50" s="638"/>
-      <c r="DH50" s="638"/>
-      <c r="DI50" s="638"/>
-      <c r="DJ50" s="638"/>
-      <c r="DK50" s="638"/>
-      <c r="DL50" s="638"/>
-      <c r="DM50" s="638"/>
-      <c r="DN50" s="638"/>
-      <c r="DO50" s="638"/>
-      <c r="DP50" s="638"/>
+      <c r="B50" s="640"/>
+      <c r="C50" s="640"/>
+      <c r="D50" s="640"/>
+      <c r="E50" s="640"/>
+      <c r="F50" s="640"/>
+      <c r="G50" s="640"/>
+      <c r="H50" s="640"/>
+      <c r="I50" s="640"/>
+      <c r="J50" s="640"/>
+      <c r="K50" s="640"/>
+      <c r="L50" s="640"/>
+      <c r="M50" s="640"/>
+      <c r="N50" s="640"/>
+      <c r="O50" s="640"/>
+      <c r="P50" s="640"/>
+      <c r="Q50" s="640"/>
+      <c r="R50" s="640"/>
+      <c r="S50" s="640"/>
+      <c r="T50" s="640"/>
+      <c r="U50" s="640"/>
+      <c r="V50" s="640"/>
+      <c r="W50" s="640"/>
+      <c r="X50" s="640"/>
+      <c r="Y50" s="640"/>
+      <c r="Z50" s="640"/>
+      <c r="AA50" s="640"/>
+      <c r="AB50" s="640"/>
+      <c r="AC50" s="640"/>
+      <c r="AD50" s="640"/>
+      <c r="AE50" s="640"/>
+      <c r="AF50" s="640"/>
+      <c r="AG50" s="640"/>
+      <c r="AH50" s="640"/>
+      <c r="AI50" s="640"/>
+      <c r="AJ50" s="640"/>
+      <c r="AK50" s="640"/>
+      <c r="AL50" s="640"/>
+      <c r="AM50" s="640"/>
+      <c r="AN50" s="640"/>
+      <c r="AO50" s="640"/>
+      <c r="AP50" s="640"/>
+      <c r="AQ50" s="640"/>
+      <c r="AR50" s="640"/>
+      <c r="AS50" s="640"/>
+      <c r="AT50" s="640"/>
+      <c r="AU50" s="640"/>
+      <c r="AV50" s="640"/>
+      <c r="AW50" s="640"/>
+      <c r="AX50" s="640"/>
+      <c r="AY50" s="640"/>
+      <c r="AZ50" s="640"/>
+      <c r="BA50" s="640"/>
+      <c r="BB50" s="640"/>
+      <c r="BC50" s="640"/>
+      <c r="BD50" s="640"/>
+      <c r="BE50" s="640"/>
+      <c r="BF50" s="640"/>
+      <c r="BG50" s="640"/>
+      <c r="BH50" s="640"/>
+      <c r="BI50" s="640"/>
+      <c r="BJ50" s="640"/>
+      <c r="BK50" s="640"/>
+      <c r="BL50" s="640"/>
+      <c r="BM50" s="640"/>
+      <c r="BN50" s="640"/>
+      <c r="BO50" s="640"/>
+      <c r="BP50" s="640"/>
+      <c r="BQ50" s="640"/>
+      <c r="BR50" s="640"/>
+      <c r="BS50" s="640"/>
+      <c r="BT50" s="640"/>
+      <c r="BU50" s="640"/>
+      <c r="BV50" s="640"/>
+      <c r="BW50" s="640"/>
+      <c r="BX50" s="640"/>
+      <c r="BY50" s="640"/>
+      <c r="BZ50" s="640"/>
+      <c r="CA50" s="640"/>
+      <c r="CB50" s="640"/>
+      <c r="CC50" s="640"/>
+      <c r="CD50" s="640"/>
+      <c r="CE50" s="640"/>
+      <c r="CF50" s="640"/>
+      <c r="CG50" s="640"/>
+      <c r="CH50" s="640"/>
+      <c r="CI50" s="640"/>
+      <c r="CJ50" s="640"/>
+      <c r="CK50" s="640"/>
+      <c r="CL50" s="640"/>
+      <c r="CM50" s="640"/>
+      <c r="CN50" s="640"/>
+      <c r="CO50" s="640"/>
+      <c r="CP50" s="640"/>
+      <c r="CQ50" s="640"/>
+      <c r="CR50" s="640"/>
+      <c r="CS50" s="640"/>
+      <c r="CT50" s="640"/>
+      <c r="CU50" s="640"/>
+      <c r="CV50" s="640"/>
+      <c r="CW50" s="640"/>
+      <c r="CX50" s="640"/>
+      <c r="CY50" s="640"/>
+      <c r="CZ50" s="640"/>
+      <c r="DA50" s="640"/>
+      <c r="DB50" s="640"/>
+      <c r="DC50" s="640"/>
+      <c r="DD50" s="640"/>
+      <c r="DE50" s="640"/>
+      <c r="DF50" s="640"/>
+      <c r="DG50" s="640"/>
+      <c r="DH50" s="640"/>
+      <c r="DI50" s="640"/>
+      <c r="DJ50" s="640"/>
+      <c r="DK50" s="640"/>
+      <c r="DL50" s="640"/>
+      <c r="DM50" s="640"/>
+      <c r="DN50" s="640"/>
+      <c r="DO50" s="640"/>
+      <c r="DP50" s="640"/>
     </row>
     <row r="51" spans="1:120" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="111">
@@ -29344,128 +29355,128 @@
       </c>
     </row>
     <row r="57" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="A57" s="637" t="s">
+      <c r="A57" s="639" t="s">
         <v>898</v>
       </c>
-      <c r="B57" s="638"/>
-      <c r="C57" s="638"/>
-      <c r="D57" s="638"/>
-      <c r="E57" s="638"/>
-      <c r="F57" s="638"/>
-      <c r="G57" s="638"/>
-      <c r="H57" s="638"/>
-      <c r="I57" s="638"/>
-      <c r="J57" s="638"/>
-      <c r="K57" s="638"/>
-      <c r="L57" s="638"/>
-      <c r="M57" s="638"/>
-      <c r="N57" s="638"/>
-      <c r="O57" s="638"/>
-      <c r="P57" s="638"/>
-      <c r="Q57" s="638"/>
-      <c r="R57" s="638"/>
-      <c r="S57" s="638"/>
-      <c r="T57" s="638"/>
-      <c r="U57" s="638"/>
-      <c r="V57" s="638"/>
-      <c r="W57" s="638"/>
-      <c r="X57" s="638"/>
-      <c r="Y57" s="638"/>
-      <c r="Z57" s="638"/>
-      <c r="AA57" s="638"/>
-      <c r="AB57" s="638"/>
-      <c r="AC57" s="638"/>
-      <c r="AD57" s="638"/>
-      <c r="AE57" s="638"/>
-      <c r="AF57" s="638"/>
-      <c r="AG57" s="638"/>
-      <c r="AH57" s="638"/>
-      <c r="AI57" s="638"/>
-      <c r="AJ57" s="638"/>
-      <c r="AK57" s="638"/>
-      <c r="AL57" s="638"/>
-      <c r="AM57" s="638"/>
-      <c r="AN57" s="638"/>
-      <c r="AO57" s="638"/>
-      <c r="AP57" s="638"/>
-      <c r="AQ57" s="638"/>
-      <c r="AR57" s="638"/>
-      <c r="AS57" s="638"/>
-      <c r="AT57" s="638"/>
-      <c r="AU57" s="638"/>
-      <c r="AV57" s="638"/>
-      <c r="AW57" s="638"/>
-      <c r="AX57" s="638"/>
-      <c r="AY57" s="638"/>
-      <c r="AZ57" s="638"/>
-      <c r="BA57" s="638"/>
-      <c r="BB57" s="638"/>
-      <c r="BC57" s="638"/>
-      <c r="BD57" s="638"/>
-      <c r="BE57" s="638"/>
-      <c r="BF57" s="638"/>
-      <c r="BG57" s="638"/>
-      <c r="BH57" s="638"/>
-      <c r="BI57" s="638"/>
-      <c r="BJ57" s="638"/>
-      <c r="BK57" s="638"/>
-      <c r="BL57" s="638"/>
-      <c r="BM57" s="638"/>
-      <c r="BN57" s="638"/>
-      <c r="BO57" s="638"/>
-      <c r="BP57" s="638"/>
-      <c r="BQ57" s="638"/>
-      <c r="BR57" s="638"/>
-      <c r="BS57" s="638"/>
-      <c r="BT57" s="638"/>
-      <c r="BU57" s="638"/>
-      <c r="BV57" s="638"/>
-      <c r="BW57" s="638"/>
-      <c r="BX57" s="638"/>
-      <c r="BY57" s="638"/>
-      <c r="BZ57" s="638"/>
-      <c r="CA57" s="638"/>
-      <c r="CB57" s="638"/>
-      <c r="CC57" s="638"/>
-      <c r="CD57" s="638"/>
-      <c r="CE57" s="638"/>
-      <c r="CF57" s="638"/>
-      <c r="CG57" s="638"/>
-      <c r="CH57" s="638"/>
-      <c r="CI57" s="638"/>
-      <c r="CJ57" s="638"/>
-      <c r="CK57" s="638"/>
-      <c r="CL57" s="638"/>
-      <c r="CM57" s="638"/>
-      <c r="CN57" s="638"/>
-      <c r="CO57" s="638"/>
-      <c r="CP57" s="638"/>
-      <c r="CQ57" s="638"/>
-      <c r="CR57" s="638"/>
-      <c r="CS57" s="638"/>
-      <c r="CT57" s="638"/>
-      <c r="CU57" s="638"/>
-      <c r="CV57" s="638"/>
-      <c r="CW57" s="638"/>
-      <c r="CX57" s="638"/>
-      <c r="CY57" s="638"/>
-      <c r="CZ57" s="638"/>
-      <c r="DA57" s="638"/>
-      <c r="DB57" s="638"/>
-      <c r="DC57" s="638"/>
-      <c r="DD57" s="638"/>
-      <c r="DE57" s="638"/>
-      <c r="DF57" s="638"/>
-      <c r="DG57" s="638"/>
-      <c r="DH57" s="638"/>
-      <c r="DI57" s="638"/>
-      <c r="DJ57" s="638"/>
-      <c r="DK57" s="638"/>
-      <c r="DL57" s="638"/>
-      <c r="DM57" s="638"/>
-      <c r="DN57" s="638"/>
-      <c r="DO57" s="638"/>
-      <c r="DP57" s="638"/>
+      <c r="B57" s="640"/>
+      <c r="C57" s="640"/>
+      <c r="D57" s="640"/>
+      <c r="E57" s="640"/>
+      <c r="F57" s="640"/>
+      <c r="G57" s="640"/>
+      <c r="H57" s="640"/>
+      <c r="I57" s="640"/>
+      <c r="J57" s="640"/>
+      <c r="K57" s="640"/>
+      <c r="L57" s="640"/>
+      <c r="M57" s="640"/>
+      <c r="N57" s="640"/>
+      <c r="O57" s="640"/>
+      <c r="P57" s="640"/>
+      <c r="Q57" s="640"/>
+      <c r="R57" s="640"/>
+      <c r="S57" s="640"/>
+      <c r="T57" s="640"/>
+      <c r="U57" s="640"/>
+      <c r="V57" s="640"/>
+      <c r="W57" s="640"/>
+      <c r="X57" s="640"/>
+      <c r="Y57" s="640"/>
+      <c r="Z57" s="640"/>
+      <c r="AA57" s="640"/>
+      <c r="AB57" s="640"/>
+      <c r="AC57" s="640"/>
+      <c r="AD57" s="640"/>
+      <c r="AE57" s="640"/>
+      <c r="AF57" s="640"/>
+      <c r="AG57" s="640"/>
+      <c r="AH57" s="640"/>
+      <c r="AI57" s="640"/>
+      <c r="AJ57" s="640"/>
+      <c r="AK57" s="640"/>
+      <c r="AL57" s="640"/>
+      <c r="AM57" s="640"/>
+      <c r="AN57" s="640"/>
+      <c r="AO57" s="640"/>
+      <c r="AP57" s="640"/>
+      <c r="AQ57" s="640"/>
+      <c r="AR57" s="640"/>
+      <c r="AS57" s="640"/>
+      <c r="AT57" s="640"/>
+      <c r="AU57" s="640"/>
+      <c r="AV57" s="640"/>
+      <c r="AW57" s="640"/>
+      <c r="AX57" s="640"/>
+      <c r="AY57" s="640"/>
+      <c r="AZ57" s="640"/>
+      <c r="BA57" s="640"/>
+      <c r="BB57" s="640"/>
+      <c r="BC57" s="640"/>
+      <c r="BD57" s="640"/>
+      <c r="BE57" s="640"/>
+      <c r="BF57" s="640"/>
+      <c r="BG57" s="640"/>
+      <c r="BH57" s="640"/>
+      <c r="BI57" s="640"/>
+      <c r="BJ57" s="640"/>
+      <c r="BK57" s="640"/>
+      <c r="BL57" s="640"/>
+      <c r="BM57" s="640"/>
+      <c r="BN57" s="640"/>
+      <c r="BO57" s="640"/>
+      <c r="BP57" s="640"/>
+      <c r="BQ57" s="640"/>
+      <c r="BR57" s="640"/>
+      <c r="BS57" s="640"/>
+      <c r="BT57" s="640"/>
+      <c r="BU57" s="640"/>
+      <c r="BV57" s="640"/>
+      <c r="BW57" s="640"/>
+      <c r="BX57" s="640"/>
+      <c r="BY57" s="640"/>
+      <c r="BZ57" s="640"/>
+      <c r="CA57" s="640"/>
+      <c r="CB57" s="640"/>
+      <c r="CC57" s="640"/>
+      <c r="CD57" s="640"/>
+      <c r="CE57" s="640"/>
+      <c r="CF57" s="640"/>
+      <c r="CG57" s="640"/>
+      <c r="CH57" s="640"/>
+      <c r="CI57" s="640"/>
+      <c r="CJ57" s="640"/>
+      <c r="CK57" s="640"/>
+      <c r="CL57" s="640"/>
+      <c r="CM57" s="640"/>
+      <c r="CN57" s="640"/>
+      <c r="CO57" s="640"/>
+      <c r="CP57" s="640"/>
+      <c r="CQ57" s="640"/>
+      <c r="CR57" s="640"/>
+      <c r="CS57" s="640"/>
+      <c r="CT57" s="640"/>
+      <c r="CU57" s="640"/>
+      <c r="CV57" s="640"/>
+      <c r="CW57" s="640"/>
+      <c r="CX57" s="640"/>
+      <c r="CY57" s="640"/>
+      <c r="CZ57" s="640"/>
+      <c r="DA57" s="640"/>
+      <c r="DB57" s="640"/>
+      <c r="DC57" s="640"/>
+      <c r="DD57" s="640"/>
+      <c r="DE57" s="640"/>
+      <c r="DF57" s="640"/>
+      <c r="DG57" s="640"/>
+      <c r="DH57" s="640"/>
+      <c r="DI57" s="640"/>
+      <c r="DJ57" s="640"/>
+      <c r="DK57" s="640"/>
+      <c r="DL57" s="640"/>
+      <c r="DM57" s="640"/>
+      <c r="DN57" s="640"/>
+      <c r="DO57" s="640"/>
+      <c r="DP57" s="640"/>
     </row>
     <row r="58" spans="1:120" s="110" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A58" s="447">
@@ -29762,128 +29773,128 @@
       </c>
     </row>
     <row r="60" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="A60" s="637" t="s">
+      <c r="A60" s="639" t="s">
         <v>898</v>
       </c>
-      <c r="B60" s="638"/>
-      <c r="C60" s="638"/>
-      <c r="D60" s="638"/>
-      <c r="E60" s="638"/>
-      <c r="F60" s="638"/>
-      <c r="G60" s="638"/>
-      <c r="H60" s="638"/>
-      <c r="I60" s="638"/>
-      <c r="J60" s="638"/>
-      <c r="K60" s="638"/>
-      <c r="L60" s="638"/>
-      <c r="M60" s="638"/>
-      <c r="N60" s="638"/>
-      <c r="O60" s="638"/>
-      <c r="P60" s="638"/>
-      <c r="Q60" s="638"/>
-      <c r="R60" s="638"/>
-      <c r="S60" s="638"/>
-      <c r="T60" s="638"/>
-      <c r="U60" s="638"/>
-      <c r="V60" s="638"/>
-      <c r="W60" s="638"/>
-      <c r="X60" s="638"/>
-      <c r="Y60" s="638"/>
-      <c r="Z60" s="638"/>
-      <c r="AA60" s="638"/>
-      <c r="AB60" s="638"/>
-      <c r="AC60" s="638"/>
-      <c r="AD60" s="638"/>
-      <c r="AE60" s="638"/>
-      <c r="AF60" s="638"/>
-      <c r="AG60" s="638"/>
-      <c r="AH60" s="638"/>
-      <c r="AI60" s="638"/>
-      <c r="AJ60" s="638"/>
-      <c r="AK60" s="638"/>
-      <c r="AL60" s="638"/>
-      <c r="AM60" s="638"/>
-      <c r="AN60" s="638"/>
-      <c r="AO60" s="638"/>
-      <c r="AP60" s="638"/>
-      <c r="AQ60" s="638"/>
-      <c r="AR60" s="638"/>
-      <c r="AS60" s="638"/>
-      <c r="AT60" s="638"/>
-      <c r="AU60" s="638"/>
-      <c r="AV60" s="638"/>
-      <c r="AW60" s="638"/>
-      <c r="AX60" s="638"/>
-      <c r="AY60" s="638"/>
-      <c r="AZ60" s="638"/>
-      <c r="BA60" s="638"/>
-      <c r="BB60" s="638"/>
-      <c r="BC60" s="638"/>
-      <c r="BD60" s="638"/>
-      <c r="BE60" s="638"/>
-      <c r="BF60" s="638"/>
-      <c r="BG60" s="638"/>
-      <c r="BH60" s="638"/>
-      <c r="BI60" s="638"/>
-      <c r="BJ60" s="638"/>
-      <c r="BK60" s="638"/>
-      <c r="BL60" s="638"/>
-      <c r="BM60" s="638"/>
-      <c r="BN60" s="638"/>
-      <c r="BO60" s="638"/>
-      <c r="BP60" s="638"/>
-      <c r="BQ60" s="638"/>
-      <c r="BR60" s="638"/>
-      <c r="BS60" s="638"/>
-      <c r="BT60" s="638"/>
-      <c r="BU60" s="638"/>
-      <c r="BV60" s="638"/>
-      <c r="BW60" s="638"/>
-      <c r="BX60" s="638"/>
-      <c r="BY60" s="638"/>
-      <c r="BZ60" s="638"/>
-      <c r="CA60" s="638"/>
-      <c r="CB60" s="638"/>
-      <c r="CC60" s="638"/>
-      <c r="CD60" s="638"/>
-      <c r="CE60" s="638"/>
-      <c r="CF60" s="638"/>
-      <c r="CG60" s="638"/>
-      <c r="CH60" s="638"/>
-      <c r="CI60" s="638"/>
-      <c r="CJ60" s="638"/>
-      <c r="CK60" s="638"/>
-      <c r="CL60" s="638"/>
-      <c r="CM60" s="638"/>
-      <c r="CN60" s="638"/>
-      <c r="CO60" s="638"/>
-      <c r="CP60" s="638"/>
-      <c r="CQ60" s="638"/>
-      <c r="CR60" s="638"/>
-      <c r="CS60" s="638"/>
-      <c r="CT60" s="638"/>
-      <c r="CU60" s="638"/>
-      <c r="CV60" s="638"/>
-      <c r="CW60" s="638"/>
-      <c r="CX60" s="638"/>
-      <c r="CY60" s="638"/>
-      <c r="CZ60" s="638"/>
-      <c r="DA60" s="638"/>
-      <c r="DB60" s="638"/>
-      <c r="DC60" s="638"/>
-      <c r="DD60" s="638"/>
-      <c r="DE60" s="638"/>
-      <c r="DF60" s="638"/>
-      <c r="DG60" s="638"/>
-      <c r="DH60" s="638"/>
-      <c r="DI60" s="638"/>
-      <c r="DJ60" s="638"/>
-      <c r="DK60" s="638"/>
-      <c r="DL60" s="638"/>
-      <c r="DM60" s="638"/>
-      <c r="DN60" s="638"/>
-      <c r="DO60" s="638"/>
-      <c r="DP60" s="638"/>
+      <c r="B60" s="640"/>
+      <c r="C60" s="640"/>
+      <c r="D60" s="640"/>
+      <c r="E60" s="640"/>
+      <c r="F60" s="640"/>
+      <c r="G60" s="640"/>
+      <c r="H60" s="640"/>
+      <c r="I60" s="640"/>
+      <c r="J60" s="640"/>
+      <c r="K60" s="640"/>
+      <c r="L60" s="640"/>
+      <c r="M60" s="640"/>
+      <c r="N60" s="640"/>
+      <c r="O60" s="640"/>
+      <c r="P60" s="640"/>
+      <c r="Q60" s="640"/>
+      <c r="R60" s="640"/>
+      <c r="S60" s="640"/>
+      <c r="T60" s="640"/>
+      <c r="U60" s="640"/>
+      <c r="V60" s="640"/>
+      <c r="W60" s="640"/>
+      <c r="X60" s="640"/>
+      <c r="Y60" s="640"/>
+      <c r="Z60" s="640"/>
+      <c r="AA60" s="640"/>
+      <c r="AB60" s="640"/>
+      <c r="AC60" s="640"/>
+      <c r="AD60" s="640"/>
+      <c r="AE60" s="640"/>
+      <c r="AF60" s="640"/>
+      <c r="AG60" s="640"/>
+      <c r="AH60" s="640"/>
+      <c r="AI60" s="640"/>
+      <c r="AJ60" s="640"/>
+      <c r="AK60" s="640"/>
+      <c r="AL60" s="640"/>
+      <c r="AM60" s="640"/>
+      <c r="AN60" s="640"/>
+      <c r="AO60" s="640"/>
+      <c r="AP60" s="640"/>
+      <c r="AQ60" s="640"/>
+      <c r="AR60" s="640"/>
+      <c r="AS60" s="640"/>
+      <c r="AT60" s="640"/>
+      <c r="AU60" s="640"/>
+      <c r="AV60" s="640"/>
+      <c r="AW60" s="640"/>
+      <c r="AX60" s="640"/>
+      <c r="AY60" s="640"/>
+      <c r="AZ60" s="640"/>
+      <c r="BA60" s="640"/>
+      <c r="BB60" s="640"/>
+      <c r="BC60" s="640"/>
+      <c r="BD60" s="640"/>
+      <c r="BE60" s="640"/>
+      <c r="BF60" s="640"/>
+      <c r="BG60" s="640"/>
+      <c r="BH60" s="640"/>
+      <c r="BI60" s="640"/>
+      <c r="BJ60" s="640"/>
+      <c r="BK60" s="640"/>
+      <c r="BL60" s="640"/>
+      <c r="BM60" s="640"/>
+      <c r="BN60" s="640"/>
+      <c r="BO60" s="640"/>
+      <c r="BP60" s="640"/>
+      <c r="BQ60" s="640"/>
+      <c r="BR60" s="640"/>
+      <c r="BS60" s="640"/>
+      <c r="BT60" s="640"/>
+      <c r="BU60" s="640"/>
+      <c r="BV60" s="640"/>
+      <c r="BW60" s="640"/>
+      <c r="BX60" s="640"/>
+      <c r="BY60" s="640"/>
+      <c r="BZ60" s="640"/>
+      <c r="CA60" s="640"/>
+      <c r="CB60" s="640"/>
+      <c r="CC60" s="640"/>
+      <c r="CD60" s="640"/>
+      <c r="CE60" s="640"/>
+      <c r="CF60" s="640"/>
+      <c r="CG60" s="640"/>
+      <c r="CH60" s="640"/>
+      <c r="CI60" s="640"/>
+      <c r="CJ60" s="640"/>
+      <c r="CK60" s="640"/>
+      <c r="CL60" s="640"/>
+      <c r="CM60" s="640"/>
+      <c r="CN60" s="640"/>
+      <c r="CO60" s="640"/>
+      <c r="CP60" s="640"/>
+      <c r="CQ60" s="640"/>
+      <c r="CR60" s="640"/>
+      <c r="CS60" s="640"/>
+      <c r="CT60" s="640"/>
+      <c r="CU60" s="640"/>
+      <c r="CV60" s="640"/>
+      <c r="CW60" s="640"/>
+      <c r="CX60" s="640"/>
+      <c r="CY60" s="640"/>
+      <c r="CZ60" s="640"/>
+      <c r="DA60" s="640"/>
+      <c r="DB60" s="640"/>
+      <c r="DC60" s="640"/>
+      <c r="DD60" s="640"/>
+      <c r="DE60" s="640"/>
+      <c r="DF60" s="640"/>
+      <c r="DG60" s="640"/>
+      <c r="DH60" s="640"/>
+      <c r="DI60" s="640"/>
+      <c r="DJ60" s="640"/>
+      <c r="DK60" s="640"/>
+      <c r="DL60" s="640"/>
+      <c r="DM60" s="640"/>
+      <c r="DN60" s="640"/>
+      <c r="DO60" s="640"/>
+      <c r="DP60" s="640"/>
     </row>
     <row r="61" spans="1:120" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="111">
@@ -30414,128 +30425,128 @@
       </c>
     </row>
     <row r="65" spans="1:176" x14ac:dyDescent="0.25">
-      <c r="A65" s="637" t="s">
+      <c r="A65" s="639" t="s">
         <v>1034</v>
       </c>
-      <c r="B65" s="638"/>
-      <c r="C65" s="638"/>
-      <c r="D65" s="638"/>
-      <c r="E65" s="638"/>
-      <c r="F65" s="638"/>
-      <c r="G65" s="638"/>
-      <c r="H65" s="638"/>
-      <c r="I65" s="638"/>
-      <c r="J65" s="638"/>
-      <c r="K65" s="638"/>
-      <c r="L65" s="638"/>
-      <c r="M65" s="638"/>
-      <c r="N65" s="638"/>
-      <c r="O65" s="638"/>
-      <c r="P65" s="638"/>
-      <c r="Q65" s="638"/>
-      <c r="R65" s="638"/>
-      <c r="S65" s="638"/>
-      <c r="T65" s="638"/>
-      <c r="U65" s="638"/>
-      <c r="V65" s="638"/>
-      <c r="W65" s="638"/>
-      <c r="X65" s="638"/>
-      <c r="Y65" s="638"/>
-      <c r="Z65" s="638"/>
-      <c r="AA65" s="638"/>
-      <c r="AB65" s="638"/>
-      <c r="AC65" s="638"/>
-      <c r="AD65" s="638"/>
-      <c r="AE65" s="638"/>
-      <c r="AF65" s="638"/>
-      <c r="AG65" s="638"/>
-      <c r="AH65" s="638"/>
-      <c r="AI65" s="638"/>
-      <c r="AJ65" s="638"/>
-      <c r="AK65" s="638"/>
-      <c r="AL65" s="638"/>
-      <c r="AM65" s="638"/>
-      <c r="AN65" s="638"/>
-      <c r="AO65" s="638"/>
-      <c r="AP65" s="638"/>
-      <c r="AQ65" s="638"/>
-      <c r="AR65" s="638"/>
-      <c r="AS65" s="638"/>
-      <c r="AT65" s="638"/>
-      <c r="AU65" s="638"/>
-      <c r="AV65" s="638"/>
-      <c r="AW65" s="638"/>
-      <c r="AX65" s="638"/>
-      <c r="AY65" s="638"/>
-      <c r="AZ65" s="638"/>
-      <c r="BA65" s="638"/>
-      <c r="BB65" s="638"/>
-      <c r="BC65" s="638"/>
-      <c r="BD65" s="638"/>
-      <c r="BE65" s="638"/>
-      <c r="BF65" s="638"/>
-      <c r="BG65" s="638"/>
-      <c r="BH65" s="638"/>
-      <c r="BI65" s="638"/>
-      <c r="BJ65" s="638"/>
-      <c r="BK65" s="638"/>
-      <c r="BL65" s="638"/>
-      <c r="BM65" s="638"/>
-      <c r="BN65" s="638"/>
-      <c r="BO65" s="638"/>
-      <c r="BP65" s="638"/>
-      <c r="BQ65" s="638"/>
-      <c r="BR65" s="638"/>
-      <c r="BS65" s="638"/>
-      <c r="BT65" s="638"/>
-      <c r="BU65" s="638"/>
-      <c r="BV65" s="638"/>
-      <c r="BW65" s="638"/>
-      <c r="BX65" s="638"/>
-      <c r="BY65" s="638"/>
-      <c r="BZ65" s="638"/>
-      <c r="CA65" s="638"/>
-      <c r="CB65" s="638"/>
-      <c r="CC65" s="638"/>
-      <c r="CD65" s="638"/>
-      <c r="CE65" s="638"/>
-      <c r="CF65" s="638"/>
-      <c r="CG65" s="638"/>
-      <c r="CH65" s="638"/>
-      <c r="CI65" s="638"/>
-      <c r="CJ65" s="638"/>
-      <c r="CK65" s="638"/>
-      <c r="CL65" s="638"/>
-      <c r="CM65" s="638"/>
-      <c r="CN65" s="638"/>
-      <c r="CO65" s="638"/>
-      <c r="CP65" s="638"/>
-      <c r="CQ65" s="638"/>
-      <c r="CR65" s="638"/>
-      <c r="CS65" s="638"/>
-      <c r="CT65" s="638"/>
-      <c r="CU65" s="638"/>
-      <c r="CV65" s="638"/>
-      <c r="CW65" s="638"/>
-      <c r="CX65" s="638"/>
-      <c r="CY65" s="638"/>
-      <c r="CZ65" s="638"/>
-      <c r="DA65" s="638"/>
-      <c r="DB65" s="638"/>
-      <c r="DC65" s="638"/>
-      <c r="DD65" s="638"/>
-      <c r="DE65" s="638"/>
-      <c r="DF65" s="638"/>
-      <c r="DG65" s="638"/>
-      <c r="DH65" s="638"/>
-      <c r="DI65" s="638"/>
-      <c r="DJ65" s="638"/>
-      <c r="DK65" s="638"/>
-      <c r="DL65" s="638"/>
-      <c r="DM65" s="638"/>
-      <c r="DN65" s="638"/>
-      <c r="DO65" s="638"/>
-      <c r="DP65" s="638"/>
+      <c r="B65" s="640"/>
+      <c r="C65" s="640"/>
+      <c r="D65" s="640"/>
+      <c r="E65" s="640"/>
+      <c r="F65" s="640"/>
+      <c r="G65" s="640"/>
+      <c r="H65" s="640"/>
+      <c r="I65" s="640"/>
+      <c r="J65" s="640"/>
+      <c r="K65" s="640"/>
+      <c r="L65" s="640"/>
+      <c r="M65" s="640"/>
+      <c r="N65" s="640"/>
+      <c r="O65" s="640"/>
+      <c r="P65" s="640"/>
+      <c r="Q65" s="640"/>
+      <c r="R65" s="640"/>
+      <c r="S65" s="640"/>
+      <c r="T65" s="640"/>
+      <c r="U65" s="640"/>
+      <c r="V65" s="640"/>
+      <c r="W65" s="640"/>
+      <c r="X65" s="640"/>
+      <c r="Y65" s="640"/>
+      <c r="Z65" s="640"/>
+      <c r="AA65" s="640"/>
+      <c r="AB65" s="640"/>
+      <c r="AC65" s="640"/>
+      <c r="AD65" s="640"/>
+      <c r="AE65" s="640"/>
+      <c r="AF65" s="640"/>
+      <c r="AG65" s="640"/>
+      <c r="AH65" s="640"/>
+      <c r="AI65" s="640"/>
+      <c r="AJ65" s="640"/>
+      <c r="AK65" s="640"/>
+      <c r="AL65" s="640"/>
+      <c r="AM65" s="640"/>
+      <c r="AN65" s="640"/>
+      <c r="AO65" s="640"/>
+      <c r="AP65" s="640"/>
+      <c r="AQ65" s="640"/>
+      <c r="AR65" s="640"/>
+      <c r="AS65" s="640"/>
+      <c r="AT65" s="640"/>
+      <c r="AU65" s="640"/>
+      <c r="AV65" s="640"/>
+      <c r="AW65" s="640"/>
+      <c r="AX65" s="640"/>
+      <c r="AY65" s="640"/>
+      <c r="AZ65" s="640"/>
+      <c r="BA65" s="640"/>
+      <c r="BB65" s="640"/>
+      <c r="BC65" s="640"/>
+      <c r="BD65" s="640"/>
+      <c r="BE65" s="640"/>
+      <c r="BF65" s="640"/>
+      <c r="BG65" s="640"/>
+      <c r="BH65" s="640"/>
+      <c r="BI65" s="640"/>
+      <c r="BJ65" s="640"/>
+      <c r="BK65" s="640"/>
+      <c r="BL65" s="640"/>
+      <c r="BM65" s="640"/>
+      <c r="BN65" s="640"/>
+      <c r="BO65" s="640"/>
+      <c r="BP65" s="640"/>
+      <c r="BQ65" s="640"/>
+      <c r="BR65" s="640"/>
+      <c r="BS65" s="640"/>
+      <c r="BT65" s="640"/>
+      <c r="BU65" s="640"/>
+      <c r="BV65" s="640"/>
+      <c r="BW65" s="640"/>
+      <c r="BX65" s="640"/>
+      <c r="BY65" s="640"/>
+      <c r="BZ65" s="640"/>
+      <c r="CA65" s="640"/>
+      <c r="CB65" s="640"/>
+      <c r="CC65" s="640"/>
+      <c r="CD65" s="640"/>
+      <c r="CE65" s="640"/>
+      <c r="CF65" s="640"/>
+      <c r="CG65" s="640"/>
+      <c r="CH65" s="640"/>
+      <c r="CI65" s="640"/>
+      <c r="CJ65" s="640"/>
+      <c r="CK65" s="640"/>
+      <c r="CL65" s="640"/>
+      <c r="CM65" s="640"/>
+      <c r="CN65" s="640"/>
+      <c r="CO65" s="640"/>
+      <c r="CP65" s="640"/>
+      <c r="CQ65" s="640"/>
+      <c r="CR65" s="640"/>
+      <c r="CS65" s="640"/>
+      <c r="CT65" s="640"/>
+      <c r="CU65" s="640"/>
+      <c r="CV65" s="640"/>
+      <c r="CW65" s="640"/>
+      <c r="CX65" s="640"/>
+      <c r="CY65" s="640"/>
+      <c r="CZ65" s="640"/>
+      <c r="DA65" s="640"/>
+      <c r="DB65" s="640"/>
+      <c r="DC65" s="640"/>
+      <c r="DD65" s="640"/>
+      <c r="DE65" s="640"/>
+      <c r="DF65" s="640"/>
+      <c r="DG65" s="640"/>
+      <c r="DH65" s="640"/>
+      <c r="DI65" s="640"/>
+      <c r="DJ65" s="640"/>
+      <c r="DK65" s="640"/>
+      <c r="DL65" s="640"/>
+      <c r="DM65" s="640"/>
+      <c r="DN65" s="640"/>
+      <c r="DO65" s="640"/>
+      <c r="DP65" s="640"/>
     </row>
     <row r="66" spans="1:176" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="111">
@@ -31656,289 +31667,289 @@
       </c>
     </row>
     <row r="74" spans="1:176" s="41" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="647" t="s">
+      <c r="A74" s="649" t="s">
         <v>1091</v>
       </c>
-      <c r="B74" s="648"/>
-      <c r="C74" s="648"/>
-      <c r="D74" s="648"/>
-      <c r="E74" s="648"/>
-      <c r="F74" s="648"/>
-      <c r="G74" s="648"/>
-      <c r="H74" s="648"/>
-      <c r="I74" s="648"/>
-      <c r="J74" s="648"/>
-      <c r="K74" s="648"/>
-      <c r="L74" s="648"/>
-      <c r="M74" s="648"/>
-      <c r="N74" s="648"/>
-      <c r="O74" s="648"/>
-      <c r="P74" s="648"/>
-      <c r="Q74" s="649"/>
+      <c r="B74" s="650"/>
+      <c r="C74" s="650"/>
+      <c r="D74" s="650"/>
+      <c r="E74" s="650"/>
+      <c r="F74" s="650"/>
+      <c r="G74" s="650"/>
+      <c r="H74" s="650"/>
+      <c r="I74" s="650"/>
+      <c r="J74" s="650"/>
+      <c r="K74" s="650"/>
+      <c r="L74" s="650"/>
+      <c r="M74" s="650"/>
+      <c r="N74" s="650"/>
+      <c r="O74" s="650"/>
+      <c r="P74" s="650"/>
+      <c r="Q74" s="651"/>
     </row>
     <row r="75" spans="1:176" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="633" t="s">
+      <c r="A75" s="635" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="634"/>
-      <c r="C75" s="612" t="s">
+      <c r="B75" s="636"/>
+      <c r="C75" s="614" t="s">
         <v>913</v>
       </c>
-      <c r="D75" s="613"/>
-      <c r="E75" s="613"/>
-      <c r="F75" s="613"/>
-      <c r="G75" s="614"/>
-      <c r="H75" s="612" t="s">
+      <c r="D75" s="615"/>
+      <c r="E75" s="615"/>
+      <c r="F75" s="615"/>
+      <c r="G75" s="616"/>
+      <c r="H75" s="614" t="s">
         <v>731</v>
       </c>
-      <c r="I75" s="613"/>
-      <c r="J75" s="613"/>
-      <c r="K75" s="613"/>
-      <c r="L75" s="614"/>
-      <c r="M75" s="612" t="s">
+      <c r="I75" s="615"/>
+      <c r="J75" s="615"/>
+      <c r="K75" s="615"/>
+      <c r="L75" s="616"/>
+      <c r="M75" s="614" t="s">
         <v>914</v>
       </c>
-      <c r="N75" s="613"/>
-      <c r="O75" s="614"/>
-      <c r="P75" s="612" t="s">
+      <c r="N75" s="615"/>
+      <c r="O75" s="616"/>
+      <c r="P75" s="614" t="s">
         <v>777</v>
       </c>
-      <c r="Q75" s="613"/>
-      <c r="R75" s="614"/>
-      <c r="S75" s="612" t="s">
+      <c r="Q75" s="615"/>
+      <c r="R75" s="616"/>
+      <c r="S75" s="614" t="s">
         <v>926</v>
       </c>
-      <c r="T75" s="613"/>
-      <c r="U75" s="614"/>
-      <c r="V75" s="612" t="s">
+      <c r="T75" s="615"/>
+      <c r="U75" s="616"/>
+      <c r="V75" s="614" t="s">
         <v>926</v>
       </c>
-      <c r="W75" s="613"/>
-      <c r="X75" s="614"/>
-      <c r="Y75" s="612" t="s">
+      <c r="W75" s="615"/>
+      <c r="X75" s="616"/>
+      <c r="Y75" s="614" t="s">
         <v>548</v>
       </c>
-      <c r="Z75" s="613"/>
-      <c r="AA75" s="613"/>
-      <c r="AB75" s="613"/>
-      <c r="AC75" s="614"/>
-      <c r="AD75" s="612" t="s">
+      <c r="Z75" s="615"/>
+      <c r="AA75" s="615"/>
+      <c r="AB75" s="615"/>
+      <c r="AC75" s="616"/>
+      <c r="AD75" s="614" t="s">
         <v>692</v>
       </c>
-      <c r="AE75" s="613"/>
-      <c r="AF75" s="613"/>
-      <c r="AG75" s="613"/>
-      <c r="AH75" s="614"/>
-      <c r="AI75" s="612" t="s">
+      <c r="AE75" s="615"/>
+      <c r="AF75" s="615"/>
+      <c r="AG75" s="615"/>
+      <c r="AH75" s="616"/>
+      <c r="AI75" s="614" t="s">
         <v>1063</v>
       </c>
-      <c r="AJ75" s="613"/>
-      <c r="AK75" s="613"/>
-      <c r="AL75" s="613"/>
-      <c r="AM75" s="614"/>
-      <c r="AN75" s="612" t="s">
+      <c r="AJ75" s="615"/>
+      <c r="AK75" s="615"/>
+      <c r="AL75" s="615"/>
+      <c r="AM75" s="616"/>
+      <c r="AN75" s="614" t="s">
         <v>693</v>
       </c>
-      <c r="AO75" s="613"/>
-      <c r="AP75" s="613"/>
-      <c r="AQ75" s="613"/>
-      <c r="AR75" s="614"/>
-      <c r="AS75" s="612" t="s">
+      <c r="AO75" s="615"/>
+      <c r="AP75" s="615"/>
+      <c r="AQ75" s="615"/>
+      <c r="AR75" s="616"/>
+      <c r="AS75" s="614" t="s">
         <v>701</v>
       </c>
-      <c r="AT75" s="613"/>
-      <c r="AU75" s="613"/>
-      <c r="AV75" s="613"/>
-      <c r="AW75" s="614"/>
-      <c r="AX75" s="612" t="s">
+      <c r="AT75" s="615"/>
+      <c r="AU75" s="615"/>
+      <c r="AV75" s="615"/>
+      <c r="AW75" s="616"/>
+      <c r="AX75" s="614" t="s">
         <v>714</v>
       </c>
-      <c r="AY75" s="613"/>
-      <c r="AZ75" s="613"/>
-      <c r="BA75" s="613"/>
-      <c r="BB75" s="614"/>
-      <c r="BC75" s="612" t="s">
+      <c r="AY75" s="615"/>
+      <c r="AZ75" s="615"/>
+      <c r="BA75" s="615"/>
+      <c r="BB75" s="616"/>
+      <c r="BC75" s="614" t="s">
         <v>555</v>
       </c>
-      <c r="BD75" s="613"/>
-      <c r="BE75" s="613"/>
-      <c r="BF75" s="613"/>
-      <c r="BG75" s="614"/>
+      <c r="BD75" s="615"/>
+      <c r="BE75" s="615"/>
+      <c r="BF75" s="615"/>
+      <c r="BG75" s="616"/>
       <c r="BH75" s="95"/>
-      <c r="BI75" s="622" t="s">
+      <c r="BI75" s="624" t="s">
         <v>125</v>
       </c>
-      <c r="BJ75" s="623"/>
-      <c r="BK75" s="623"/>
+      <c r="BJ75" s="625"/>
+      <c r="BK75" s="625"/>
       <c r="BL75" s="95"/>
-      <c r="BM75" s="621" t="s">
+      <c r="BM75" s="623" t="s">
         <v>823</v>
       </c>
-      <c r="BN75" s="621"/>
-      <c r="BO75" s="621"/>
-      <c r="BP75" s="621" t="s">
+      <c r="BN75" s="623"/>
+      <c r="BO75" s="623"/>
+      <c r="BP75" s="623" t="s">
         <v>960</v>
       </c>
-      <c r="BQ75" s="621"/>
-      <c r="BR75" s="621"/>
+      <c r="BQ75" s="623"/>
+      <c r="BR75" s="623"/>
       <c r="BS75" s="95"/>
-      <c r="BT75" s="621" t="s">
+      <c r="BT75" s="623" t="s">
         <v>12</v>
       </c>
-      <c r="BU75" s="621"/>
-      <c r="BV75" s="621"/>
-      <c r="BW75" s="621"/>
-      <c r="BX75" s="622" t="s">
+      <c r="BU75" s="623"/>
+      <c r="BV75" s="623"/>
+      <c r="BW75" s="623"/>
+      <c r="BX75" s="624" t="s">
         <v>422</v>
       </c>
-      <c r="BY75" s="623"/>
-      <c r="BZ75" s="623"/>
-      <c r="CA75" s="623"/>
-      <c r="CB75" s="624"/>
-      <c r="CC75" s="622" t="s">
+      <c r="BY75" s="625"/>
+      <c r="BZ75" s="625"/>
+      <c r="CA75" s="625"/>
+      <c r="CB75" s="626"/>
+      <c r="CC75" s="624" t="s">
         <v>287</v>
       </c>
-      <c r="CD75" s="623"/>
-      <c r="CE75" s="623"/>
-      <c r="CF75" s="623"/>
-      <c r="CG75" s="624"/>
-      <c r="CH75" s="622" t="s">
+      <c r="CD75" s="625"/>
+      <c r="CE75" s="625"/>
+      <c r="CF75" s="625"/>
+      <c r="CG75" s="626"/>
+      <c r="CH75" s="624" t="s">
         <v>756</v>
       </c>
-      <c r="CI75" s="623"/>
-      <c r="CJ75" s="623"/>
-      <c r="CK75" s="623"/>
-      <c r="CL75" s="624"/>
-      <c r="CM75" s="622" t="s">
+      <c r="CI75" s="625"/>
+      <c r="CJ75" s="625"/>
+      <c r="CK75" s="625"/>
+      <c r="CL75" s="626"/>
+      <c r="CM75" s="624" t="s">
         <v>758</v>
       </c>
-      <c r="CN75" s="623"/>
-      <c r="CO75" s="623"/>
-      <c r="CP75" s="623"/>
-      <c r="CQ75" s="624"/>
-      <c r="CR75" s="622" t="s">
+      <c r="CN75" s="625"/>
+      <c r="CO75" s="625"/>
+      <c r="CP75" s="625"/>
+      <c r="CQ75" s="626"/>
+      <c r="CR75" s="624" t="s">
         <v>834</v>
       </c>
-      <c r="CS75" s="623"/>
-      <c r="CT75" s="623"/>
-      <c r="CU75" s="623"/>
-      <c r="CV75" s="624"/>
-      <c r="CW75" s="622" t="s">
+      <c r="CS75" s="625"/>
+      <c r="CT75" s="625"/>
+      <c r="CU75" s="625"/>
+      <c r="CV75" s="626"/>
+      <c r="CW75" s="624" t="s">
         <v>628</v>
       </c>
-      <c r="CX75" s="623"/>
-      <c r="CY75" s="623"/>
-      <c r="CZ75" s="623"/>
-      <c r="DA75" s="624"/>
-      <c r="DB75" s="622" t="s">
+      <c r="CX75" s="625"/>
+      <c r="CY75" s="625"/>
+      <c r="CZ75" s="625"/>
+      <c r="DA75" s="626"/>
+      <c r="DB75" s="624" t="s">
         <v>819</v>
       </c>
-      <c r="DC75" s="623"/>
-      <c r="DD75" s="623"/>
-      <c r="DE75" s="623"/>
-      <c r="DF75" s="624"/>
-      <c r="DG75" s="622" t="s">
+      <c r="DC75" s="625"/>
+      <c r="DD75" s="625"/>
+      <c r="DE75" s="625"/>
+      <c r="DF75" s="626"/>
+      <c r="DG75" s="624" t="s">
         <v>13</v>
       </c>
-      <c r="DH75" s="623"/>
-      <c r="DI75" s="623"/>
-      <c r="DJ75" s="623"/>
-      <c r="DK75" s="624"/>
+      <c r="DH75" s="625"/>
+      <c r="DI75" s="625"/>
+      <c r="DJ75" s="625"/>
+      <c r="DK75" s="626"/>
       <c r="DL75" s="389"/>
-      <c r="DM75" s="622" t="s">
+      <c r="DM75" s="624" t="s">
         <v>287</v>
       </c>
-      <c r="DN75" s="623"/>
-      <c r="DO75" s="623"/>
-      <c r="DP75" s="623"/>
-      <c r="DQ75" s="624"/>
-      <c r="DR75" s="622" t="s">
+      <c r="DN75" s="625"/>
+      <c r="DO75" s="625"/>
+      <c r="DP75" s="625"/>
+      <c r="DQ75" s="626"/>
+      <c r="DR75" s="624" t="s">
         <v>968</v>
       </c>
-      <c r="DS75" s="623"/>
-      <c r="DT75" s="623"/>
-      <c r="DU75" s="623"/>
-      <c r="DV75" s="624"/>
+      <c r="DS75" s="625"/>
+      <c r="DT75" s="625"/>
+      <c r="DU75" s="625"/>
+      <c r="DV75" s="626"/>
       <c r="DW75" s="95"/>
-      <c r="DX75" s="622" t="s">
+      <c r="DX75" s="624" t="s">
         <v>15</v>
       </c>
-      <c r="DY75" s="623"/>
-      <c r="DZ75" s="623"/>
-      <c r="EA75" s="623"/>
-      <c r="EB75" s="624"/>
-      <c r="EC75" s="621" t="s">
+      <c r="DY75" s="625"/>
+      <c r="DZ75" s="625"/>
+      <c r="EA75" s="625"/>
+      <c r="EB75" s="626"/>
+      <c r="EC75" s="623" t="s">
         <v>16</v>
       </c>
-      <c r="ED75" s="621"/>
-      <c r="EE75" s="621"/>
-      <c r="EF75" s="622" t="s">
+      <c r="ED75" s="623"/>
+      <c r="EE75" s="623"/>
+      <c r="EF75" s="624" t="s">
         <v>17</v>
       </c>
-      <c r="EG75" s="623"/>
-      <c r="EH75" s="623"/>
-      <c r="EI75" s="623"/>
-      <c r="EJ75" s="624"/>
+      <c r="EG75" s="625"/>
+      <c r="EH75" s="625"/>
+      <c r="EI75" s="625"/>
+      <c r="EJ75" s="626"/>
       <c r="EK75" s="95"/>
       <c r="EL75" s="509" t="s">
         <v>792</v>
       </c>
       <c r="EM75" s="509"/>
       <c r="EN75" s="509"/>
-      <c r="EO75" s="621" t="s">
+      <c r="EO75" s="623" t="s">
         <v>720</v>
       </c>
-      <c r="EP75" s="621"/>
-      <c r="EQ75" s="621"/>
-      <c r="ER75" s="622" t="s">
+      <c r="EP75" s="623"/>
+      <c r="EQ75" s="623"/>
+      <c r="ER75" s="624" t="s">
         <v>511</v>
       </c>
-      <c r="ES75" s="623"/>
-      <c r="ET75" s="623"/>
-      <c r="EU75" s="623"/>
-      <c r="EV75" s="624"/>
-      <c r="EW75" s="622" t="s">
+      <c r="ES75" s="625"/>
+      <c r="ET75" s="625"/>
+      <c r="EU75" s="625"/>
+      <c r="EV75" s="626"/>
+      <c r="EW75" s="624" t="s">
         <v>694</v>
       </c>
-      <c r="EX75" s="623"/>
-      <c r="EY75" s="623"/>
-      <c r="EZ75" s="623"/>
-      <c r="FA75" s="624"/>
-      <c r="FB75" s="622" t="s">
+      <c r="EX75" s="625"/>
+      <c r="EY75" s="625"/>
+      <c r="EZ75" s="625"/>
+      <c r="FA75" s="626"/>
+      <c r="FB75" s="624" t="s">
         <v>1010</v>
       </c>
-      <c r="FC75" s="623"/>
-      <c r="FD75" s="623"/>
-      <c r="FE75" s="623"/>
-      <c r="FF75" s="624"/>
-      <c r="FG75" s="622" t="s">
+      <c r="FC75" s="625"/>
+      <c r="FD75" s="625"/>
+      <c r="FE75" s="625"/>
+      <c r="FF75" s="626"/>
+      <c r="FG75" s="624" t="s">
         <v>558</v>
       </c>
-      <c r="FH75" s="623"/>
-      <c r="FI75" s="624"/>
-      <c r="FJ75" s="622" t="s">
+      <c r="FH75" s="625"/>
+      <c r="FI75" s="626"/>
+      <c r="FJ75" s="624" t="s">
         <v>559</v>
       </c>
-      <c r="FK75" s="623"/>
-      <c r="FL75" s="624"/>
+      <c r="FK75" s="625"/>
+      <c r="FL75" s="626"/>
       <c r="FM75" s="95"/>
-      <c r="FN75" s="621" t="s">
+      <c r="FN75" s="623" t="s">
         <v>911</v>
       </c>
-      <c r="FO75" s="621"/>
-      <c r="FP75" s="621"/>
-      <c r="FQ75" s="621" t="s">
+      <c r="FO75" s="623"/>
+      <c r="FP75" s="623"/>
+      <c r="FQ75" s="623" t="s">
         <v>1061</v>
       </c>
-      <c r="FR75" s="621"/>
-      <c r="FS75" s="621"/>
-      <c r="FT75" s="631" t="s">
+      <c r="FR75" s="623"/>
+      <c r="FS75" s="623"/>
+      <c r="FT75" s="633" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:176" s="110" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="635"/>
-      <c r="B76" s="636"/>
+      <c r="A76" s="637"/>
+      <c r="B76" s="638"/>
       <c r="C76" s="207" t="s">
         <v>22</v>
       </c>
@@ -32444,7 +32455,7 @@
       <c r="FS76" s="514" t="s">
         <v>24</v>
       </c>
-      <c r="FT76" s="631"/>
+      <c r="FT76" s="633"/>
     </row>
     <row r="77" spans="1:176" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="512" t="s">
@@ -32453,21 +32464,21 @@
       <c r="B77" s="510" t="s">
         <v>1025</v>
       </c>
-      <c r="C77" s="625" t="s">
+      <c r="C77" s="627" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="626"/>
-      <c r="E77" s="626"/>
-      <c r="F77" s="626"/>
-      <c r="G77" s="626"/>
-      <c r="H77" s="626"/>
-      <c r="I77" s="626"/>
-      <c r="J77" s="626"/>
-      <c r="K77" s="626"/>
-      <c r="L77" s="626"/>
-      <c r="M77" s="626"/>
-      <c r="N77" s="626"/>
-      <c r="O77" s="627"/>
+      <c r="D77" s="628"/>
+      <c r="E77" s="628"/>
+      <c r="F77" s="628"/>
+      <c r="G77" s="628"/>
+      <c r="H77" s="628"/>
+      <c r="I77" s="628"/>
+      <c r="J77" s="628"/>
+      <c r="K77" s="628"/>
+      <c r="L77" s="628"/>
+      <c r="M77" s="628"/>
+      <c r="N77" s="628"/>
+      <c r="O77" s="629"/>
       <c r="P77" s="511"/>
       <c r="Q77" s="511"/>
       <c r="R77" s="511"/>
@@ -32513,134 +32524,134 @@
       <c r="BF77" s="511"/>
       <c r="BG77" s="511"/>
       <c r="BH77" s="20"/>
-      <c r="BI77" s="631"/>
-      <c r="BJ77" s="631"/>
-      <c r="BK77" s="631"/>
+      <c r="BI77" s="633"/>
+      <c r="BJ77" s="633"/>
+      <c r="BK77" s="633"/>
       <c r="BL77" s="20"/>
-      <c r="BM77" s="628" t="s">
+      <c r="BM77" s="630" t="s">
         <v>463</v>
       </c>
-      <c r="BN77" s="629"/>
-      <c r="BO77" s="629"/>
-      <c r="BP77" s="629"/>
-      <c r="BQ77" s="629"/>
-      <c r="BR77" s="630"/>
+      <c r="BN77" s="631"/>
+      <c r="BO77" s="631"/>
+      <c r="BP77" s="631"/>
+      <c r="BQ77" s="631"/>
+      <c r="BR77" s="632"/>
       <c r="BS77" s="20"/>
-      <c r="BT77" s="625" t="s">
+      <c r="BT77" s="627" t="s">
         <v>11</v>
       </c>
-      <c r="BU77" s="626"/>
-      <c r="BV77" s="626"/>
-      <c r="BW77" s="626"/>
-      <c r="BX77" s="626"/>
-      <c r="BY77" s="626"/>
-      <c r="BZ77" s="626"/>
-      <c r="CA77" s="626"/>
-      <c r="CB77" s="626"/>
-      <c r="CC77" s="626"/>
-      <c r="CD77" s="626"/>
-      <c r="CE77" s="626"/>
-      <c r="CF77" s="626"/>
-      <c r="CG77" s="626"/>
-      <c r="CH77" s="626"/>
-      <c r="CI77" s="626"/>
-      <c r="CJ77" s="626"/>
-      <c r="CK77" s="626"/>
-      <c r="CL77" s="626"/>
-      <c r="CM77" s="626"/>
-      <c r="CN77" s="626"/>
-      <c r="CO77" s="626"/>
-      <c r="CP77" s="626"/>
-      <c r="CQ77" s="626"/>
-      <c r="CR77" s="626"/>
-      <c r="CS77" s="626"/>
-      <c r="CT77" s="626"/>
-      <c r="CU77" s="626"/>
-      <c r="CV77" s="626"/>
-      <c r="CW77" s="626"/>
-      <c r="CX77" s="626"/>
-      <c r="CY77" s="626"/>
-      <c r="CZ77" s="626"/>
-      <c r="DA77" s="626"/>
-      <c r="DB77" s="626"/>
-      <c r="DC77" s="626"/>
-      <c r="DD77" s="626"/>
-      <c r="DE77" s="626"/>
-      <c r="DF77" s="626"/>
-      <c r="DG77" s="626"/>
-      <c r="DH77" s="626"/>
-      <c r="DI77" s="626"/>
-      <c r="DJ77" s="626"/>
-      <c r="DK77" s="627"/>
+      <c r="BU77" s="628"/>
+      <c r="BV77" s="628"/>
+      <c r="BW77" s="628"/>
+      <c r="BX77" s="628"/>
+      <c r="BY77" s="628"/>
+      <c r="BZ77" s="628"/>
+      <c r="CA77" s="628"/>
+      <c r="CB77" s="628"/>
+      <c r="CC77" s="628"/>
+      <c r="CD77" s="628"/>
+      <c r="CE77" s="628"/>
+      <c r="CF77" s="628"/>
+      <c r="CG77" s="628"/>
+      <c r="CH77" s="628"/>
+      <c r="CI77" s="628"/>
+      <c r="CJ77" s="628"/>
+      <c r="CK77" s="628"/>
+      <c r="CL77" s="628"/>
+      <c r="CM77" s="628"/>
+      <c r="CN77" s="628"/>
+      <c r="CO77" s="628"/>
+      <c r="CP77" s="628"/>
+      <c r="CQ77" s="628"/>
+      <c r="CR77" s="628"/>
+      <c r="CS77" s="628"/>
+      <c r="CT77" s="628"/>
+      <c r="CU77" s="628"/>
+      <c r="CV77" s="628"/>
+      <c r="CW77" s="628"/>
+      <c r="CX77" s="628"/>
+      <c r="CY77" s="628"/>
+      <c r="CZ77" s="628"/>
+      <c r="DA77" s="628"/>
+      <c r="DB77" s="628"/>
+      <c r="DC77" s="628"/>
+      <c r="DD77" s="628"/>
+      <c r="DE77" s="628"/>
+      <c r="DF77" s="628"/>
+      <c r="DG77" s="628"/>
+      <c r="DH77" s="628"/>
+      <c r="DI77" s="628"/>
+      <c r="DJ77" s="628"/>
+      <c r="DK77" s="629"/>
       <c r="DL77" s="466"/>
-      <c r="DM77" s="625" t="s">
+      <c r="DM77" s="627" t="s">
         <v>56</v>
       </c>
-      <c r="DN77" s="626"/>
-      <c r="DO77" s="626"/>
-      <c r="DP77" s="626"/>
-      <c r="DQ77" s="626"/>
-      <c r="DR77" s="626"/>
-      <c r="DS77" s="626"/>
-      <c r="DT77" s="626"/>
-      <c r="DU77" s="626"/>
-      <c r="DV77" s="627"/>
+      <c r="DN77" s="628"/>
+      <c r="DO77" s="628"/>
+      <c r="DP77" s="628"/>
+      <c r="DQ77" s="628"/>
+      <c r="DR77" s="628"/>
+      <c r="DS77" s="628"/>
+      <c r="DT77" s="628"/>
+      <c r="DU77" s="628"/>
+      <c r="DV77" s="629"/>
       <c r="DW77" s="20"/>
-      <c r="DX77" s="628" t="s">
+      <c r="DX77" s="630" t="s">
         <v>14</v>
       </c>
-      <c r="DY77" s="629"/>
-      <c r="DZ77" s="629"/>
-      <c r="EA77" s="629"/>
-      <c r="EB77" s="629"/>
-      <c r="EC77" s="629"/>
-      <c r="ED77" s="629"/>
-      <c r="EE77" s="629"/>
-      <c r="EF77" s="629"/>
-      <c r="EG77" s="629"/>
-      <c r="EH77" s="629"/>
-      <c r="EI77" s="629"/>
-      <c r="EJ77" s="630"/>
+      <c r="DY77" s="631"/>
+      <c r="DZ77" s="631"/>
+      <c r="EA77" s="631"/>
+      <c r="EB77" s="631"/>
+      <c r="EC77" s="631"/>
+      <c r="ED77" s="631"/>
+      <c r="EE77" s="631"/>
+      <c r="EF77" s="631"/>
+      <c r="EG77" s="631"/>
+      <c r="EH77" s="631"/>
+      <c r="EI77" s="631"/>
+      <c r="EJ77" s="632"/>
       <c r="EK77" s="20"/>
-      <c r="EL77" s="625" t="s">
+      <c r="EL77" s="627" t="s">
         <v>20</v>
       </c>
-      <c r="EM77" s="626"/>
-      <c r="EN77" s="626"/>
-      <c r="EO77" s="626"/>
-      <c r="EP77" s="626"/>
-      <c r="EQ77" s="626"/>
-      <c r="ER77" s="626"/>
-      <c r="ES77" s="626"/>
-      <c r="ET77" s="626"/>
-      <c r="EU77" s="626"/>
-      <c r="EV77" s="626"/>
-      <c r="EW77" s="626"/>
-      <c r="EX77" s="626"/>
-      <c r="EY77" s="626"/>
-      <c r="EZ77" s="626"/>
-      <c r="FA77" s="626"/>
-      <c r="FB77" s="626"/>
-      <c r="FC77" s="626"/>
-      <c r="FD77" s="626"/>
-      <c r="FE77" s="626"/>
-      <c r="FF77" s="626"/>
-      <c r="FG77" s="626"/>
-      <c r="FH77" s="626"/>
-      <c r="FI77" s="626"/>
-      <c r="FJ77" s="626"/>
-      <c r="FK77" s="626"/>
-      <c r="FL77" s="627"/>
+      <c r="EM77" s="628"/>
+      <c r="EN77" s="628"/>
+      <c r="EO77" s="628"/>
+      <c r="EP77" s="628"/>
+      <c r="EQ77" s="628"/>
+      <c r="ER77" s="628"/>
+      <c r="ES77" s="628"/>
+      <c r="ET77" s="628"/>
+      <c r="EU77" s="628"/>
+      <c r="EV77" s="628"/>
+      <c r="EW77" s="628"/>
+      <c r="EX77" s="628"/>
+      <c r="EY77" s="628"/>
+      <c r="EZ77" s="628"/>
+      <c r="FA77" s="628"/>
+      <c r="FB77" s="628"/>
+      <c r="FC77" s="628"/>
+      <c r="FD77" s="628"/>
+      <c r="FE77" s="628"/>
+      <c r="FF77" s="628"/>
+      <c r="FG77" s="628"/>
+      <c r="FH77" s="628"/>
+      <c r="FI77" s="628"/>
+      <c r="FJ77" s="628"/>
+      <c r="FK77" s="628"/>
+      <c r="FL77" s="629"/>
       <c r="FM77" s="20"/>
-      <c r="FN77" s="632" t="s">
+      <c r="FN77" s="634" t="s">
         <v>21</v>
       </c>
-      <c r="FO77" s="632"/>
-      <c r="FP77" s="632"/>
-      <c r="FQ77" s="632"/>
-      <c r="FR77" s="632"/>
-      <c r="FS77" s="632"/>
-      <c r="FT77" s="631"/>
+      <c r="FO77" s="634"/>
+      <c r="FP77" s="634"/>
+      <c r="FQ77" s="634"/>
+      <c r="FR77" s="634"/>
+      <c r="FS77" s="634"/>
+      <c r="FT77" s="633"/>
     </row>
     <row r="78" spans="1:176" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="115">
@@ -33508,13 +33519,13 @@
       <c r="BU82" s="6"/>
       <c r="BV82" s="114"/>
       <c r="BW82" s="5"/>
-      <c r="BX82" s="615" t="s">
+      <c r="BX82" s="617" t="s">
         <v>104</v>
       </c>
-      <c r="BY82" s="616"/>
-      <c r="BZ82" s="616"/>
-      <c r="CA82" s="616"/>
-      <c r="CB82" s="617"/>
+      <c r="BY82" s="618"/>
+      <c r="BZ82" s="618"/>
+      <c r="CA82" s="618"/>
+      <c r="CB82" s="619"/>
       <c r="CC82" s="116" t="s">
         <v>38</v>
       </c>
@@ -34289,30 +34300,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="650" t="s">
+      <c r="A1" s="652" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="652" t="s">
+      <c r="B1" s="654" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="653"/>
-      <c r="D1" s="653"/>
-      <c r="E1" s="653"/>
-      <c r="F1" s="653"/>
-      <c r="G1" s="653"/>
-      <c r="H1" s="653"/>
-      <c r="I1" s="653"/>
-      <c r="J1" s="653"/>
-      <c r="K1" s="653"/>
-      <c r="L1" s="653"/>
-      <c r="M1" s="653"/>
-      <c r="N1" s="653"/>
-      <c r="O1" s="653"/>
-      <c r="P1" s="653"/>
-      <c r="Q1" s="654"/>
+      <c r="C1" s="655"/>
+      <c r="D1" s="655"/>
+      <c r="E1" s="655"/>
+      <c r="F1" s="655"/>
+      <c r="G1" s="655"/>
+      <c r="H1" s="655"/>
+      <c r="I1" s="655"/>
+      <c r="J1" s="655"/>
+      <c r="K1" s="655"/>
+      <c r="L1" s="655"/>
+      <c r="M1" s="655"/>
+      <c r="N1" s="655"/>
+      <c r="O1" s="655"/>
+      <c r="P1" s="655"/>
+      <c r="Q1" s="656"/>
     </row>
     <row r="2" spans="1:18" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="651"/>
+      <c r="A2" s="653"/>
       <c r="B2" s="185" t="s">
         <v>70</v>
       </c>
@@ -36776,25 +36787,25 @@
       </c>
     </row>
     <row r="52" spans="1:17" s="175" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="655" t="s">
+      <c r="A52" s="657" t="s">
         <v>510</v>
       </c>
-      <c r="B52" s="656"/>
-      <c r="C52" s="656"/>
-      <c r="D52" s="656"/>
-      <c r="E52" s="656"/>
-      <c r="F52" s="656"/>
-      <c r="G52" s="656"/>
-      <c r="H52" s="656"/>
-      <c r="I52" s="656"/>
-      <c r="J52" s="656"/>
-      <c r="K52" s="656"/>
-      <c r="L52" s="656"/>
-      <c r="M52" s="656"/>
-      <c r="N52" s="656"/>
-      <c r="O52" s="656"/>
-      <c r="P52" s="656"/>
-      <c r="Q52" s="657"/>
+      <c r="B52" s="658"/>
+      <c r="C52" s="658"/>
+      <c r="D52" s="658"/>
+      <c r="E52" s="658"/>
+      <c r="F52" s="658"/>
+      <c r="G52" s="658"/>
+      <c r="H52" s="658"/>
+      <c r="I52" s="658"/>
+      <c r="J52" s="658"/>
+      <c r="K52" s="658"/>
+      <c r="L52" s="658"/>
+      <c r="M52" s="658"/>
+      <c r="N52" s="658"/>
+      <c r="O52" s="658"/>
+      <c r="P52" s="658"/>
+      <c r="Q52" s="659"/>
     </row>
     <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="124" t="s">
@@ -37481,25 +37492,25 @@
       </c>
     </row>
     <row r="67" spans="1:17" s="175" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="647" t="s">
+      <c r="A67" s="649" t="s">
         <v>589</v>
       </c>
-      <c r="B67" s="648"/>
-      <c r="C67" s="648"/>
-      <c r="D67" s="648"/>
-      <c r="E67" s="648"/>
-      <c r="F67" s="648"/>
-      <c r="G67" s="648"/>
-      <c r="H67" s="648"/>
-      <c r="I67" s="648"/>
-      <c r="J67" s="648"/>
-      <c r="K67" s="648"/>
-      <c r="L67" s="648"/>
-      <c r="M67" s="648"/>
-      <c r="N67" s="648"/>
-      <c r="O67" s="648"/>
-      <c r="P67" s="648"/>
-      <c r="Q67" s="649"/>
+      <c r="B67" s="650"/>
+      <c r="C67" s="650"/>
+      <c r="D67" s="650"/>
+      <c r="E67" s="650"/>
+      <c r="F67" s="650"/>
+      <c r="G67" s="650"/>
+      <c r="H67" s="650"/>
+      <c r="I67" s="650"/>
+      <c r="J67" s="650"/>
+      <c r="K67" s="650"/>
+      <c r="L67" s="650"/>
+      <c r="M67" s="650"/>
+      <c r="N67" s="650"/>
+      <c r="O67" s="650"/>
+      <c r="P67" s="650"/>
+      <c r="Q67" s="651"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="35" t="s">
@@ -37633,25 +37644,25 @@
       <c r="Q70" s="109"/>
     </row>
     <row r="71" spans="1:17" s="175" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="647" t="s">
+      <c r="A71" s="649" t="s">
         <v>635</v>
       </c>
-      <c r="B71" s="648"/>
-      <c r="C71" s="648"/>
-      <c r="D71" s="648"/>
-      <c r="E71" s="648"/>
-      <c r="F71" s="648"/>
-      <c r="G71" s="648"/>
-      <c r="H71" s="648"/>
-      <c r="I71" s="648"/>
-      <c r="J71" s="648"/>
-      <c r="K71" s="648"/>
-      <c r="L71" s="648"/>
-      <c r="M71" s="648"/>
-      <c r="N71" s="648"/>
-      <c r="O71" s="648"/>
-      <c r="P71" s="648"/>
-      <c r="Q71" s="649"/>
+      <c r="B71" s="650"/>
+      <c r="C71" s="650"/>
+      <c r="D71" s="650"/>
+      <c r="E71" s="650"/>
+      <c r="F71" s="650"/>
+      <c r="G71" s="650"/>
+      <c r="H71" s="650"/>
+      <c r="I71" s="650"/>
+      <c r="J71" s="650"/>
+      <c r="K71" s="650"/>
+      <c r="L71" s="650"/>
+      <c r="M71" s="650"/>
+      <c r="N71" s="650"/>
+      <c r="O71" s="650"/>
+      <c r="P71" s="650"/>
+      <c r="Q71" s="651"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="330" t="s">
@@ -39154,25 +39165,25 @@
       </c>
     </row>
     <row r="106" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="647" t="s">
+      <c r="A106" s="649" t="s">
         <v>872</v>
       </c>
-      <c r="B106" s="648"/>
-      <c r="C106" s="648"/>
-      <c r="D106" s="648"/>
-      <c r="E106" s="648"/>
-      <c r="F106" s="648"/>
-      <c r="G106" s="648"/>
-      <c r="H106" s="648"/>
-      <c r="I106" s="648"/>
-      <c r="J106" s="648"/>
-      <c r="K106" s="648"/>
-      <c r="L106" s="648"/>
-      <c r="M106" s="648"/>
-      <c r="N106" s="648"/>
-      <c r="O106" s="648"/>
-      <c r="P106" s="648"/>
-      <c r="Q106" s="649"/>
+      <c r="B106" s="650"/>
+      <c r="C106" s="650"/>
+      <c r="D106" s="650"/>
+      <c r="E106" s="650"/>
+      <c r="F106" s="650"/>
+      <c r="G106" s="650"/>
+      <c r="H106" s="650"/>
+      <c r="I106" s="650"/>
+      <c r="J106" s="650"/>
+      <c r="K106" s="650"/>
+      <c r="L106" s="650"/>
+      <c r="M106" s="650"/>
+      <c r="N106" s="650"/>
+      <c r="O106" s="650"/>
+      <c r="P106" s="650"/>
+      <c r="Q106" s="651"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="422" t="s">
@@ -39696,25 +39707,25 @@
       </c>
     </row>
     <row r="118" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="647" t="s">
+      <c r="A118" s="649" t="s">
         <v>967</v>
       </c>
-      <c r="B118" s="648"/>
-      <c r="C118" s="648"/>
-      <c r="D118" s="648"/>
-      <c r="E118" s="648"/>
-      <c r="F118" s="648"/>
-      <c r="G118" s="648"/>
-      <c r="H118" s="648"/>
-      <c r="I118" s="648"/>
-      <c r="J118" s="648"/>
-      <c r="K118" s="648"/>
-      <c r="L118" s="648"/>
-      <c r="M118" s="648"/>
-      <c r="N118" s="648"/>
-      <c r="O118" s="648"/>
-      <c r="P118" s="648"/>
-      <c r="Q118" s="649"/>
+      <c r="B118" s="650"/>
+      <c r="C118" s="650"/>
+      <c r="D118" s="650"/>
+      <c r="E118" s="650"/>
+      <c r="F118" s="650"/>
+      <c r="G118" s="650"/>
+      <c r="H118" s="650"/>
+      <c r="I118" s="650"/>
+      <c r="J118" s="650"/>
+      <c r="K118" s="650"/>
+      <c r="L118" s="650"/>
+      <c r="M118" s="650"/>
+      <c r="N118" s="650"/>
+      <c r="O118" s="650"/>
+      <c r="P118" s="650"/>
+      <c r="Q118" s="651"/>
     </row>
     <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="393" t="s">
@@ -39977,25 +39988,25 @@
       </c>
     </row>
     <row r="125" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="647" t="s">
+      <c r="A125" s="649" t="s">
         <v>1033</v>
       </c>
-      <c r="B125" s="648"/>
-      <c r="C125" s="648"/>
-      <c r="D125" s="648"/>
-      <c r="E125" s="648"/>
-      <c r="F125" s="648"/>
-      <c r="G125" s="648"/>
-      <c r="H125" s="648"/>
-      <c r="I125" s="648"/>
-      <c r="J125" s="648"/>
-      <c r="K125" s="648"/>
-      <c r="L125" s="648"/>
-      <c r="M125" s="648"/>
-      <c r="N125" s="648"/>
-      <c r="O125" s="648"/>
-      <c r="P125" s="648"/>
-      <c r="Q125" s="649"/>
+      <c r="B125" s="650"/>
+      <c r="C125" s="650"/>
+      <c r="D125" s="650"/>
+      <c r="E125" s="650"/>
+      <c r="F125" s="650"/>
+      <c r="G125" s="650"/>
+      <c r="H125" s="650"/>
+      <c r="I125" s="650"/>
+      <c r="J125" s="650"/>
+      <c r="K125" s="650"/>
+      <c r="L125" s="650"/>
+      <c r="M125" s="650"/>
+      <c r="N125" s="650"/>
+      <c r="O125" s="650"/>
+      <c r="P125" s="650"/>
+      <c r="Q125" s="651"/>
     </row>
     <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="493" t="s">
@@ -40329,25 +40340,25 @@
       <c r="Q136" s="109"/>
     </row>
     <row r="137" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="647" t="s">
+      <c r="A137" s="649" t="s">
         <v>1068</v>
       </c>
-      <c r="B137" s="648"/>
-      <c r="C137" s="648"/>
-      <c r="D137" s="648"/>
-      <c r="E137" s="648"/>
-      <c r="F137" s="648"/>
-      <c r="G137" s="648"/>
-      <c r="H137" s="648"/>
-      <c r="I137" s="648"/>
-      <c r="J137" s="648"/>
-      <c r="K137" s="648"/>
-      <c r="L137" s="648"/>
-      <c r="M137" s="648"/>
-      <c r="N137" s="648"/>
-      <c r="O137" s="648"/>
-      <c r="P137" s="648"/>
-      <c r="Q137" s="649"/>
+      <c r="B137" s="650"/>
+      <c r="C137" s="650"/>
+      <c r="D137" s="650"/>
+      <c r="E137" s="650"/>
+      <c r="F137" s="650"/>
+      <c r="G137" s="650"/>
+      <c r="H137" s="650"/>
+      <c r="I137" s="650"/>
+      <c r="J137" s="650"/>
+      <c r="K137" s="650"/>
+      <c r="L137" s="650"/>
+      <c r="M137" s="650"/>
+      <c r="N137" s="650"/>
+      <c r="O137" s="650"/>
+      <c r="P137" s="650"/>
+      <c r="Q137" s="651"/>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="103" t="s">
@@ -41628,8 +41639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O73" sqref="O73"/>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41649,58 +41660,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="658" t="s">
+      <c r="A1" s="660" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="659" t="s">
+      <c r="B1" s="661" t="s">
         <v>363</v>
       </c>
-      <c r="C1" s="659"/>
-      <c r="D1" s="659"/>
-      <c r="E1" s="659"/>
-      <c r="F1" s="659"/>
-      <c r="G1" s="660"/>
-      <c r="H1" s="661" t="s">
+      <c r="C1" s="661"/>
+      <c r="D1" s="661"/>
+      <c r="E1" s="661"/>
+      <c r="F1" s="661"/>
+      <c r="G1" s="662"/>
+      <c r="H1" s="663" t="s">
         <v>353</v>
       </c>
-      <c r="I1" s="662"/>
-      <c r="J1" s="662"/>
-      <c r="K1" s="662"/>
-      <c r="L1" s="662"/>
-      <c r="M1" s="662"/>
-      <c r="N1" s="663"/>
-      <c r="O1" s="658" t="s">
+      <c r="I1" s="664"/>
+      <c r="J1" s="664"/>
+      <c r="K1" s="664"/>
+      <c r="L1" s="664"/>
+      <c r="M1" s="664"/>
+      <c r="N1" s="665"/>
+      <c r="O1" s="660" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="662" t="s">
+      <c r="P1" s="664" t="s">
         <v>759</v>
       </c>
-      <c r="Q1" s="662"/>
-      <c r="R1" s="662"/>
-      <c r="S1" s="662"/>
-      <c r="T1" s="662"/>
-      <c r="U1" s="662"/>
-      <c r="V1" s="662"/>
-      <c r="W1" s="662"/>
-      <c r="X1" s="663"/>
-      <c r="Y1" s="662" t="s">
+      <c r="Q1" s="664"/>
+      <c r="R1" s="664"/>
+      <c r="S1" s="664"/>
+      <c r="T1" s="664"/>
+      <c r="U1" s="664"/>
+      <c r="V1" s="664"/>
+      <c r="W1" s="664"/>
+      <c r="X1" s="665"/>
+      <c r="Y1" s="664" t="s">
         <v>531</v>
       </c>
-      <c r="Z1" s="662"/>
-      <c r="AA1" s="662"/>
-      <c r="AB1" s="662"/>
+      <c r="Z1" s="664"/>
+      <c r="AA1" s="664"/>
+      <c r="AB1" s="664"/>
       <c r="AC1" s="472"/>
-      <c r="AD1" s="667" t="s">
+      <c r="AD1" s="669" t="s">
         <v>975</v>
       </c>
-      <c r="AE1" s="668"/>
-      <c r="AF1" s="668"/>
-      <c r="AG1" s="668"/>
-      <c r="AH1" s="668"/>
-      <c r="AI1" s="668"/>
+      <c r="AE1" s="670"/>
+      <c r="AF1" s="670"/>
+      <c r="AG1" s="670"/>
+      <c r="AH1" s="670"/>
+      <c r="AI1" s="670"/>
     </row>
     <row r="2" spans="1:35" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="658"/>
+      <c r="A2" s="660"/>
       <c r="B2" s="141" t="s">
         <v>359</v>
       </c>
@@ -41745,7 +41756,7 @@
         <f>COUNTIF(N5:N195,"A")</f>
         <v>6</v>
       </c>
-      <c r="O2" s="658"/>
+      <c r="O2" s="660"/>
       <c r="P2" s="262" t="s">
         <v>359</v>
       </c>
@@ -41816,7 +41827,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" s="110" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="658"/>
+      <c r="A3" s="660"/>
       <c r="B3" s="141" t="s">
         <v>360</v>
       </c>
@@ -41852,7 +41863,7 @@
       <c r="N3" s="150" t="s">
         <v>383</v>
       </c>
-      <c r="O3" s="658"/>
+      <c r="O3" s="660"/>
       <c r="P3" s="262" t="s">
         <v>360</v>
       </c>
@@ -41913,7 +41924,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="658"/>
+      <c r="A4" s="660"/>
       <c r="B4" s="131" t="s">
         <v>349</v>
       </c>
@@ -41953,7 +41964,7 @@
       <c r="N4" s="138">
         <v>42621</v>
       </c>
-      <c r="O4" s="658"/>
+      <c r="O4" s="660"/>
       <c r="P4" s="131" t="s">
         <v>349</v>
       </c>
@@ -42019,12 +42030,12 @@
       <c r="C5" s="159">
         <v>0</v>
       </c>
-      <c r="D5" s="664" t="s">
+      <c r="D5" s="666" t="s">
         <v>537</v>
       </c>
-      <c r="E5" s="665"/>
-      <c r="F5" s="665"/>
-      <c r="G5" s="666"/>
+      <c r="E5" s="667"/>
+      <c r="F5" s="667"/>
+      <c r="G5" s="668"/>
       <c r="H5" s="151" t="s">
         <v>350</v>
       </c>
@@ -42398,12 +42409,12 @@
       <c r="C9" s="159">
         <v>0</v>
       </c>
-      <c r="D9" s="664" t="s">
+      <c r="D9" s="666" t="s">
         <v>529</v>
       </c>
-      <c r="E9" s="665"/>
-      <c r="F9" s="665"/>
-      <c r="G9" s="666"/>
+      <c r="E9" s="667"/>
+      <c r="F9" s="667"/>
+      <c r="G9" s="668"/>
       <c r="H9" s="152" t="s">
         <v>277</v>
       </c>
@@ -42562,12 +42573,12 @@
       <c r="C11" s="159">
         <v>0</v>
       </c>
-      <c r="D11" s="664" t="s">
+      <c r="D11" s="666" t="s">
         <v>523</v>
       </c>
-      <c r="E11" s="665"/>
-      <c r="F11" s="665"/>
-      <c r="G11" s="666"/>
+      <c r="E11" s="667"/>
+      <c r="F11" s="667"/>
+      <c r="G11" s="668"/>
       <c r="H11" s="152" t="s">
         <v>277</v>
       </c>
@@ -42716,12 +42727,12 @@
       <c r="C13" s="159">
         <v>0</v>
       </c>
-      <c r="D13" s="664" t="s">
+      <c r="D13" s="666" t="s">
         <v>529</v>
       </c>
-      <c r="E13" s="665"/>
-      <c r="F13" s="665"/>
-      <c r="G13" s="666"/>
+      <c r="E13" s="667"/>
+      <c r="F13" s="667"/>
+      <c r="G13" s="668"/>
       <c r="H13" s="152" t="s">
         <v>277</v>
       </c>
@@ -42971,12 +42982,12 @@
       <c r="C16" s="159">
         <v>0</v>
       </c>
-      <c r="D16" s="664" t="s">
+      <c r="D16" s="666" t="s">
         <v>538</v>
       </c>
-      <c r="E16" s="665"/>
-      <c r="F16" s="665"/>
-      <c r="G16" s="666"/>
+      <c r="E16" s="667"/>
+      <c r="F16" s="667"/>
+      <c r="G16" s="668"/>
       <c r="H16" s="151" t="s">
         <v>350</v>
       </c>
@@ -43121,12 +43132,12 @@
       <c r="C18" s="159">
         <v>0</v>
       </c>
-      <c r="D18" s="664" t="s">
+      <c r="D18" s="666" t="s">
         <v>537</v>
       </c>
-      <c r="E18" s="665"/>
-      <c r="F18" s="665"/>
-      <c r="G18" s="666"/>
+      <c r="E18" s="667"/>
+      <c r="F18" s="667"/>
+      <c r="G18" s="668"/>
       <c r="H18" s="151" t="s">
         <v>350</v>
       </c>
@@ -43200,12 +43211,12 @@
       <c r="C19" s="159">
         <v>0</v>
       </c>
-      <c r="D19" s="664" t="s">
+      <c r="D19" s="666" t="s">
         <v>537</v>
       </c>
-      <c r="E19" s="665"/>
-      <c r="F19" s="665"/>
-      <c r="G19" s="666"/>
+      <c r="E19" s="667"/>
+      <c r="F19" s="667"/>
+      <c r="G19" s="668"/>
       <c r="H19" s="152" t="s">
         <v>277</v>
       </c>
@@ -45974,41 +45985,41 @@
   <sheetData>
     <row r="1" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="671" t="s">
+      <c r="B2" s="673" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="671"/>
-      <c r="D2" s="671"/>
-      <c r="E2" s="671"/>
-      <c r="F2" s="671"/>
-      <c r="G2" s="671"/>
-      <c r="H2" s="671"/>
-      <c r="I2" s="671"/>
-      <c r="J2" s="671"/>
+      <c r="C2" s="673"/>
+      <c r="D2" s="673"/>
+      <c r="E2" s="673"/>
+      <c r="F2" s="673"/>
+      <c r="G2" s="673"/>
+      <c r="H2" s="673"/>
+      <c r="I2" s="673"/>
+      <c r="J2" s="673"/>
     </row>
     <row r="3" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="670" t="s">
+      <c r="B4" s="672" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="670" t="s">
+      <c r="C4" s="672" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="669" t="s">
+      <c r="D4" s="671" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="669"/>
-      <c r="F4" s="669"/>
-      <c r="G4" s="669"/>
-      <c r="H4" s="669"/>
-      <c r="I4" s="669"/>
-      <c r="J4" s="669"/>
+      <c r="E4" s="671"/>
+      <c r="F4" s="671"/>
+      <c r="G4" s="671"/>
+      <c r="H4" s="671"/>
+      <c r="I4" s="671"/>
+      <c r="J4" s="671"/>
     </row>
     <row r="5" spans="2:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="670"/>
-      <c r="C5" s="670"/>
+      <c r="B5" s="672"/>
+      <c r="C5" s="672"/>
       <c r="D5" s="28" t="s">
         <v>42</v>
       </c>

--- a/Bench_Work_Tracking_11_18.xlsx
+++ b/Bench_Work_Tracking_11_18.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Janani\Bench Activities\Bench Tracking\Bench Tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwijesundara\Desktop\Bench-Git\Bench-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" tabRatio="673" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" tabRatio="673" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Mail" sheetId="10" r:id="rId1"/>
@@ -788,7 +788,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4288" uniqueCount="1124">
   <si>
     <t>#</t>
   </si>
@@ -4351,6 +4351,30 @@
   </si>
   <si>
     <t>Shashikala Thangawelu</t>
+  </si>
+  <si>
+    <t>Nilaksha Bastian</t>
+  </si>
+  <si>
+    <t>Hemal Nishantha</t>
+  </si>
+  <si>
+    <t>Tharmikka Tharmathas</t>
+  </si>
+  <si>
+    <t>Presented to HF</t>
+  </si>
+  <si>
+    <t>4 yrs</t>
+  </si>
+  <si>
+    <t>Security/Automation Testing</t>
+  </si>
+  <si>
+    <t>Presented to JLT UK</t>
+  </si>
+  <si>
+    <t>3.8 yrs</t>
   </si>
 </sst>
 </file>
@@ -6914,10 +6938,28 @@
     <xf numFmtId="1" fontId="21" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6929,6 +6971,81 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6938,38 +7055,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6980,44 +7070,17 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7028,9 +7091,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7039,21 +7099,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7079,59 +7124,65 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -7141,6 +7192,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7160,53 +7232,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7223,6 +7256,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7231,21 +7270,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7271,16 +7295,10 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7298,10 +7316,16 @@
     <xf numFmtId="0" fontId="27" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7651,40 +7675,40 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="594" t="s">
+      <c r="B2" s="563" t="s">
         <v>1020</v>
       </c>
-      <c r="C2" s="595"/>
-      <c r="D2" s="595"/>
-      <c r="E2" s="595"/>
-      <c r="F2" s="595"/>
-      <c r="G2" s="595"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="595"/>
-      <c r="J2" s="595"/>
-      <c r="K2" s="595"/>
-      <c r="L2" s="595"/>
-      <c r="M2" s="595"/>
-      <c r="N2" s="595"/>
-      <c r="O2" s="596"/>
+      <c r="C2" s="564"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="564"/>
+      <c r="F2" s="564"/>
+      <c r="G2" s="564"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="564"/>
+      <c r="J2" s="564"/>
+      <c r="K2" s="564"/>
+      <c r="L2" s="564"/>
+      <c r="M2" s="564"/>
+      <c r="N2" s="564"/>
+      <c r="O2" s="565"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="605" t="s">
+      <c r="B4" s="583" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="605"/>
-      <c r="D4" s="605"/>
-      <c r="E4" s="605"/>
-      <c r="F4" s="605"/>
-      <c r="G4" s="605"/>
-      <c r="H4" s="605"/>
-      <c r="I4" s="605"/>
-      <c r="J4" s="605"/>
-      <c r="K4" s="605"/>
-      <c r="L4" s="605"/>
-      <c r="M4" s="605"/>
-      <c r="N4" s="605"/>
-      <c r="O4" s="605"/>
+      <c r="C4" s="583"/>
+      <c r="D4" s="583"/>
+      <c r="E4" s="583"/>
+      <c r="F4" s="583"/>
+      <c r="G4" s="583"/>
+      <c r="H4" s="583"/>
+      <c r="I4" s="583"/>
+      <c r="J4" s="583"/>
+      <c r="K4" s="583"/>
+      <c r="L4" s="583"/>
+      <c r="M4" s="583"/>
+      <c r="N4" s="583"/>
+      <c r="O4" s="583"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="60"/>
@@ -7725,22 +7749,22 @@
       <c r="P9" s="61"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="605" t="s">
+      <c r="B11" s="583" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="605"/>
-      <c r="D11" s="605"/>
-      <c r="E11" s="605"/>
-      <c r="F11" s="605"/>
-      <c r="G11" s="605"/>
-      <c r="H11" s="605"/>
-      <c r="I11" s="605"/>
-      <c r="J11" s="605"/>
-      <c r="K11" s="605"/>
-      <c r="L11" s="605"/>
-      <c r="M11" s="605"/>
-      <c r="N11" s="605"/>
-      <c r="O11" s="605"/>
+      <c r="C11" s="583"/>
+      <c r="D11" s="583"/>
+      <c r="E11" s="583"/>
+      <c r="F11" s="583"/>
+      <c r="G11" s="583"/>
+      <c r="H11" s="583"/>
+      <c r="I11" s="583"/>
+      <c r="J11" s="583"/>
+      <c r="K11" s="583"/>
+      <c r="L11" s="583"/>
+      <c r="M11" s="583"/>
+      <c r="N11" s="583"/>
+      <c r="O11" s="583"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="60"/>
@@ -7759,22 +7783,22 @@
       <c r="O12" s="60"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="583" t="s">
+      <c r="B13" s="584" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="584"/>
-      <c r="D13" s="584"/>
-      <c r="E13" s="584"/>
-      <c r="F13" s="584"/>
-      <c r="G13" s="584"/>
-      <c r="H13" s="584"/>
-      <c r="I13" s="584"/>
-      <c r="J13" s="584"/>
-      <c r="K13" s="584"/>
-      <c r="L13" s="584"/>
-      <c r="M13" s="584"/>
-      <c r="N13" s="584"/>
-      <c r="O13" s="585"/>
+      <c r="C13" s="585"/>
+      <c r="D13" s="585"/>
+      <c r="E13" s="585"/>
+      <c r="F13" s="585"/>
+      <c r="G13" s="585"/>
+      <c r="H13" s="585"/>
+      <c r="I13" s="585"/>
+      <c r="J13" s="585"/>
+      <c r="K13" s="585"/>
+      <c r="L13" s="585"/>
+      <c r="M13" s="585"/>
+      <c r="N13" s="585"/>
+      <c r="O13" s="586"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="62"/>
@@ -7794,22 +7818,22 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="62"/>
-      <c r="C15" s="574" t="s">
+      <c r="C15" s="587" t="s">
         <v>219</v>
       </c>
-      <c r="D15" s="575"/>
-      <c r="E15" s="576"/>
+      <c r="D15" s="588"/>
+      <c r="E15" s="589"/>
       <c r="F15" s="68"/>
-      <c r="G15" s="574" t="s">
+      <c r="G15" s="587" t="s">
         <v>222</v>
       </c>
-      <c r="H15" s="575"/>
-      <c r="I15" s="575"/>
-      <c r="J15" s="575"/>
-      <c r="K15" s="575"/>
-      <c r="L15" s="575"/>
-      <c r="M15" s="575"/>
-      <c r="N15" s="576"/>
+      <c r="H15" s="588"/>
+      <c r="I15" s="588"/>
+      <c r="J15" s="588"/>
+      <c r="K15" s="588"/>
+      <c r="L15" s="588"/>
+      <c r="M15" s="588"/>
+      <c r="N15" s="589"/>
       <c r="O15" s="63"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -7845,12 +7869,12 @@
       <c r="I17" s="65">
         <v>52</v>
       </c>
-      <c r="J17" s="578" t="s">
+      <c r="J17" s="590" t="s">
         <v>372</v>
       </c>
-      <c r="K17" s="579"/>
-      <c r="L17" s="579"/>
-      <c r="M17" s="580"/>
+      <c r="K17" s="591"/>
+      <c r="L17" s="591"/>
+      <c r="M17" s="592"/>
       <c r="N17" s="86"/>
       <c r="O17" s="63"/>
     </row>
@@ -7871,10 +7895,10 @@
       <c r="I18" s="66">
         <v>0</v>
       </c>
-      <c r="J18" s="578"/>
-      <c r="K18" s="579"/>
-      <c r="L18" s="579"/>
-      <c r="M18" s="580"/>
+      <c r="J18" s="590"/>
+      <c r="K18" s="591"/>
+      <c r="L18" s="591"/>
+      <c r="M18" s="592"/>
       <c r="N18" s="86"/>
       <c r="O18" s="63"/>
     </row>
@@ -7887,19 +7911,19 @@
         <v>4</v>
       </c>
       <c r="E19" s="85"/>
-      <c r="G19" s="598" t="s">
+      <c r="G19" s="570" t="s">
         <v>225</v>
       </c>
-      <c r="H19" s="599"/>
-      <c r="I19" s="588">
+      <c r="H19" s="571"/>
+      <c r="I19" s="595">
         <v>4</v>
       </c>
-      <c r="J19" s="589" t="s">
+      <c r="J19" s="596" t="s">
         <v>1099</v>
       </c>
-      <c r="K19" s="590"/>
-      <c r="L19" s="590"/>
-      <c r="M19" s="590"/>
+      <c r="K19" s="597"/>
+      <c r="L19" s="597"/>
+      <c r="M19" s="597"/>
       <c r="N19" s="86"/>
       <c r="O19" s="63"/>
     </row>
@@ -7914,13 +7938,13 @@
       </c>
       <c r="E20" s="85"/>
       <c r="F20" s="68"/>
-      <c r="G20" s="598"/>
-      <c r="H20" s="599"/>
-      <c r="I20" s="588"/>
-      <c r="J20" s="590"/>
-      <c r="K20" s="590"/>
-      <c r="L20" s="590"/>
-      <c r="M20" s="590"/>
+      <c r="G20" s="570"/>
+      <c r="H20" s="571"/>
+      <c r="I20" s="595"/>
+      <c r="J20" s="597"/>
+      <c r="K20" s="597"/>
+      <c r="L20" s="597"/>
+      <c r="M20" s="597"/>
       <c r="N20" s="329"/>
       <c r="O20" s="63"/>
     </row>
@@ -7957,22 +7981,22 @@
       <c r="O22" s="63"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="583" t="s">
+      <c r="B23" s="584" t="s">
         <v>226</v>
       </c>
-      <c r="C23" s="584"/>
-      <c r="D23" s="584"/>
-      <c r="E23" s="584"/>
-      <c r="F23" s="584"/>
-      <c r="G23" s="584"/>
-      <c r="H23" s="584"/>
-      <c r="I23" s="584"/>
-      <c r="J23" s="584"/>
-      <c r="K23" s="584"/>
-      <c r="L23" s="584"/>
-      <c r="M23" s="584"/>
-      <c r="N23" s="584"/>
-      <c r="O23" s="585"/>
+      <c r="C23" s="585"/>
+      <c r="D23" s="585"/>
+      <c r="E23" s="585"/>
+      <c r="F23" s="585"/>
+      <c r="G23" s="585"/>
+      <c r="H23" s="585"/>
+      <c r="I23" s="585"/>
+      <c r="J23" s="585"/>
+      <c r="K23" s="585"/>
+      <c r="L23" s="585"/>
+      <c r="M23" s="585"/>
+      <c r="N23" s="585"/>
+      <c r="O23" s="586"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="62"/>
@@ -7992,15 +8016,15 @@
     </row>
     <row r="25" spans="2:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B25" s="62"/>
-      <c r="C25" s="586" t="s">
+      <c r="C25" s="593" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="586"/>
-      <c r="E25" s="587" t="s">
+      <c r="D25" s="593"/>
+      <c r="E25" s="594" t="s">
         <v>632</v>
       </c>
-      <c r="F25" s="587"/>
-      <c r="G25" s="587"/>
+      <c r="F25" s="594"/>
+      <c r="G25" s="594"/>
       <c r="H25" s="69" t="s">
         <v>227</v>
       </c>
@@ -8016,41 +8040,41 @@
       <c r="L25" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="M25" s="600" t="s">
+      <c r="M25" s="572" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="601"/>
+      <c r="N25" s="573"/>
       <c r="O25" s="63"/>
     </row>
     <row r="26" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="218"/>
-      <c r="C26" s="558" t="s">
+      <c r="C26" s="580" t="s">
         <v>560</v>
       </c>
-      <c r="D26" s="559"/>
-      <c r="E26" s="559"/>
-      <c r="F26" s="559"/>
-      <c r="G26" s="559"/>
-      <c r="H26" s="559"/>
-      <c r="I26" s="559"/>
-      <c r="J26" s="559"/>
-      <c r="K26" s="559"/>
-      <c r="L26" s="559"/>
-      <c r="M26" s="559"/>
-      <c r="N26" s="560"/>
+      <c r="D26" s="581"/>
+      <c r="E26" s="581"/>
+      <c r="F26" s="581"/>
+      <c r="G26" s="581"/>
+      <c r="H26" s="581"/>
+      <c r="I26" s="581"/>
+      <c r="J26" s="581"/>
+      <c r="K26" s="581"/>
+      <c r="L26" s="581"/>
+      <c r="M26" s="581"/>
+      <c r="N26" s="582"/>
       <c r="O26" s="63"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="218"/>
-      <c r="C27" s="577" t="s">
+      <c r="C27" s="566" t="s">
         <v>238</v>
       </c>
-      <c r="D27" s="577"/>
-      <c r="E27" s="597" t="s">
+      <c r="D27" s="566"/>
+      <c r="E27" s="567" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="597"/>
-      <c r="G27" s="597"/>
+      <c r="F27" s="567"/>
+      <c r="G27" s="567"/>
       <c r="H27" s="70">
         <v>15</v>
       </c>
@@ -8066,23 +8090,23 @@
       <c r="L27" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="M27" s="547" t="s">
+      <c r="M27" s="568" t="s">
         <v>608</v>
       </c>
-      <c r="N27" s="548"/>
+      <c r="N27" s="569"/>
       <c r="O27" s="63"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="218"/>
-      <c r="C28" s="577" t="s">
+      <c r="C28" s="566" t="s">
         <v>231</v>
       </c>
-      <c r="D28" s="577"/>
-      <c r="E28" s="597" t="s">
+      <c r="D28" s="566"/>
+      <c r="E28" s="567" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="597"/>
-      <c r="G28" s="597"/>
+      <c r="F28" s="567"/>
+      <c r="G28" s="567"/>
       <c r="H28" s="70">
         <v>3</v>
       </c>
@@ -8098,23 +8122,23 @@
       <c r="L28" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="M28" s="547" t="s">
+      <c r="M28" s="568" t="s">
         <v>608</v>
       </c>
-      <c r="N28" s="548"/>
+      <c r="N28" s="569"/>
       <c r="O28" s="63"/>
     </row>
     <row r="29" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="218"/>
-      <c r="C29" s="577" t="s">
+      <c r="C29" s="566" t="s">
         <v>606</v>
       </c>
-      <c r="D29" s="577"/>
-      <c r="E29" s="597" t="s">
+      <c r="D29" s="566"/>
+      <c r="E29" s="567" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="597"/>
-      <c r="G29" s="597"/>
+      <c r="F29" s="567"/>
+      <c r="G29" s="567"/>
       <c r="H29" s="70">
         <v>8</v>
       </c>
@@ -8130,23 +8154,23 @@
       <c r="L29" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="M29" s="547" t="s">
+      <c r="M29" s="568" t="s">
         <v>608</v>
       </c>
-      <c r="N29" s="548"/>
+      <c r="N29" s="569"/>
       <c r="O29" s="63"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="218"/>
-      <c r="C30" s="602" t="s">
+      <c r="C30" s="574" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="602"/>
-      <c r="E30" s="544" t="s">
+      <c r="D30" s="574"/>
+      <c r="E30" s="575" t="s">
         <v>736</v>
       </c>
-      <c r="F30" s="545"/>
-      <c r="G30" s="545"/>
+      <c r="F30" s="576"/>
+      <c r="G30" s="576"/>
       <c r="H30" s="234">
         <v>26</v>
       </c>
@@ -8162,23 +8186,23 @@
       <c r="L30" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="M30" s="547" t="s">
+      <c r="M30" s="568" t="s">
         <v>814</v>
       </c>
-      <c r="N30" s="548"/>
+      <c r="N30" s="569"/>
       <c r="O30" s="63"/>
     </row>
     <row r="31" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="218"/>
-      <c r="C31" s="603" t="s">
+      <c r="C31" s="578" t="s">
         <v>531</v>
       </c>
-      <c r="D31" s="604"/>
-      <c r="E31" s="544" t="s">
+      <c r="D31" s="579"/>
+      <c r="E31" s="575" t="s">
         <v>532</v>
       </c>
-      <c r="F31" s="545"/>
-      <c r="G31" s="546"/>
+      <c r="F31" s="576"/>
+      <c r="G31" s="577"/>
       <c r="H31" s="331">
         <v>29</v>
       </c>
@@ -8194,23 +8218,23 @@
       <c r="L31" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="M31" s="547" t="s">
+      <c r="M31" s="568" t="s">
         <v>814</v>
       </c>
-      <c r="N31" s="548"/>
+      <c r="N31" s="569"/>
       <c r="O31" s="63"/>
     </row>
     <row r="32" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="218"/>
-      <c r="C32" s="577" t="s">
+      <c r="C32" s="566" t="s">
         <v>452</v>
       </c>
-      <c r="D32" s="577"/>
-      <c r="E32" s="597" t="s">
+      <c r="D32" s="566"/>
+      <c r="E32" s="567" t="s">
         <v>371</v>
       </c>
-      <c r="F32" s="597"/>
-      <c r="G32" s="597"/>
+      <c r="F32" s="567"/>
+      <c r="G32" s="567"/>
       <c r="H32" s="70">
         <v>5</v>
       </c>
@@ -8226,23 +8250,23 @@
       <c r="L32" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="M32" s="547" t="s">
+      <c r="M32" s="568" t="s">
         <v>561</v>
       </c>
-      <c r="N32" s="548"/>
+      <c r="N32" s="569"/>
       <c r="O32" s="63"/>
     </row>
     <row r="33" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="218"/>
-      <c r="C33" s="593" t="s">
+      <c r="C33" s="600" t="s">
         <v>662</v>
       </c>
-      <c r="D33" s="593"/>
-      <c r="E33" s="550" t="s">
+      <c r="D33" s="600"/>
+      <c r="E33" s="601" t="s">
         <v>713</v>
       </c>
-      <c r="F33" s="551"/>
-      <c r="G33" s="551"/>
+      <c r="F33" s="602"/>
+      <c r="G33" s="602"/>
       <c r="H33" s="234">
         <v>27</v>
       </c>
@@ -8258,10 +8282,10 @@
       <c r="L33" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="M33" s="547" t="s">
+      <c r="M33" s="568" t="s">
         <v>1107</v>
       </c>
-      <c r="N33" s="548"/>
+      <c r="N33" s="569"/>
       <c r="O33" s="63"/>
     </row>
     <row r="34" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
@@ -8270,11 +8294,11 @@
         <v>775</v>
       </c>
       <c r="D34" s="385"/>
-      <c r="E34" s="544" t="s">
+      <c r="E34" s="575" t="s">
         <v>774</v>
       </c>
-      <c r="F34" s="545"/>
-      <c r="G34" s="546"/>
+      <c r="F34" s="576"/>
+      <c r="G34" s="577"/>
       <c r="H34" s="383">
         <v>1</v>
       </c>
@@ -8290,10 +8314,10 @@
       <c r="L34" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="M34" s="547" t="s">
+      <c r="M34" s="568" t="s">
         <v>728</v>
       </c>
-      <c r="N34" s="548"/>
+      <c r="N34" s="569"/>
       <c r="O34" s="63"/>
     </row>
     <row r="35" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
@@ -8302,11 +8326,11 @@
         <v>909</v>
       </c>
       <c r="D35" s="385"/>
-      <c r="E35" s="544" t="s">
+      <c r="E35" s="575" t="s">
         <v>774</v>
       </c>
-      <c r="F35" s="545"/>
-      <c r="G35" s="546"/>
+      <c r="F35" s="576"/>
+      <c r="G35" s="577"/>
       <c r="H35" s="425">
         <v>2</v>
       </c>
@@ -8330,15 +8354,15 @@
     </row>
     <row r="36" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="218"/>
-      <c r="C36" s="553" t="s">
+      <c r="C36" s="608" t="s">
         <v>1059</v>
       </c>
-      <c r="D36" s="554"/>
-      <c r="E36" s="550" t="s">
+      <c r="D36" s="609"/>
+      <c r="E36" s="601" t="s">
         <v>292</v>
       </c>
-      <c r="F36" s="551"/>
-      <c r="G36" s="552"/>
+      <c r="F36" s="602"/>
+      <c r="G36" s="607"/>
       <c r="H36" s="468">
         <v>2</v>
       </c>
@@ -8362,15 +8386,15 @@
     </row>
     <row r="37" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="218"/>
-      <c r="C37" s="555" t="s">
+      <c r="C37" s="610" t="s">
         <v>1003</v>
       </c>
-      <c r="D37" s="556"/>
-      <c r="E37" s="550" t="s">
+      <c r="D37" s="611"/>
+      <c r="E37" s="601" t="s">
         <v>292</v>
       </c>
-      <c r="F37" s="551"/>
-      <c r="G37" s="552"/>
+      <c r="F37" s="602"/>
+      <c r="G37" s="607"/>
       <c r="H37" s="468">
         <v>1</v>
       </c>
@@ -8490,11 +8514,11 @@
         <v>1006</v>
       </c>
       <c r="D41" s="485"/>
-      <c r="E41" s="550" t="s">
+      <c r="E41" s="601" t="s">
         <v>1007</v>
       </c>
-      <c r="F41" s="551"/>
-      <c r="G41" s="552"/>
+      <c r="F41" s="602"/>
+      <c r="G41" s="607"/>
       <c r="H41" s="468">
         <v>1</v>
       </c>
@@ -8522,11 +8546,11 @@
         <v>772</v>
       </c>
       <c r="D42" s="385"/>
-      <c r="E42" s="544" t="s">
+      <c r="E42" s="575" t="s">
         <v>773</v>
       </c>
-      <c r="F42" s="545"/>
-      <c r="G42" s="546"/>
+      <c r="F42" s="576"/>
+      <c r="G42" s="577"/>
       <c r="H42" s="383">
         <v>1</v>
       </c>
@@ -8542,23 +8566,23 @@
       <c r="L42" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="M42" s="547" t="s">
+      <c r="M42" s="568" t="s">
         <v>660</v>
       </c>
-      <c r="N42" s="548"/>
+      <c r="N42" s="569"/>
       <c r="O42" s="63"/>
     </row>
     <row r="43" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="218"/>
-      <c r="C43" s="549" t="s">
+      <c r="C43" s="606" t="s">
         <v>971</v>
       </c>
-      <c r="D43" s="549"/>
-      <c r="E43" s="592" t="s">
+      <c r="D43" s="606"/>
+      <c r="E43" s="599" t="s">
         <v>230</v>
       </c>
-      <c r="F43" s="592"/>
-      <c r="G43" s="592"/>
+      <c r="F43" s="599"/>
+      <c r="G43" s="599"/>
       <c r="H43" s="468">
         <v>8</v>
       </c>
@@ -8574,39 +8598,39 @@
       <c r="L43" s="470" t="s">
         <v>104</v>
       </c>
-      <c r="M43" s="547"/>
-      <c r="N43" s="548"/>
+      <c r="M43" s="568"/>
+      <c r="N43" s="569"/>
       <c r="O43" s="63"/>
     </row>
     <row r="44" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="218"/>
-      <c r="C44" s="558" t="s">
+      <c r="C44" s="580" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="559"/>
-      <c r="E44" s="559"/>
-      <c r="F44" s="559"/>
-      <c r="G44" s="559"/>
-      <c r="H44" s="559"/>
-      <c r="I44" s="559"/>
-      <c r="J44" s="559"/>
-      <c r="K44" s="559"/>
-      <c r="L44" s="559"/>
-      <c r="M44" s="559"/>
-      <c r="N44" s="560"/>
+      <c r="D44" s="581"/>
+      <c r="E44" s="581"/>
+      <c r="F44" s="581"/>
+      <c r="G44" s="581"/>
+      <c r="H44" s="581"/>
+      <c r="I44" s="581"/>
+      <c r="J44" s="581"/>
+      <c r="K44" s="581"/>
+      <c r="L44" s="581"/>
+      <c r="M44" s="581"/>
+      <c r="N44" s="582"/>
       <c r="O44" s="63"/>
     </row>
     <row r="45" spans="2:15" s="533" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="534"/>
-      <c r="C45" s="591" t="s">
+      <c r="C45" s="598" t="s">
         <v>1022</v>
       </c>
-      <c r="D45" s="591"/>
-      <c r="E45" s="541" t="s">
+      <c r="D45" s="598"/>
+      <c r="E45" s="547" t="s">
         <v>735</v>
       </c>
-      <c r="F45" s="542"/>
-      <c r="G45" s="542"/>
+      <c r="F45" s="548"/>
+      <c r="G45" s="548"/>
       <c r="H45" s="412" t="s">
         <v>233</v>
       </c>
@@ -8622,23 +8646,23 @@
       <c r="L45" s="415" t="s">
         <v>104</v>
       </c>
-      <c r="M45" s="581" t="s">
+      <c r="M45" s="539" t="s">
         <v>1067</v>
       </c>
-      <c r="N45" s="582"/>
+      <c r="N45" s="540"/>
       <c r="O45" s="536"/>
     </row>
     <row r="46" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="218"/>
-      <c r="C46" s="561" t="s">
+      <c r="C46" s="546" t="s">
         <v>342</v>
       </c>
-      <c r="D46" s="561"/>
-      <c r="E46" s="557" t="s">
+      <c r="D46" s="546"/>
+      <c r="E46" s="545" t="s">
         <v>343</v>
       </c>
-      <c r="F46" s="557"/>
-      <c r="G46" s="557"/>
+      <c r="F46" s="545"/>
+      <c r="G46" s="545"/>
       <c r="H46" s="211">
         <v>1</v>
       </c>
@@ -8662,15 +8686,15 @@
     </row>
     <row r="47" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="218"/>
-      <c r="C47" s="539" t="s">
+      <c r="C47" s="550" t="s">
         <v>659</v>
       </c>
-      <c r="D47" s="540"/>
-      <c r="E47" s="541" t="s">
+      <c r="D47" s="551"/>
+      <c r="E47" s="547" t="s">
         <v>771</v>
       </c>
-      <c r="F47" s="542"/>
-      <c r="G47" s="543"/>
+      <c r="F47" s="548"/>
+      <c r="G47" s="549"/>
       <c r="H47" s="412">
         <v>29</v>
       </c>
@@ -8694,15 +8718,15 @@
     </row>
     <row r="48" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="218"/>
-      <c r="C48" s="573" t="s">
+      <c r="C48" s="605" t="s">
         <v>631</v>
       </c>
-      <c r="D48" s="561"/>
-      <c r="E48" s="564" t="s">
+      <c r="D48" s="546"/>
+      <c r="E48" s="555" t="s">
         <v>292</v>
       </c>
-      <c r="F48" s="565"/>
-      <c r="G48" s="565"/>
+      <c r="F48" s="556"/>
+      <c r="G48" s="556"/>
       <c r="H48" s="217">
         <v>2</v>
       </c>
@@ -8726,15 +8750,15 @@
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="218"/>
-      <c r="C49" s="561" t="s">
+      <c r="C49" s="546" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="561"/>
-      <c r="E49" s="557" t="s">
+      <c r="D49" s="546"/>
+      <c r="E49" s="545" t="s">
         <v>230</v>
       </c>
-      <c r="F49" s="557"/>
-      <c r="G49" s="557"/>
+      <c r="F49" s="545"/>
+      <c r="G49" s="545"/>
       <c r="H49" s="211">
         <v>4</v>
       </c>
@@ -8758,15 +8782,15 @@
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="218"/>
-      <c r="C50" s="566" t="s">
+      <c r="C50" s="543" t="s">
         <v>265</v>
       </c>
-      <c r="D50" s="567"/>
-      <c r="E50" s="564" t="s">
+      <c r="D50" s="544"/>
+      <c r="E50" s="555" t="s">
         <v>266</v>
       </c>
-      <c r="F50" s="565"/>
-      <c r="G50" s="568"/>
+      <c r="F50" s="556"/>
+      <c r="G50" s="557"/>
       <c r="H50" s="211">
         <v>11</v>
       </c>
@@ -8790,15 +8814,15 @@
     </row>
     <row r="51" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="218"/>
-      <c r="C51" s="566" t="s">
+      <c r="C51" s="543" t="s">
         <v>403</v>
       </c>
-      <c r="D51" s="567"/>
-      <c r="E51" s="564" t="s">
+      <c r="D51" s="544"/>
+      <c r="E51" s="555" t="s">
         <v>370</v>
       </c>
-      <c r="F51" s="565"/>
-      <c r="G51" s="565"/>
+      <c r="F51" s="556"/>
+      <c r="G51" s="556"/>
       <c r="H51" s="217">
         <v>3</v>
       </c>
@@ -8822,15 +8846,15 @@
     </row>
     <row r="52" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="218"/>
-      <c r="C52" s="561" t="s">
+      <c r="C52" s="546" t="s">
         <v>451</v>
       </c>
-      <c r="D52" s="561"/>
-      <c r="E52" s="557" t="s">
+      <c r="D52" s="546"/>
+      <c r="E52" s="545" t="s">
         <v>371</v>
       </c>
-      <c r="F52" s="557"/>
-      <c r="G52" s="557"/>
+      <c r="F52" s="545"/>
+      <c r="G52" s="545"/>
       <c r="H52" s="211">
         <v>2</v>
       </c>
@@ -8846,23 +8870,23 @@
       <c r="L52" s="214">
         <v>1</v>
       </c>
-      <c r="M52" s="571" t="s">
+      <c r="M52" s="541" t="s">
         <v>512</v>
       </c>
-      <c r="N52" s="572"/>
+      <c r="N52" s="542"/>
       <c r="O52" s="63"/>
     </row>
     <row r="53" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="218"/>
-      <c r="C53" s="561" t="s">
+      <c r="C53" s="546" t="s">
         <v>449</v>
       </c>
-      <c r="D53" s="561"/>
-      <c r="E53" s="557" t="s">
+      <c r="D53" s="546"/>
+      <c r="E53" s="545" t="s">
         <v>230</v>
       </c>
-      <c r="F53" s="557"/>
-      <c r="G53" s="557"/>
+      <c r="F53" s="545"/>
+      <c r="G53" s="545"/>
       <c r="H53" s="211">
         <v>1</v>
       </c>
@@ -8886,15 +8910,15 @@
     </row>
     <row r="54" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="218"/>
-      <c r="C54" s="566" t="s">
+      <c r="C54" s="543" t="s">
         <v>556</v>
       </c>
-      <c r="D54" s="567"/>
-      <c r="E54" s="564" t="s">
+      <c r="D54" s="544"/>
+      <c r="E54" s="555" t="s">
         <v>370</v>
       </c>
-      <c r="F54" s="565"/>
-      <c r="G54" s="568"/>
+      <c r="F54" s="556"/>
+      <c r="G54" s="557"/>
       <c r="H54" s="266">
         <v>3</v>
       </c>
@@ -8918,15 +8942,15 @@
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="218"/>
-      <c r="C55" s="563" t="s">
+      <c r="C55" s="604" t="s">
         <v>234</v>
       </c>
-      <c r="D55" s="563"/>
-      <c r="E55" s="569" t="s">
+      <c r="D55" s="604"/>
+      <c r="E55" s="558" t="s">
         <v>84</v>
       </c>
-      <c r="F55" s="570"/>
-      <c r="G55" s="570"/>
+      <c r="F55" s="559"/>
+      <c r="G55" s="559"/>
       <c r="H55" s="351">
         <v>12</v>
       </c>
@@ -8954,11 +8978,11 @@
         <v>710</v>
       </c>
       <c r="D56" s="359"/>
-      <c r="E56" s="564" t="s">
+      <c r="E56" s="555" t="s">
         <v>230</v>
       </c>
-      <c r="F56" s="565"/>
-      <c r="G56" s="568"/>
+      <c r="F56" s="556"/>
+      <c r="G56" s="557"/>
       <c r="H56" s="355">
         <v>1</v>
       </c>
@@ -8982,15 +9006,15 @@
     </row>
     <row r="57" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="218"/>
-      <c r="C57" s="566" t="s">
+      <c r="C57" s="543" t="s">
         <v>554</v>
       </c>
-      <c r="D57" s="567"/>
-      <c r="E57" s="564" t="s">
+      <c r="D57" s="544"/>
+      <c r="E57" s="555" t="s">
         <v>370</v>
       </c>
-      <c r="F57" s="565"/>
-      <c r="G57" s="568"/>
+      <c r="F57" s="556"/>
+      <c r="G57" s="557"/>
       <c r="H57" s="326">
         <v>2</v>
       </c>
@@ -9014,15 +9038,15 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="218"/>
-      <c r="C58" s="561" t="s">
+      <c r="C58" s="546" t="s">
         <v>237</v>
       </c>
-      <c r="D58" s="561"/>
-      <c r="E58" s="557" t="s">
+      <c r="D58" s="546"/>
+      <c r="E58" s="545" t="s">
         <v>104</v>
       </c>
-      <c r="F58" s="557"/>
-      <c r="G58" s="557"/>
+      <c r="F58" s="545"/>
+      <c r="G58" s="545"/>
       <c r="H58" s="211">
         <v>2</v>
       </c>
@@ -9038,10 +9062,10 @@
       <c r="L58" s="214" t="s">
         <v>104</v>
       </c>
-      <c r="M58" s="571" t="s">
+      <c r="M58" s="541" t="s">
         <v>778</v>
       </c>
-      <c r="N58" s="572"/>
+      <c r="N58" s="542"/>
       <c r="O58" s="63"/>
     </row>
     <row r="59" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
@@ -9050,11 +9074,11 @@
         <v>730</v>
       </c>
       <c r="D59" s="411"/>
-      <c r="E59" s="541" t="s">
+      <c r="E59" s="547" t="s">
         <v>230</v>
       </c>
-      <c r="F59" s="542"/>
-      <c r="G59" s="543"/>
+      <c r="F59" s="548"/>
+      <c r="G59" s="549"/>
       <c r="H59" s="412">
         <v>2</v>
       </c>
@@ -9082,11 +9106,11 @@
         <v>768</v>
       </c>
       <c r="D60" s="411"/>
-      <c r="E60" s="541" t="s">
+      <c r="E60" s="547" t="s">
         <v>230</v>
       </c>
-      <c r="F60" s="542"/>
-      <c r="G60" s="543"/>
+      <c r="F60" s="548"/>
+      <c r="G60" s="549"/>
       <c r="H60" s="412">
         <v>1</v>
       </c>
@@ -9114,11 +9138,11 @@
         <v>701</v>
       </c>
       <c r="D61" s="430"/>
-      <c r="E61" s="569" t="s">
+      <c r="E61" s="558" t="s">
         <v>532</v>
       </c>
-      <c r="F61" s="570"/>
-      <c r="G61" s="609"/>
+      <c r="F61" s="559"/>
+      <c r="G61" s="560"/>
       <c r="H61" s="351">
         <v>1</v>
       </c>
@@ -9140,15 +9164,15 @@
     </row>
     <row r="62" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="218"/>
-      <c r="C62" s="539" t="s">
+      <c r="C62" s="550" t="s">
         <v>709</v>
       </c>
-      <c r="D62" s="540"/>
-      <c r="E62" s="541" t="s">
+      <c r="D62" s="551"/>
+      <c r="E62" s="547" t="s">
         <v>230</v>
       </c>
-      <c r="F62" s="542"/>
-      <c r="G62" s="543"/>
+      <c r="F62" s="548"/>
+      <c r="G62" s="549"/>
       <c r="H62" s="412">
         <v>3</v>
       </c>
@@ -9164,10 +9188,10 @@
       <c r="L62" s="415" t="s">
         <v>104</v>
       </c>
-      <c r="M62" s="581" t="s">
+      <c r="M62" s="539" t="s">
         <v>781</v>
       </c>
-      <c r="N62" s="582"/>
+      <c r="N62" s="540"/>
       <c r="O62" s="63"/>
     </row>
     <row r="63" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
@@ -9176,11 +9200,11 @@
         <v>948</v>
       </c>
       <c r="D63" s="491"/>
-      <c r="E63" s="569" t="s">
+      <c r="E63" s="558" t="s">
         <v>949</v>
       </c>
-      <c r="F63" s="570"/>
-      <c r="G63" s="609"/>
+      <c r="F63" s="559"/>
+      <c r="G63" s="560"/>
       <c r="H63" s="351">
         <v>1</v>
       </c>
@@ -9202,15 +9226,15 @@
     </row>
     <row r="64" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="218"/>
-      <c r="C64" s="539" t="s">
+      <c r="C64" s="550" t="s">
         <v>914</v>
       </c>
-      <c r="D64" s="540"/>
-      <c r="E64" s="569" t="s">
+      <c r="D64" s="551"/>
+      <c r="E64" s="558" t="s">
         <v>950</v>
       </c>
-      <c r="F64" s="570"/>
-      <c r="G64" s="609"/>
+      <c r="F64" s="559"/>
+      <c r="G64" s="560"/>
       <c r="H64" s="351">
         <v>1</v>
       </c>
@@ -9232,15 +9256,15 @@
     </row>
     <row r="65" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="218"/>
-      <c r="C65" s="610" t="s">
+      <c r="C65" s="561" t="s">
         <v>1004</v>
       </c>
-      <c r="D65" s="611"/>
-      <c r="E65" s="606" t="s">
+      <c r="D65" s="562"/>
+      <c r="E65" s="552" t="s">
         <v>292</v>
       </c>
-      <c r="F65" s="607"/>
-      <c r="G65" s="608"/>
+      <c r="F65" s="553"/>
+      <c r="G65" s="554"/>
       <c r="H65" s="505">
         <v>1</v>
       </c>
@@ -9266,11 +9290,11 @@
         <v>797</v>
       </c>
       <c r="D66" s="433"/>
-      <c r="E66" s="606" t="s">
+      <c r="E66" s="552" t="s">
         <v>230</v>
       </c>
-      <c r="F66" s="607"/>
-      <c r="G66" s="608"/>
+      <c r="F66" s="553"/>
+      <c r="G66" s="554"/>
       <c r="H66" s="434">
         <v>1</v>
       </c>
@@ -9294,15 +9318,15 @@
     </row>
     <row r="67" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="218"/>
-      <c r="C67" s="563" t="s">
+      <c r="C67" s="604" t="s">
         <v>972</v>
       </c>
-      <c r="D67" s="563"/>
-      <c r="E67" s="562" t="s">
+      <c r="D67" s="604"/>
+      <c r="E67" s="603" t="s">
         <v>973</v>
       </c>
-      <c r="F67" s="562"/>
-      <c r="G67" s="562"/>
+      <c r="F67" s="603"/>
+      <c r="G67" s="603"/>
       <c r="H67" s="496">
         <v>1</v>
       </c>
@@ -9324,15 +9348,15 @@
     </row>
     <row r="68" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="218"/>
-      <c r="C68" s="561" t="s">
+      <c r="C68" s="546" t="s">
         <v>548</v>
       </c>
-      <c r="D68" s="561"/>
-      <c r="E68" s="557" t="s">
+      <c r="D68" s="546"/>
+      <c r="E68" s="545" t="s">
         <v>553</v>
       </c>
-      <c r="F68" s="557"/>
-      <c r="G68" s="557"/>
+      <c r="F68" s="545"/>
+      <c r="G68" s="545"/>
       <c r="H68" s="211">
         <v>3</v>
       </c>
@@ -9372,6 +9396,90 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="C44:N44"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="B23:O23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:M20"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="C26:N26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B4:O4"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B13:O13"/>
     <mergeCell ref="M68:N68"/>
     <mergeCell ref="M62:N62"/>
     <mergeCell ref="M58:N58"/>
@@ -9396,90 +9504,6 @@
     <mergeCell ref="E61:G61"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:G65"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="C26:N26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B4:O4"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="B23:O23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:M20"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="C44:N44"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M43:N43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9491,8 +9515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FT57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
@@ -9641,268 +9665,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:176" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="633" t="s">
+      <c r="A1" s="624" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="634"/>
-      <c r="C1" s="612" t="s">
+      <c r="B1" s="625"/>
+      <c r="C1" s="621" t="s">
         <v>913</v>
       </c>
-      <c r="D1" s="613"/>
-      <c r="E1" s="613"/>
-      <c r="F1" s="613"/>
-      <c r="G1" s="614"/>
-      <c r="H1" s="612" t="s">
+      <c r="D1" s="622"/>
+      <c r="E1" s="622"/>
+      <c r="F1" s="622"/>
+      <c r="G1" s="623"/>
+      <c r="H1" s="621" t="s">
         <v>731</v>
       </c>
-      <c r="I1" s="613"/>
-      <c r="J1" s="613"/>
-      <c r="K1" s="613"/>
-      <c r="L1" s="614"/>
-      <c r="M1" s="612" t="s">
+      <c r="I1" s="622"/>
+      <c r="J1" s="622"/>
+      <c r="K1" s="622"/>
+      <c r="L1" s="623"/>
+      <c r="M1" s="621" t="s">
         <v>914</v>
       </c>
-      <c r="N1" s="613"/>
-      <c r="O1" s="614"/>
-      <c r="P1" s="612" t="s">
+      <c r="N1" s="622"/>
+      <c r="O1" s="623"/>
+      <c r="P1" s="621" t="s">
         <v>777</v>
       </c>
-      <c r="Q1" s="613"/>
-      <c r="R1" s="614"/>
-      <c r="S1" s="612" t="s">
+      <c r="Q1" s="622"/>
+      <c r="R1" s="623"/>
+      <c r="S1" s="621" t="s">
         <v>926</v>
       </c>
-      <c r="T1" s="613"/>
-      <c r="U1" s="614"/>
-      <c r="V1" s="612" t="s">
+      <c r="T1" s="622"/>
+      <c r="U1" s="623"/>
+      <c r="V1" s="621" t="s">
         <v>926</v>
       </c>
-      <c r="W1" s="613"/>
-      <c r="X1" s="614"/>
-      <c r="Y1" s="612" t="s">
+      <c r="W1" s="622"/>
+      <c r="X1" s="623"/>
+      <c r="Y1" s="621" t="s">
         <v>548</v>
       </c>
-      <c r="Z1" s="613"/>
-      <c r="AA1" s="613"/>
-      <c r="AB1" s="613"/>
-      <c r="AC1" s="614"/>
-      <c r="AD1" s="612" t="s">
+      <c r="Z1" s="622"/>
+      <c r="AA1" s="622"/>
+      <c r="AB1" s="622"/>
+      <c r="AC1" s="623"/>
+      <c r="AD1" s="621" t="s">
         <v>692</v>
       </c>
-      <c r="AE1" s="613"/>
-      <c r="AF1" s="613"/>
-      <c r="AG1" s="613"/>
-      <c r="AH1" s="614"/>
-      <c r="AI1" s="612" t="s">
+      <c r="AE1" s="622"/>
+      <c r="AF1" s="622"/>
+      <c r="AG1" s="622"/>
+      <c r="AH1" s="623"/>
+      <c r="AI1" s="621" t="s">
         <v>1063</v>
       </c>
-      <c r="AJ1" s="613"/>
-      <c r="AK1" s="613"/>
-      <c r="AL1" s="613"/>
-      <c r="AM1" s="614"/>
-      <c r="AN1" s="612" t="s">
+      <c r="AJ1" s="622"/>
+      <c r="AK1" s="622"/>
+      <c r="AL1" s="622"/>
+      <c r="AM1" s="623"/>
+      <c r="AN1" s="621" t="s">
         <v>693</v>
       </c>
-      <c r="AO1" s="613"/>
-      <c r="AP1" s="613"/>
-      <c r="AQ1" s="613"/>
-      <c r="AR1" s="614"/>
-      <c r="AS1" s="612" t="s">
+      <c r="AO1" s="622"/>
+      <c r="AP1" s="622"/>
+      <c r="AQ1" s="622"/>
+      <c r="AR1" s="623"/>
+      <c r="AS1" s="621" t="s">
         <v>701</v>
       </c>
-      <c r="AT1" s="613"/>
-      <c r="AU1" s="613"/>
-      <c r="AV1" s="613"/>
-      <c r="AW1" s="614"/>
-      <c r="AX1" s="612" t="s">
+      <c r="AT1" s="622"/>
+      <c r="AU1" s="622"/>
+      <c r="AV1" s="622"/>
+      <c r="AW1" s="623"/>
+      <c r="AX1" s="621" t="s">
         <v>714</v>
       </c>
-      <c r="AY1" s="613"/>
-      <c r="AZ1" s="613"/>
-      <c r="BA1" s="613"/>
-      <c r="BB1" s="614"/>
-      <c r="BC1" s="612" t="s">
+      <c r="AY1" s="622"/>
+      <c r="AZ1" s="622"/>
+      <c r="BA1" s="622"/>
+      <c r="BB1" s="623"/>
+      <c r="BC1" s="621" t="s">
         <v>555</v>
       </c>
-      <c r="BD1" s="613"/>
-      <c r="BE1" s="613"/>
-      <c r="BF1" s="613"/>
-      <c r="BG1" s="614"/>
+      <c r="BD1" s="622"/>
+      <c r="BE1" s="622"/>
+      <c r="BF1" s="622"/>
+      <c r="BG1" s="623"/>
       <c r="BH1" s="95"/>
-      <c r="BI1" s="622" t="s">
+      <c r="BI1" s="615" t="s">
         <v>125</v>
       </c>
-      <c r="BJ1" s="623"/>
-      <c r="BK1" s="623"/>
+      <c r="BJ1" s="616"/>
+      <c r="BK1" s="616"/>
       <c r="BL1" s="95"/>
-      <c r="BM1" s="621" t="s">
+      <c r="BM1" s="628" t="s">
         <v>823</v>
       </c>
-      <c r="BN1" s="621"/>
-      <c r="BO1" s="621"/>
-      <c r="BP1" s="621" t="s">
+      <c r="BN1" s="628"/>
+      <c r="BO1" s="628"/>
+      <c r="BP1" s="628" t="s">
         <v>960</v>
       </c>
-      <c r="BQ1" s="621"/>
-      <c r="BR1" s="621"/>
+      <c r="BQ1" s="628"/>
+      <c r="BR1" s="628"/>
       <c r="BS1" s="95"/>
-      <c r="BT1" s="621" t="s">
+      <c r="BT1" s="628" t="s">
         <v>12</v>
       </c>
-      <c r="BU1" s="621"/>
-      <c r="BV1" s="621"/>
-      <c r="BW1" s="621"/>
-      <c r="BX1" s="622" t="s">
+      <c r="BU1" s="628"/>
+      <c r="BV1" s="628"/>
+      <c r="BW1" s="628"/>
+      <c r="BX1" s="615" t="s">
         <v>422</v>
       </c>
-      <c r="BY1" s="623"/>
-      <c r="BZ1" s="623"/>
-      <c r="CA1" s="623"/>
-      <c r="CB1" s="624"/>
-      <c r="CC1" s="622" t="s">
+      <c r="BY1" s="616"/>
+      <c r="BZ1" s="616"/>
+      <c r="CA1" s="616"/>
+      <c r="CB1" s="617"/>
+      <c r="CC1" s="615" t="s">
         <v>287</v>
       </c>
-      <c r="CD1" s="623"/>
-      <c r="CE1" s="623"/>
-      <c r="CF1" s="623"/>
-      <c r="CG1" s="624"/>
-      <c r="CH1" s="622" t="s">
+      <c r="CD1" s="616"/>
+      <c r="CE1" s="616"/>
+      <c r="CF1" s="616"/>
+      <c r="CG1" s="617"/>
+      <c r="CH1" s="615" t="s">
         <v>756</v>
       </c>
-      <c r="CI1" s="623"/>
-      <c r="CJ1" s="623"/>
-      <c r="CK1" s="623"/>
-      <c r="CL1" s="624"/>
-      <c r="CM1" s="622" t="s">
+      <c r="CI1" s="616"/>
+      <c r="CJ1" s="616"/>
+      <c r="CK1" s="616"/>
+      <c r="CL1" s="617"/>
+      <c r="CM1" s="615" t="s">
         <v>758</v>
       </c>
-      <c r="CN1" s="623"/>
-      <c r="CO1" s="623"/>
-      <c r="CP1" s="623"/>
-      <c r="CQ1" s="624"/>
-      <c r="CR1" s="622" t="s">
+      <c r="CN1" s="616"/>
+      <c r="CO1" s="616"/>
+      <c r="CP1" s="616"/>
+      <c r="CQ1" s="617"/>
+      <c r="CR1" s="615" t="s">
         <v>834</v>
       </c>
-      <c r="CS1" s="623"/>
-      <c r="CT1" s="623"/>
-      <c r="CU1" s="623"/>
-      <c r="CV1" s="624"/>
-      <c r="CW1" s="622" t="s">
+      <c r="CS1" s="616"/>
+      <c r="CT1" s="616"/>
+      <c r="CU1" s="616"/>
+      <c r="CV1" s="617"/>
+      <c r="CW1" s="615" t="s">
         <v>628</v>
       </c>
-      <c r="CX1" s="623"/>
-      <c r="CY1" s="623"/>
-      <c r="CZ1" s="623"/>
-      <c r="DA1" s="624"/>
-      <c r="DB1" s="622" t="s">
+      <c r="CX1" s="616"/>
+      <c r="CY1" s="616"/>
+      <c r="CZ1" s="616"/>
+      <c r="DA1" s="617"/>
+      <c r="DB1" s="615" t="s">
         <v>819</v>
       </c>
-      <c r="DC1" s="623"/>
-      <c r="DD1" s="623"/>
-      <c r="DE1" s="623"/>
-      <c r="DF1" s="624"/>
-      <c r="DG1" s="622" t="s">
+      <c r="DC1" s="616"/>
+      <c r="DD1" s="616"/>
+      <c r="DE1" s="616"/>
+      <c r="DF1" s="617"/>
+      <c r="DG1" s="615" t="s">
         <v>13</v>
       </c>
-      <c r="DH1" s="623"/>
-      <c r="DI1" s="623"/>
-      <c r="DJ1" s="623"/>
-      <c r="DK1" s="624"/>
+      <c r="DH1" s="616"/>
+      <c r="DI1" s="616"/>
+      <c r="DJ1" s="616"/>
+      <c r="DK1" s="617"/>
       <c r="DL1" s="389"/>
-      <c r="DM1" s="622" t="s">
+      <c r="DM1" s="615" t="s">
         <v>287</v>
       </c>
-      <c r="DN1" s="623"/>
-      <c r="DO1" s="623"/>
-      <c r="DP1" s="623"/>
-      <c r="DQ1" s="624"/>
-      <c r="DR1" s="622" t="s">
+      <c r="DN1" s="616"/>
+      <c r="DO1" s="616"/>
+      <c r="DP1" s="616"/>
+      <c r="DQ1" s="617"/>
+      <c r="DR1" s="615" t="s">
         <v>968</v>
       </c>
-      <c r="DS1" s="623"/>
-      <c r="DT1" s="623"/>
-      <c r="DU1" s="623"/>
-      <c r="DV1" s="624"/>
+      <c r="DS1" s="616"/>
+      <c r="DT1" s="616"/>
+      <c r="DU1" s="616"/>
+      <c r="DV1" s="617"/>
       <c r="DW1" s="95"/>
-      <c r="DX1" s="622" t="s">
+      <c r="DX1" s="615" t="s">
         <v>15</v>
       </c>
-      <c r="DY1" s="623"/>
-      <c r="DZ1" s="623"/>
-      <c r="EA1" s="623"/>
-      <c r="EB1" s="624"/>
-      <c r="EC1" s="621" t="s">
+      <c r="DY1" s="616"/>
+      <c r="DZ1" s="616"/>
+      <c r="EA1" s="616"/>
+      <c r="EB1" s="617"/>
+      <c r="EC1" s="628" t="s">
         <v>16</v>
       </c>
-      <c r="ED1" s="621"/>
-      <c r="EE1" s="621"/>
-      <c r="EF1" s="622" t="s">
+      <c r="ED1" s="628"/>
+      <c r="EE1" s="628"/>
+      <c r="EF1" s="615" t="s">
         <v>17</v>
       </c>
-      <c r="EG1" s="623"/>
-      <c r="EH1" s="623"/>
-      <c r="EI1" s="623"/>
-      <c r="EJ1" s="624"/>
+      <c r="EG1" s="616"/>
+      <c r="EH1" s="616"/>
+      <c r="EI1" s="616"/>
+      <c r="EJ1" s="617"/>
       <c r="EK1" s="95"/>
       <c r="EL1" s="445" t="s">
         <v>792</v>
       </c>
       <c r="EM1" s="445"/>
       <c r="EN1" s="445"/>
-      <c r="EO1" s="621" t="s">
+      <c r="EO1" s="628" t="s">
         <v>720</v>
       </c>
-      <c r="EP1" s="621"/>
-      <c r="EQ1" s="621"/>
-      <c r="ER1" s="622" t="s">
+      <c r="EP1" s="628"/>
+      <c r="EQ1" s="628"/>
+      <c r="ER1" s="615" t="s">
         <v>511</v>
       </c>
-      <c r="ES1" s="623"/>
-      <c r="ET1" s="623"/>
-      <c r="EU1" s="623"/>
-      <c r="EV1" s="624"/>
-      <c r="EW1" s="622" t="s">
+      <c r="ES1" s="616"/>
+      <c r="ET1" s="616"/>
+      <c r="EU1" s="616"/>
+      <c r="EV1" s="617"/>
+      <c r="EW1" s="615" t="s">
         <v>694</v>
       </c>
-      <c r="EX1" s="623"/>
-      <c r="EY1" s="623"/>
-      <c r="EZ1" s="623"/>
-      <c r="FA1" s="624"/>
-      <c r="FB1" s="622" t="s">
+      <c r="EX1" s="616"/>
+      <c r="EY1" s="616"/>
+      <c r="EZ1" s="616"/>
+      <c r="FA1" s="617"/>
+      <c r="FB1" s="615" t="s">
         <v>1010</v>
       </c>
-      <c r="FC1" s="623"/>
-      <c r="FD1" s="623"/>
-      <c r="FE1" s="623"/>
-      <c r="FF1" s="624"/>
-      <c r="FG1" s="622" t="s">
+      <c r="FC1" s="616"/>
+      <c r="FD1" s="616"/>
+      <c r="FE1" s="616"/>
+      <c r="FF1" s="617"/>
+      <c r="FG1" s="615" t="s">
         <v>558</v>
       </c>
-      <c r="FH1" s="623"/>
-      <c r="FI1" s="624"/>
-      <c r="FJ1" s="622" t="s">
+      <c r="FH1" s="616"/>
+      <c r="FI1" s="617"/>
+      <c r="FJ1" s="615" t="s">
         <v>559</v>
       </c>
-      <c r="FK1" s="623"/>
-      <c r="FL1" s="624"/>
+      <c r="FK1" s="616"/>
+      <c r="FL1" s="617"/>
       <c r="FM1" s="95"/>
-      <c r="FN1" s="621" t="s">
+      <c r="FN1" s="628" t="s">
         <v>911</v>
       </c>
-      <c r="FO1" s="621"/>
-      <c r="FP1" s="621"/>
-      <c r="FQ1" s="621" t="s">
+      <c r="FO1" s="628"/>
+      <c r="FP1" s="628"/>
+      <c r="FQ1" s="628" t="s">
         <v>1061</v>
       </c>
-      <c r="FR1" s="621"/>
-      <c r="FS1" s="621"/>
-      <c r="FT1" s="631" t="s">
+      <c r="FR1" s="628"/>
+      <c r="FS1" s="628"/>
+      <c r="FT1" s="629" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:176" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="635"/>
-      <c r="B2" s="636"/>
+    <row r="2" spans="1:176" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="626"/>
+      <c r="B2" s="627"/>
       <c r="C2" s="11" t="s">
         <v>22</v>
       </c>
@@ -10408,7 +10432,7 @@
       <c r="FS2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="FT2" s="631"/>
+      <c r="FT2" s="629"/>
     </row>
     <row r="3" spans="1:176" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -10417,21 +10441,21 @@
       <c r="B3" s="13" t="s">
         <v>1025</v>
       </c>
-      <c r="C3" s="625" t="s">
+      <c r="C3" s="618" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="626"/>
-      <c r="E3" s="626"/>
-      <c r="F3" s="626"/>
-      <c r="G3" s="626"/>
-      <c r="H3" s="626"/>
-      <c r="I3" s="626"/>
-      <c r="J3" s="626"/>
-      <c r="K3" s="626"/>
-      <c r="L3" s="626"/>
-      <c r="M3" s="626"/>
-      <c r="N3" s="626"/>
-      <c r="O3" s="627"/>
+      <c r="D3" s="619"/>
+      <c r="E3" s="619"/>
+      <c r="F3" s="619"/>
+      <c r="G3" s="619"/>
+      <c r="H3" s="619"/>
+      <c r="I3" s="619"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="619"/>
+      <c r="M3" s="619"/>
+      <c r="N3" s="619"/>
+      <c r="O3" s="620"/>
       <c r="P3" s="386"/>
       <c r="Q3" s="386"/>
       <c r="R3" s="386"/>
@@ -10477,134 +10501,134 @@
       <c r="BF3" s="278"/>
       <c r="BG3" s="278"/>
       <c r="BH3" s="20"/>
-      <c r="BI3" s="631"/>
-      <c r="BJ3" s="631"/>
-      <c r="BK3" s="631"/>
+      <c r="BI3" s="629"/>
+      <c r="BJ3" s="629"/>
+      <c r="BK3" s="629"/>
       <c r="BL3" s="20"/>
-      <c r="BM3" s="628" t="s">
+      <c r="BM3" s="612" t="s">
         <v>463</v>
       </c>
-      <c r="BN3" s="629"/>
-      <c r="BO3" s="629"/>
-      <c r="BP3" s="629"/>
-      <c r="BQ3" s="629"/>
-      <c r="BR3" s="630"/>
+      <c r="BN3" s="613"/>
+      <c r="BO3" s="613"/>
+      <c r="BP3" s="613"/>
+      <c r="BQ3" s="613"/>
+      <c r="BR3" s="614"/>
       <c r="BS3" s="20"/>
-      <c r="BT3" s="625" t="s">
+      <c r="BT3" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="BU3" s="626"/>
-      <c r="BV3" s="626"/>
-      <c r="BW3" s="626"/>
-      <c r="BX3" s="626"/>
-      <c r="BY3" s="626"/>
-      <c r="BZ3" s="626"/>
-      <c r="CA3" s="626"/>
-      <c r="CB3" s="626"/>
-      <c r="CC3" s="626"/>
-      <c r="CD3" s="626"/>
-      <c r="CE3" s="626"/>
-      <c r="CF3" s="626"/>
-      <c r="CG3" s="626"/>
-      <c r="CH3" s="626"/>
-      <c r="CI3" s="626"/>
-      <c r="CJ3" s="626"/>
-      <c r="CK3" s="626"/>
-      <c r="CL3" s="626"/>
-      <c r="CM3" s="626"/>
-      <c r="CN3" s="626"/>
-      <c r="CO3" s="626"/>
-      <c r="CP3" s="626"/>
-      <c r="CQ3" s="626"/>
-      <c r="CR3" s="626"/>
-      <c r="CS3" s="626"/>
-      <c r="CT3" s="626"/>
-      <c r="CU3" s="626"/>
-      <c r="CV3" s="626"/>
-      <c r="CW3" s="626"/>
-      <c r="CX3" s="626"/>
-      <c r="CY3" s="626"/>
-      <c r="CZ3" s="626"/>
-      <c r="DA3" s="626"/>
-      <c r="DB3" s="626"/>
-      <c r="DC3" s="626"/>
-      <c r="DD3" s="626"/>
-      <c r="DE3" s="626"/>
-      <c r="DF3" s="626"/>
-      <c r="DG3" s="626"/>
-      <c r="DH3" s="626"/>
-      <c r="DI3" s="626"/>
-      <c r="DJ3" s="626"/>
-      <c r="DK3" s="627"/>
+      <c r="BU3" s="619"/>
+      <c r="BV3" s="619"/>
+      <c r="BW3" s="619"/>
+      <c r="BX3" s="619"/>
+      <c r="BY3" s="619"/>
+      <c r="BZ3" s="619"/>
+      <c r="CA3" s="619"/>
+      <c r="CB3" s="619"/>
+      <c r="CC3" s="619"/>
+      <c r="CD3" s="619"/>
+      <c r="CE3" s="619"/>
+      <c r="CF3" s="619"/>
+      <c r="CG3" s="619"/>
+      <c r="CH3" s="619"/>
+      <c r="CI3" s="619"/>
+      <c r="CJ3" s="619"/>
+      <c r="CK3" s="619"/>
+      <c r="CL3" s="619"/>
+      <c r="CM3" s="619"/>
+      <c r="CN3" s="619"/>
+      <c r="CO3" s="619"/>
+      <c r="CP3" s="619"/>
+      <c r="CQ3" s="619"/>
+      <c r="CR3" s="619"/>
+      <c r="CS3" s="619"/>
+      <c r="CT3" s="619"/>
+      <c r="CU3" s="619"/>
+      <c r="CV3" s="619"/>
+      <c r="CW3" s="619"/>
+      <c r="CX3" s="619"/>
+      <c r="CY3" s="619"/>
+      <c r="CZ3" s="619"/>
+      <c r="DA3" s="619"/>
+      <c r="DB3" s="619"/>
+      <c r="DC3" s="619"/>
+      <c r="DD3" s="619"/>
+      <c r="DE3" s="619"/>
+      <c r="DF3" s="619"/>
+      <c r="DG3" s="619"/>
+      <c r="DH3" s="619"/>
+      <c r="DI3" s="619"/>
+      <c r="DJ3" s="619"/>
+      <c r="DK3" s="620"/>
       <c r="DL3" s="466"/>
-      <c r="DM3" s="625" t="s">
+      <c r="DM3" s="618" t="s">
         <v>56</v>
       </c>
-      <c r="DN3" s="626"/>
-      <c r="DO3" s="626"/>
-      <c r="DP3" s="626"/>
-      <c r="DQ3" s="626"/>
-      <c r="DR3" s="626"/>
-      <c r="DS3" s="626"/>
-      <c r="DT3" s="626"/>
-      <c r="DU3" s="626"/>
-      <c r="DV3" s="627"/>
+      <c r="DN3" s="619"/>
+      <c r="DO3" s="619"/>
+      <c r="DP3" s="619"/>
+      <c r="DQ3" s="619"/>
+      <c r="DR3" s="619"/>
+      <c r="DS3" s="619"/>
+      <c r="DT3" s="619"/>
+      <c r="DU3" s="619"/>
+      <c r="DV3" s="620"/>
       <c r="DW3" s="20"/>
-      <c r="DX3" s="628" t="s">
+      <c r="DX3" s="612" t="s">
         <v>14</v>
       </c>
-      <c r="DY3" s="629"/>
-      <c r="DZ3" s="629"/>
-      <c r="EA3" s="629"/>
-      <c r="EB3" s="629"/>
-      <c r="EC3" s="629"/>
-      <c r="ED3" s="629"/>
-      <c r="EE3" s="629"/>
-      <c r="EF3" s="629"/>
-      <c r="EG3" s="629"/>
-      <c r="EH3" s="629"/>
-      <c r="EI3" s="629"/>
-      <c r="EJ3" s="630"/>
+      <c r="DY3" s="613"/>
+      <c r="DZ3" s="613"/>
+      <c r="EA3" s="613"/>
+      <c r="EB3" s="613"/>
+      <c r="EC3" s="613"/>
+      <c r="ED3" s="613"/>
+      <c r="EE3" s="613"/>
+      <c r="EF3" s="613"/>
+      <c r="EG3" s="613"/>
+      <c r="EH3" s="613"/>
+      <c r="EI3" s="613"/>
+      <c r="EJ3" s="614"/>
       <c r="EK3" s="20"/>
-      <c r="EL3" s="625" t="s">
+      <c r="EL3" s="618" t="s">
         <v>20</v>
       </c>
-      <c r="EM3" s="626"/>
-      <c r="EN3" s="626"/>
-      <c r="EO3" s="626"/>
-      <c r="EP3" s="626"/>
-      <c r="EQ3" s="626"/>
-      <c r="ER3" s="626"/>
-      <c r="ES3" s="626"/>
-      <c r="ET3" s="626"/>
-      <c r="EU3" s="626"/>
-      <c r="EV3" s="626"/>
-      <c r="EW3" s="626"/>
-      <c r="EX3" s="626"/>
-      <c r="EY3" s="626"/>
-      <c r="EZ3" s="626"/>
-      <c r="FA3" s="626"/>
-      <c r="FB3" s="626"/>
-      <c r="FC3" s="626"/>
-      <c r="FD3" s="626"/>
-      <c r="FE3" s="626"/>
-      <c r="FF3" s="626"/>
-      <c r="FG3" s="626"/>
-      <c r="FH3" s="626"/>
-      <c r="FI3" s="626"/>
-      <c r="FJ3" s="626"/>
-      <c r="FK3" s="626"/>
-      <c r="FL3" s="627"/>
+      <c r="EM3" s="619"/>
+      <c r="EN3" s="619"/>
+      <c r="EO3" s="619"/>
+      <c r="EP3" s="619"/>
+      <c r="EQ3" s="619"/>
+      <c r="ER3" s="619"/>
+      <c r="ES3" s="619"/>
+      <c r="ET3" s="619"/>
+      <c r="EU3" s="619"/>
+      <c r="EV3" s="619"/>
+      <c r="EW3" s="619"/>
+      <c r="EX3" s="619"/>
+      <c r="EY3" s="619"/>
+      <c r="EZ3" s="619"/>
+      <c r="FA3" s="619"/>
+      <c r="FB3" s="619"/>
+      <c r="FC3" s="619"/>
+      <c r="FD3" s="619"/>
+      <c r="FE3" s="619"/>
+      <c r="FF3" s="619"/>
+      <c r="FG3" s="619"/>
+      <c r="FH3" s="619"/>
+      <c r="FI3" s="619"/>
+      <c r="FJ3" s="619"/>
+      <c r="FK3" s="619"/>
+      <c r="FL3" s="620"/>
       <c r="FM3" s="20"/>
-      <c r="FN3" s="632" t="s">
+      <c r="FN3" s="630" t="s">
         <v>21</v>
       </c>
-      <c r="FO3" s="632"/>
-      <c r="FP3" s="632"/>
-      <c r="FQ3" s="632"/>
-      <c r="FR3" s="632"/>
-      <c r="FS3" s="632"/>
-      <c r="FT3" s="631"/>
+      <c r="FO3" s="630"/>
+      <c r="FP3" s="630"/>
+      <c r="FQ3" s="630"/>
+      <c r="FR3" s="630"/>
+      <c r="FS3" s="630"/>
+      <c r="FT3" s="629"/>
     </row>
     <row r="4" spans="1:176" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="115">
@@ -10926,13 +10950,13 @@
       <c r="BU5" s="114"/>
       <c r="BV5" s="114"/>
       <c r="BW5" s="113"/>
-      <c r="BX5" s="615" t="s">
+      <c r="BX5" s="631" t="s">
         <v>104</v>
       </c>
-      <c r="BY5" s="616"/>
-      <c r="BZ5" s="616"/>
-      <c r="CA5" s="616"/>
-      <c r="CB5" s="617"/>
+      <c r="BY5" s="632"/>
+      <c r="BZ5" s="632"/>
+      <c r="CA5" s="632"/>
+      <c r="CB5" s="633"/>
       <c r="CC5" s="116" t="s">
         <v>38</v>
       </c>
@@ -11158,13 +11182,13 @@
       <c r="BU6" s="114"/>
       <c r="BV6" s="114"/>
       <c r="BW6" s="113"/>
-      <c r="BX6" s="615" t="s">
+      <c r="BX6" s="631" t="s">
         <v>104</v>
       </c>
-      <c r="BY6" s="616"/>
-      <c r="BZ6" s="616"/>
-      <c r="CA6" s="616"/>
-      <c r="CB6" s="617"/>
+      <c r="BY6" s="632"/>
+      <c r="BZ6" s="632"/>
+      <c r="CA6" s="632"/>
+      <c r="CB6" s="633"/>
       <c r="CC6" s="116" t="s">
         <v>38</v>
       </c>
@@ -11400,18 +11424,18 @@
       <c r="BU7" s="114"/>
       <c r="BV7" s="114"/>
       <c r="BW7" s="113"/>
-      <c r="BX7" s="615" t="s">
+      <c r="BX7" s="631" t="s">
         <v>104</v>
       </c>
-      <c r="BY7" s="616"/>
-      <c r="BZ7" s="616"/>
-      <c r="CA7" s="616"/>
-      <c r="CB7" s="617"/>
-      <c r="CC7" s="618" t="s">
+      <c r="BY7" s="632"/>
+      <c r="BZ7" s="632"/>
+      <c r="CA7" s="632"/>
+      <c r="CB7" s="633"/>
+      <c r="CC7" s="634" t="s">
         <v>104</v>
       </c>
-      <c r="CD7" s="619"/>
-      <c r="CE7" s="620"/>
+      <c r="CD7" s="635"/>
+      <c r="CE7" s="636"/>
       <c r="CF7" s="113"/>
       <c r="CG7" s="528"/>
       <c r="CH7" s="116" t="s">
@@ -11622,18 +11646,18 @@
       <c r="BU8" s="114"/>
       <c r="BV8" s="114"/>
       <c r="BW8" s="113"/>
-      <c r="BX8" s="615" t="s">
+      <c r="BX8" s="631" t="s">
         <v>104</v>
       </c>
-      <c r="BY8" s="616"/>
-      <c r="BZ8" s="616"/>
-      <c r="CA8" s="616"/>
-      <c r="CB8" s="617"/>
-      <c r="CC8" s="618" t="s">
+      <c r="BY8" s="632"/>
+      <c r="BZ8" s="632"/>
+      <c r="CA8" s="632"/>
+      <c r="CB8" s="633"/>
+      <c r="CC8" s="634" t="s">
         <v>104</v>
       </c>
-      <c r="CD8" s="619"/>
-      <c r="CE8" s="620"/>
+      <c r="CD8" s="635"/>
+      <c r="CE8" s="636"/>
       <c r="CF8" s="113"/>
       <c r="CG8" s="528"/>
       <c r="CH8" s="116" t="s">
@@ -11826,14 +11850,14 @@
       <c r="BU9" s="114"/>
       <c r="BV9" s="114"/>
       <c r="BW9" s="113"/>
-      <c r="BX9" s="615"/>
-      <c r="BY9" s="616"/>
-      <c r="BZ9" s="616"/>
-      <c r="CA9" s="616"/>
-      <c r="CB9" s="617"/>
-      <c r="CC9" s="618"/>
-      <c r="CD9" s="619"/>
-      <c r="CE9" s="620"/>
+      <c r="BX9" s="631"/>
+      <c r="BY9" s="632"/>
+      <c r="BZ9" s="632"/>
+      <c r="CA9" s="632"/>
+      <c r="CB9" s="633"/>
+      <c r="CC9" s="634"/>
+      <c r="CD9" s="635"/>
+      <c r="CE9" s="636"/>
       <c r="CF9" s="113"/>
       <c r="CG9" s="528"/>
       <c r="CH9" s="116" t="s">
@@ -12038,14 +12062,14 @@
       <c r="BU10" s="114"/>
       <c r="BV10" s="114"/>
       <c r="BW10" s="113"/>
-      <c r="BX10" s="615"/>
-      <c r="BY10" s="616"/>
-      <c r="BZ10" s="616"/>
-      <c r="CA10" s="616"/>
-      <c r="CB10" s="617"/>
-      <c r="CC10" s="618"/>
-      <c r="CD10" s="619"/>
-      <c r="CE10" s="620"/>
+      <c r="BX10" s="631"/>
+      <c r="BY10" s="632"/>
+      <c r="BZ10" s="632"/>
+      <c r="CA10" s="632"/>
+      <c r="CB10" s="633"/>
+      <c r="CC10" s="634"/>
+      <c r="CD10" s="635"/>
+      <c r="CE10" s="636"/>
       <c r="CF10" s="113"/>
       <c r="CG10" s="528"/>
       <c r="CH10" s="116" t="s">
@@ -20903,17 +20927,37 @@
     <filterColumn colId="57" showButton="0"/>
   </autoFilter>
   <mergeCells count="58">
-    <mergeCell ref="BM3:BR3"/>
-    <mergeCell ref="DR1:DV1"/>
-    <mergeCell ref="DM3:DV3"/>
-    <mergeCell ref="DG1:DK1"/>
-    <mergeCell ref="DM1:DQ1"/>
-    <mergeCell ref="CW1:DA1"/>
-    <mergeCell ref="CC1:CG1"/>
-    <mergeCell ref="CH1:CL1"/>
-    <mergeCell ref="CM1:CQ1"/>
-    <mergeCell ref="DB1:DF1"/>
-    <mergeCell ref="CR1:CV1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="BX10:CB10"/>
+    <mergeCell ref="CC10:CE10"/>
+    <mergeCell ref="CC7:CE7"/>
+    <mergeCell ref="BX7:CB7"/>
+    <mergeCell ref="BX9:CB9"/>
+    <mergeCell ref="CC9:CE9"/>
+    <mergeCell ref="BX8:CB8"/>
+    <mergeCell ref="CC8:CE8"/>
+    <mergeCell ref="BX5:CB5"/>
+    <mergeCell ref="BX6:CB6"/>
+    <mergeCell ref="AX1:BB1"/>
+    <mergeCell ref="BT1:BW1"/>
+    <mergeCell ref="BX1:CB1"/>
+    <mergeCell ref="BT3:DK3"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="DX3:EJ3"/>
+    <mergeCell ref="EL3:FL3"/>
+    <mergeCell ref="FT1:FT3"/>
+    <mergeCell ref="FN1:FP1"/>
+    <mergeCell ref="FQ1:FS1"/>
+    <mergeCell ref="FN3:FS3"/>
+    <mergeCell ref="EO1:EQ1"/>
+    <mergeCell ref="EC1:EE1"/>
+    <mergeCell ref="EF1:EJ1"/>
+    <mergeCell ref="DX1:EB1"/>
+    <mergeCell ref="FG1:FI1"/>
+    <mergeCell ref="FJ1:FL1"/>
+    <mergeCell ref="EW1:FA1"/>
+    <mergeCell ref="ER1:EV1"/>
+    <mergeCell ref="FB1:FF1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="A1:B2"/>
@@ -20930,37 +20974,17 @@
     <mergeCell ref="AN1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="DX3:EJ3"/>
-    <mergeCell ref="EL3:FL3"/>
-    <mergeCell ref="FT1:FT3"/>
-    <mergeCell ref="FN1:FP1"/>
-    <mergeCell ref="FQ1:FS1"/>
-    <mergeCell ref="FN3:FS3"/>
-    <mergeCell ref="EO1:EQ1"/>
-    <mergeCell ref="EC1:EE1"/>
-    <mergeCell ref="EF1:EJ1"/>
-    <mergeCell ref="DX1:EB1"/>
-    <mergeCell ref="FG1:FI1"/>
-    <mergeCell ref="FJ1:FL1"/>
-    <mergeCell ref="EW1:FA1"/>
-    <mergeCell ref="ER1:EV1"/>
-    <mergeCell ref="FB1:FF1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="BX10:CB10"/>
-    <mergeCell ref="CC10:CE10"/>
-    <mergeCell ref="CC7:CE7"/>
-    <mergeCell ref="BX7:CB7"/>
-    <mergeCell ref="BX9:CB9"/>
-    <mergeCell ref="CC9:CE9"/>
-    <mergeCell ref="BX8:CB8"/>
-    <mergeCell ref="CC8:CE8"/>
-    <mergeCell ref="BX5:CB5"/>
-    <mergeCell ref="BX6:CB6"/>
-    <mergeCell ref="AX1:BB1"/>
-    <mergeCell ref="BT1:BW1"/>
-    <mergeCell ref="BX1:CB1"/>
-    <mergeCell ref="BT3:DK3"/>
-    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="BM3:BR3"/>
+    <mergeCell ref="DR1:DV1"/>
+    <mergeCell ref="DM3:DV3"/>
+    <mergeCell ref="DG1:DK1"/>
+    <mergeCell ref="DM1:DQ1"/>
+    <mergeCell ref="CW1:DA1"/>
+    <mergeCell ref="CC1:CG1"/>
+    <mergeCell ref="CH1:CL1"/>
+    <mergeCell ref="CM1:CQ1"/>
+    <mergeCell ref="DB1:DF1"/>
+    <mergeCell ref="CR1:CV1"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K13 DU4:DU13 CF4:CF13 CK4:CK13 DJ4:DJ13 CP4:CP13 EI4 DP4:DP13 CA4 F4:F13 EF15">
@@ -21089,182 +21113,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="633" t="s">
+      <c r="A1" s="624" t="s">
         <v>1002</v>
       </c>
-      <c r="B1" s="634"/>
-      <c r="C1" s="612" t="s">
+      <c r="B1" s="625"/>
+      <c r="C1" s="621" t="s">
         <v>293</v>
       </c>
-      <c r="D1" s="613"/>
-      <c r="E1" s="613"/>
-      <c r="F1" s="613"/>
-      <c r="G1" s="614"/>
-      <c r="H1" s="612" t="s">
+      <c r="D1" s="622"/>
+      <c r="E1" s="622"/>
+      <c r="F1" s="622"/>
+      <c r="G1" s="623"/>
+      <c r="H1" s="621" t="s">
         <v>731</v>
       </c>
-      <c r="I1" s="613"/>
-      <c r="J1" s="613"/>
-      <c r="K1" s="613"/>
-      <c r="L1" s="614"/>
-      <c r="M1" s="612" t="s">
+      <c r="I1" s="622"/>
+      <c r="J1" s="622"/>
+      <c r="K1" s="622"/>
+      <c r="L1" s="623"/>
+      <c r="M1" s="621" t="s">
         <v>403</v>
       </c>
-      <c r="N1" s="613"/>
-      <c r="O1" s="613"/>
-      <c r="P1" s="613"/>
-      <c r="Q1" s="614"/>
-      <c r="R1" s="612" t="s">
+      <c r="N1" s="622"/>
+      <c r="O1" s="622"/>
+      <c r="P1" s="622"/>
+      <c r="Q1" s="623"/>
+      <c r="R1" s="621" t="s">
         <v>449</v>
       </c>
-      <c r="S1" s="613"/>
-      <c r="T1" s="613"/>
-      <c r="U1" s="613"/>
-      <c r="V1" s="614"/>
-      <c r="W1" s="612" t="s">
+      <c r="S1" s="622"/>
+      <c r="T1" s="622"/>
+      <c r="U1" s="622"/>
+      <c r="V1" s="623"/>
+      <c r="W1" s="621" t="s">
         <v>548</v>
       </c>
-      <c r="X1" s="613"/>
-      <c r="Y1" s="613"/>
-      <c r="Z1" s="614"/>
+      <c r="X1" s="622"/>
+      <c r="Y1" s="622"/>
+      <c r="Z1" s="623"/>
       <c r="AA1" s="19"/>
-      <c r="AB1" s="612" t="s">
+      <c r="AB1" s="621" t="s">
         <v>125</v>
       </c>
-      <c r="AC1" s="613"/>
-      <c r="AD1" s="613"/>
-      <c r="AE1" s="613"/>
-      <c r="AF1" s="614"/>
+      <c r="AC1" s="622"/>
+      <c r="AD1" s="622"/>
+      <c r="AE1" s="622"/>
+      <c r="AF1" s="623"/>
       <c r="AG1" s="19"/>
-      <c r="AH1" s="639" t="s">
+      <c r="AH1" s="642" t="s">
         <v>123</v>
       </c>
-      <c r="AI1" s="640"/>
-      <c r="AJ1" s="640"/>
-      <c r="AK1" s="640"/>
-      <c r="AL1" s="641"/>
-      <c r="AM1" s="639" t="s">
+      <c r="AI1" s="643"/>
+      <c r="AJ1" s="643"/>
+      <c r="AK1" s="643"/>
+      <c r="AL1" s="644"/>
+      <c r="AM1" s="642" t="s">
         <v>342</v>
       </c>
-      <c r="AN1" s="640"/>
-      <c r="AO1" s="640"/>
-      <c r="AP1" s="640"/>
-      <c r="AQ1" s="641"/>
+      <c r="AN1" s="643"/>
+      <c r="AO1" s="643"/>
+      <c r="AP1" s="643"/>
+      <c r="AQ1" s="644"/>
       <c r="AR1" s="19"/>
-      <c r="AS1" s="639" t="s">
+      <c r="AS1" s="642" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="640"/>
-      <c r="AU1" s="641"/>
-      <c r="AV1" s="639" t="s">
+      <c r="AT1" s="643"/>
+      <c r="AU1" s="644"/>
+      <c r="AV1" s="642" t="s">
         <v>422</v>
       </c>
-      <c r="AW1" s="640"/>
-      <c r="AX1" s="640"/>
-      <c r="AY1" s="640"/>
-      <c r="AZ1" s="641"/>
-      <c r="BA1" s="639" t="s">
+      <c r="AW1" s="643"/>
+      <c r="AX1" s="643"/>
+      <c r="AY1" s="643"/>
+      <c r="AZ1" s="644"/>
+      <c r="BA1" s="642" t="s">
         <v>287</v>
       </c>
-      <c r="BB1" s="640"/>
-      <c r="BC1" s="640"/>
-      <c r="BD1" s="640"/>
-      <c r="BE1" s="641"/>
+      <c r="BB1" s="643"/>
+      <c r="BC1" s="643"/>
+      <c r="BD1" s="643"/>
+      <c r="BE1" s="644"/>
       <c r="BF1" s="19"/>
-      <c r="BG1" s="639" t="s">
+      <c r="BG1" s="642" t="s">
         <v>832</v>
       </c>
-      <c r="BH1" s="640"/>
-      <c r="BI1" s="640"/>
-      <c r="BJ1" s="640"/>
-      <c r="BK1" s="641"/>
+      <c r="BH1" s="643"/>
+      <c r="BI1" s="643"/>
+      <c r="BJ1" s="643"/>
+      <c r="BK1" s="644"/>
       <c r="BL1" s="419"/>
-      <c r="BM1" s="639" t="s">
+      <c r="BM1" s="642" t="s">
         <v>13</v>
       </c>
-      <c r="BN1" s="640"/>
-      <c r="BO1" s="640"/>
-      <c r="BP1" s="640"/>
-      <c r="BQ1" s="641"/>
+      <c r="BN1" s="643"/>
+      <c r="BO1" s="643"/>
+      <c r="BP1" s="643"/>
+      <c r="BQ1" s="644"/>
       <c r="BR1" s="19"/>
-      <c r="BS1" s="639" t="s">
+      <c r="BS1" s="642" t="s">
         <v>726</v>
       </c>
-      <c r="BT1" s="640"/>
-      <c r="BU1" s="640"/>
-      <c r="BV1" s="640"/>
-      <c r="BW1" s="641"/>
-      <c r="BX1" s="639" t="s">
+      <c r="BT1" s="643"/>
+      <c r="BU1" s="643"/>
+      <c r="BV1" s="643"/>
+      <c r="BW1" s="644"/>
+      <c r="BX1" s="642" t="s">
         <v>15</v>
       </c>
-      <c r="BY1" s="640"/>
-      <c r="BZ1" s="640"/>
-      <c r="CA1" s="640"/>
-      <c r="CB1" s="641"/>
-      <c r="CC1" s="639" t="s">
+      <c r="BY1" s="643"/>
+      <c r="BZ1" s="643"/>
+      <c r="CA1" s="643"/>
+      <c r="CB1" s="644"/>
+      <c r="CC1" s="642" t="s">
         <v>16</v>
       </c>
-      <c r="CD1" s="640"/>
-      <c r="CE1" s="640"/>
-      <c r="CF1" s="640"/>
-      <c r="CG1" s="641"/>
-      <c r="CH1" s="639" t="s">
+      <c r="CD1" s="643"/>
+      <c r="CE1" s="643"/>
+      <c r="CF1" s="643"/>
+      <c r="CG1" s="644"/>
+      <c r="CH1" s="642" t="s">
         <v>17</v>
       </c>
-      <c r="CI1" s="640"/>
-      <c r="CJ1" s="640"/>
-      <c r="CK1" s="640"/>
-      <c r="CL1" s="641"/>
+      <c r="CI1" s="643"/>
+      <c r="CJ1" s="643"/>
+      <c r="CK1" s="643"/>
+      <c r="CL1" s="644"/>
       <c r="CM1" s="19"/>
-      <c r="CN1" s="639" t="s">
+      <c r="CN1" s="642" t="s">
         <v>834</v>
       </c>
-      <c r="CO1" s="640"/>
-      <c r="CP1" s="640"/>
-      <c r="CQ1" s="640"/>
-      <c r="CR1" s="641"/>
-      <c r="CS1" s="639" t="s">
+      <c r="CO1" s="643"/>
+      <c r="CP1" s="643"/>
+      <c r="CQ1" s="643"/>
+      <c r="CR1" s="644"/>
+      <c r="CS1" s="642" t="s">
         <v>18</v>
       </c>
-      <c r="CT1" s="640"/>
-      <c r="CU1" s="640"/>
-      <c r="CV1" s="640"/>
-      <c r="CW1" s="641"/>
-      <c r="CX1" s="639" t="s">
+      <c r="CT1" s="643"/>
+      <c r="CU1" s="643"/>
+      <c r="CV1" s="643"/>
+      <c r="CW1" s="644"/>
+      <c r="CX1" s="642" t="s">
         <v>19</v>
       </c>
-      <c r="CY1" s="640"/>
-      <c r="CZ1" s="641"/>
-      <c r="DA1" s="622" t="s">
+      <c r="CY1" s="643"/>
+      <c r="CZ1" s="644"/>
+      <c r="DA1" s="615" t="s">
         <v>557</v>
       </c>
-      <c r="DB1" s="623"/>
-      <c r="DC1" s="624"/>
-      <c r="DD1" s="622" t="s">
+      <c r="DB1" s="616"/>
+      <c r="DC1" s="617"/>
+      <c r="DD1" s="615" t="s">
         <v>556</v>
       </c>
-      <c r="DE1" s="623"/>
-      <c r="DF1" s="623"/>
-      <c r="DG1" s="623"/>
-      <c r="DH1" s="624"/>
+      <c r="DE1" s="616"/>
+      <c r="DF1" s="616"/>
+      <c r="DG1" s="616"/>
+      <c r="DH1" s="617"/>
       <c r="DI1" s="19"/>
-      <c r="DJ1" s="639" t="s">
+      <c r="DJ1" s="642" t="s">
         <v>25</v>
       </c>
-      <c r="DK1" s="640"/>
-      <c r="DL1" s="641"/>
-      <c r="DM1" s="639" t="s">
+      <c r="DK1" s="643"/>
+      <c r="DL1" s="644"/>
+      <c r="DM1" s="642" t="s">
         <v>26</v>
       </c>
-      <c r="DN1" s="640"/>
-      <c r="DO1" s="641"/>
-      <c r="DP1" s="642" t="s">
+      <c r="DN1" s="643"/>
+      <c r="DO1" s="644"/>
+      <c r="DP1" s="647" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:120" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="635"/>
-      <c r="B2" s="636"/>
+    <row r="2" spans="1:120" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="626"/>
+      <c r="B2" s="627"/>
       <c r="C2" s="207" t="s">
         <v>22</v>
       </c>
@@ -21600,7 +21624,7 @@
       <c r="DO2" s="514" t="s">
         <v>24</v>
       </c>
-      <c r="DP2" s="643"/>
+      <c r="DP2" s="648"/>
     </row>
     <row r="3" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A3" s="512" t="s">
@@ -21609,21 +21633,21 @@
       <c r="B3" s="510" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="625" t="s">
+      <c r="C3" s="618" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="626"/>
-      <c r="E3" s="626"/>
-      <c r="F3" s="626"/>
-      <c r="G3" s="626"/>
-      <c r="H3" s="626"/>
-      <c r="I3" s="626"/>
-      <c r="J3" s="626"/>
-      <c r="K3" s="626"/>
-      <c r="L3" s="626"/>
-      <c r="M3" s="626"/>
-      <c r="N3" s="626"/>
-      <c r="O3" s="627"/>
+      <c r="D3" s="619"/>
+      <c r="E3" s="619"/>
+      <c r="F3" s="619"/>
+      <c r="G3" s="619"/>
+      <c r="H3" s="619"/>
+      <c r="I3" s="619"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="619"/>
+      <c r="M3" s="619"/>
+      <c r="N3" s="619"/>
+      <c r="O3" s="620"/>
       <c r="P3" s="513"/>
       <c r="Q3" s="513"/>
       <c r="R3" s="513"/>
@@ -21653,33 +21677,33 @@
       <c r="AP3" s="512"/>
       <c r="AQ3" s="512"/>
       <c r="AR3" s="20"/>
-      <c r="AS3" s="625" t="s">
+      <c r="AS3" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="AT3" s="626"/>
-      <c r="AU3" s="626"/>
-      <c r="AV3" s="626"/>
-      <c r="AW3" s="626"/>
-      <c r="AX3" s="626"/>
-      <c r="AY3" s="626"/>
-      <c r="AZ3" s="626"/>
-      <c r="BA3" s="626"/>
-      <c r="BB3" s="626"/>
-      <c r="BC3" s="627"/>
+      <c r="AT3" s="619"/>
+      <c r="AU3" s="619"/>
+      <c r="AV3" s="619"/>
+      <c r="AW3" s="619"/>
+      <c r="AX3" s="619"/>
+      <c r="AY3" s="619"/>
+      <c r="AZ3" s="619"/>
+      <c r="BA3" s="619"/>
+      <c r="BB3" s="619"/>
+      <c r="BC3" s="620"/>
       <c r="BD3" s="513"/>
       <c r="BE3" s="513"/>
       <c r="BF3" s="20"/>
-      <c r="BG3" s="625" t="s">
+      <c r="BG3" s="618" t="s">
         <v>56</v>
       </c>
-      <c r="BH3" s="626"/>
-      <c r="BI3" s="626"/>
-      <c r="BJ3" s="626"/>
-      <c r="BK3" s="626"/>
-      <c r="BL3" s="626"/>
-      <c r="BM3" s="626"/>
-      <c r="BN3" s="626"/>
-      <c r="BO3" s="627"/>
+      <c r="BH3" s="619"/>
+      <c r="BI3" s="619"/>
+      <c r="BJ3" s="619"/>
+      <c r="BK3" s="619"/>
+      <c r="BL3" s="619"/>
+      <c r="BM3" s="619"/>
+      <c r="BN3" s="619"/>
+      <c r="BO3" s="620"/>
       <c r="BP3" s="511"/>
       <c r="BQ3" s="511"/>
       <c r="BR3" s="20"/>
@@ -21688,57 +21712,57 @@
       <c r="BU3" s="20"/>
       <c r="BV3" s="511"/>
       <c r="BW3" s="511"/>
-      <c r="BX3" s="628" t="s">
+      <c r="BX3" s="612" t="s">
         <v>14</v>
       </c>
-      <c r="BY3" s="629"/>
-      <c r="BZ3" s="629"/>
-      <c r="CA3" s="629"/>
-      <c r="CB3" s="629"/>
-      <c r="CC3" s="629"/>
-      <c r="CD3" s="629"/>
-      <c r="CE3" s="629"/>
-      <c r="CF3" s="629"/>
-      <c r="CG3" s="629"/>
-      <c r="CH3" s="629"/>
-      <c r="CI3" s="629"/>
-      <c r="CJ3" s="630"/>
+      <c r="BY3" s="613"/>
+      <c r="BZ3" s="613"/>
+      <c r="CA3" s="613"/>
+      <c r="CB3" s="613"/>
+      <c r="CC3" s="613"/>
+      <c r="CD3" s="613"/>
+      <c r="CE3" s="613"/>
+      <c r="CF3" s="613"/>
+      <c r="CG3" s="613"/>
+      <c r="CH3" s="613"/>
+      <c r="CI3" s="613"/>
+      <c r="CJ3" s="614"/>
       <c r="CK3" s="512"/>
       <c r="CL3" s="512"/>
       <c r="CM3" s="20"/>
-      <c r="CN3" s="625" t="s">
+      <c r="CN3" s="618" t="s">
         <v>20</v>
       </c>
-      <c r="CO3" s="626"/>
-      <c r="CP3" s="626"/>
-      <c r="CQ3" s="626"/>
-      <c r="CR3" s="626"/>
-      <c r="CS3" s="626"/>
-      <c r="CT3" s="626"/>
-      <c r="CU3" s="626"/>
-      <c r="CV3" s="626"/>
-      <c r="CW3" s="626"/>
-      <c r="CX3" s="626"/>
-      <c r="CY3" s="626"/>
-      <c r="CZ3" s="626"/>
-      <c r="DA3" s="626"/>
-      <c r="DB3" s="626"/>
-      <c r="DC3" s="626"/>
-      <c r="DD3" s="626"/>
-      <c r="DE3" s="626"/>
-      <c r="DF3" s="627"/>
+      <c r="CO3" s="619"/>
+      <c r="CP3" s="619"/>
+      <c r="CQ3" s="619"/>
+      <c r="CR3" s="619"/>
+      <c r="CS3" s="619"/>
+      <c r="CT3" s="619"/>
+      <c r="CU3" s="619"/>
+      <c r="CV3" s="619"/>
+      <c r="CW3" s="619"/>
+      <c r="CX3" s="619"/>
+      <c r="CY3" s="619"/>
+      <c r="CZ3" s="619"/>
+      <c r="DA3" s="619"/>
+      <c r="DB3" s="619"/>
+      <c r="DC3" s="619"/>
+      <c r="DD3" s="619"/>
+      <c r="DE3" s="619"/>
+      <c r="DF3" s="620"/>
       <c r="DG3" s="513"/>
       <c r="DH3" s="513"/>
       <c r="DI3" s="20"/>
-      <c r="DJ3" s="625" t="s">
+      <c r="DJ3" s="618" t="s">
         <v>21</v>
       </c>
-      <c r="DK3" s="626"/>
-      <c r="DL3" s="626"/>
-      <c r="DM3" s="626"/>
-      <c r="DN3" s="626"/>
-      <c r="DO3" s="627"/>
-      <c r="DP3" s="644"/>
+      <c r="DK3" s="619"/>
+      <c r="DL3" s="619"/>
+      <c r="DM3" s="619"/>
+      <c r="DN3" s="619"/>
+      <c r="DO3" s="620"/>
+      <c r="DP3" s="649"/>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" s="111">
@@ -25871,128 +25895,128 @@
       </c>
     </row>
     <row r="32" spans="1:120" s="175" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="637" t="s">
+      <c r="A32" s="640" t="s">
         <v>657</v>
       </c>
-      <c r="B32" s="638"/>
-      <c r="C32" s="638"/>
-      <c r="D32" s="638"/>
-      <c r="E32" s="638"/>
-      <c r="F32" s="638"/>
-      <c r="G32" s="638"/>
-      <c r="H32" s="638"/>
-      <c r="I32" s="638"/>
-      <c r="J32" s="638"/>
-      <c r="K32" s="638"/>
-      <c r="L32" s="638"/>
-      <c r="M32" s="638"/>
-      <c r="N32" s="638"/>
-      <c r="O32" s="638"/>
-      <c r="P32" s="638"/>
-      <c r="Q32" s="638"/>
-      <c r="R32" s="638"/>
-      <c r="S32" s="638"/>
-      <c r="T32" s="638"/>
-      <c r="U32" s="638"/>
-      <c r="V32" s="638"/>
-      <c r="W32" s="638"/>
-      <c r="X32" s="638"/>
-      <c r="Y32" s="638"/>
-      <c r="Z32" s="638"/>
-      <c r="AA32" s="638"/>
-      <c r="AB32" s="638"/>
-      <c r="AC32" s="638"/>
-      <c r="AD32" s="638"/>
-      <c r="AE32" s="638"/>
-      <c r="AF32" s="638"/>
-      <c r="AG32" s="638"/>
-      <c r="AH32" s="638"/>
-      <c r="AI32" s="638"/>
-      <c r="AJ32" s="638"/>
-      <c r="AK32" s="638"/>
-      <c r="AL32" s="638"/>
-      <c r="AM32" s="638"/>
-      <c r="AN32" s="638"/>
-      <c r="AO32" s="638"/>
-      <c r="AP32" s="638"/>
-      <c r="AQ32" s="638"/>
-      <c r="AR32" s="638"/>
-      <c r="AS32" s="638"/>
-      <c r="AT32" s="638"/>
-      <c r="AU32" s="638"/>
-      <c r="AV32" s="638"/>
-      <c r="AW32" s="638"/>
-      <c r="AX32" s="638"/>
-      <c r="AY32" s="638"/>
-      <c r="AZ32" s="638"/>
-      <c r="BA32" s="638"/>
-      <c r="BB32" s="638"/>
-      <c r="BC32" s="638"/>
-      <c r="BD32" s="638"/>
-      <c r="BE32" s="638"/>
-      <c r="BF32" s="638"/>
-      <c r="BG32" s="638"/>
-      <c r="BH32" s="638"/>
-      <c r="BI32" s="638"/>
-      <c r="BJ32" s="638"/>
-      <c r="BK32" s="638"/>
-      <c r="BL32" s="638"/>
-      <c r="BM32" s="638"/>
-      <c r="BN32" s="638"/>
-      <c r="BO32" s="638"/>
-      <c r="BP32" s="638"/>
-      <c r="BQ32" s="638"/>
-      <c r="BR32" s="638"/>
-      <c r="BS32" s="638"/>
-      <c r="BT32" s="638"/>
-      <c r="BU32" s="638"/>
-      <c r="BV32" s="638"/>
-      <c r="BW32" s="638"/>
-      <c r="BX32" s="638"/>
-      <c r="BY32" s="638"/>
-      <c r="BZ32" s="638"/>
-      <c r="CA32" s="638"/>
-      <c r="CB32" s="638"/>
-      <c r="CC32" s="638"/>
-      <c r="CD32" s="638"/>
-      <c r="CE32" s="638"/>
-      <c r="CF32" s="638"/>
-      <c r="CG32" s="638"/>
-      <c r="CH32" s="638"/>
-      <c r="CI32" s="638"/>
-      <c r="CJ32" s="638"/>
-      <c r="CK32" s="638"/>
-      <c r="CL32" s="638"/>
-      <c r="CM32" s="638"/>
-      <c r="CN32" s="638"/>
-      <c r="CO32" s="638"/>
-      <c r="CP32" s="638"/>
-      <c r="CQ32" s="638"/>
-      <c r="CR32" s="638"/>
-      <c r="CS32" s="638"/>
-      <c r="CT32" s="638"/>
-      <c r="CU32" s="638"/>
-      <c r="CV32" s="638"/>
-      <c r="CW32" s="638"/>
-      <c r="CX32" s="638"/>
-      <c r="CY32" s="638"/>
-      <c r="CZ32" s="638"/>
-      <c r="DA32" s="638"/>
-      <c r="DB32" s="638"/>
-      <c r="DC32" s="638"/>
-      <c r="DD32" s="638"/>
-      <c r="DE32" s="638"/>
-      <c r="DF32" s="638"/>
-      <c r="DG32" s="638"/>
-      <c r="DH32" s="638"/>
-      <c r="DI32" s="638"/>
-      <c r="DJ32" s="638"/>
-      <c r="DK32" s="638"/>
-      <c r="DL32" s="638"/>
-      <c r="DM32" s="638"/>
-      <c r="DN32" s="638"/>
-      <c r="DO32" s="638"/>
-      <c r="DP32" s="638"/>
+      <c r="B32" s="641"/>
+      <c r="C32" s="641"/>
+      <c r="D32" s="641"/>
+      <c r="E32" s="641"/>
+      <c r="F32" s="641"/>
+      <c r="G32" s="641"/>
+      <c r="H32" s="641"/>
+      <c r="I32" s="641"/>
+      <c r="J32" s="641"/>
+      <c r="K32" s="641"/>
+      <c r="L32" s="641"/>
+      <c r="M32" s="641"/>
+      <c r="N32" s="641"/>
+      <c r="O32" s="641"/>
+      <c r="P32" s="641"/>
+      <c r="Q32" s="641"/>
+      <c r="R32" s="641"/>
+      <c r="S32" s="641"/>
+      <c r="T32" s="641"/>
+      <c r="U32" s="641"/>
+      <c r="V32" s="641"/>
+      <c r="W32" s="641"/>
+      <c r="X32" s="641"/>
+      <c r="Y32" s="641"/>
+      <c r="Z32" s="641"/>
+      <c r="AA32" s="641"/>
+      <c r="AB32" s="641"/>
+      <c r="AC32" s="641"/>
+      <c r="AD32" s="641"/>
+      <c r="AE32" s="641"/>
+      <c r="AF32" s="641"/>
+      <c r="AG32" s="641"/>
+      <c r="AH32" s="641"/>
+      <c r="AI32" s="641"/>
+      <c r="AJ32" s="641"/>
+      <c r="AK32" s="641"/>
+      <c r="AL32" s="641"/>
+      <c r="AM32" s="641"/>
+      <c r="AN32" s="641"/>
+      <c r="AO32" s="641"/>
+      <c r="AP32" s="641"/>
+      <c r="AQ32" s="641"/>
+      <c r="AR32" s="641"/>
+      <c r="AS32" s="641"/>
+      <c r="AT32" s="641"/>
+      <c r="AU32" s="641"/>
+      <c r="AV32" s="641"/>
+      <c r="AW32" s="641"/>
+      <c r="AX32" s="641"/>
+      <c r="AY32" s="641"/>
+      <c r="AZ32" s="641"/>
+      <c r="BA32" s="641"/>
+      <c r="BB32" s="641"/>
+      <c r="BC32" s="641"/>
+      <c r="BD32" s="641"/>
+      <c r="BE32" s="641"/>
+      <c r="BF32" s="641"/>
+      <c r="BG32" s="641"/>
+      <c r="BH32" s="641"/>
+      <c r="BI32" s="641"/>
+      <c r="BJ32" s="641"/>
+      <c r="BK32" s="641"/>
+      <c r="BL32" s="641"/>
+      <c r="BM32" s="641"/>
+      <c r="BN32" s="641"/>
+      <c r="BO32" s="641"/>
+      <c r="BP32" s="641"/>
+      <c r="BQ32" s="641"/>
+      <c r="BR32" s="641"/>
+      <c r="BS32" s="641"/>
+      <c r="BT32" s="641"/>
+      <c r="BU32" s="641"/>
+      <c r="BV32" s="641"/>
+      <c r="BW32" s="641"/>
+      <c r="BX32" s="641"/>
+      <c r="BY32" s="641"/>
+      <c r="BZ32" s="641"/>
+      <c r="CA32" s="641"/>
+      <c r="CB32" s="641"/>
+      <c r="CC32" s="641"/>
+      <c r="CD32" s="641"/>
+      <c r="CE32" s="641"/>
+      <c r="CF32" s="641"/>
+      <c r="CG32" s="641"/>
+      <c r="CH32" s="641"/>
+      <c r="CI32" s="641"/>
+      <c r="CJ32" s="641"/>
+      <c r="CK32" s="641"/>
+      <c r="CL32" s="641"/>
+      <c r="CM32" s="641"/>
+      <c r="CN32" s="641"/>
+      <c r="CO32" s="641"/>
+      <c r="CP32" s="641"/>
+      <c r="CQ32" s="641"/>
+      <c r="CR32" s="641"/>
+      <c r="CS32" s="641"/>
+      <c r="CT32" s="641"/>
+      <c r="CU32" s="641"/>
+      <c r="CV32" s="641"/>
+      <c r="CW32" s="641"/>
+      <c r="CX32" s="641"/>
+      <c r="CY32" s="641"/>
+      <c r="CZ32" s="641"/>
+      <c r="DA32" s="641"/>
+      <c r="DB32" s="641"/>
+      <c r="DC32" s="641"/>
+      <c r="DD32" s="641"/>
+      <c r="DE32" s="641"/>
+      <c r="DF32" s="641"/>
+      <c r="DG32" s="641"/>
+      <c r="DH32" s="641"/>
+      <c r="DI32" s="641"/>
+      <c r="DJ32" s="641"/>
+      <c r="DK32" s="641"/>
+      <c r="DL32" s="641"/>
+      <c r="DM32" s="641"/>
+      <c r="DN32" s="641"/>
+      <c r="DO32" s="641"/>
+      <c r="DP32" s="641"/>
     </row>
     <row r="33" spans="1:138" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="111">
@@ -26538,20 +26562,20 @@
       <c r="AS36" s="116"/>
       <c r="AT36" s="114"/>
       <c r="AU36" s="113"/>
-      <c r="AV36" s="615" t="s">
+      <c r="AV36" s="631" t="s">
         <v>104</v>
       </c>
-      <c r="AW36" s="616"/>
-      <c r="AX36" s="616"/>
-      <c r="AY36" s="616"/>
-      <c r="AZ36" s="617"/>
-      <c r="BA36" s="618" t="s">
+      <c r="AW36" s="632"/>
+      <c r="AX36" s="632"/>
+      <c r="AY36" s="632"/>
+      <c r="AZ36" s="633"/>
+      <c r="BA36" s="634" t="s">
         <v>104</v>
       </c>
-      <c r="BB36" s="619"/>
-      <c r="BC36" s="619"/>
-      <c r="BD36" s="619"/>
-      <c r="BE36" s="620"/>
+      <c r="BB36" s="635"/>
+      <c r="BC36" s="635"/>
+      <c r="BD36" s="635"/>
+      <c r="BE36" s="636"/>
       <c r="BF36" s="115"/>
       <c r="BG36" s="116"/>
       <c r="BH36" s="114"/>
@@ -26680,20 +26704,20 @@
       <c r="AS37" s="116"/>
       <c r="AT37" s="114"/>
       <c r="AU37" s="113"/>
-      <c r="AV37" s="615" t="s">
+      <c r="AV37" s="631" t="s">
         <v>104</v>
       </c>
-      <c r="AW37" s="616"/>
-      <c r="AX37" s="616"/>
-      <c r="AY37" s="616"/>
-      <c r="AZ37" s="617"/>
-      <c r="BA37" s="618" t="s">
+      <c r="AW37" s="632"/>
+      <c r="AX37" s="632"/>
+      <c r="AY37" s="632"/>
+      <c r="AZ37" s="633"/>
+      <c r="BA37" s="634" t="s">
         <v>104</v>
       </c>
-      <c r="BB37" s="619"/>
-      <c r="BC37" s="619"/>
-      <c r="BD37" s="619"/>
-      <c r="BE37" s="620"/>
+      <c r="BB37" s="635"/>
+      <c r="BC37" s="635"/>
+      <c r="BD37" s="635"/>
+      <c r="BE37" s="636"/>
       <c r="BF37" s="115"/>
       <c r="BG37" s="116"/>
       <c r="BH37" s="114"/>
@@ -26822,20 +26846,20 @@
       <c r="AS38" s="116"/>
       <c r="AT38" s="114"/>
       <c r="AU38" s="113"/>
-      <c r="AV38" s="615" t="s">
+      <c r="AV38" s="631" t="s">
         <v>104</v>
       </c>
-      <c r="AW38" s="616"/>
-      <c r="AX38" s="616"/>
-      <c r="AY38" s="616"/>
-      <c r="AZ38" s="617"/>
-      <c r="BA38" s="618" t="s">
+      <c r="AW38" s="632"/>
+      <c r="AX38" s="632"/>
+      <c r="AY38" s="632"/>
+      <c r="AZ38" s="633"/>
+      <c r="BA38" s="634" t="s">
         <v>104</v>
       </c>
-      <c r="BB38" s="619"/>
-      <c r="BC38" s="619"/>
-      <c r="BD38" s="619"/>
-      <c r="BE38" s="620"/>
+      <c r="BB38" s="635"/>
+      <c r="BC38" s="635"/>
+      <c r="BD38" s="635"/>
+      <c r="BE38" s="636"/>
       <c r="BF38" s="115"/>
       <c r="BG38" s="116"/>
       <c r="BH38" s="114"/>
@@ -26964,20 +26988,20 @@
       <c r="AS39" s="116"/>
       <c r="AT39" s="114"/>
       <c r="AU39" s="113"/>
-      <c r="AV39" s="615" t="s">
+      <c r="AV39" s="631" t="s">
         <v>104</v>
       </c>
-      <c r="AW39" s="616"/>
-      <c r="AX39" s="616"/>
-      <c r="AY39" s="616"/>
-      <c r="AZ39" s="617"/>
-      <c r="BA39" s="618" t="s">
+      <c r="AW39" s="632"/>
+      <c r="AX39" s="632"/>
+      <c r="AY39" s="632"/>
+      <c r="AZ39" s="633"/>
+      <c r="BA39" s="634" t="s">
         <v>104</v>
       </c>
-      <c r="BB39" s="619"/>
-      <c r="BC39" s="619"/>
-      <c r="BD39" s="619"/>
-      <c r="BE39" s="620"/>
+      <c r="BB39" s="635"/>
+      <c r="BC39" s="635"/>
+      <c r="BD39" s="635"/>
+      <c r="BE39" s="636"/>
       <c r="BF39" s="115"/>
       <c r="BG39" s="116"/>
       <c r="BH39" s="114"/>
@@ -27055,128 +27079,128 @@
       </c>
     </row>
     <row r="40" spans="1:138" s="175" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="637" t="s">
+      <c r="A40" s="640" t="s">
         <v>716</v>
       </c>
-      <c r="B40" s="638"/>
-      <c r="C40" s="638"/>
-      <c r="D40" s="638"/>
-      <c r="E40" s="638"/>
-      <c r="F40" s="638"/>
-      <c r="G40" s="638"/>
-      <c r="H40" s="638"/>
-      <c r="I40" s="638"/>
-      <c r="J40" s="638"/>
-      <c r="K40" s="638"/>
-      <c r="L40" s="638"/>
-      <c r="M40" s="638"/>
-      <c r="N40" s="638"/>
-      <c r="O40" s="638"/>
-      <c r="P40" s="638"/>
-      <c r="Q40" s="638"/>
-      <c r="R40" s="638"/>
-      <c r="S40" s="638"/>
-      <c r="T40" s="638"/>
-      <c r="U40" s="638"/>
-      <c r="V40" s="638"/>
-      <c r="W40" s="638"/>
-      <c r="X40" s="638"/>
-      <c r="Y40" s="638"/>
-      <c r="Z40" s="638"/>
-      <c r="AA40" s="638"/>
-      <c r="AB40" s="638"/>
-      <c r="AC40" s="638"/>
-      <c r="AD40" s="638"/>
-      <c r="AE40" s="638"/>
-      <c r="AF40" s="638"/>
-      <c r="AG40" s="638"/>
-      <c r="AH40" s="638"/>
-      <c r="AI40" s="638"/>
-      <c r="AJ40" s="638"/>
-      <c r="AK40" s="638"/>
-      <c r="AL40" s="638"/>
-      <c r="AM40" s="638"/>
-      <c r="AN40" s="638"/>
-      <c r="AO40" s="638"/>
-      <c r="AP40" s="638"/>
-      <c r="AQ40" s="638"/>
-      <c r="AR40" s="638"/>
-      <c r="AS40" s="638"/>
-      <c r="AT40" s="638"/>
-      <c r="AU40" s="638"/>
-      <c r="AV40" s="638"/>
-      <c r="AW40" s="638"/>
-      <c r="AX40" s="638"/>
-      <c r="AY40" s="638"/>
-      <c r="AZ40" s="638"/>
-      <c r="BA40" s="638"/>
-      <c r="BB40" s="638"/>
-      <c r="BC40" s="638"/>
-      <c r="BD40" s="638"/>
-      <c r="BE40" s="638"/>
-      <c r="BF40" s="638"/>
-      <c r="BG40" s="638"/>
-      <c r="BH40" s="638"/>
-      <c r="BI40" s="638"/>
-      <c r="BJ40" s="638"/>
-      <c r="BK40" s="638"/>
-      <c r="BL40" s="638"/>
-      <c r="BM40" s="638"/>
-      <c r="BN40" s="638"/>
-      <c r="BO40" s="638"/>
-      <c r="BP40" s="638"/>
-      <c r="BQ40" s="638"/>
-      <c r="BR40" s="638"/>
-      <c r="BS40" s="638"/>
-      <c r="BT40" s="638"/>
-      <c r="BU40" s="638"/>
-      <c r="BV40" s="638"/>
-      <c r="BW40" s="638"/>
-      <c r="BX40" s="638"/>
-      <c r="BY40" s="638"/>
-      <c r="BZ40" s="638"/>
-      <c r="CA40" s="638"/>
-      <c r="CB40" s="638"/>
-      <c r="CC40" s="638"/>
-      <c r="CD40" s="638"/>
-      <c r="CE40" s="638"/>
-      <c r="CF40" s="638"/>
-      <c r="CG40" s="638"/>
-      <c r="CH40" s="638"/>
-      <c r="CI40" s="638"/>
-      <c r="CJ40" s="638"/>
-      <c r="CK40" s="638"/>
-      <c r="CL40" s="638"/>
-      <c r="CM40" s="638"/>
-      <c r="CN40" s="638"/>
-      <c r="CO40" s="638"/>
-      <c r="CP40" s="638"/>
-      <c r="CQ40" s="638"/>
-      <c r="CR40" s="638"/>
-      <c r="CS40" s="638"/>
-      <c r="CT40" s="638"/>
-      <c r="CU40" s="638"/>
-      <c r="CV40" s="638"/>
-      <c r="CW40" s="638"/>
-      <c r="CX40" s="638"/>
-      <c r="CY40" s="638"/>
-      <c r="CZ40" s="638"/>
-      <c r="DA40" s="638"/>
-      <c r="DB40" s="638"/>
-      <c r="DC40" s="638"/>
-      <c r="DD40" s="638"/>
-      <c r="DE40" s="638"/>
-      <c r="DF40" s="638"/>
-      <c r="DG40" s="638"/>
-      <c r="DH40" s="638"/>
-      <c r="DI40" s="638"/>
-      <c r="DJ40" s="638"/>
-      <c r="DK40" s="638"/>
-      <c r="DL40" s="638"/>
-      <c r="DM40" s="638"/>
-      <c r="DN40" s="638"/>
-      <c r="DO40" s="638"/>
-      <c r="DP40" s="638"/>
+      <c r="B40" s="641"/>
+      <c r="C40" s="641"/>
+      <c r="D40" s="641"/>
+      <c r="E40" s="641"/>
+      <c r="F40" s="641"/>
+      <c r="G40" s="641"/>
+      <c r="H40" s="641"/>
+      <c r="I40" s="641"/>
+      <c r="J40" s="641"/>
+      <c r="K40" s="641"/>
+      <c r="L40" s="641"/>
+      <c r="M40" s="641"/>
+      <c r="N40" s="641"/>
+      <c r="O40" s="641"/>
+      <c r="P40" s="641"/>
+      <c r="Q40" s="641"/>
+      <c r="R40" s="641"/>
+      <c r="S40" s="641"/>
+      <c r="T40" s="641"/>
+      <c r="U40" s="641"/>
+      <c r="V40" s="641"/>
+      <c r="W40" s="641"/>
+      <c r="X40" s="641"/>
+      <c r="Y40" s="641"/>
+      <c r="Z40" s="641"/>
+      <c r="AA40" s="641"/>
+      <c r="AB40" s="641"/>
+      <c r="AC40" s="641"/>
+      <c r="AD40" s="641"/>
+      <c r="AE40" s="641"/>
+      <c r="AF40" s="641"/>
+      <c r="AG40" s="641"/>
+      <c r="AH40" s="641"/>
+      <c r="AI40" s="641"/>
+      <c r="AJ40" s="641"/>
+      <c r="AK40" s="641"/>
+      <c r="AL40" s="641"/>
+      <c r="AM40" s="641"/>
+      <c r="AN40" s="641"/>
+      <c r="AO40" s="641"/>
+      <c r="AP40" s="641"/>
+      <c r="AQ40" s="641"/>
+      <c r="AR40" s="641"/>
+      <c r="AS40" s="641"/>
+      <c r="AT40" s="641"/>
+      <c r="AU40" s="641"/>
+      <c r="AV40" s="641"/>
+      <c r="AW40" s="641"/>
+      <c r="AX40" s="641"/>
+      <c r="AY40" s="641"/>
+      <c r="AZ40" s="641"/>
+      <c r="BA40" s="641"/>
+      <c r="BB40" s="641"/>
+      <c r="BC40" s="641"/>
+      <c r="BD40" s="641"/>
+      <c r="BE40" s="641"/>
+      <c r="BF40" s="641"/>
+      <c r="BG40" s="641"/>
+      <c r="BH40" s="641"/>
+      <c r="BI40" s="641"/>
+      <c r="BJ40" s="641"/>
+      <c r="BK40" s="641"/>
+      <c r="BL40" s="641"/>
+      <c r="BM40" s="641"/>
+      <c r="BN40" s="641"/>
+      <c r="BO40" s="641"/>
+      <c r="BP40" s="641"/>
+      <c r="BQ40" s="641"/>
+      <c r="BR40" s="641"/>
+      <c r="BS40" s="641"/>
+      <c r="BT40" s="641"/>
+      <c r="BU40" s="641"/>
+      <c r="BV40" s="641"/>
+      <c r="BW40" s="641"/>
+      <c r="BX40" s="641"/>
+      <c r="BY40" s="641"/>
+      <c r="BZ40" s="641"/>
+      <c r="CA40" s="641"/>
+      <c r="CB40" s="641"/>
+      <c r="CC40" s="641"/>
+      <c r="CD40" s="641"/>
+      <c r="CE40" s="641"/>
+      <c r="CF40" s="641"/>
+      <c r="CG40" s="641"/>
+      <c r="CH40" s="641"/>
+      <c r="CI40" s="641"/>
+      <c r="CJ40" s="641"/>
+      <c r="CK40" s="641"/>
+      <c r="CL40" s="641"/>
+      <c r="CM40" s="641"/>
+      <c r="CN40" s="641"/>
+      <c r="CO40" s="641"/>
+      <c r="CP40" s="641"/>
+      <c r="CQ40" s="641"/>
+      <c r="CR40" s="641"/>
+      <c r="CS40" s="641"/>
+      <c r="CT40" s="641"/>
+      <c r="CU40" s="641"/>
+      <c r="CV40" s="641"/>
+      <c r="CW40" s="641"/>
+      <c r="CX40" s="641"/>
+      <c r="CY40" s="641"/>
+      <c r="CZ40" s="641"/>
+      <c r="DA40" s="641"/>
+      <c r="DB40" s="641"/>
+      <c r="DC40" s="641"/>
+      <c r="DD40" s="641"/>
+      <c r="DE40" s="641"/>
+      <c r="DF40" s="641"/>
+      <c r="DG40" s="641"/>
+      <c r="DH40" s="641"/>
+      <c r="DI40" s="641"/>
+      <c r="DJ40" s="641"/>
+      <c r="DK40" s="641"/>
+      <c r="DL40" s="641"/>
+      <c r="DM40" s="641"/>
+      <c r="DN40" s="641"/>
+      <c r="DO40" s="641"/>
+      <c r="DP40" s="641"/>
     </row>
     <row r="41" spans="1:138" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="111">
@@ -27857,128 +27881,128 @@
       <c r="DP45" s="111"/>
     </row>
     <row r="46" spans="1:138" x14ac:dyDescent="0.25">
-      <c r="A46" s="637" t="s">
+      <c r="A46" s="640" t="s">
         <v>737</v>
       </c>
-      <c r="B46" s="638"/>
-      <c r="C46" s="638"/>
-      <c r="D46" s="638"/>
-      <c r="E46" s="638"/>
-      <c r="F46" s="638"/>
-      <c r="G46" s="638"/>
-      <c r="H46" s="638"/>
-      <c r="I46" s="638"/>
-      <c r="J46" s="638"/>
-      <c r="K46" s="638"/>
-      <c r="L46" s="638"/>
-      <c r="M46" s="638"/>
-      <c r="N46" s="638"/>
-      <c r="O46" s="638"/>
-      <c r="P46" s="638"/>
-      <c r="Q46" s="638"/>
-      <c r="R46" s="638"/>
-      <c r="S46" s="638"/>
-      <c r="T46" s="638"/>
-      <c r="U46" s="638"/>
-      <c r="V46" s="638"/>
-      <c r="W46" s="638"/>
-      <c r="X46" s="638"/>
-      <c r="Y46" s="638"/>
-      <c r="Z46" s="638"/>
-      <c r="AA46" s="638"/>
-      <c r="AB46" s="638"/>
-      <c r="AC46" s="638"/>
-      <c r="AD46" s="638"/>
-      <c r="AE46" s="638"/>
-      <c r="AF46" s="638"/>
-      <c r="AG46" s="638"/>
-      <c r="AH46" s="638"/>
-      <c r="AI46" s="638"/>
-      <c r="AJ46" s="638"/>
-      <c r="AK46" s="638"/>
-      <c r="AL46" s="638"/>
-      <c r="AM46" s="638"/>
-      <c r="AN46" s="638"/>
-      <c r="AO46" s="638"/>
-      <c r="AP46" s="638"/>
-      <c r="AQ46" s="638"/>
-      <c r="AR46" s="638"/>
-      <c r="AS46" s="638"/>
-      <c r="AT46" s="638"/>
-      <c r="AU46" s="638"/>
-      <c r="AV46" s="638"/>
-      <c r="AW46" s="638"/>
-      <c r="AX46" s="638"/>
-      <c r="AY46" s="638"/>
-      <c r="AZ46" s="638"/>
-      <c r="BA46" s="638"/>
-      <c r="BB46" s="638"/>
-      <c r="BC46" s="638"/>
-      <c r="BD46" s="638"/>
-      <c r="BE46" s="638"/>
-      <c r="BF46" s="638"/>
-      <c r="BG46" s="638"/>
-      <c r="BH46" s="638"/>
-      <c r="BI46" s="638"/>
-      <c r="BJ46" s="638"/>
-      <c r="BK46" s="638"/>
-      <c r="BL46" s="638"/>
-      <c r="BM46" s="638"/>
-      <c r="BN46" s="638"/>
-      <c r="BO46" s="638"/>
-      <c r="BP46" s="638"/>
-      <c r="BQ46" s="638"/>
-      <c r="BR46" s="638"/>
-      <c r="BS46" s="638"/>
-      <c r="BT46" s="638"/>
-      <c r="BU46" s="638"/>
-      <c r="BV46" s="638"/>
-      <c r="BW46" s="638"/>
-      <c r="BX46" s="638"/>
-      <c r="BY46" s="638"/>
-      <c r="BZ46" s="638"/>
-      <c r="CA46" s="638"/>
-      <c r="CB46" s="638"/>
-      <c r="CC46" s="638"/>
-      <c r="CD46" s="638"/>
-      <c r="CE46" s="638"/>
-      <c r="CF46" s="638"/>
-      <c r="CG46" s="638"/>
-      <c r="CH46" s="638"/>
-      <c r="CI46" s="638"/>
-      <c r="CJ46" s="638"/>
-      <c r="CK46" s="638"/>
-      <c r="CL46" s="638"/>
-      <c r="CM46" s="638"/>
-      <c r="CN46" s="638"/>
-      <c r="CO46" s="638"/>
-      <c r="CP46" s="638"/>
-      <c r="CQ46" s="638"/>
-      <c r="CR46" s="638"/>
-      <c r="CS46" s="638"/>
-      <c r="CT46" s="638"/>
-      <c r="CU46" s="638"/>
-      <c r="CV46" s="638"/>
-      <c r="CW46" s="638"/>
-      <c r="CX46" s="638"/>
-      <c r="CY46" s="638"/>
-      <c r="CZ46" s="638"/>
-      <c r="DA46" s="638"/>
-      <c r="DB46" s="638"/>
-      <c r="DC46" s="638"/>
-      <c r="DD46" s="638"/>
-      <c r="DE46" s="638"/>
-      <c r="DF46" s="638"/>
-      <c r="DG46" s="638"/>
-      <c r="DH46" s="638"/>
-      <c r="DI46" s="638"/>
-      <c r="DJ46" s="638"/>
-      <c r="DK46" s="638"/>
-      <c r="DL46" s="638"/>
-      <c r="DM46" s="638"/>
-      <c r="DN46" s="638"/>
-      <c r="DO46" s="638"/>
-      <c r="DP46" s="638"/>
+      <c r="B46" s="641"/>
+      <c r="C46" s="641"/>
+      <c r="D46" s="641"/>
+      <c r="E46" s="641"/>
+      <c r="F46" s="641"/>
+      <c r="G46" s="641"/>
+      <c r="H46" s="641"/>
+      <c r="I46" s="641"/>
+      <c r="J46" s="641"/>
+      <c r="K46" s="641"/>
+      <c r="L46" s="641"/>
+      <c r="M46" s="641"/>
+      <c r="N46" s="641"/>
+      <c r="O46" s="641"/>
+      <c r="P46" s="641"/>
+      <c r="Q46" s="641"/>
+      <c r="R46" s="641"/>
+      <c r="S46" s="641"/>
+      <c r="T46" s="641"/>
+      <c r="U46" s="641"/>
+      <c r="V46" s="641"/>
+      <c r="W46" s="641"/>
+      <c r="X46" s="641"/>
+      <c r="Y46" s="641"/>
+      <c r="Z46" s="641"/>
+      <c r="AA46" s="641"/>
+      <c r="AB46" s="641"/>
+      <c r="AC46" s="641"/>
+      <c r="AD46" s="641"/>
+      <c r="AE46" s="641"/>
+      <c r="AF46" s="641"/>
+      <c r="AG46" s="641"/>
+      <c r="AH46" s="641"/>
+      <c r="AI46" s="641"/>
+      <c r="AJ46" s="641"/>
+      <c r="AK46" s="641"/>
+      <c r="AL46" s="641"/>
+      <c r="AM46" s="641"/>
+      <c r="AN46" s="641"/>
+      <c r="AO46" s="641"/>
+      <c r="AP46" s="641"/>
+      <c r="AQ46" s="641"/>
+      <c r="AR46" s="641"/>
+      <c r="AS46" s="641"/>
+      <c r="AT46" s="641"/>
+      <c r="AU46" s="641"/>
+      <c r="AV46" s="641"/>
+      <c r="AW46" s="641"/>
+      <c r="AX46" s="641"/>
+      <c r="AY46" s="641"/>
+      <c r="AZ46" s="641"/>
+      <c r="BA46" s="641"/>
+      <c r="BB46" s="641"/>
+      <c r="BC46" s="641"/>
+      <c r="BD46" s="641"/>
+      <c r="BE46" s="641"/>
+      <c r="BF46" s="641"/>
+      <c r="BG46" s="641"/>
+      <c r="BH46" s="641"/>
+      <c r="BI46" s="641"/>
+      <c r="BJ46" s="641"/>
+      <c r="BK46" s="641"/>
+      <c r="BL46" s="641"/>
+      <c r="BM46" s="641"/>
+      <c r="BN46" s="641"/>
+      <c r="BO46" s="641"/>
+      <c r="BP46" s="641"/>
+      <c r="BQ46" s="641"/>
+      <c r="BR46" s="641"/>
+      <c r="BS46" s="641"/>
+      <c r="BT46" s="641"/>
+      <c r="BU46" s="641"/>
+      <c r="BV46" s="641"/>
+      <c r="BW46" s="641"/>
+      <c r="BX46" s="641"/>
+      <c r="BY46" s="641"/>
+      <c r="BZ46" s="641"/>
+      <c r="CA46" s="641"/>
+      <c r="CB46" s="641"/>
+      <c r="CC46" s="641"/>
+      <c r="CD46" s="641"/>
+      <c r="CE46" s="641"/>
+      <c r="CF46" s="641"/>
+      <c r="CG46" s="641"/>
+      <c r="CH46" s="641"/>
+      <c r="CI46" s="641"/>
+      <c r="CJ46" s="641"/>
+      <c r="CK46" s="641"/>
+      <c r="CL46" s="641"/>
+      <c r="CM46" s="641"/>
+      <c r="CN46" s="641"/>
+      <c r="CO46" s="641"/>
+      <c r="CP46" s="641"/>
+      <c r="CQ46" s="641"/>
+      <c r="CR46" s="641"/>
+      <c r="CS46" s="641"/>
+      <c r="CT46" s="641"/>
+      <c r="CU46" s="641"/>
+      <c r="CV46" s="641"/>
+      <c r="CW46" s="641"/>
+      <c r="CX46" s="641"/>
+      <c r="CY46" s="641"/>
+      <c r="CZ46" s="641"/>
+      <c r="DA46" s="641"/>
+      <c r="DB46" s="641"/>
+      <c r="DC46" s="641"/>
+      <c r="DD46" s="641"/>
+      <c r="DE46" s="641"/>
+      <c r="DF46" s="641"/>
+      <c r="DG46" s="641"/>
+      <c r="DH46" s="641"/>
+      <c r="DI46" s="641"/>
+      <c r="DJ46" s="641"/>
+      <c r="DK46" s="641"/>
+      <c r="DL46" s="641"/>
+      <c r="DM46" s="641"/>
+      <c r="DN46" s="641"/>
+      <c r="DO46" s="641"/>
+      <c r="DP46" s="641"/>
     </row>
     <row r="47" spans="1:138" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="111">
@@ -28404,128 +28428,128 @@
       </c>
     </row>
     <row r="50" spans="1:120" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="637" t="s">
+      <c r="A50" s="640" t="s">
         <v>812</v>
       </c>
-      <c r="B50" s="638"/>
-      <c r="C50" s="638"/>
-      <c r="D50" s="638"/>
-      <c r="E50" s="638"/>
-      <c r="F50" s="638"/>
-      <c r="G50" s="638"/>
-      <c r="H50" s="638"/>
-      <c r="I50" s="638"/>
-      <c r="J50" s="638"/>
-      <c r="K50" s="638"/>
-      <c r="L50" s="638"/>
-      <c r="M50" s="638"/>
-      <c r="N50" s="638"/>
-      <c r="O50" s="638"/>
-      <c r="P50" s="638"/>
-      <c r="Q50" s="638"/>
-      <c r="R50" s="638"/>
-      <c r="S50" s="638"/>
-      <c r="T50" s="638"/>
-      <c r="U50" s="638"/>
-      <c r="V50" s="638"/>
-      <c r="W50" s="638"/>
-      <c r="X50" s="638"/>
-      <c r="Y50" s="638"/>
-      <c r="Z50" s="638"/>
-      <c r="AA50" s="638"/>
-      <c r="AB50" s="638"/>
-      <c r="AC50" s="638"/>
-      <c r="AD50" s="638"/>
-      <c r="AE50" s="638"/>
-      <c r="AF50" s="638"/>
-      <c r="AG50" s="638"/>
-      <c r="AH50" s="638"/>
-      <c r="AI50" s="638"/>
-      <c r="AJ50" s="638"/>
-      <c r="AK50" s="638"/>
-      <c r="AL50" s="638"/>
-      <c r="AM50" s="638"/>
-      <c r="AN50" s="638"/>
-      <c r="AO50" s="638"/>
-      <c r="AP50" s="638"/>
-      <c r="AQ50" s="638"/>
-      <c r="AR50" s="638"/>
-      <c r="AS50" s="638"/>
-      <c r="AT50" s="638"/>
-      <c r="AU50" s="638"/>
-      <c r="AV50" s="638"/>
-      <c r="AW50" s="638"/>
-      <c r="AX50" s="638"/>
-      <c r="AY50" s="638"/>
-      <c r="AZ50" s="638"/>
-      <c r="BA50" s="638"/>
-      <c r="BB50" s="638"/>
-      <c r="BC50" s="638"/>
-      <c r="BD50" s="638"/>
-      <c r="BE50" s="638"/>
-      <c r="BF50" s="638"/>
-      <c r="BG50" s="638"/>
-      <c r="BH50" s="638"/>
-      <c r="BI50" s="638"/>
-      <c r="BJ50" s="638"/>
-      <c r="BK50" s="638"/>
-      <c r="BL50" s="638"/>
-      <c r="BM50" s="638"/>
-      <c r="BN50" s="638"/>
-      <c r="BO50" s="638"/>
-      <c r="BP50" s="638"/>
-      <c r="BQ50" s="638"/>
-      <c r="BR50" s="638"/>
-      <c r="BS50" s="638"/>
-      <c r="BT50" s="638"/>
-      <c r="BU50" s="638"/>
-      <c r="BV50" s="638"/>
-      <c r="BW50" s="638"/>
-      <c r="BX50" s="638"/>
-      <c r="BY50" s="638"/>
-      <c r="BZ50" s="638"/>
-      <c r="CA50" s="638"/>
-      <c r="CB50" s="638"/>
-      <c r="CC50" s="638"/>
-      <c r="CD50" s="638"/>
-      <c r="CE50" s="638"/>
-      <c r="CF50" s="638"/>
-      <c r="CG50" s="638"/>
-      <c r="CH50" s="638"/>
-      <c r="CI50" s="638"/>
-      <c r="CJ50" s="638"/>
-      <c r="CK50" s="638"/>
-      <c r="CL50" s="638"/>
-      <c r="CM50" s="638"/>
-      <c r="CN50" s="638"/>
-      <c r="CO50" s="638"/>
-      <c r="CP50" s="638"/>
-      <c r="CQ50" s="638"/>
-      <c r="CR50" s="638"/>
-      <c r="CS50" s="638"/>
-      <c r="CT50" s="638"/>
-      <c r="CU50" s="638"/>
-      <c r="CV50" s="638"/>
-      <c r="CW50" s="638"/>
-      <c r="CX50" s="638"/>
-      <c r="CY50" s="638"/>
-      <c r="CZ50" s="638"/>
-      <c r="DA50" s="638"/>
-      <c r="DB50" s="638"/>
-      <c r="DC50" s="638"/>
-      <c r="DD50" s="638"/>
-      <c r="DE50" s="638"/>
-      <c r="DF50" s="638"/>
-      <c r="DG50" s="638"/>
-      <c r="DH50" s="638"/>
-      <c r="DI50" s="638"/>
-      <c r="DJ50" s="638"/>
-      <c r="DK50" s="638"/>
-      <c r="DL50" s="638"/>
-      <c r="DM50" s="638"/>
-      <c r="DN50" s="638"/>
-      <c r="DO50" s="638"/>
-      <c r="DP50" s="638"/>
+      <c r="B50" s="641"/>
+      <c r="C50" s="641"/>
+      <c r="D50" s="641"/>
+      <c r="E50" s="641"/>
+      <c r="F50" s="641"/>
+      <c r="G50" s="641"/>
+      <c r="H50" s="641"/>
+      <c r="I50" s="641"/>
+      <c r="J50" s="641"/>
+      <c r="K50" s="641"/>
+      <c r="L50" s="641"/>
+      <c r="M50" s="641"/>
+      <c r="N50" s="641"/>
+      <c r="O50" s="641"/>
+      <c r="P50" s="641"/>
+      <c r="Q50" s="641"/>
+      <c r="R50" s="641"/>
+      <c r="S50" s="641"/>
+      <c r="T50" s="641"/>
+      <c r="U50" s="641"/>
+      <c r="V50" s="641"/>
+      <c r="W50" s="641"/>
+      <c r="X50" s="641"/>
+      <c r="Y50" s="641"/>
+      <c r="Z50" s="641"/>
+      <c r="AA50" s="641"/>
+      <c r="AB50" s="641"/>
+      <c r="AC50" s="641"/>
+      <c r="AD50" s="641"/>
+      <c r="AE50" s="641"/>
+      <c r="AF50" s="641"/>
+      <c r="AG50" s="641"/>
+      <c r="AH50" s="641"/>
+      <c r="AI50" s="641"/>
+      <c r="AJ50" s="641"/>
+      <c r="AK50" s="641"/>
+      <c r="AL50" s="641"/>
+      <c r="AM50" s="641"/>
+      <c r="AN50" s="641"/>
+      <c r="AO50" s="641"/>
+      <c r="AP50" s="641"/>
+      <c r="AQ50" s="641"/>
+      <c r="AR50" s="641"/>
+      <c r="AS50" s="641"/>
+      <c r="AT50" s="641"/>
+      <c r="AU50" s="641"/>
+      <c r="AV50" s="641"/>
+      <c r="AW50" s="641"/>
+      <c r="AX50" s="641"/>
+      <c r="AY50" s="641"/>
+      <c r="AZ50" s="641"/>
+      <c r="BA50" s="641"/>
+      <c r="BB50" s="641"/>
+      <c r="BC50" s="641"/>
+      <c r="BD50" s="641"/>
+      <c r="BE50" s="641"/>
+      <c r="BF50" s="641"/>
+      <c r="BG50" s="641"/>
+      <c r="BH50" s="641"/>
+      <c r="BI50" s="641"/>
+      <c r="BJ50" s="641"/>
+      <c r="BK50" s="641"/>
+      <c r="BL50" s="641"/>
+      <c r="BM50" s="641"/>
+      <c r="BN50" s="641"/>
+      <c r="BO50" s="641"/>
+      <c r="BP50" s="641"/>
+      <c r="BQ50" s="641"/>
+      <c r="BR50" s="641"/>
+      <c r="BS50" s="641"/>
+      <c r="BT50" s="641"/>
+      <c r="BU50" s="641"/>
+      <c r="BV50" s="641"/>
+      <c r="BW50" s="641"/>
+      <c r="BX50" s="641"/>
+      <c r="BY50" s="641"/>
+      <c r="BZ50" s="641"/>
+      <c r="CA50" s="641"/>
+      <c r="CB50" s="641"/>
+      <c r="CC50" s="641"/>
+      <c r="CD50" s="641"/>
+      <c r="CE50" s="641"/>
+      <c r="CF50" s="641"/>
+      <c r="CG50" s="641"/>
+      <c r="CH50" s="641"/>
+      <c r="CI50" s="641"/>
+      <c r="CJ50" s="641"/>
+      <c r="CK50" s="641"/>
+      <c r="CL50" s="641"/>
+      <c r="CM50" s="641"/>
+      <c r="CN50" s="641"/>
+      <c r="CO50" s="641"/>
+      <c r="CP50" s="641"/>
+      <c r="CQ50" s="641"/>
+      <c r="CR50" s="641"/>
+      <c r="CS50" s="641"/>
+      <c r="CT50" s="641"/>
+      <c r="CU50" s="641"/>
+      <c r="CV50" s="641"/>
+      <c r="CW50" s="641"/>
+      <c r="CX50" s="641"/>
+      <c r="CY50" s="641"/>
+      <c r="CZ50" s="641"/>
+      <c r="DA50" s="641"/>
+      <c r="DB50" s="641"/>
+      <c r="DC50" s="641"/>
+      <c r="DD50" s="641"/>
+      <c r="DE50" s="641"/>
+      <c r="DF50" s="641"/>
+      <c r="DG50" s="641"/>
+      <c r="DH50" s="641"/>
+      <c r="DI50" s="641"/>
+      <c r="DJ50" s="641"/>
+      <c r="DK50" s="641"/>
+      <c r="DL50" s="641"/>
+      <c r="DM50" s="641"/>
+      <c r="DN50" s="641"/>
+      <c r="DO50" s="641"/>
+      <c r="DP50" s="641"/>
     </row>
     <row r="51" spans="1:120" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="111">
@@ -29344,128 +29368,128 @@
       </c>
     </row>
     <row r="57" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="A57" s="637" t="s">
+      <c r="A57" s="640" t="s">
         <v>898</v>
       </c>
-      <c r="B57" s="638"/>
-      <c r="C57" s="638"/>
-      <c r="D57" s="638"/>
-      <c r="E57" s="638"/>
-      <c r="F57" s="638"/>
-      <c r="G57" s="638"/>
-      <c r="H57" s="638"/>
-      <c r="I57" s="638"/>
-      <c r="J57" s="638"/>
-      <c r="K57" s="638"/>
-      <c r="L57" s="638"/>
-      <c r="M57" s="638"/>
-      <c r="N57" s="638"/>
-      <c r="O57" s="638"/>
-      <c r="P57" s="638"/>
-      <c r="Q57" s="638"/>
-      <c r="R57" s="638"/>
-      <c r="S57" s="638"/>
-      <c r="T57" s="638"/>
-      <c r="U57" s="638"/>
-      <c r="V57" s="638"/>
-      <c r="W57" s="638"/>
-      <c r="X57" s="638"/>
-      <c r="Y57" s="638"/>
-      <c r="Z57" s="638"/>
-      <c r="AA57" s="638"/>
-      <c r="AB57" s="638"/>
-      <c r="AC57" s="638"/>
-      <c r="AD57" s="638"/>
-      <c r="AE57" s="638"/>
-      <c r="AF57" s="638"/>
-      <c r="AG57" s="638"/>
-      <c r="AH57" s="638"/>
-      <c r="AI57" s="638"/>
-      <c r="AJ57" s="638"/>
-      <c r="AK57" s="638"/>
-      <c r="AL57" s="638"/>
-      <c r="AM57" s="638"/>
-      <c r="AN57" s="638"/>
-      <c r="AO57" s="638"/>
-      <c r="AP57" s="638"/>
-      <c r="AQ57" s="638"/>
-      <c r="AR57" s="638"/>
-      <c r="AS57" s="638"/>
-      <c r="AT57" s="638"/>
-      <c r="AU57" s="638"/>
-      <c r="AV57" s="638"/>
-      <c r="AW57" s="638"/>
-      <c r="AX57" s="638"/>
-      <c r="AY57" s="638"/>
-      <c r="AZ57" s="638"/>
-      <c r="BA57" s="638"/>
-      <c r="BB57" s="638"/>
-      <c r="BC57" s="638"/>
-      <c r="BD57" s="638"/>
-      <c r="BE57" s="638"/>
-      <c r="BF57" s="638"/>
-      <c r="BG57" s="638"/>
-      <c r="BH57" s="638"/>
-      <c r="BI57" s="638"/>
-      <c r="BJ57" s="638"/>
-      <c r="BK57" s="638"/>
-      <c r="BL57" s="638"/>
-      <c r="BM57" s="638"/>
-      <c r="BN57" s="638"/>
-      <c r="BO57" s="638"/>
-      <c r="BP57" s="638"/>
-      <c r="BQ57" s="638"/>
-      <c r="BR57" s="638"/>
-      <c r="BS57" s="638"/>
-      <c r="BT57" s="638"/>
-      <c r="BU57" s="638"/>
-      <c r="BV57" s="638"/>
-      <c r="BW57" s="638"/>
-      <c r="BX57" s="638"/>
-      <c r="BY57" s="638"/>
-      <c r="BZ57" s="638"/>
-      <c r="CA57" s="638"/>
-      <c r="CB57" s="638"/>
-      <c r="CC57" s="638"/>
-      <c r="CD57" s="638"/>
-      <c r="CE57" s="638"/>
-      <c r="CF57" s="638"/>
-      <c r="CG57" s="638"/>
-      <c r="CH57" s="638"/>
-      <c r="CI57" s="638"/>
-      <c r="CJ57" s="638"/>
-      <c r="CK57" s="638"/>
-      <c r="CL57" s="638"/>
-      <c r="CM57" s="638"/>
-      <c r="CN57" s="638"/>
-      <c r="CO57" s="638"/>
-      <c r="CP57" s="638"/>
-      <c r="CQ57" s="638"/>
-      <c r="CR57" s="638"/>
-      <c r="CS57" s="638"/>
-      <c r="CT57" s="638"/>
-      <c r="CU57" s="638"/>
-      <c r="CV57" s="638"/>
-      <c r="CW57" s="638"/>
-      <c r="CX57" s="638"/>
-      <c r="CY57" s="638"/>
-      <c r="CZ57" s="638"/>
-      <c r="DA57" s="638"/>
-      <c r="DB57" s="638"/>
-      <c r="DC57" s="638"/>
-      <c r="DD57" s="638"/>
-      <c r="DE57" s="638"/>
-      <c r="DF57" s="638"/>
-      <c r="DG57" s="638"/>
-      <c r="DH57" s="638"/>
-      <c r="DI57" s="638"/>
-      <c r="DJ57" s="638"/>
-      <c r="DK57" s="638"/>
-      <c r="DL57" s="638"/>
-      <c r="DM57" s="638"/>
-      <c r="DN57" s="638"/>
-      <c r="DO57" s="638"/>
-      <c r="DP57" s="638"/>
+      <c r="B57" s="641"/>
+      <c r="C57" s="641"/>
+      <c r="D57" s="641"/>
+      <c r="E57" s="641"/>
+      <c r="F57" s="641"/>
+      <c r="G57" s="641"/>
+      <c r="H57" s="641"/>
+      <c r="I57" s="641"/>
+      <c r="J57" s="641"/>
+      <c r="K57" s="641"/>
+      <c r="L57" s="641"/>
+      <c r="M57" s="641"/>
+      <c r="N57" s="641"/>
+      <c r="O57" s="641"/>
+      <c r="P57" s="641"/>
+      <c r="Q57" s="641"/>
+      <c r="R57" s="641"/>
+      <c r="S57" s="641"/>
+      <c r="T57" s="641"/>
+      <c r="U57" s="641"/>
+      <c r="V57" s="641"/>
+      <c r="W57" s="641"/>
+      <c r="X57" s="641"/>
+      <c r="Y57" s="641"/>
+      <c r="Z57" s="641"/>
+      <c r="AA57" s="641"/>
+      <c r="AB57" s="641"/>
+      <c r="AC57" s="641"/>
+      <c r="AD57" s="641"/>
+      <c r="AE57" s="641"/>
+      <c r="AF57" s="641"/>
+      <c r="AG57" s="641"/>
+      <c r="AH57" s="641"/>
+      <c r="AI57" s="641"/>
+      <c r="AJ57" s="641"/>
+      <c r="AK57" s="641"/>
+      <c r="AL57" s="641"/>
+      <c r="AM57" s="641"/>
+      <c r="AN57" s="641"/>
+      <c r="AO57" s="641"/>
+      <c r="AP57" s="641"/>
+      <c r="AQ57" s="641"/>
+      <c r="AR57" s="641"/>
+      <c r="AS57" s="641"/>
+      <c r="AT57" s="641"/>
+      <c r="AU57" s="641"/>
+      <c r="AV57" s="641"/>
+      <c r="AW57" s="641"/>
+      <c r="AX57" s="641"/>
+      <c r="AY57" s="641"/>
+      <c r="AZ57" s="641"/>
+      <c r="BA57" s="641"/>
+      <c r="BB57" s="641"/>
+      <c r="BC57" s="641"/>
+      <c r="BD57" s="641"/>
+      <c r="BE57" s="641"/>
+      <c r="BF57" s="641"/>
+      <c r="BG57" s="641"/>
+      <c r="BH57" s="641"/>
+      <c r="BI57" s="641"/>
+      <c r="BJ57" s="641"/>
+      <c r="BK57" s="641"/>
+      <c r="BL57" s="641"/>
+      <c r="BM57" s="641"/>
+      <c r="BN57" s="641"/>
+      <c r="BO57" s="641"/>
+      <c r="BP57" s="641"/>
+      <c r="BQ57" s="641"/>
+      <c r="BR57" s="641"/>
+      <c r="BS57" s="641"/>
+      <c r="BT57" s="641"/>
+      <c r="BU57" s="641"/>
+      <c r="BV57" s="641"/>
+      <c r="BW57" s="641"/>
+      <c r="BX57" s="641"/>
+      <c r="BY57" s="641"/>
+      <c r="BZ57" s="641"/>
+      <c r="CA57" s="641"/>
+      <c r="CB57" s="641"/>
+      <c r="CC57" s="641"/>
+      <c r="CD57" s="641"/>
+      <c r="CE57" s="641"/>
+      <c r="CF57" s="641"/>
+      <c r="CG57" s="641"/>
+      <c r="CH57" s="641"/>
+      <c r="CI57" s="641"/>
+      <c r="CJ57" s="641"/>
+      <c r="CK57" s="641"/>
+      <c r="CL57" s="641"/>
+      <c r="CM57" s="641"/>
+      <c r="CN57" s="641"/>
+      <c r="CO57" s="641"/>
+      <c r="CP57" s="641"/>
+      <c r="CQ57" s="641"/>
+      <c r="CR57" s="641"/>
+      <c r="CS57" s="641"/>
+      <c r="CT57" s="641"/>
+      <c r="CU57" s="641"/>
+      <c r="CV57" s="641"/>
+      <c r="CW57" s="641"/>
+      <c r="CX57" s="641"/>
+      <c r="CY57" s="641"/>
+      <c r="CZ57" s="641"/>
+      <c r="DA57" s="641"/>
+      <c r="DB57" s="641"/>
+      <c r="DC57" s="641"/>
+      <c r="DD57" s="641"/>
+      <c r="DE57" s="641"/>
+      <c r="DF57" s="641"/>
+      <c r="DG57" s="641"/>
+      <c r="DH57" s="641"/>
+      <c r="DI57" s="641"/>
+      <c r="DJ57" s="641"/>
+      <c r="DK57" s="641"/>
+      <c r="DL57" s="641"/>
+      <c r="DM57" s="641"/>
+      <c r="DN57" s="641"/>
+      <c r="DO57" s="641"/>
+      <c r="DP57" s="641"/>
     </row>
     <row r="58" spans="1:120" s="110" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A58" s="447">
@@ -29762,128 +29786,128 @@
       </c>
     </row>
     <row r="60" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="A60" s="637" t="s">
+      <c r="A60" s="640" t="s">
         <v>898</v>
       </c>
-      <c r="B60" s="638"/>
-      <c r="C60" s="638"/>
-      <c r="D60" s="638"/>
-      <c r="E60" s="638"/>
-      <c r="F60" s="638"/>
-      <c r="G60" s="638"/>
-      <c r="H60" s="638"/>
-      <c r="I60" s="638"/>
-      <c r="J60" s="638"/>
-      <c r="K60" s="638"/>
-      <c r="L60" s="638"/>
-      <c r="M60" s="638"/>
-      <c r="N60" s="638"/>
-      <c r="O60" s="638"/>
-      <c r="P60" s="638"/>
-      <c r="Q60" s="638"/>
-      <c r="R60" s="638"/>
-      <c r="S60" s="638"/>
-      <c r="T60" s="638"/>
-      <c r="U60" s="638"/>
-      <c r="V60" s="638"/>
-      <c r="W60" s="638"/>
-      <c r="X60" s="638"/>
-      <c r="Y60" s="638"/>
-      <c r="Z60" s="638"/>
-      <c r="AA60" s="638"/>
-      <c r="AB60" s="638"/>
-      <c r="AC60" s="638"/>
-      <c r="AD60" s="638"/>
-      <c r="AE60" s="638"/>
-      <c r="AF60" s="638"/>
-      <c r="AG60" s="638"/>
-      <c r="AH60" s="638"/>
-      <c r="AI60" s="638"/>
-      <c r="AJ60" s="638"/>
-      <c r="AK60" s="638"/>
-      <c r="AL60" s="638"/>
-      <c r="AM60" s="638"/>
-      <c r="AN60" s="638"/>
-      <c r="AO60" s="638"/>
-      <c r="AP60" s="638"/>
-      <c r="AQ60" s="638"/>
-      <c r="AR60" s="638"/>
-      <c r="AS60" s="638"/>
-      <c r="AT60" s="638"/>
-      <c r="AU60" s="638"/>
-      <c r="AV60" s="638"/>
-      <c r="AW60" s="638"/>
-      <c r="AX60" s="638"/>
-      <c r="AY60" s="638"/>
-      <c r="AZ60" s="638"/>
-      <c r="BA60" s="638"/>
-      <c r="BB60" s="638"/>
-      <c r="BC60" s="638"/>
-      <c r="BD60" s="638"/>
-      <c r="BE60" s="638"/>
-      <c r="BF60" s="638"/>
-      <c r="BG60" s="638"/>
-      <c r="BH60" s="638"/>
-      <c r="BI60" s="638"/>
-      <c r="BJ60" s="638"/>
-      <c r="BK60" s="638"/>
-      <c r="BL60" s="638"/>
-      <c r="BM60" s="638"/>
-      <c r="BN60" s="638"/>
-      <c r="BO60" s="638"/>
-      <c r="BP60" s="638"/>
-      <c r="BQ60" s="638"/>
-      <c r="BR60" s="638"/>
-      <c r="BS60" s="638"/>
-      <c r="BT60" s="638"/>
-      <c r="BU60" s="638"/>
-      <c r="BV60" s="638"/>
-      <c r="BW60" s="638"/>
-      <c r="BX60" s="638"/>
-      <c r="BY60" s="638"/>
-      <c r="BZ60" s="638"/>
-      <c r="CA60" s="638"/>
-      <c r="CB60" s="638"/>
-      <c r="CC60" s="638"/>
-      <c r="CD60" s="638"/>
-      <c r="CE60" s="638"/>
-      <c r="CF60" s="638"/>
-      <c r="CG60" s="638"/>
-      <c r="CH60" s="638"/>
-      <c r="CI60" s="638"/>
-      <c r="CJ60" s="638"/>
-      <c r="CK60" s="638"/>
-      <c r="CL60" s="638"/>
-      <c r="CM60" s="638"/>
-      <c r="CN60" s="638"/>
-      <c r="CO60" s="638"/>
-      <c r="CP60" s="638"/>
-      <c r="CQ60" s="638"/>
-      <c r="CR60" s="638"/>
-      <c r="CS60" s="638"/>
-      <c r="CT60" s="638"/>
-      <c r="CU60" s="638"/>
-      <c r="CV60" s="638"/>
-      <c r="CW60" s="638"/>
-      <c r="CX60" s="638"/>
-      <c r="CY60" s="638"/>
-      <c r="CZ60" s="638"/>
-      <c r="DA60" s="638"/>
-      <c r="DB60" s="638"/>
-      <c r="DC60" s="638"/>
-      <c r="DD60" s="638"/>
-      <c r="DE60" s="638"/>
-      <c r="DF60" s="638"/>
-      <c r="DG60" s="638"/>
-      <c r="DH60" s="638"/>
-      <c r="DI60" s="638"/>
-      <c r="DJ60" s="638"/>
-      <c r="DK60" s="638"/>
-      <c r="DL60" s="638"/>
-      <c r="DM60" s="638"/>
-      <c r="DN60" s="638"/>
-      <c r="DO60" s="638"/>
-      <c r="DP60" s="638"/>
+      <c r="B60" s="641"/>
+      <c r="C60" s="641"/>
+      <c r="D60" s="641"/>
+      <c r="E60" s="641"/>
+      <c r="F60" s="641"/>
+      <c r="G60" s="641"/>
+      <c r="H60" s="641"/>
+      <c r="I60" s="641"/>
+      <c r="J60" s="641"/>
+      <c r="K60" s="641"/>
+      <c r="L60" s="641"/>
+      <c r="M60" s="641"/>
+      <c r="N60" s="641"/>
+      <c r="O60" s="641"/>
+      <c r="P60" s="641"/>
+      <c r="Q60" s="641"/>
+      <c r="R60" s="641"/>
+      <c r="S60" s="641"/>
+      <c r="T60" s="641"/>
+      <c r="U60" s="641"/>
+      <c r="V60" s="641"/>
+      <c r="W60" s="641"/>
+      <c r="X60" s="641"/>
+      <c r="Y60" s="641"/>
+      <c r="Z60" s="641"/>
+      <c r="AA60" s="641"/>
+      <c r="AB60" s="641"/>
+      <c r="AC60" s="641"/>
+      <c r="AD60" s="641"/>
+      <c r="AE60" s="641"/>
+      <c r="AF60" s="641"/>
+      <c r="AG60" s="641"/>
+      <c r="AH60" s="641"/>
+      <c r="AI60" s="641"/>
+      <c r="AJ60" s="641"/>
+      <c r="AK60" s="641"/>
+      <c r="AL60" s="641"/>
+      <c r="AM60" s="641"/>
+      <c r="AN60" s="641"/>
+      <c r="AO60" s="641"/>
+      <c r="AP60" s="641"/>
+      <c r="AQ60" s="641"/>
+      <c r="AR60" s="641"/>
+      <c r="AS60" s="641"/>
+      <c r="AT60" s="641"/>
+      <c r="AU60" s="641"/>
+      <c r="AV60" s="641"/>
+      <c r="AW60" s="641"/>
+      <c r="AX60" s="641"/>
+      <c r="AY60" s="641"/>
+      <c r="AZ60" s="641"/>
+      <c r="BA60" s="641"/>
+      <c r="BB60" s="641"/>
+      <c r="BC60" s="641"/>
+      <c r="BD60" s="641"/>
+      <c r="BE60" s="641"/>
+      <c r="BF60" s="641"/>
+      <c r="BG60" s="641"/>
+      <c r="BH60" s="641"/>
+      <c r="BI60" s="641"/>
+      <c r="BJ60" s="641"/>
+      <c r="BK60" s="641"/>
+      <c r="BL60" s="641"/>
+      <c r="BM60" s="641"/>
+      <c r="BN60" s="641"/>
+      <c r="BO60" s="641"/>
+      <c r="BP60" s="641"/>
+      <c r="BQ60" s="641"/>
+      <c r="BR60" s="641"/>
+      <c r="BS60" s="641"/>
+      <c r="BT60" s="641"/>
+      <c r="BU60" s="641"/>
+      <c r="BV60" s="641"/>
+      <c r="BW60" s="641"/>
+      <c r="BX60" s="641"/>
+      <c r="BY60" s="641"/>
+      <c r="BZ60" s="641"/>
+      <c r="CA60" s="641"/>
+      <c r="CB60" s="641"/>
+      <c r="CC60" s="641"/>
+      <c r="CD60" s="641"/>
+      <c r="CE60" s="641"/>
+      <c r="CF60" s="641"/>
+      <c r="CG60" s="641"/>
+      <c r="CH60" s="641"/>
+      <c r="CI60" s="641"/>
+      <c r="CJ60" s="641"/>
+      <c r="CK60" s="641"/>
+      <c r="CL60" s="641"/>
+      <c r="CM60" s="641"/>
+      <c r="CN60" s="641"/>
+      <c r="CO60" s="641"/>
+      <c r="CP60" s="641"/>
+      <c r="CQ60" s="641"/>
+      <c r="CR60" s="641"/>
+      <c r="CS60" s="641"/>
+      <c r="CT60" s="641"/>
+      <c r="CU60" s="641"/>
+      <c r="CV60" s="641"/>
+      <c r="CW60" s="641"/>
+      <c r="CX60" s="641"/>
+      <c r="CY60" s="641"/>
+      <c r="CZ60" s="641"/>
+      <c r="DA60" s="641"/>
+      <c r="DB60" s="641"/>
+      <c r="DC60" s="641"/>
+      <c r="DD60" s="641"/>
+      <c r="DE60" s="641"/>
+      <c r="DF60" s="641"/>
+      <c r="DG60" s="641"/>
+      <c r="DH60" s="641"/>
+      <c r="DI60" s="641"/>
+      <c r="DJ60" s="641"/>
+      <c r="DK60" s="641"/>
+      <c r="DL60" s="641"/>
+      <c r="DM60" s="641"/>
+      <c r="DN60" s="641"/>
+      <c r="DO60" s="641"/>
+      <c r="DP60" s="641"/>
     </row>
     <row r="61" spans="1:120" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="111">
@@ -30414,128 +30438,128 @@
       </c>
     </row>
     <row r="65" spans="1:176" x14ac:dyDescent="0.25">
-      <c r="A65" s="637" t="s">
+      <c r="A65" s="640" t="s">
         <v>1034</v>
       </c>
-      <c r="B65" s="638"/>
-      <c r="C65" s="638"/>
-      <c r="D65" s="638"/>
-      <c r="E65" s="638"/>
-      <c r="F65" s="638"/>
-      <c r="G65" s="638"/>
-      <c r="H65" s="638"/>
-      <c r="I65" s="638"/>
-      <c r="J65" s="638"/>
-      <c r="K65" s="638"/>
-      <c r="L65" s="638"/>
-      <c r="M65" s="638"/>
-      <c r="N65" s="638"/>
-      <c r="O65" s="638"/>
-      <c r="P65" s="638"/>
-      <c r="Q65" s="638"/>
-      <c r="R65" s="638"/>
-      <c r="S65" s="638"/>
-      <c r="T65" s="638"/>
-      <c r="U65" s="638"/>
-      <c r="V65" s="638"/>
-      <c r="W65" s="638"/>
-      <c r="X65" s="638"/>
-      <c r="Y65" s="638"/>
-      <c r="Z65" s="638"/>
-      <c r="AA65" s="638"/>
-      <c r="AB65" s="638"/>
-      <c r="AC65" s="638"/>
-      <c r="AD65" s="638"/>
-      <c r="AE65" s="638"/>
-      <c r="AF65" s="638"/>
-      <c r="AG65" s="638"/>
-      <c r="AH65" s="638"/>
-      <c r="AI65" s="638"/>
-      <c r="AJ65" s="638"/>
-      <c r="AK65" s="638"/>
-      <c r="AL65" s="638"/>
-      <c r="AM65" s="638"/>
-      <c r="AN65" s="638"/>
-      <c r="AO65" s="638"/>
-      <c r="AP65" s="638"/>
-      <c r="AQ65" s="638"/>
-      <c r="AR65" s="638"/>
-      <c r="AS65" s="638"/>
-      <c r="AT65" s="638"/>
-      <c r="AU65" s="638"/>
-      <c r="AV65" s="638"/>
-      <c r="AW65" s="638"/>
-      <c r="AX65" s="638"/>
-      <c r="AY65" s="638"/>
-      <c r="AZ65" s="638"/>
-      <c r="BA65" s="638"/>
-      <c r="BB65" s="638"/>
-      <c r="BC65" s="638"/>
-      <c r="BD65" s="638"/>
-      <c r="BE65" s="638"/>
-      <c r="BF65" s="638"/>
-      <c r="BG65" s="638"/>
-      <c r="BH65" s="638"/>
-      <c r="BI65" s="638"/>
-      <c r="BJ65" s="638"/>
-      <c r="BK65" s="638"/>
-      <c r="BL65" s="638"/>
-      <c r="BM65" s="638"/>
-      <c r="BN65" s="638"/>
-      <c r="BO65" s="638"/>
-      <c r="BP65" s="638"/>
-      <c r="BQ65" s="638"/>
-      <c r="BR65" s="638"/>
-      <c r="BS65" s="638"/>
-      <c r="BT65" s="638"/>
-      <c r="BU65" s="638"/>
-      <c r="BV65" s="638"/>
-      <c r="BW65" s="638"/>
-      <c r="BX65" s="638"/>
-      <c r="BY65" s="638"/>
-      <c r="BZ65" s="638"/>
-      <c r="CA65" s="638"/>
-      <c r="CB65" s="638"/>
-      <c r="CC65" s="638"/>
-      <c r="CD65" s="638"/>
-      <c r="CE65" s="638"/>
-      <c r="CF65" s="638"/>
-      <c r="CG65" s="638"/>
-      <c r="CH65" s="638"/>
-      <c r="CI65" s="638"/>
-      <c r="CJ65" s="638"/>
-      <c r="CK65" s="638"/>
-      <c r="CL65" s="638"/>
-      <c r="CM65" s="638"/>
-      <c r="CN65" s="638"/>
-      <c r="CO65" s="638"/>
-      <c r="CP65" s="638"/>
-      <c r="CQ65" s="638"/>
-      <c r="CR65" s="638"/>
-      <c r="CS65" s="638"/>
-      <c r="CT65" s="638"/>
-      <c r="CU65" s="638"/>
-      <c r="CV65" s="638"/>
-      <c r="CW65" s="638"/>
-      <c r="CX65" s="638"/>
-      <c r="CY65" s="638"/>
-      <c r="CZ65" s="638"/>
-      <c r="DA65" s="638"/>
-      <c r="DB65" s="638"/>
-      <c r="DC65" s="638"/>
-      <c r="DD65" s="638"/>
-      <c r="DE65" s="638"/>
-      <c r="DF65" s="638"/>
-      <c r="DG65" s="638"/>
-      <c r="DH65" s="638"/>
-      <c r="DI65" s="638"/>
-      <c r="DJ65" s="638"/>
-      <c r="DK65" s="638"/>
-      <c r="DL65" s="638"/>
-      <c r="DM65" s="638"/>
-      <c r="DN65" s="638"/>
-      <c r="DO65" s="638"/>
-      <c r="DP65" s="638"/>
+      <c r="B65" s="641"/>
+      <c r="C65" s="641"/>
+      <c r="D65" s="641"/>
+      <c r="E65" s="641"/>
+      <c r="F65" s="641"/>
+      <c r="G65" s="641"/>
+      <c r="H65" s="641"/>
+      <c r="I65" s="641"/>
+      <c r="J65" s="641"/>
+      <c r="K65" s="641"/>
+      <c r="L65" s="641"/>
+      <c r="M65" s="641"/>
+      <c r="N65" s="641"/>
+      <c r="O65" s="641"/>
+      <c r="P65" s="641"/>
+      <c r="Q65" s="641"/>
+      <c r="R65" s="641"/>
+      <c r="S65" s="641"/>
+      <c r="T65" s="641"/>
+      <c r="U65" s="641"/>
+      <c r="V65" s="641"/>
+      <c r="W65" s="641"/>
+      <c r="X65" s="641"/>
+      <c r="Y65" s="641"/>
+      <c r="Z65" s="641"/>
+      <c r="AA65" s="641"/>
+      <c r="AB65" s="641"/>
+      <c r="AC65" s="641"/>
+      <c r="AD65" s="641"/>
+      <c r="AE65" s="641"/>
+      <c r="AF65" s="641"/>
+      <c r="AG65" s="641"/>
+      <c r="AH65" s="641"/>
+      <c r="AI65" s="641"/>
+      <c r="AJ65" s="641"/>
+      <c r="AK65" s="641"/>
+      <c r="AL65" s="641"/>
+      <c r="AM65" s="641"/>
+      <c r="AN65" s="641"/>
+      <c r="AO65" s="641"/>
+      <c r="AP65" s="641"/>
+      <c r="AQ65" s="641"/>
+      <c r="AR65" s="641"/>
+      <c r="AS65" s="641"/>
+      <c r="AT65" s="641"/>
+      <c r="AU65" s="641"/>
+      <c r="AV65" s="641"/>
+      <c r="AW65" s="641"/>
+      <c r="AX65" s="641"/>
+      <c r="AY65" s="641"/>
+      <c r="AZ65" s="641"/>
+      <c r="BA65" s="641"/>
+      <c r="BB65" s="641"/>
+      <c r="BC65" s="641"/>
+      <c r="BD65" s="641"/>
+      <c r="BE65" s="641"/>
+      <c r="BF65" s="641"/>
+      <c r="BG65" s="641"/>
+      <c r="BH65" s="641"/>
+      <c r="BI65" s="641"/>
+      <c r="BJ65" s="641"/>
+      <c r="BK65" s="641"/>
+      <c r="BL65" s="641"/>
+      <c r="BM65" s="641"/>
+      <c r="BN65" s="641"/>
+      <c r="BO65" s="641"/>
+      <c r="BP65" s="641"/>
+      <c r="BQ65" s="641"/>
+      <c r="BR65" s="641"/>
+      <c r="BS65" s="641"/>
+      <c r="BT65" s="641"/>
+      <c r="BU65" s="641"/>
+      <c r="BV65" s="641"/>
+      <c r="BW65" s="641"/>
+      <c r="BX65" s="641"/>
+      <c r="BY65" s="641"/>
+      <c r="BZ65" s="641"/>
+      <c r="CA65" s="641"/>
+      <c r="CB65" s="641"/>
+      <c r="CC65" s="641"/>
+      <c r="CD65" s="641"/>
+      <c r="CE65" s="641"/>
+      <c r="CF65" s="641"/>
+      <c r="CG65" s="641"/>
+      <c r="CH65" s="641"/>
+      <c r="CI65" s="641"/>
+      <c r="CJ65" s="641"/>
+      <c r="CK65" s="641"/>
+      <c r="CL65" s="641"/>
+      <c r="CM65" s="641"/>
+      <c r="CN65" s="641"/>
+      <c r="CO65" s="641"/>
+      <c r="CP65" s="641"/>
+      <c r="CQ65" s="641"/>
+      <c r="CR65" s="641"/>
+      <c r="CS65" s="641"/>
+      <c r="CT65" s="641"/>
+      <c r="CU65" s="641"/>
+      <c r="CV65" s="641"/>
+      <c r="CW65" s="641"/>
+      <c r="CX65" s="641"/>
+      <c r="CY65" s="641"/>
+      <c r="CZ65" s="641"/>
+      <c r="DA65" s="641"/>
+      <c r="DB65" s="641"/>
+      <c r="DC65" s="641"/>
+      <c r="DD65" s="641"/>
+      <c r="DE65" s="641"/>
+      <c r="DF65" s="641"/>
+      <c r="DG65" s="641"/>
+      <c r="DH65" s="641"/>
+      <c r="DI65" s="641"/>
+      <c r="DJ65" s="641"/>
+      <c r="DK65" s="641"/>
+      <c r="DL65" s="641"/>
+      <c r="DM65" s="641"/>
+      <c r="DN65" s="641"/>
+      <c r="DO65" s="641"/>
+      <c r="DP65" s="641"/>
     </row>
     <row r="66" spans="1:176" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="111">
@@ -31656,289 +31680,289 @@
       </c>
     </row>
     <row r="74" spans="1:176" s="41" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="647" t="s">
+      <c r="A74" s="637" t="s">
         <v>1091</v>
       </c>
-      <c r="B74" s="648"/>
-      <c r="C74" s="648"/>
-      <c r="D74" s="648"/>
-      <c r="E74" s="648"/>
-      <c r="F74" s="648"/>
-      <c r="G74" s="648"/>
-      <c r="H74" s="648"/>
-      <c r="I74" s="648"/>
-      <c r="J74" s="648"/>
-      <c r="K74" s="648"/>
-      <c r="L74" s="648"/>
-      <c r="M74" s="648"/>
-      <c r="N74" s="648"/>
-      <c r="O74" s="648"/>
-      <c r="P74" s="648"/>
-      <c r="Q74" s="649"/>
+      <c r="B74" s="638"/>
+      <c r="C74" s="638"/>
+      <c r="D74" s="638"/>
+      <c r="E74" s="638"/>
+      <c r="F74" s="638"/>
+      <c r="G74" s="638"/>
+      <c r="H74" s="638"/>
+      <c r="I74" s="638"/>
+      <c r="J74" s="638"/>
+      <c r="K74" s="638"/>
+      <c r="L74" s="638"/>
+      <c r="M74" s="638"/>
+      <c r="N74" s="638"/>
+      <c r="O74" s="638"/>
+      <c r="P74" s="638"/>
+      <c r="Q74" s="639"/>
     </row>
     <row r="75" spans="1:176" s="94" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="633" t="s">
+      <c r="A75" s="624" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="634"/>
-      <c r="C75" s="612" t="s">
+      <c r="B75" s="625"/>
+      <c r="C75" s="621" t="s">
         <v>913</v>
       </c>
-      <c r="D75" s="613"/>
-      <c r="E75" s="613"/>
-      <c r="F75" s="613"/>
-      <c r="G75" s="614"/>
-      <c r="H75" s="612" t="s">
+      <c r="D75" s="622"/>
+      <c r="E75" s="622"/>
+      <c r="F75" s="622"/>
+      <c r="G75" s="623"/>
+      <c r="H75" s="621" t="s">
         <v>731</v>
       </c>
-      <c r="I75" s="613"/>
-      <c r="J75" s="613"/>
-      <c r="K75" s="613"/>
-      <c r="L75" s="614"/>
-      <c r="M75" s="612" t="s">
+      <c r="I75" s="622"/>
+      <c r="J75" s="622"/>
+      <c r="K75" s="622"/>
+      <c r="L75" s="623"/>
+      <c r="M75" s="621" t="s">
         <v>914</v>
       </c>
-      <c r="N75" s="613"/>
-      <c r="O75" s="614"/>
-      <c r="P75" s="612" t="s">
+      <c r="N75" s="622"/>
+      <c r="O75" s="623"/>
+      <c r="P75" s="621" t="s">
         <v>777</v>
       </c>
-      <c r="Q75" s="613"/>
-      <c r="R75" s="614"/>
-      <c r="S75" s="612" t="s">
+      <c r="Q75" s="622"/>
+      <c r="R75" s="623"/>
+      <c r="S75" s="621" t="s">
         <v>926</v>
       </c>
-      <c r="T75" s="613"/>
-      <c r="U75" s="614"/>
-      <c r="V75" s="612" t="s">
+      <c r="T75" s="622"/>
+      <c r="U75" s="623"/>
+      <c r="V75" s="621" t="s">
         <v>926</v>
       </c>
-      <c r="W75" s="613"/>
-      <c r="X75" s="614"/>
-      <c r="Y75" s="612" t="s">
+      <c r="W75" s="622"/>
+      <c r="X75" s="623"/>
+      <c r="Y75" s="621" t="s">
         <v>548</v>
       </c>
-      <c r="Z75" s="613"/>
-      <c r="AA75" s="613"/>
-      <c r="AB75" s="613"/>
-      <c r="AC75" s="614"/>
-      <c r="AD75" s="612" t="s">
+      <c r="Z75" s="622"/>
+      <c r="AA75" s="622"/>
+      <c r="AB75" s="622"/>
+      <c r="AC75" s="623"/>
+      <c r="AD75" s="621" t="s">
         <v>692</v>
       </c>
-      <c r="AE75" s="613"/>
-      <c r="AF75" s="613"/>
-      <c r="AG75" s="613"/>
-      <c r="AH75" s="614"/>
-      <c r="AI75" s="612" t="s">
+      <c r="AE75" s="622"/>
+      <c r="AF75" s="622"/>
+      <c r="AG75" s="622"/>
+      <c r="AH75" s="623"/>
+      <c r="AI75" s="621" t="s">
         <v>1063</v>
       </c>
-      <c r="AJ75" s="613"/>
-      <c r="AK75" s="613"/>
-      <c r="AL75" s="613"/>
-      <c r="AM75" s="614"/>
-      <c r="AN75" s="612" t="s">
+      <c r="AJ75" s="622"/>
+      <c r="AK75" s="622"/>
+      <c r="AL75" s="622"/>
+      <c r="AM75" s="623"/>
+      <c r="AN75" s="621" t="s">
         <v>693</v>
       </c>
-      <c r="AO75" s="613"/>
-      <c r="AP75" s="613"/>
-      <c r="AQ75" s="613"/>
-      <c r="AR75" s="614"/>
-      <c r="AS75" s="612" t="s">
+      <c r="AO75" s="622"/>
+      <c r="AP75" s="622"/>
+      <c r="AQ75" s="622"/>
+      <c r="AR75" s="623"/>
+      <c r="AS75" s="621" t="s">
         <v>701</v>
       </c>
-      <c r="AT75" s="613"/>
-      <c r="AU75" s="613"/>
-      <c r="AV75" s="613"/>
-      <c r="AW75" s="614"/>
-      <c r="AX75" s="612" t="s">
+      <c r="AT75" s="622"/>
+      <c r="AU75" s="622"/>
+      <c r="AV75" s="622"/>
+      <c r="AW75" s="623"/>
+      <c r="AX75" s="621" t="s">
         <v>714</v>
       </c>
-      <c r="AY75" s="613"/>
-      <c r="AZ75" s="613"/>
-      <c r="BA75" s="613"/>
-      <c r="BB75" s="614"/>
-      <c r="BC75" s="612" t="s">
+      <c r="AY75" s="622"/>
+      <c r="AZ75" s="622"/>
+      <c r="BA75" s="622"/>
+      <c r="BB75" s="623"/>
+      <c r="BC75" s="621" t="s">
         <v>555</v>
       </c>
-      <c r="BD75" s="613"/>
-      <c r="BE75" s="613"/>
-      <c r="BF75" s="613"/>
-      <c r="BG75" s="614"/>
+      <c r="BD75" s="622"/>
+      <c r="BE75" s="622"/>
+      <c r="BF75" s="622"/>
+      <c r="BG75" s="623"/>
       <c r="BH75" s="95"/>
-      <c r="BI75" s="622" t="s">
+      <c r="BI75" s="615" t="s">
         <v>125</v>
       </c>
-      <c r="BJ75" s="623"/>
-      <c r="BK75" s="623"/>
+      <c r="BJ75" s="616"/>
+      <c r="BK75" s="616"/>
       <c r="BL75" s="95"/>
-      <c r="BM75" s="621" t="s">
+      <c r="BM75" s="628" t="s">
         <v>823</v>
       </c>
-      <c r="BN75" s="621"/>
-      <c r="BO75" s="621"/>
-      <c r="BP75" s="621" t="s">
+      <c r="BN75" s="628"/>
+      <c r="BO75" s="628"/>
+      <c r="BP75" s="628" t="s">
         <v>960</v>
       </c>
-      <c r="BQ75" s="621"/>
-      <c r="BR75" s="621"/>
+      <c r="BQ75" s="628"/>
+      <c r="BR75" s="628"/>
       <c r="BS75" s="95"/>
-      <c r="BT75" s="621" t="s">
+      <c r="BT75" s="628" t="s">
         <v>12</v>
       </c>
-      <c r="BU75" s="621"/>
-      <c r="BV75" s="621"/>
-      <c r="BW75" s="621"/>
-      <c r="BX75" s="622" t="s">
+      <c r="BU75" s="628"/>
+      <c r="BV75" s="628"/>
+      <c r="BW75" s="628"/>
+      <c r="BX75" s="615" t="s">
         <v>422</v>
       </c>
-      <c r="BY75" s="623"/>
-      <c r="BZ75" s="623"/>
-      <c r="CA75" s="623"/>
-      <c r="CB75" s="624"/>
-      <c r="CC75" s="622" t="s">
+      <c r="BY75" s="616"/>
+      <c r="BZ75" s="616"/>
+      <c r="CA75" s="616"/>
+      <c r="CB75" s="617"/>
+      <c r="CC75" s="615" t="s">
         <v>287</v>
       </c>
-      <c r="CD75" s="623"/>
-      <c r="CE75" s="623"/>
-      <c r="CF75" s="623"/>
-      <c r="CG75" s="624"/>
-      <c r="CH75" s="622" t="s">
+      <c r="CD75" s="616"/>
+      <c r="CE75" s="616"/>
+      <c r="CF75" s="616"/>
+      <c r="CG75" s="617"/>
+      <c r="CH75" s="615" t="s">
         <v>756</v>
       </c>
-      <c r="CI75" s="623"/>
-      <c r="CJ75" s="623"/>
-      <c r="CK75" s="623"/>
-      <c r="CL75" s="624"/>
-      <c r="CM75" s="622" t="s">
+      <c r="CI75" s="616"/>
+      <c r="CJ75" s="616"/>
+      <c r="CK75" s="616"/>
+      <c r="CL75" s="617"/>
+      <c r="CM75" s="615" t="s">
         <v>758</v>
       </c>
-      <c r="CN75" s="623"/>
-      <c r="CO75" s="623"/>
-      <c r="CP75" s="623"/>
-      <c r="CQ75" s="624"/>
-      <c r="CR75" s="622" t="s">
+      <c r="CN75" s="616"/>
+      <c r="CO75" s="616"/>
+      <c r="CP75" s="616"/>
+      <c r="CQ75" s="617"/>
+      <c r="CR75" s="615" t="s">
         <v>834</v>
       </c>
-      <c r="CS75" s="623"/>
-      <c r="CT75" s="623"/>
-      <c r="CU75" s="623"/>
-      <c r="CV75" s="624"/>
-      <c r="CW75" s="622" t="s">
+      <c r="CS75" s="616"/>
+      <c r="CT75" s="616"/>
+      <c r="CU75" s="616"/>
+      <c r="CV75" s="617"/>
+      <c r="CW75" s="615" t="s">
         <v>628</v>
       </c>
-      <c r="CX75" s="623"/>
-      <c r="CY75" s="623"/>
-      <c r="CZ75" s="623"/>
-      <c r="DA75" s="624"/>
-      <c r="DB75" s="622" t="s">
+      <c r="CX75" s="616"/>
+      <c r="CY75" s="616"/>
+      <c r="CZ75" s="616"/>
+      <c r="DA75" s="617"/>
+      <c r="DB75" s="615" t="s">
         <v>819</v>
       </c>
-      <c r="DC75" s="623"/>
-      <c r="DD75" s="623"/>
-      <c r="DE75" s="623"/>
-      <c r="DF75" s="624"/>
-      <c r="DG75" s="622" t="s">
+      <c r="DC75" s="616"/>
+      <c r="DD75" s="616"/>
+      <c r="DE75" s="616"/>
+      <c r="DF75" s="617"/>
+      <c r="DG75" s="615" t="s">
         <v>13</v>
       </c>
-      <c r="DH75" s="623"/>
-      <c r="DI75" s="623"/>
-      <c r="DJ75" s="623"/>
-      <c r="DK75" s="624"/>
+      <c r="DH75" s="616"/>
+      <c r="DI75" s="616"/>
+      <c r="DJ75" s="616"/>
+      <c r="DK75" s="617"/>
       <c r="DL75" s="389"/>
-      <c r="DM75" s="622" t="s">
+      <c r="DM75" s="615" t="s">
         <v>287</v>
       </c>
-      <c r="DN75" s="623"/>
-      <c r="DO75" s="623"/>
-      <c r="DP75" s="623"/>
-      <c r="DQ75" s="624"/>
-      <c r="DR75" s="622" t="s">
+      <c r="DN75" s="616"/>
+      <c r="DO75" s="616"/>
+      <c r="DP75" s="616"/>
+      <c r="DQ75" s="617"/>
+      <c r="DR75" s="615" t="s">
         <v>968</v>
       </c>
-      <c r="DS75" s="623"/>
-      <c r="DT75" s="623"/>
-      <c r="DU75" s="623"/>
-      <c r="DV75" s="624"/>
+      <c r="DS75" s="616"/>
+      <c r="DT75" s="616"/>
+      <c r="DU75" s="616"/>
+      <c r="DV75" s="617"/>
       <c r="DW75" s="95"/>
-      <c r="DX75" s="622" t="s">
+      <c r="DX75" s="615" t="s">
         <v>15</v>
       </c>
-      <c r="DY75" s="623"/>
-      <c r="DZ75" s="623"/>
-      <c r="EA75" s="623"/>
-      <c r="EB75" s="624"/>
-      <c r="EC75" s="621" t="s">
+      <c r="DY75" s="616"/>
+      <c r="DZ75" s="616"/>
+      <c r="EA75" s="616"/>
+      <c r="EB75" s="617"/>
+      <c r="EC75" s="628" t="s">
         <v>16</v>
       </c>
-      <c r="ED75" s="621"/>
-      <c r="EE75" s="621"/>
-      <c r="EF75" s="622" t="s">
+      <c r="ED75" s="628"/>
+      <c r="EE75" s="628"/>
+      <c r="EF75" s="615" t="s">
         <v>17</v>
       </c>
-      <c r="EG75" s="623"/>
-      <c r="EH75" s="623"/>
-      <c r="EI75" s="623"/>
-      <c r="EJ75" s="624"/>
+      <c r="EG75" s="616"/>
+      <c r="EH75" s="616"/>
+      <c r="EI75" s="616"/>
+      <c r="EJ75" s="617"/>
       <c r="EK75" s="95"/>
       <c r="EL75" s="509" t="s">
         <v>792</v>
       </c>
       <c r="EM75" s="509"/>
       <c r="EN75" s="509"/>
-      <c r="EO75" s="621" t="s">
+      <c r="EO75" s="628" t="s">
         <v>720</v>
       </c>
-      <c r="EP75" s="621"/>
-      <c r="EQ75" s="621"/>
-      <c r="ER75" s="622" t="s">
+      <c r="EP75" s="628"/>
+      <c r="EQ75" s="628"/>
+      <c r="ER75" s="615" t="s">
         <v>511</v>
       </c>
-      <c r="ES75" s="623"/>
-      <c r="ET75" s="623"/>
-      <c r="EU75" s="623"/>
-      <c r="EV75" s="624"/>
-      <c r="EW75" s="622" t="s">
+      <c r="ES75" s="616"/>
+      <c r="ET75" s="616"/>
+      <c r="EU75" s="616"/>
+      <c r="EV75" s="617"/>
+      <c r="EW75" s="615" t="s">
         <v>694</v>
       </c>
-      <c r="EX75" s="623"/>
-      <c r="EY75" s="623"/>
-      <c r="EZ75" s="623"/>
-      <c r="FA75" s="624"/>
-      <c r="FB75" s="622" t="s">
+      <c r="EX75" s="616"/>
+      <c r="EY75" s="616"/>
+      <c r="EZ75" s="616"/>
+      <c r="FA75" s="617"/>
+      <c r="FB75" s="615" t="s">
         <v>1010</v>
       </c>
-      <c r="FC75" s="623"/>
-      <c r="FD75" s="623"/>
-      <c r="FE75" s="623"/>
-      <c r="FF75" s="624"/>
-      <c r="FG75" s="622" t="s">
+      <c r="FC75" s="616"/>
+      <c r="FD75" s="616"/>
+      <c r="FE75" s="616"/>
+      <c r="FF75" s="617"/>
+      <c r="FG75" s="615" t="s">
         <v>558</v>
       </c>
-      <c r="FH75" s="623"/>
-      <c r="FI75" s="624"/>
-      <c r="FJ75" s="622" t="s">
+      <c r="FH75" s="616"/>
+      <c r="FI75" s="617"/>
+      <c r="FJ75" s="615" t="s">
         <v>559</v>
       </c>
-      <c r="FK75" s="623"/>
-      <c r="FL75" s="624"/>
+      <c r="FK75" s="616"/>
+      <c r="FL75" s="617"/>
       <c r="FM75" s="95"/>
-      <c r="FN75" s="621" t="s">
+      <c r="FN75" s="628" t="s">
         <v>911</v>
       </c>
-      <c r="FO75" s="621"/>
-      <c r="FP75" s="621"/>
-      <c r="FQ75" s="621" t="s">
+      <c r="FO75" s="628"/>
+      <c r="FP75" s="628"/>
+      <c r="FQ75" s="628" t="s">
         <v>1061</v>
       </c>
-      <c r="FR75" s="621"/>
-      <c r="FS75" s="621"/>
-      <c r="FT75" s="631" t="s">
+      <c r="FR75" s="628"/>
+      <c r="FS75" s="628"/>
+      <c r="FT75" s="629" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:176" s="110" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="635"/>
-      <c r="B76" s="636"/>
+    <row r="76" spans="1:176" s="110" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="626"/>
+      <c r="B76" s="627"/>
       <c r="C76" s="207" t="s">
         <v>22</v>
       </c>
@@ -32444,7 +32468,7 @@
       <c r="FS76" s="514" t="s">
         <v>24</v>
       </c>
-      <c r="FT76" s="631"/>
+      <c r="FT76" s="629"/>
     </row>
     <row r="77" spans="1:176" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="512" t="s">
@@ -32453,21 +32477,21 @@
       <c r="B77" s="510" t="s">
         <v>1025</v>
       </c>
-      <c r="C77" s="625" t="s">
+      <c r="C77" s="618" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="626"/>
-      <c r="E77" s="626"/>
-      <c r="F77" s="626"/>
-      <c r="G77" s="626"/>
-      <c r="H77" s="626"/>
-      <c r="I77" s="626"/>
-      <c r="J77" s="626"/>
-      <c r="K77" s="626"/>
-      <c r="L77" s="626"/>
-      <c r="M77" s="626"/>
-      <c r="N77" s="626"/>
-      <c r="O77" s="627"/>
+      <c r="D77" s="619"/>
+      <c r="E77" s="619"/>
+      <c r="F77" s="619"/>
+      <c r="G77" s="619"/>
+      <c r="H77" s="619"/>
+      <c r="I77" s="619"/>
+      <c r="J77" s="619"/>
+      <c r="K77" s="619"/>
+      <c r="L77" s="619"/>
+      <c r="M77" s="619"/>
+      <c r="N77" s="619"/>
+      <c r="O77" s="620"/>
       <c r="P77" s="511"/>
       <c r="Q77" s="511"/>
       <c r="R77" s="511"/>
@@ -32513,134 +32537,134 @@
       <c r="BF77" s="511"/>
       <c r="BG77" s="511"/>
       <c r="BH77" s="20"/>
-      <c r="BI77" s="631"/>
-      <c r="BJ77" s="631"/>
-      <c r="BK77" s="631"/>
+      <c r="BI77" s="629"/>
+      <c r="BJ77" s="629"/>
+      <c r="BK77" s="629"/>
       <c r="BL77" s="20"/>
-      <c r="BM77" s="628" t="s">
+      <c r="BM77" s="612" t="s">
         <v>463</v>
       </c>
-      <c r="BN77" s="629"/>
-      <c r="BO77" s="629"/>
-      <c r="BP77" s="629"/>
-      <c r="BQ77" s="629"/>
-      <c r="BR77" s="630"/>
+      <c r="BN77" s="613"/>
+      <c r="BO77" s="613"/>
+      <c r="BP77" s="613"/>
+      <c r="BQ77" s="613"/>
+      <c r="BR77" s="614"/>
       <c r="BS77" s="20"/>
-      <c r="BT77" s="625" t="s">
+      <c r="BT77" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="BU77" s="626"/>
-      <c r="BV77" s="626"/>
-      <c r="BW77" s="626"/>
-      <c r="BX77" s="626"/>
-      <c r="BY77" s="626"/>
-      <c r="BZ77" s="626"/>
-      <c r="CA77" s="626"/>
-      <c r="CB77" s="626"/>
-      <c r="CC77" s="626"/>
-      <c r="CD77" s="626"/>
-      <c r="CE77" s="626"/>
-      <c r="CF77" s="626"/>
-      <c r="CG77" s="626"/>
-      <c r="CH77" s="626"/>
-      <c r="CI77" s="626"/>
-      <c r="CJ77" s="626"/>
-      <c r="CK77" s="626"/>
-      <c r="CL77" s="626"/>
-      <c r="CM77" s="626"/>
-      <c r="CN77" s="626"/>
-      <c r="CO77" s="626"/>
-      <c r="CP77" s="626"/>
-      <c r="CQ77" s="626"/>
-      <c r="CR77" s="626"/>
-      <c r="CS77" s="626"/>
-      <c r="CT77" s="626"/>
-      <c r="CU77" s="626"/>
-      <c r="CV77" s="626"/>
-      <c r="CW77" s="626"/>
-      <c r="CX77" s="626"/>
-      <c r="CY77" s="626"/>
-      <c r="CZ77" s="626"/>
-      <c r="DA77" s="626"/>
-      <c r="DB77" s="626"/>
-      <c r="DC77" s="626"/>
-      <c r="DD77" s="626"/>
-      <c r="DE77" s="626"/>
-      <c r="DF77" s="626"/>
-      <c r="DG77" s="626"/>
-      <c r="DH77" s="626"/>
-      <c r="DI77" s="626"/>
-      <c r="DJ77" s="626"/>
-      <c r="DK77" s="627"/>
+      <c r="BU77" s="619"/>
+      <c r="BV77" s="619"/>
+      <c r="BW77" s="619"/>
+      <c r="BX77" s="619"/>
+      <c r="BY77" s="619"/>
+      <c r="BZ77" s="619"/>
+      <c r="CA77" s="619"/>
+      <c r="CB77" s="619"/>
+      <c r="CC77" s="619"/>
+      <c r="CD77" s="619"/>
+      <c r="CE77" s="619"/>
+      <c r="CF77" s="619"/>
+      <c r="CG77" s="619"/>
+      <c r="CH77" s="619"/>
+      <c r="CI77" s="619"/>
+      <c r="CJ77" s="619"/>
+      <c r="CK77" s="619"/>
+      <c r="CL77" s="619"/>
+      <c r="CM77" s="619"/>
+      <c r="CN77" s="619"/>
+      <c r="CO77" s="619"/>
+      <c r="CP77" s="619"/>
+      <c r="CQ77" s="619"/>
+      <c r="CR77" s="619"/>
+      <c r="CS77" s="619"/>
+      <c r="CT77" s="619"/>
+      <c r="CU77" s="619"/>
+      <c r="CV77" s="619"/>
+      <c r="CW77" s="619"/>
+      <c r="CX77" s="619"/>
+      <c r="CY77" s="619"/>
+      <c r="CZ77" s="619"/>
+      <c r="DA77" s="619"/>
+      <c r="DB77" s="619"/>
+      <c r="DC77" s="619"/>
+      <c r="DD77" s="619"/>
+      <c r="DE77" s="619"/>
+      <c r="DF77" s="619"/>
+      <c r="DG77" s="619"/>
+      <c r="DH77" s="619"/>
+      <c r="DI77" s="619"/>
+      <c r="DJ77" s="619"/>
+      <c r="DK77" s="620"/>
       <c r="DL77" s="466"/>
-      <c r="DM77" s="625" t="s">
+      <c r="DM77" s="618" t="s">
         <v>56</v>
       </c>
-      <c r="DN77" s="626"/>
-      <c r="DO77" s="626"/>
-      <c r="DP77" s="626"/>
-      <c r="DQ77" s="626"/>
-      <c r="DR77" s="626"/>
-      <c r="DS77" s="626"/>
-      <c r="DT77" s="626"/>
-      <c r="DU77" s="626"/>
-      <c r="DV77" s="627"/>
+      <c r="DN77" s="619"/>
+      <c r="DO77" s="619"/>
+      <c r="DP77" s="619"/>
+      <c r="DQ77" s="619"/>
+      <c r="DR77" s="619"/>
+      <c r="DS77" s="619"/>
+      <c r="DT77" s="619"/>
+      <c r="DU77" s="619"/>
+      <c r="DV77" s="620"/>
       <c r="DW77" s="20"/>
-      <c r="DX77" s="628" t="s">
+      <c r="DX77" s="612" t="s">
         <v>14</v>
       </c>
-      <c r="DY77" s="629"/>
-      <c r="DZ77" s="629"/>
-      <c r="EA77" s="629"/>
-      <c r="EB77" s="629"/>
-      <c r="EC77" s="629"/>
-      <c r="ED77" s="629"/>
-      <c r="EE77" s="629"/>
-      <c r="EF77" s="629"/>
-      <c r="EG77" s="629"/>
-      <c r="EH77" s="629"/>
-      <c r="EI77" s="629"/>
-      <c r="EJ77" s="630"/>
+      <c r="DY77" s="613"/>
+      <c r="DZ77" s="613"/>
+      <c r="EA77" s="613"/>
+      <c r="EB77" s="613"/>
+      <c r="EC77" s="613"/>
+      <c r="ED77" s="613"/>
+      <c r="EE77" s="613"/>
+      <c r="EF77" s="613"/>
+      <c r="EG77" s="613"/>
+      <c r="EH77" s="613"/>
+      <c r="EI77" s="613"/>
+      <c r="EJ77" s="614"/>
       <c r="EK77" s="20"/>
-      <c r="EL77" s="625" t="s">
+      <c r="EL77" s="618" t="s">
         <v>20</v>
       </c>
-      <c r="EM77" s="626"/>
-      <c r="EN77" s="626"/>
-      <c r="EO77" s="626"/>
-      <c r="EP77" s="626"/>
-      <c r="EQ77" s="626"/>
-      <c r="ER77" s="626"/>
-      <c r="ES77" s="626"/>
-      <c r="ET77" s="626"/>
-      <c r="EU77" s="626"/>
-      <c r="EV77" s="626"/>
-      <c r="EW77" s="626"/>
-      <c r="EX77" s="626"/>
-      <c r="EY77" s="626"/>
-      <c r="EZ77" s="626"/>
-      <c r="FA77" s="626"/>
-      <c r="FB77" s="626"/>
-      <c r="FC77" s="626"/>
-      <c r="FD77" s="626"/>
-      <c r="FE77" s="626"/>
-      <c r="FF77" s="626"/>
-      <c r="FG77" s="626"/>
-      <c r="FH77" s="626"/>
-      <c r="FI77" s="626"/>
-      <c r="FJ77" s="626"/>
-      <c r="FK77" s="626"/>
-      <c r="FL77" s="627"/>
+      <c r="EM77" s="619"/>
+      <c r="EN77" s="619"/>
+      <c r="EO77" s="619"/>
+      <c r="EP77" s="619"/>
+      <c r="EQ77" s="619"/>
+      <c r="ER77" s="619"/>
+      <c r="ES77" s="619"/>
+      <c r="ET77" s="619"/>
+      <c r="EU77" s="619"/>
+      <c r="EV77" s="619"/>
+      <c r="EW77" s="619"/>
+      <c r="EX77" s="619"/>
+      <c r="EY77" s="619"/>
+      <c r="EZ77" s="619"/>
+      <c r="FA77" s="619"/>
+      <c r="FB77" s="619"/>
+      <c r="FC77" s="619"/>
+      <c r="FD77" s="619"/>
+      <c r="FE77" s="619"/>
+      <c r="FF77" s="619"/>
+      <c r="FG77" s="619"/>
+      <c r="FH77" s="619"/>
+      <c r="FI77" s="619"/>
+      <c r="FJ77" s="619"/>
+      <c r="FK77" s="619"/>
+      <c r="FL77" s="620"/>
       <c r="FM77" s="20"/>
-      <c r="FN77" s="632" t="s">
+      <c r="FN77" s="630" t="s">
         <v>21</v>
       </c>
-      <c r="FO77" s="632"/>
-      <c r="FP77" s="632"/>
-      <c r="FQ77" s="632"/>
-      <c r="FR77" s="632"/>
-      <c r="FS77" s="632"/>
-      <c r="FT77" s="631"/>
+      <c r="FO77" s="630"/>
+      <c r="FP77" s="630"/>
+      <c r="FQ77" s="630"/>
+      <c r="FR77" s="630"/>
+      <c r="FS77" s="630"/>
+      <c r="FT77" s="629"/>
     </row>
     <row r="78" spans="1:176" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="115">
@@ -33508,13 +33532,13 @@
       <c r="BU82" s="6"/>
       <c r="BV82" s="114"/>
       <c r="BW82" s="5"/>
-      <c r="BX82" s="615" t="s">
+      <c r="BX82" s="631" t="s">
         <v>104</v>
       </c>
-      <c r="BY82" s="616"/>
-      <c r="BZ82" s="616"/>
-      <c r="CA82" s="616"/>
-      <c r="CB82" s="617"/>
+      <c r="BY82" s="632"/>
+      <c r="BZ82" s="632"/>
+      <c r="CA82" s="632"/>
+      <c r="CB82" s="633"/>
       <c r="CC82" s="116" t="s">
         <v>38</v>
       </c>
@@ -34136,56 +34160,38 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="DX77:EJ77"/>
-    <mergeCell ref="EL77:FL77"/>
-    <mergeCell ref="FN77:FS77"/>
-    <mergeCell ref="BX82:CB82"/>
-    <mergeCell ref="C77:O77"/>
-    <mergeCell ref="BI77:BK77"/>
-    <mergeCell ref="BM77:BR77"/>
-    <mergeCell ref="BT77:DK77"/>
-    <mergeCell ref="DM77:DV77"/>
-    <mergeCell ref="FG75:FI75"/>
-    <mergeCell ref="FJ75:FL75"/>
-    <mergeCell ref="FN75:FP75"/>
-    <mergeCell ref="FQ75:FS75"/>
-    <mergeCell ref="FT75:FT77"/>
-    <mergeCell ref="EF75:EJ75"/>
-    <mergeCell ref="EO75:EQ75"/>
-    <mergeCell ref="ER75:EV75"/>
-    <mergeCell ref="EW75:FA75"/>
-    <mergeCell ref="FB75:FF75"/>
-    <mergeCell ref="DG75:DK75"/>
-    <mergeCell ref="DM75:DQ75"/>
-    <mergeCell ref="DR75:DV75"/>
-    <mergeCell ref="DX75:EB75"/>
-    <mergeCell ref="EC75:EE75"/>
-    <mergeCell ref="CH75:CL75"/>
-    <mergeCell ref="CM75:CQ75"/>
-    <mergeCell ref="CR75:CV75"/>
-    <mergeCell ref="CW75:DA75"/>
-    <mergeCell ref="DB75:DF75"/>
-    <mergeCell ref="BM75:BO75"/>
-    <mergeCell ref="BP75:BR75"/>
-    <mergeCell ref="BT75:BW75"/>
-    <mergeCell ref="BX75:CB75"/>
-    <mergeCell ref="CC75:CG75"/>
-    <mergeCell ref="AN75:AR75"/>
-    <mergeCell ref="AS75:AW75"/>
-    <mergeCell ref="AX75:BB75"/>
-    <mergeCell ref="BC75:BG75"/>
-    <mergeCell ref="BI75:BK75"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="Y75:AC75"/>
-    <mergeCell ref="AD75:AH75"/>
-    <mergeCell ref="AI75:AM75"/>
-    <mergeCell ref="A74:Q74"/>
-    <mergeCell ref="A75:B76"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="A65:DP65"/>
+    <mergeCell ref="A57:DP57"/>
+    <mergeCell ref="A46:DP46"/>
+    <mergeCell ref="A40:DP40"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="BM1:BQ1"/>
+    <mergeCell ref="DP1:DP3"/>
+    <mergeCell ref="DJ3:DO3"/>
+    <mergeCell ref="CX1:CZ1"/>
+    <mergeCell ref="DA1:DC1"/>
+    <mergeCell ref="DJ1:DL1"/>
+    <mergeCell ref="DM1:DO1"/>
+    <mergeCell ref="BX3:CJ3"/>
+    <mergeCell ref="CN3:DF3"/>
+    <mergeCell ref="BX1:CB1"/>
+    <mergeCell ref="CS1:CW1"/>
+    <mergeCell ref="A24:DP24"/>
+    <mergeCell ref="AV36:AZ36"/>
+    <mergeCell ref="AV37:AZ37"/>
+    <mergeCell ref="CH1:CL1"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="AS3:BC3"/>
+    <mergeCell ref="BG3:BO3"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="BG1:BK1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="DD1:DH1"/>
     <mergeCell ref="A32:DP32"/>
     <mergeCell ref="A60:DP60"/>
@@ -34202,38 +34208,56 @@
     <mergeCell ref="BA36:BE36"/>
     <mergeCell ref="BA37:BE37"/>
     <mergeCell ref="BA38:BE38"/>
-    <mergeCell ref="A24:DP24"/>
-    <mergeCell ref="AV36:AZ36"/>
-    <mergeCell ref="AV37:AZ37"/>
-    <mergeCell ref="CH1:CL1"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="AS3:BC3"/>
-    <mergeCell ref="BG3:BO3"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="BG1:BK1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A65:DP65"/>
-    <mergeCell ref="A57:DP57"/>
-    <mergeCell ref="A46:DP46"/>
-    <mergeCell ref="A40:DP40"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="BM1:BQ1"/>
-    <mergeCell ref="DP1:DP3"/>
-    <mergeCell ref="DJ3:DO3"/>
-    <mergeCell ref="CX1:CZ1"/>
-    <mergeCell ref="DA1:DC1"/>
-    <mergeCell ref="DJ1:DL1"/>
-    <mergeCell ref="DM1:DO1"/>
-    <mergeCell ref="BX3:CJ3"/>
-    <mergeCell ref="CN3:DF3"/>
-    <mergeCell ref="BX1:CB1"/>
-    <mergeCell ref="CS1:CW1"/>
+    <mergeCell ref="A74:Q74"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="Y75:AC75"/>
+    <mergeCell ref="AD75:AH75"/>
+    <mergeCell ref="AI75:AM75"/>
+    <mergeCell ref="AN75:AR75"/>
+    <mergeCell ref="AS75:AW75"/>
+    <mergeCell ref="AX75:BB75"/>
+    <mergeCell ref="BC75:BG75"/>
+    <mergeCell ref="BI75:BK75"/>
+    <mergeCell ref="BM75:BO75"/>
+    <mergeCell ref="BP75:BR75"/>
+    <mergeCell ref="BT75:BW75"/>
+    <mergeCell ref="BX75:CB75"/>
+    <mergeCell ref="CC75:CG75"/>
+    <mergeCell ref="CH75:CL75"/>
+    <mergeCell ref="CM75:CQ75"/>
+    <mergeCell ref="CR75:CV75"/>
+    <mergeCell ref="CW75:DA75"/>
+    <mergeCell ref="DB75:DF75"/>
+    <mergeCell ref="DG75:DK75"/>
+    <mergeCell ref="DM75:DQ75"/>
+    <mergeCell ref="DR75:DV75"/>
+    <mergeCell ref="DX75:EB75"/>
+    <mergeCell ref="EC75:EE75"/>
+    <mergeCell ref="EF75:EJ75"/>
+    <mergeCell ref="EO75:EQ75"/>
+    <mergeCell ref="ER75:EV75"/>
+    <mergeCell ref="EW75:FA75"/>
+    <mergeCell ref="FB75:FF75"/>
+    <mergeCell ref="FG75:FI75"/>
+    <mergeCell ref="FJ75:FL75"/>
+    <mergeCell ref="FN75:FP75"/>
+    <mergeCell ref="FQ75:FS75"/>
+    <mergeCell ref="FT75:FT77"/>
+    <mergeCell ref="DX77:EJ77"/>
+    <mergeCell ref="EL77:FL77"/>
+    <mergeCell ref="FN77:FS77"/>
+    <mergeCell ref="BX82:CB82"/>
+    <mergeCell ref="C77:O77"/>
+    <mergeCell ref="BI77:BK77"/>
+    <mergeCell ref="BM77:BR77"/>
+    <mergeCell ref="BT77:DK77"/>
+    <mergeCell ref="DM77:DV77"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DJ41:DJ42 DA41:DA42 CC41:CC42 H33:H39 DM41:DM42 C41:C42 CS41:CS43 CN41:CN42 AH41:AH42 AV33:AV35 AM41:AM42 AV41:AV42 AS41:AS42 AB41:AB42 M41:M42 DD41:DD42 R41:R42 BM41:BM42 BG25:BG31 CX41:CX42 CH41:CH42 BG33:BG39 BM4:BM23 R4:R23 DD4:DD23 AV4:AV23 AB4:AB23 AS4:AS23 AM4:AM23 BA4:BA23 AH4:AH23 BX4:BX23 CN4:CN23 CS4:CS23 CH4:CH23 DM4:DM23 H47:H49 CC4:CC23 DA4:DA23 DJ4:DJ23 M4:M23 C4:C23 CX4:CX23 CX25:CX31 BG54 BM25:BM31 R25:R31 DD25:DD31 AV25:AV31 AB25:AB31 AS25:AS31 AM25:AM31 BA25:BA31 AH25:AH31 BX25:BX31 CN25:CN31 CS25:CS31 CH25:CH31 DM25:DM31 H51 CC25:CC31 DA25:DA31 DJ25:DJ31 M25:M31 C25:C31 BA41:BA42 BA33:BA35 CH33:CH39 CX33:CX39 BG47:BG49 BM33:BM39 R33:R39 DD33:DD39 M33:M39 AB33:AB39 AS33:AS39 AM33:AM39 AH33:AH39 CN33:CN39 CS33:CS39 BX33:BX39 DM33:DM39 W58:W59 CC33:CC39 DA33:DA39 DJ33:DJ39 C33:C39 BX41:BX42 BS41:BS42 BS4:BS23 BS25:BS31 BS33:BS39 BS44 BX53:BX54 BX45 AN47:AN49 AI47:AI49 CS58 U47:U49 C47:C49 R47:R49 CK47:CK49 BM54 BA58:BA59 BM47:BM49 M47:M49 BD47:BD49 DH47:DH49 DX47:DX49 EE47:EE49 CV47:CV48 DB47:DB49 EB47:EB49 CF47:CF49 AX47:AX49 CH49 DU47:DU49 DK47:DK49 AD47:AD49 CY47:CY49 AS47:AS49 CS47:CS49 BX47:BX48 H41:H42 H4:H23 H25:H31 BG41:BG42 BG4:BG23 W4:W20 BG56 BG59 W56 BA56 CA47 CA49 CN61 CN72 CN70 BG72 BA72 BX73 W72 CM78 CR78 CM82:CM84 CH82:CH84 CC82:CC84 CR82:CR84 EO82:EO84 EC82:EC84 ER82:ER84 FG82:FG84 EW82:EW84 BC82:BC84 DG82:DG84 FN82:FN84 EF82:EF84 DX82:DX84 FQ82:FQ84 FJ82:FJ84 EL82:EL84 BI82:BI84 H82:H84 BT82:BT84 CW82:CW84 BM82:BM84 DM82:DM84 M82:M84 C82:C84 Y82:Y84 AD82:AD84 AN82:AN84 AS82:AS84 AI82:AI84 AX82:AX84 DB82:DB84 BP82:BP84 DR82:DR84 FB82:FB84 BX83:BX84">
@@ -34260,11 +34284,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B130" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B144" sqref="B144"/>
+      <selection pane="bottomRight" activeCell="P146" sqref="P146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -37481,25 +37505,25 @@
       </c>
     </row>
     <row r="67" spans="1:17" s="175" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="647" t="s">
+      <c r="A67" s="637" t="s">
         <v>589</v>
       </c>
-      <c r="B67" s="648"/>
-      <c r="C67" s="648"/>
-      <c r="D67" s="648"/>
-      <c r="E67" s="648"/>
-      <c r="F67" s="648"/>
-      <c r="G67" s="648"/>
-      <c r="H67" s="648"/>
-      <c r="I67" s="648"/>
-      <c r="J67" s="648"/>
-      <c r="K67" s="648"/>
-      <c r="L67" s="648"/>
-      <c r="M67" s="648"/>
-      <c r="N67" s="648"/>
-      <c r="O67" s="648"/>
-      <c r="P67" s="648"/>
-      <c r="Q67" s="649"/>
+      <c r="B67" s="638"/>
+      <c r="C67" s="638"/>
+      <c r="D67" s="638"/>
+      <c r="E67" s="638"/>
+      <c r="F67" s="638"/>
+      <c r="G67" s="638"/>
+      <c r="H67" s="638"/>
+      <c r="I67" s="638"/>
+      <c r="J67" s="638"/>
+      <c r="K67" s="638"/>
+      <c r="L67" s="638"/>
+      <c r="M67" s="638"/>
+      <c r="N67" s="638"/>
+      <c r="O67" s="638"/>
+      <c r="P67" s="638"/>
+      <c r="Q67" s="639"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="35" t="s">
@@ -37633,25 +37657,25 @@
       <c r="Q70" s="109"/>
     </row>
     <row r="71" spans="1:17" s="175" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="647" t="s">
+      <c r="A71" s="637" t="s">
         <v>635</v>
       </c>
-      <c r="B71" s="648"/>
-      <c r="C71" s="648"/>
-      <c r="D71" s="648"/>
-      <c r="E71" s="648"/>
-      <c r="F71" s="648"/>
-      <c r="G71" s="648"/>
-      <c r="H71" s="648"/>
-      <c r="I71" s="648"/>
-      <c r="J71" s="648"/>
-      <c r="K71" s="648"/>
-      <c r="L71" s="648"/>
-      <c r="M71" s="648"/>
-      <c r="N71" s="648"/>
-      <c r="O71" s="648"/>
-      <c r="P71" s="648"/>
-      <c r="Q71" s="649"/>
+      <c r="B71" s="638"/>
+      <c r="C71" s="638"/>
+      <c r="D71" s="638"/>
+      <c r="E71" s="638"/>
+      <c r="F71" s="638"/>
+      <c r="G71" s="638"/>
+      <c r="H71" s="638"/>
+      <c r="I71" s="638"/>
+      <c r="J71" s="638"/>
+      <c r="K71" s="638"/>
+      <c r="L71" s="638"/>
+      <c r="M71" s="638"/>
+      <c r="N71" s="638"/>
+      <c r="O71" s="638"/>
+      <c r="P71" s="638"/>
+      <c r="Q71" s="639"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="330" t="s">
@@ -39154,25 +39178,25 @@
       </c>
     </row>
     <row r="106" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="647" t="s">
+      <c r="A106" s="637" t="s">
         <v>872</v>
       </c>
-      <c r="B106" s="648"/>
-      <c r="C106" s="648"/>
-      <c r="D106" s="648"/>
-      <c r="E106" s="648"/>
-      <c r="F106" s="648"/>
-      <c r="G106" s="648"/>
-      <c r="H106" s="648"/>
-      <c r="I106" s="648"/>
-      <c r="J106" s="648"/>
-      <c r="K106" s="648"/>
-      <c r="L106" s="648"/>
-      <c r="M106" s="648"/>
-      <c r="N106" s="648"/>
-      <c r="O106" s="648"/>
-      <c r="P106" s="648"/>
-      <c r="Q106" s="649"/>
+      <c r="B106" s="638"/>
+      <c r="C106" s="638"/>
+      <c r="D106" s="638"/>
+      <c r="E106" s="638"/>
+      <c r="F106" s="638"/>
+      <c r="G106" s="638"/>
+      <c r="H106" s="638"/>
+      <c r="I106" s="638"/>
+      <c r="J106" s="638"/>
+      <c r="K106" s="638"/>
+      <c r="L106" s="638"/>
+      <c r="M106" s="638"/>
+      <c r="N106" s="638"/>
+      <c r="O106" s="638"/>
+      <c r="P106" s="638"/>
+      <c r="Q106" s="639"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="422" t="s">
@@ -39696,25 +39720,25 @@
       </c>
     </row>
     <row r="118" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="647" t="s">
+      <c r="A118" s="637" t="s">
         <v>967</v>
       </c>
-      <c r="B118" s="648"/>
-      <c r="C118" s="648"/>
-      <c r="D118" s="648"/>
-      <c r="E118" s="648"/>
-      <c r="F118" s="648"/>
-      <c r="G118" s="648"/>
-      <c r="H118" s="648"/>
-      <c r="I118" s="648"/>
-      <c r="J118" s="648"/>
-      <c r="K118" s="648"/>
-      <c r="L118" s="648"/>
-      <c r="M118" s="648"/>
-      <c r="N118" s="648"/>
-      <c r="O118" s="648"/>
-      <c r="P118" s="648"/>
-      <c r="Q118" s="649"/>
+      <c r="B118" s="638"/>
+      <c r="C118" s="638"/>
+      <c r="D118" s="638"/>
+      <c r="E118" s="638"/>
+      <c r="F118" s="638"/>
+      <c r="G118" s="638"/>
+      <c r="H118" s="638"/>
+      <c r="I118" s="638"/>
+      <c r="J118" s="638"/>
+      <c r="K118" s="638"/>
+      <c r="L118" s="638"/>
+      <c r="M118" s="638"/>
+      <c r="N118" s="638"/>
+      <c r="O118" s="638"/>
+      <c r="P118" s="638"/>
+      <c r="Q118" s="639"/>
     </row>
     <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="393" t="s">
@@ -39977,25 +40001,25 @@
       </c>
     </row>
     <row r="125" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="647" t="s">
+      <c r="A125" s="637" t="s">
         <v>1033</v>
       </c>
-      <c r="B125" s="648"/>
-      <c r="C125" s="648"/>
-      <c r="D125" s="648"/>
-      <c r="E125" s="648"/>
-      <c r="F125" s="648"/>
-      <c r="G125" s="648"/>
-      <c r="H125" s="648"/>
-      <c r="I125" s="648"/>
-      <c r="J125" s="648"/>
-      <c r="K125" s="648"/>
-      <c r="L125" s="648"/>
-      <c r="M125" s="648"/>
-      <c r="N125" s="648"/>
-      <c r="O125" s="648"/>
-      <c r="P125" s="648"/>
-      <c r="Q125" s="649"/>
+      <c r="B125" s="638"/>
+      <c r="C125" s="638"/>
+      <c r="D125" s="638"/>
+      <c r="E125" s="638"/>
+      <c r="F125" s="638"/>
+      <c r="G125" s="638"/>
+      <c r="H125" s="638"/>
+      <c r="I125" s="638"/>
+      <c r="J125" s="638"/>
+      <c r="K125" s="638"/>
+      <c r="L125" s="638"/>
+      <c r="M125" s="638"/>
+      <c r="N125" s="638"/>
+      <c r="O125" s="638"/>
+      <c r="P125" s="638"/>
+      <c r="Q125" s="639"/>
     </row>
     <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="493" t="s">
@@ -40329,25 +40353,25 @@
       <c r="Q136" s="109"/>
     </row>
     <row r="137" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="647" t="s">
+      <c r="A137" s="637" t="s">
         <v>1068</v>
       </c>
-      <c r="B137" s="648"/>
-      <c r="C137" s="648"/>
-      <c r="D137" s="648"/>
-      <c r="E137" s="648"/>
-      <c r="F137" s="648"/>
-      <c r="G137" s="648"/>
-      <c r="H137" s="648"/>
-      <c r="I137" s="648"/>
-      <c r="J137" s="648"/>
-      <c r="K137" s="648"/>
-      <c r="L137" s="648"/>
-      <c r="M137" s="648"/>
-      <c r="N137" s="648"/>
-      <c r="O137" s="648"/>
-      <c r="P137" s="648"/>
-      <c r="Q137" s="649"/>
+      <c r="B137" s="638"/>
+      <c r="C137" s="638"/>
+      <c r="D137" s="638"/>
+      <c r="E137" s="638"/>
+      <c r="F137" s="638"/>
+      <c r="G137" s="638"/>
+      <c r="H137" s="638"/>
+      <c r="I137" s="638"/>
+      <c r="J137" s="638"/>
+      <c r="K137" s="638"/>
+      <c r="L137" s="638"/>
+      <c r="M137" s="638"/>
+      <c r="N137" s="638"/>
+      <c r="O137" s="638"/>
+      <c r="P137" s="638"/>
+      <c r="Q137" s="639"/>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="103" t="s">
@@ -40621,45 +40645,93 @@
       <c r="Q144" s="109"/>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A145" s="103"/>
-      <c r="B145" s="104"/>
-      <c r="C145" s="105"/>
-      <c r="D145" s="106"/>
-      <c r="E145" s="105"/>
-      <c r="F145" s="98"/>
-      <c r="G145" s="100"/>
-      <c r="H145" s="98"/>
+      <c r="A145" s="422" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B145" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="C145" s="105" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D145" s="106" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E145" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="F145" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="G145" s="100" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H145" s="98" t="s">
+        <v>149</v>
+      </c>
       <c r="I145" s="101"/>
-      <c r="J145" s="104"/>
+      <c r="J145" s="104" t="s">
+        <v>86</v>
+      </c>
       <c r="K145" s="106"/>
       <c r="L145" s="107"/>
       <c r="M145" s="99"/>
-      <c r="N145" s="108"/>
-      <c r="O145" s="102"/>
-      <c r="P145" s="106"/>
+      <c r="N145" s="108" t="s">
+        <v>1097</v>
+      </c>
+      <c r="O145" s="102" t="s">
+        <v>1053</v>
+      </c>
+      <c r="P145" s="106" t="s">
+        <v>1121</v>
+      </c>
       <c r="Q145" s="109"/>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A146" s="103"/>
-      <c r="B146" s="104"/>
-      <c r="C146" s="105"/>
-      <c r="D146" s="106"/>
-      <c r="E146" s="105"/>
-      <c r="F146" s="98"/>
+      <c r="A146" s="422" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B146" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="C146" s="105" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D146" s="106" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E146" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="F146" s="98" t="s">
+        <v>87</v>
+      </c>
       <c r="G146" s="100"/>
-      <c r="H146" s="98"/>
+      <c r="H146" s="98" t="s">
+        <v>105</v>
+      </c>
       <c r="I146" s="101"/>
-      <c r="J146" s="104"/>
+      <c r="J146" s="104" t="s">
+        <v>86</v>
+      </c>
       <c r="K146" s="106"/>
       <c r="L146" s="107"/>
-      <c r="M146" s="99"/>
+      <c r="M146" s="99" t="s">
+        <v>15</v>
+      </c>
       <c r="N146" s="108"/>
-      <c r="O146" s="102"/>
-      <c r="P146" s="106"/>
+      <c r="O146" s="102" t="s">
+        <v>319</v>
+      </c>
+      <c r="P146" s="106" t="s">
+        <v>682</v>
+      </c>
       <c r="Q146" s="109"/>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A147" s="103"/>
+      <c r="A147" s="422" t="s">
+        <v>1118</v>
+      </c>
       <c r="B147" s="104"/>
       <c r="C147" s="105"/>
       <c r="D147" s="106"/>
@@ -41649,58 +41721,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="658" t="s">
+      <c r="A1" s="665" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="659" t="s">
+      <c r="B1" s="666" t="s">
         <v>363</v>
       </c>
-      <c r="C1" s="659"/>
-      <c r="D1" s="659"/>
-      <c r="E1" s="659"/>
-      <c r="F1" s="659"/>
-      <c r="G1" s="660"/>
-      <c r="H1" s="661" t="s">
+      <c r="C1" s="666"/>
+      <c r="D1" s="666"/>
+      <c r="E1" s="666"/>
+      <c r="F1" s="666"/>
+      <c r="G1" s="667"/>
+      <c r="H1" s="668" t="s">
         <v>353</v>
       </c>
-      <c r="I1" s="662"/>
-      <c r="J1" s="662"/>
-      <c r="K1" s="662"/>
-      <c r="L1" s="662"/>
-      <c r="M1" s="662"/>
-      <c r="N1" s="663"/>
-      <c r="O1" s="658" t="s">
+      <c r="I1" s="660"/>
+      <c r="J1" s="660"/>
+      <c r="K1" s="660"/>
+      <c r="L1" s="660"/>
+      <c r="M1" s="660"/>
+      <c r="N1" s="661"/>
+      <c r="O1" s="665" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="662" t="s">
+      <c r="P1" s="660" t="s">
         <v>759</v>
       </c>
-      <c r="Q1" s="662"/>
-      <c r="R1" s="662"/>
-      <c r="S1" s="662"/>
-      <c r="T1" s="662"/>
-      <c r="U1" s="662"/>
-      <c r="V1" s="662"/>
-      <c r="W1" s="662"/>
-      <c r="X1" s="663"/>
-      <c r="Y1" s="662" t="s">
+      <c r="Q1" s="660"/>
+      <c r="R1" s="660"/>
+      <c r="S1" s="660"/>
+      <c r="T1" s="660"/>
+      <c r="U1" s="660"/>
+      <c r="V1" s="660"/>
+      <c r="W1" s="660"/>
+      <c r="X1" s="661"/>
+      <c r="Y1" s="660" t="s">
         <v>531</v>
       </c>
-      <c r="Z1" s="662"/>
-      <c r="AA1" s="662"/>
-      <c r="AB1" s="662"/>
+      <c r="Z1" s="660"/>
+      <c r="AA1" s="660"/>
+      <c r="AB1" s="660"/>
       <c r="AC1" s="472"/>
-      <c r="AD1" s="667" t="s">
+      <c r="AD1" s="658" t="s">
         <v>975</v>
       </c>
-      <c r="AE1" s="668"/>
-      <c r="AF1" s="668"/>
-      <c r="AG1" s="668"/>
-      <c r="AH1" s="668"/>
-      <c r="AI1" s="668"/>
+      <c r="AE1" s="659"/>
+      <c r="AF1" s="659"/>
+      <c r="AG1" s="659"/>
+      <c r="AH1" s="659"/>
+      <c r="AI1" s="659"/>
     </row>
     <row r="2" spans="1:35" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="658"/>
+      <c r="A2" s="665"/>
       <c r="B2" s="141" t="s">
         <v>359</v>
       </c>
@@ -41745,7 +41817,7 @@
         <f>COUNTIF(N5:N195,"A")</f>
         <v>6</v>
       </c>
-      <c r="O2" s="658"/>
+      <c r="O2" s="665"/>
       <c r="P2" s="262" t="s">
         <v>359</v>
       </c>
@@ -41816,7 +41888,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" s="110" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="658"/>
+      <c r="A3" s="665"/>
       <c r="B3" s="141" t="s">
         <v>360</v>
       </c>
@@ -41852,7 +41924,7 @@
       <c r="N3" s="150" t="s">
         <v>383</v>
       </c>
-      <c r="O3" s="658"/>
+      <c r="O3" s="665"/>
       <c r="P3" s="262" t="s">
         <v>360</v>
       </c>
@@ -41913,7 +41985,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="658"/>
+      <c r="A4" s="665"/>
       <c r="B4" s="131" t="s">
         <v>349</v>
       </c>
@@ -41953,7 +42025,7 @@
       <c r="N4" s="138">
         <v>42621</v>
       </c>
-      <c r="O4" s="658"/>
+      <c r="O4" s="665"/>
       <c r="P4" s="131" t="s">
         <v>349</v>
       </c>
@@ -42019,12 +42091,12 @@
       <c r="C5" s="159">
         <v>0</v>
       </c>
-      <c r="D5" s="664" t="s">
+      <c r="D5" s="662" t="s">
         <v>537</v>
       </c>
-      <c r="E5" s="665"/>
-      <c r="F5" s="665"/>
-      <c r="G5" s="666"/>
+      <c r="E5" s="663"/>
+      <c r="F5" s="663"/>
+      <c r="G5" s="664"/>
       <c r="H5" s="151" t="s">
         <v>350</v>
       </c>
@@ -42398,12 +42470,12 @@
       <c r="C9" s="159">
         <v>0</v>
       </c>
-      <c r="D9" s="664" t="s">
+      <c r="D9" s="662" t="s">
         <v>529</v>
       </c>
-      <c r="E9" s="665"/>
-      <c r="F9" s="665"/>
-      <c r="G9" s="666"/>
+      <c r="E9" s="663"/>
+      <c r="F9" s="663"/>
+      <c r="G9" s="664"/>
       <c r="H9" s="152" t="s">
         <v>277</v>
       </c>
@@ -42562,12 +42634,12 @@
       <c r="C11" s="159">
         <v>0</v>
       </c>
-      <c r="D11" s="664" t="s">
+      <c r="D11" s="662" t="s">
         <v>523</v>
       </c>
-      <c r="E11" s="665"/>
-      <c r="F11" s="665"/>
-      <c r="G11" s="666"/>
+      <c r="E11" s="663"/>
+      <c r="F11" s="663"/>
+      <c r="G11" s="664"/>
       <c r="H11" s="152" t="s">
         <v>277</v>
       </c>
@@ -42716,12 +42788,12 @@
       <c r="C13" s="159">
         <v>0</v>
       </c>
-      <c r="D13" s="664" t="s">
+      <c r="D13" s="662" t="s">
         <v>529</v>
       </c>
-      <c r="E13" s="665"/>
-      <c r="F13" s="665"/>
-      <c r="G13" s="666"/>
+      <c r="E13" s="663"/>
+      <c r="F13" s="663"/>
+      <c r="G13" s="664"/>
       <c r="H13" s="152" t="s">
         <v>277</v>
       </c>
@@ -42971,12 +43043,12 @@
       <c r="C16" s="159">
         <v>0</v>
       </c>
-      <c r="D16" s="664" t="s">
+      <c r="D16" s="662" t="s">
         <v>538</v>
       </c>
-      <c r="E16" s="665"/>
-      <c r="F16" s="665"/>
-      <c r="G16" s="666"/>
+      <c r="E16" s="663"/>
+      <c r="F16" s="663"/>
+      <c r="G16" s="664"/>
       <c r="H16" s="151" t="s">
         <v>350</v>
       </c>
@@ -43121,12 +43193,12 @@
       <c r="C18" s="159">
         <v>0</v>
       </c>
-      <c r="D18" s="664" t="s">
+      <c r="D18" s="662" t="s">
         <v>537</v>
       </c>
-      <c r="E18" s="665"/>
-      <c r="F18" s="665"/>
-      <c r="G18" s="666"/>
+      <c r="E18" s="663"/>
+      <c r="F18" s="663"/>
+      <c r="G18" s="664"/>
       <c r="H18" s="151" t="s">
         <v>350</v>
       </c>
@@ -43200,12 +43272,12 @@
       <c r="C19" s="159">
         <v>0</v>
       </c>
-      <c r="D19" s="664" t="s">
+      <c r="D19" s="662" t="s">
         <v>537</v>
       </c>
-      <c r="E19" s="665"/>
-      <c r="F19" s="665"/>
-      <c r="G19" s="666"/>
+      <c r="E19" s="663"/>
+      <c r="F19" s="663"/>
+      <c r="G19" s="664"/>
       <c r="H19" s="152" t="s">
         <v>277</v>
       </c>
@@ -45791,6 +45863,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="O1:O4"/>
     <mergeCell ref="AD1:AI1"/>
     <mergeCell ref="P1:X1"/>
     <mergeCell ref="Y1:AB1"/>
@@ -45800,11 +45877,6 @@
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="D18:G18"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="O1:O4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H42 B32:B42 B5:B29">
